--- a/data/surveyor.xlsx
+++ b/data/surveyor.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1939" uniqueCount="1421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1944" uniqueCount="1422">
   <si>
     <t>fullname</t>
   </si>
@@ -4282,6 +4282,9 @@
   </si>
   <si>
     <t>hollins_fullname</t>
+  </si>
+  <si>
+    <t>A.BONES</t>
   </si>
 </sst>
 </file>
@@ -5122,9 +5125,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I439"/>
+  <dimension ref="A1:I440"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5725,1840 +5730,1837 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>137</v>
+        <v>1421</v>
       </c>
       <c r="B32" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C32" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="D32" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F32" t="s">
-        <v>140</v>
-      </c>
-      <c r="I32">
-        <v>26121</v>
+        <v>136</v>
+      </c>
+      <c r="H32">
+        <v>2020</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B33" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C33" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="D33" t="s">
-        <v>33</v>
+        <v>139</v>
       </c>
       <c r="F33" t="s">
-        <v>144</v>
-      </c>
-      <c r="H33">
-        <v>889</v>
+        <v>140</v>
+      </c>
+      <c r="I33">
+        <v>26121</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B34" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C34" t="s">
-        <v>37</v>
+        <v>143</v>
       </c>
       <c r="D34" t="s">
-        <v>147</v>
+        <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>148</v>
-      </c>
-      <c r="I34">
-        <v>26124</v>
+        <v>144</v>
+      </c>
+      <c r="H34">
+        <v>889</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B35" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D35" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="F35" t="s">
-        <v>151</v>
+        <v>148</v>
+      </c>
+      <c r="I35">
+        <v>26124</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B36" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C36" t="s">
-        <v>154</v>
+        <v>27</v>
       </c>
       <c r="D36" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="F36" t="s">
-        <v>156</v>
-      </c>
-      <c r="H36">
-        <v>1727</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B37" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C37" t="s">
-        <v>159</v>
+        <v>154</v>
+      </c>
+      <c r="D37" t="s">
+        <v>155</v>
       </c>
       <c r="F37" t="s">
-        <v>160</v>
+        <v>156</v>
+      </c>
+      <c r="H37">
+        <v>1727</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B38" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C38" t="s">
-        <v>163</v>
-      </c>
-      <c r="D38" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F38" t="s">
-        <v>165</v>
-      </c>
-      <c r="I38">
-        <v>20541</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B39" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C39" t="s">
-        <v>71</v>
+        <v>163</v>
       </c>
       <c r="D39" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F39" t="s">
-        <v>169</v>
-      </c>
-      <c r="H39">
-        <v>7051</v>
+        <v>165</v>
+      </c>
+      <c r="I39">
+        <v>20541</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B40" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C40" t="s">
         <v>71</v>
       </c>
       <c r="D40" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F40" t="s">
-        <v>173</v>
-      </c>
-      <c r="I40">
-        <v>28967</v>
+        <v>169</v>
+      </c>
+      <c r="H40">
+        <v>7051</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B41" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C41" t="s">
-        <v>176</v>
+        <v>71</v>
+      </c>
+      <c r="D41" t="s">
+        <v>172</v>
       </c>
       <c r="F41" t="s">
-        <v>177</v>
-      </c>
-      <c r="H41">
-        <v>2473</v>
+        <v>173</v>
+      </c>
+      <c r="I41">
+        <v>28967</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B42" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C42" t="s">
-        <v>76</v>
-      </c>
-      <c r="D42" t="s">
-        <v>117</v>
+        <v>176</v>
       </c>
       <c r="F42" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H42">
-        <v>7645</v>
-      </c>
-      <c r="I42">
-        <v>55361</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B43" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C43" t="s">
-        <v>183</v>
+        <v>76</v>
       </c>
       <c r="D43" t="s">
-        <v>184</v>
+        <v>117</v>
       </c>
       <c r="F43" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H43">
-        <v>8523</v>
+        <v>7645</v>
+      </c>
+      <c r="I43">
+        <v>55361</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B44" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C44" t="s">
-        <v>28</v>
+        <v>183</v>
+      </c>
+      <c r="D44" t="s">
+        <v>184</v>
       </c>
       <c r="F44" t="s">
-        <v>188</v>
+        <v>185</v>
+      </c>
+      <c r="H44">
+        <v>8523</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B45" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C45" t="s">
-        <v>191</v>
-      </c>
-      <c r="D45" t="s">
-        <v>192</v>
+        <v>28</v>
       </c>
       <c r="F45" t="s">
         <v>188</v>
       </c>
-      <c r="I45">
-        <v>28977</v>
-      </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B46" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C46" t="s">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="D46" t="s">
-        <v>71</v>
+        <v>192</v>
       </c>
       <c r="F46" t="s">
         <v>188</v>
       </c>
       <c r="I46">
-        <v>24293</v>
+        <v>28977</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B47" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C47" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="D47" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="F47" t="s">
-        <v>197</v>
-      </c>
-      <c r="H47">
-        <v>4206</v>
+        <v>188</v>
+      </c>
+      <c r="I47">
+        <v>24293</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B48" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C48" t="s">
-        <v>33</v>
+        <v>95</v>
+      </c>
+      <c r="D48" t="s">
+        <v>47</v>
       </c>
       <c r="F48" t="s">
-        <v>200</v>
+        <v>197</v>
+      </c>
+      <c r="H48">
+        <v>4206</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B49" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C49" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F49" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B50" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C50" t="s">
-        <v>206</v>
-      </c>
-      <c r="D50" t="s">
-        <v>207</v>
+        <v>28</v>
       </c>
       <c r="F50" t="s">
-        <v>208</v>
-      </c>
-      <c r="G50" t="s">
-        <v>209</v>
-      </c>
-      <c r="H50">
-        <v>5259</v>
+        <v>203</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B51" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C51" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D51" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F51" t="s">
-        <v>214</v>
+        <v>208</v>
+      </c>
+      <c r="G51" t="s">
+        <v>209</v>
       </c>
       <c r="H51">
-        <v>4790</v>
+        <v>5259</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B52" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C52" t="s">
-        <v>15</v>
+        <v>212</v>
+      </c>
+      <c r="D52" t="s">
+        <v>213</v>
       </c>
       <c r="F52" t="s">
-        <v>217</v>
+        <v>214</v>
+      </c>
+      <c r="H52">
+        <v>4790</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B53" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C53" t="s">
-        <v>163</v>
-      </c>
-      <c r="D53" t="s">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="F53" t="s">
-        <v>220</v>
-      </c>
-      <c r="H53">
-        <v>7207</v>
+        <v>217</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B54" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C54" t="s">
-        <v>223</v>
+        <v>163</v>
       </c>
       <c r="D54" t="s">
-        <v>62</v>
+        <v>130</v>
       </c>
       <c r="F54" t="s">
         <v>220</v>
       </c>
       <c r="H54">
-        <v>2786</v>
+        <v>7207</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B55" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C55" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="D55" t="s">
-        <v>226</v>
+        <v>62</v>
       </c>
       <c r="F55" t="s">
-        <v>227</v>
-      </c>
-      <c r="I55">
-        <v>20244</v>
+        <v>220</v>
+      </c>
+      <c r="H55">
+        <v>2786</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B56" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C56" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="D56" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F56" t="s">
         <v>227</v>
       </c>
-      <c r="H56">
-        <v>5262</v>
+      <c r="I56">
+        <v>20244</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B57" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C57" t="s">
-        <v>233</v>
+        <v>223</v>
+      </c>
+      <c r="D57" t="s">
+        <v>230</v>
       </c>
       <c r="F57" t="s">
         <v>227</v>
       </c>
+      <c r="H57">
+        <v>5262</v>
+      </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B58" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C58" t="s">
-        <v>135</v>
+        <v>233</v>
       </c>
       <c r="F58" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B59" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C59" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F59" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B60" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C60" t="s">
-        <v>163</v>
-      </c>
-      <c r="D60" t="s">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="F60" t="s">
-        <v>242</v>
-      </c>
-      <c r="I60">
-        <v>27515</v>
+        <v>239</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B61" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
+        <v>163</v>
+      </c>
+      <c r="D61" t="s">
+        <v>14</v>
       </c>
       <c r="F61" t="s">
-        <v>245</v>
+        <v>242</v>
+      </c>
+      <c r="I61">
+        <v>27515</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B62" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C62" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="F62" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B63" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C63" t="s">
-        <v>76</v>
-      </c>
-      <c r="D63" t="s">
-        <v>251</v>
+        <v>117</v>
       </c>
       <c r="F63" t="s">
-        <v>252</v>
-      </c>
-      <c r="I63">
-        <v>28465</v>
+        <v>248</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B64" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C64" t="s">
-        <v>255</v>
+        <v>76</v>
       </c>
       <c r="D64" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="F64" t="s">
-        <v>257</v>
-      </c>
-      <c r="H64">
-        <v>5043</v>
+        <v>252</v>
+      </c>
+      <c r="I64">
+        <v>28465</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B65" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C65" t="s">
-        <v>155</v>
+        <v>255</v>
+      </c>
+      <c r="D65" t="s">
+        <v>256</v>
       </c>
       <c r="F65" t="s">
         <v>257</v>
       </c>
+      <c r="H65">
+        <v>5043</v>
+      </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B66" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C66" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F66" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B67" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C67" t="s">
-        <v>91</v>
+        <v>159</v>
       </c>
       <c r="F67" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B68" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C68" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="F68" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B69" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C69" t="s">
-        <v>71</v>
-      </c>
-      <c r="D69" t="s">
-        <v>117</v>
+        <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>271</v>
-      </c>
-      <c r="H69">
-        <v>7335</v>
+        <v>268</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B70" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C70" t="s">
+        <v>71</v>
+      </c>
+      <c r="D70" t="s">
         <v>117</v>
       </c>
       <c r="F70" t="s">
-        <v>274</v>
+        <v>271</v>
+      </c>
+      <c r="H70">
+        <v>7335</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B71" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C71" t="s">
         <v>117</v>
       </c>
       <c r="F71" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B72" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C72" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="F72" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B73" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C73" t="s">
-        <v>159</v>
+        <v>27</v>
       </c>
       <c r="F73" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B74" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C74" t="s">
-        <v>286</v>
-      </c>
-      <c r="D74" t="s">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="F74" t="s">
-        <v>287</v>
-      </c>
-      <c r="I74">
-        <v>14398</v>
+        <v>283</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B75" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C75" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D75" t="s">
-        <v>291</v>
+        <v>121</v>
       </c>
       <c r="F75" t="s">
-        <v>292</v>
-      </c>
-      <c r="H75">
-        <v>3966</v>
+        <v>287</v>
+      </c>
+      <c r="I75">
+        <v>14398</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B76" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C76" t="s">
-        <v>112</v>
+        <v>290</v>
+      </c>
+      <c r="D76" t="s">
+        <v>291</v>
       </c>
       <c r="F76" t="s">
-        <v>295</v>
+        <v>292</v>
+      </c>
+      <c r="H76">
+        <v>3966</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B77" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C77" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="F77" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B78" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C78" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="F78" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B79" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C79" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="F79" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B80" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C80" t="s">
-        <v>71</v>
-      </c>
-      <c r="D80" t="s">
-        <v>117</v>
+        <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>307</v>
-      </c>
-      <c r="H80">
-        <v>4793</v>
+        <v>304</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B81" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C81" t="s">
-        <v>163</v>
+        <v>71</v>
       </c>
       <c r="D81" t="s">
-        <v>28</v>
+        <v>117</v>
       </c>
       <c r="F81" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="H81">
-        <v>7015</v>
+        <v>4793</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B82" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C82" t="s">
-        <v>76</v>
+        <v>163</v>
       </c>
       <c r="D82" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="F82" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="H82">
-        <v>4592</v>
+        <v>7015</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B83" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C83" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="D83" t="s">
-        <v>316</v>
+        <v>47</v>
       </c>
       <c r="F83" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H83">
-        <v>3340</v>
+        <v>4592</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B84" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C84" t="s">
-        <v>320</v>
+        <v>102</v>
       </c>
       <c r="D84" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F84" t="s">
         <v>317</v>
       </c>
-      <c r="I84">
-        <v>30351</v>
+      <c r="H84">
+        <v>3340</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B85" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C85" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D85" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F85" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="I85">
-        <v>21533</v>
+        <v>30351</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B86" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C86" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D86" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="F86" t="s">
-        <v>331</v>
-      </c>
-      <c r="H86">
-        <v>3621</v>
+        <v>326</v>
+      </c>
+      <c r="I86">
+        <v>21533</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B87" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C87" t="s">
-        <v>256</v>
+        <v>329</v>
+      </c>
+      <c r="D87" t="s">
+        <v>330</v>
       </c>
       <c r="F87" t="s">
-        <v>334</v>
+        <v>331</v>
+      </c>
+      <c r="H87">
+        <v>3621</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B88" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C88" t="s">
-        <v>33</v>
+        <v>256</v>
       </c>
       <c r="F88" t="s">
-        <v>147</v>
+        <v>334</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B89" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C89" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F89" t="s">
-        <v>339</v>
+        <v>147</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B90" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C90" t="s">
         <v>27</v>
       </c>
       <c r="F90" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B91" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C91" t="s">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="F91" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B92" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C92" t="s">
-        <v>47</v>
-      </c>
-      <c r="D92" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="F92" t="s">
-        <v>348</v>
-      </c>
-      <c r="I92">
-        <v>29113</v>
+        <v>345</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B93" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C93" t="s">
-        <v>54</v>
+        <v>47</v>
+      </c>
+      <c r="D93" t="s">
+        <v>71</v>
       </c>
       <c r="F93" t="s">
-        <v>351</v>
+        <v>348</v>
+      </c>
+      <c r="I93">
+        <v>29113</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B94" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C94" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="F94" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B95" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C95" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F95" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B96" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C96" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F96" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B97" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C97" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="F97" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>1412</v>
+        <v>361</v>
       </c>
       <c r="B98" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C98" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>366</v>
+        <v>1412</v>
       </c>
       <c r="B99" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C99" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="F99" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B100" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C100" t="s">
-        <v>67</v>
-      </c>
-      <c r="D100" t="s">
-        <v>163</v>
+        <v>54</v>
       </c>
       <c r="F100" t="s">
-        <v>371</v>
-      </c>
-      <c r="I100">
-        <v>22957</v>
+        <v>368</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B101" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C101" t="s">
-        <v>54</v>
+        <v>67</v>
+      </c>
+      <c r="D101" t="s">
+        <v>163</v>
       </c>
       <c r="F101" t="s">
-        <v>374</v>
+        <v>371</v>
+      </c>
+      <c r="I101">
+        <v>22957</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B102" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C102" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="F102" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B103" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C103" t="s">
-        <v>256</v>
+        <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B104" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C104" t="s">
-        <v>28</v>
+        <v>256</v>
       </c>
       <c r="F104" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B105" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C105" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="F105" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B106" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C106" t="s">
         <v>91</v>
       </c>
       <c r="F106" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B107" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C107" t="s">
-        <v>392</v>
+        <v>91</v>
       </c>
       <c r="F107" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B108" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C108" t="s">
-        <v>10</v>
+        <v>392</v>
       </c>
       <c r="F108" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B109" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C109" t="s">
-        <v>117</v>
+        <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B110" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C110" t="s">
-        <v>121</v>
-      </c>
-      <c r="D110" t="s">
-        <v>256</v>
+        <v>117</v>
       </c>
       <c r="F110" t="s">
-        <v>402</v>
-      </c>
-      <c r="I110">
-        <v>12475</v>
+        <v>399</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B111" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C111" t="s">
-        <v>27</v>
+        <v>121</v>
+      </c>
+      <c r="D111" t="s">
+        <v>256</v>
       </c>
       <c r="F111" t="s">
-        <v>405</v>
+        <v>402</v>
+      </c>
+      <c r="I111">
+        <v>12475</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B112" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C112" t="s">
         <v>27</v>
       </c>
       <c r="F112" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B113" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C113" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="F113" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B114" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C114" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="F114" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B115" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C115" t="s">
-        <v>130</v>
+        <v>27</v>
       </c>
       <c r="F115" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B116" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C116" t="s">
-        <v>420</v>
+        <v>130</v>
       </c>
       <c r="F116" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B117" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C117" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="F117" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B118" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C118" t="s">
-        <v>33</v>
+        <v>424</v>
       </c>
       <c r="F118" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B119" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C119" t="s">
-        <v>431</v>
-      </c>
-      <c r="D119" t="s">
-        <v>432</v>
+        <v>33</v>
       </c>
       <c r="F119" t="s">
-        <v>433</v>
-      </c>
-      <c r="I119">
-        <v>28493</v>
+        <v>428</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B120" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C120" t="s">
-        <v>33</v>
+        <v>431</v>
+      </c>
+      <c r="D120" t="s">
+        <v>432</v>
       </c>
       <c r="F120" t="s">
-        <v>436</v>
+        <v>433</v>
+      </c>
+      <c r="I120">
+        <v>28493</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B121" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C121" t="s">
-        <v>439</v>
-      </c>
-      <c r="D121" t="s">
-        <v>440</v>
+        <v>33</v>
       </c>
       <c r="F121" t="s">
-        <v>441</v>
-      </c>
-      <c r="H121">
-        <v>5904</v>
-      </c>
-      <c r="I121">
-        <v>36444</v>
+        <v>436</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>1413</v>
+        <v>437</v>
       </c>
       <c r="B122" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C122" t="s">
-        <v>43</v>
+        <v>439</v>
+      </c>
+      <c r="D122" t="s">
+        <v>440</v>
       </c>
       <c r="F122" t="s">
-        <v>443</v>
+        <v>441</v>
+      </c>
+      <c r="H122">
+        <v>5904</v>
+      </c>
+      <c r="I122">
+        <v>36444</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>444</v>
+        <v>1413</v>
       </c>
       <c r="B123" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C123" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F123" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>1414</v>
+        <v>444</v>
       </c>
       <c r="B124" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C124" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="F124" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B125" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C125" t="s">
-        <v>420</v>
+        <v>54</v>
       </c>
       <c r="F125" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>451</v>
+        <v>1415</v>
       </c>
       <c r="B126" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C126" t="s">
-        <v>117</v>
+        <v>420</v>
       </c>
       <c r="F126" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B127" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C127" t="s">
-        <v>456</v>
-      </c>
-      <c r="D127" t="s">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="F127" t="s">
-        <v>457</v>
-      </c>
-      <c r="I127">
-        <v>20181</v>
+        <v>453</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B128" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C128" t="s">
-        <v>15</v>
+        <v>456</v>
+      </c>
+      <c r="D128" t="s">
+        <v>47</v>
       </c>
       <c r="F128" t="s">
-        <v>460</v>
+        <v>457</v>
+      </c>
+      <c r="I128">
+        <v>20181</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B129" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C129" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="F129" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B130" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C130" t="s">
-        <v>466</v>
-      </c>
-      <c r="D130" t="s">
-        <v>456</v>
+        <v>62</v>
       </c>
       <c r="F130" t="s">
-        <v>467</v>
-      </c>
-      <c r="H130">
-        <v>7717</v>
+        <v>463</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B131" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C131" t="s">
-        <v>62</v>
+        <v>466</v>
+      </c>
+      <c r="D131" t="s">
+        <v>456</v>
       </c>
       <c r="F131" t="s">
-        <v>470</v>
+        <v>467</v>
+      </c>
+      <c r="H131">
+        <v>7717</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B132" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C132" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="F132" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B133" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C133" t="s">
-        <v>112</v>
-      </c>
-      <c r="D133" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="F133" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B134" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C134" t="s">
-        <v>479</v>
+        <v>112</v>
       </c>
       <c r="D134" t="s">
-        <v>480</v>
+        <v>43</v>
       </c>
       <c r="F134" t="s">
-        <v>481</v>
-      </c>
-      <c r="H134">
-        <v>5125</v>
-      </c>
-      <c r="I134">
-        <v>25217</v>
+        <v>476</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="B135" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="C135" t="s">
-        <v>27</v>
+        <v>479</v>
+      </c>
+      <c r="D135" t="s">
+        <v>480</v>
       </c>
       <c r="F135" t="s">
-        <v>484</v>
+        <v>481</v>
+      </c>
+      <c r="H135">
+        <v>5125</v>
+      </c>
+      <c r="I135">
+        <v>25217</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B136" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C136" t="s">
         <v>27</v>
       </c>
       <c r="F136" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B137" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C137" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="F137" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B138" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C138" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="F138" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B139" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C139" t="s">
-        <v>37</v>
-      </c>
-      <c r="D139" t="s">
-        <v>147</v>
+        <v>27</v>
       </c>
       <c r="F139" t="s">
-        <v>496</v>
-      </c>
-      <c r="H139">
-        <v>7242</v>
+        <v>493</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B140" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C140" t="s">
-        <v>499</v>
+        <v>37</v>
       </c>
       <c r="D140" t="s">
-        <v>500</v>
+        <v>147</v>
       </c>
       <c r="F140" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="H140">
-        <v>6157</v>
+        <v>7242</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="B141" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="C141" t="s">
-        <v>159</v>
+        <v>499</v>
+      </c>
+      <c r="D141" t="s">
+        <v>500</v>
       </c>
       <c r="F141" t="s">
-        <v>504</v>
+        <v>501</v>
+      </c>
+      <c r="H141">
+        <v>6157</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B142" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C142" t="s">
-        <v>507</v>
-      </c>
-      <c r="D142" t="s">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="F142" t="s">
-        <v>508</v>
-      </c>
-      <c r="G142" t="s">
-        <v>209</v>
-      </c>
-      <c r="H142">
-        <v>7541</v>
+        <v>504</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B143" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C143" t="s">
         <v>507</v>
@@ -7570,343 +7572,349 @@
         <v>508</v>
       </c>
       <c r="G143" t="s">
-        <v>511</v>
-      </c>
-      <c r="I143">
-        <v>22093</v>
+        <v>209</v>
+      </c>
+      <c r="H143">
+        <v>7541</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B144" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C144" t="s">
-        <v>424</v>
+        <v>507</v>
+      </c>
+      <c r="D144" t="s">
+        <v>121</v>
       </c>
       <c r="F144" t="s">
-        <v>514</v>
+        <v>508</v>
+      </c>
+      <c r="G144" t="s">
+        <v>511</v>
+      </c>
+      <c r="I144">
+        <v>22093</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B145" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C145" t="s">
-        <v>112</v>
+        <v>424</v>
       </c>
       <c r="F145" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B146" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C146" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="F146" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B147" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C147" t="s">
-        <v>256</v>
+        <v>54</v>
       </c>
       <c r="F147" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B148" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C148" t="s">
-        <v>526</v>
-      </c>
-      <c r="D148" t="s">
-        <v>14</v>
+        <v>256</v>
       </c>
       <c r="F148" t="s">
-        <v>527</v>
-      </c>
-      <c r="H148">
-        <v>3318</v>
+        <v>523</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="B149" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C149" t="s">
-        <v>112</v>
+        <v>526</v>
+      </c>
+      <c r="D149" t="s">
+        <v>14</v>
       </c>
       <c r="F149" t="s">
-        <v>530</v>
+        <v>527</v>
+      </c>
+      <c r="H149">
+        <v>3318</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B150" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C150" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="F150" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B151" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C151" t="s">
-        <v>163</v>
-      </c>
-      <c r="D151" t="s">
-        <v>130</v>
+        <v>27</v>
       </c>
       <c r="F151" t="s">
-        <v>536</v>
-      </c>
-      <c r="I151">
-        <v>23355</v>
+        <v>533</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B152" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C152" t="s">
-        <v>28</v>
+        <v>163</v>
+      </c>
+      <c r="D152" t="s">
+        <v>130</v>
       </c>
       <c r="F152" t="s">
-        <v>539</v>
+        <v>536</v>
+      </c>
+      <c r="I152">
+        <v>23355</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B153" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C153" t="s">
-        <v>542</v>
-      </c>
-      <c r="D153" t="s">
         <v>28</v>
       </c>
       <c r="F153" t="s">
-        <v>543</v>
-      </c>
-      <c r="G153" t="s">
-        <v>209</v>
-      </c>
-      <c r="H153">
-        <v>7245</v>
+        <v>539</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B154" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C154" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="D154" t="s">
-        <v>159</v>
+        <v>28</v>
       </c>
       <c r="F154" t="s">
-        <v>547</v>
+        <v>543</v>
+      </c>
+      <c r="G154" t="s">
+        <v>209</v>
       </c>
       <c r="H154">
-        <v>3431</v>
+        <v>7245</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B155" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C155" t="s">
-        <v>54</v>
+        <v>546</v>
+      </c>
+      <c r="D155" t="s">
+        <v>159</v>
       </c>
       <c r="F155" t="s">
-        <v>550</v>
+        <v>547</v>
+      </c>
+      <c r="H155">
+        <v>3431</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B156" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C156" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="F156" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B157" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C157" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B158" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C158" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F158" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B159" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C159" t="s">
-        <v>562</v>
-      </c>
-      <c r="D159" t="s">
-        <v>563</v>
+        <v>14</v>
       </c>
       <c r="F159" t="s">
-        <v>564</v>
-      </c>
-      <c r="H159">
-        <v>6611</v>
+        <v>559</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="B160" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="C160" t="s">
-        <v>71</v>
+        <v>562</v>
       </c>
       <c r="D160" t="s">
-        <v>91</v>
+        <v>563</v>
       </c>
       <c r="F160" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="H160">
-        <v>7683</v>
+        <v>6611</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B161" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C161" t="s">
-        <v>27</v>
+        <v>71</v>
+      </c>
+      <c r="D161" t="s">
+        <v>91</v>
       </c>
       <c r="F161" t="s">
-        <v>570</v>
+        <v>567</v>
+      </c>
+      <c r="H161">
+        <v>7683</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B162" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C162" t="s">
-        <v>107</v>
-      </c>
-      <c r="D162" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F162" t="s">
-        <v>573</v>
-      </c>
-      <c r="I162">
-        <v>7642</v>
+        <v>570</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B163" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C163" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D163" t="s">
-        <v>117</v>
+        <v>15</v>
       </c>
       <c r="F163" t="s">
-        <v>576</v>
+        <v>573</v>
+      </c>
+      <c r="I163">
+        <v>7642</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>1416</v>
+        <v>574</v>
       </c>
       <c r="B164" t="s">
         <v>575</v>
@@ -7923,137 +7931,137 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>577</v>
+        <v>1416</v>
       </c>
       <c r="B165" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C165" t="s">
-        <v>27</v>
+        <v>112</v>
+      </c>
+      <c r="D165" t="s">
+        <v>117</v>
       </c>
       <c r="F165" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B166" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C166" t="s">
         <v>27</v>
       </c>
       <c r="F166" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B167" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C167" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="F167" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B168" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C168" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="F168" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B169" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C169" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F169" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B170" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C170" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="F170" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B171" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C171" t="s">
-        <v>597</v>
-      </c>
-      <c r="D171" t="s">
-        <v>598</v>
+        <v>33</v>
       </c>
       <c r="F171" t="s">
-        <v>599</v>
-      </c>
-      <c r="H171">
-        <v>8335</v>
+        <v>594</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="B172" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="C172" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="D172" t="s">
-        <v>62</v>
+        <v>598</v>
       </c>
       <c r="F172" t="s">
-        <v>603</v>
+        <v>599</v>
+      </c>
+      <c r="H172">
+        <v>8335</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B173" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C173" t="s">
-        <v>10</v>
+        <v>602</v>
       </c>
       <c r="D173" t="s">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="F173" t="s">
         <v>603</v>
@@ -8061,276 +8069,279 @@
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B174" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C174" t="s">
-        <v>62</v>
+        <v>10</v>
+      </c>
+      <c r="D174" t="s">
+        <v>112</v>
       </c>
       <c r="F174" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B175" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C175" t="s">
-        <v>117</v>
+        <v>62</v>
       </c>
       <c r="F175" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B176" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C176" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="F176" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B177" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C177" t="s">
-        <v>617</v>
-      </c>
-      <c r="D177" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>618</v>
-      </c>
-      <c r="I177">
-        <v>5438</v>
+        <v>614</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B178" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C178" t="s">
-        <v>507</v>
+        <v>617</v>
+      </c>
+      <c r="D178" t="s">
+        <v>28</v>
       </c>
       <c r="F178" t="s">
         <v>618</v>
       </c>
-      <c r="H178">
-        <v>3254</v>
+      <c r="I178">
+        <v>5438</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B179" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C179" t="s">
-        <v>10</v>
+        <v>507</v>
       </c>
       <c r="F179" t="s">
-        <v>623</v>
+        <v>618</v>
+      </c>
+      <c r="H179">
+        <v>3254</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B180" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C180" t="s">
-        <v>117</v>
+        <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B181" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C181" t="s">
-        <v>15</v>
+        <v>117</v>
       </c>
       <c r="F181" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B182" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="C182" t="s">
-        <v>632</v>
-      </c>
-      <c r="D182" t="s">
-        <v>135</v>
+        <v>15</v>
       </c>
       <c r="F182" t="s">
         <v>629</v>
       </c>
-      <c r="H182">
-        <v>7801</v>
-      </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="B183" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C183" t="s">
-        <v>130</v>
+        <v>632</v>
+      </c>
+      <c r="D183" t="s">
+        <v>135</v>
       </c>
       <c r="F183" t="s">
-        <v>635</v>
+        <v>629</v>
+      </c>
+      <c r="H183">
+        <v>7801</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B184" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C184" t="s">
-        <v>67</v>
-      </c>
-      <c r="D184" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="F184" t="s">
         <v>635</v>
       </c>
-      <c r="H184">
-        <v>6356</v>
-      </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B185" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C185" t="s">
-        <v>640</v>
+        <v>67</v>
       </c>
       <c r="D185" t="s">
-        <v>641</v>
+        <v>121</v>
       </c>
       <c r="F185" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="H185">
-        <v>7858</v>
+        <v>6356</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="B186" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="C186" t="s">
-        <v>420</v>
+        <v>640</v>
+      </c>
+      <c r="D186" t="s">
+        <v>641</v>
       </c>
       <c r="F186" t="s">
-        <v>95</v>
+        <v>642</v>
+      </c>
+      <c r="H186">
+        <v>7858</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B187" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C187" t="s">
-        <v>647</v>
-      </c>
-      <c r="D187" t="s">
-        <v>648</v>
+        <v>420</v>
       </c>
       <c r="F187" t="s">
-        <v>649</v>
-      </c>
-      <c r="I187">
-        <v>24779</v>
+        <v>95</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="B188" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="C188" t="s">
-        <v>466</v>
+        <v>647</v>
       </c>
       <c r="D188" t="s">
-        <v>147</v>
+        <v>648</v>
       </c>
       <c r="F188" t="s">
-        <v>652</v>
-      </c>
-      <c r="H188">
-        <v>4570</v>
+        <v>649</v>
+      </c>
+      <c r="I188">
+        <v>24779</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B189" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C189" t="s">
-        <v>54</v>
+        <v>466</v>
+      </c>
+      <c r="D189" t="s">
+        <v>147</v>
       </c>
       <c r="F189" t="s">
-        <v>655</v>
+        <v>652</v>
+      </c>
+      <c r="H189">
+        <v>4570</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="B190" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C190" t="s">
-        <v>117</v>
+        <v>54</v>
       </c>
       <c r="F190" t="s">
         <v>655</v>
@@ -8338,69 +8349,69 @@
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B191" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C191" t="s">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="F191" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="B192" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C192" t="s">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c r="F192" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="B193" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="C193" t="s">
-        <v>256</v>
+        <v>117</v>
       </c>
       <c r="F193" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="B194" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C194" t="s">
-        <v>112</v>
+        <v>256</v>
       </c>
       <c r="F194" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="B195" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C195" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="F195" t="s">
         <v>669</v>
@@ -8408,284 +8419,275 @@
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B196" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C196" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="F196" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="B197" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="C197" t="s">
-        <v>677</v>
-      </c>
-      <c r="D197" t="s">
-        <v>678</v>
+        <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>679</v>
-      </c>
-      <c r="H197">
-        <v>8153</v>
+        <v>674</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="B198" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="C198" t="s">
-        <v>33</v>
+        <v>677</v>
+      </c>
+      <c r="D198" t="s">
+        <v>678</v>
       </c>
       <c r="F198" t="s">
-        <v>682</v>
+        <v>679</v>
+      </c>
+      <c r="H198">
+        <v>8153</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="B199" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="C199" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="F199" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="B200" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="C200" t="s">
-        <v>117</v>
+        <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B201" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="C201" t="s">
-        <v>47</v>
-      </c>
-      <c r="D201" t="s">
-        <v>456</v>
+        <v>117</v>
       </c>
       <c r="F201" t="s">
-        <v>691</v>
-      </c>
-      <c r="I201">
-        <v>18584</v>
+        <v>688</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="B202" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="C202" t="s">
-        <v>694</v>
+        <v>47</v>
       </c>
       <c r="D202" t="s">
-        <v>695</v>
+        <v>456</v>
       </c>
       <c r="F202" t="s">
-        <v>696</v>
-      </c>
-      <c r="H202">
-        <v>6621</v>
+        <v>691</v>
+      </c>
+      <c r="I202">
+        <v>18584</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="B203" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="C203" t="s">
-        <v>324</v>
+        <v>694</v>
       </c>
       <c r="D203" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="F203" t="s">
         <v>696</v>
       </c>
       <c r="H203">
-        <v>9194</v>
+        <v>6621</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="B204" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C204" t="s">
-        <v>33</v>
+        <v>324</v>
+      </c>
+      <c r="D204" t="s">
+        <v>699</v>
       </c>
       <c r="F204" t="s">
         <v>696</v>
       </c>
+      <c r="H204">
+        <v>9194</v>
+      </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B205" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C205" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="F205" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="B206" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="C206" t="s">
-        <v>256</v>
+        <v>91</v>
       </c>
       <c r="F206" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="B207" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="C207" t="s">
-        <v>14</v>
+        <v>256</v>
       </c>
       <c r="F207" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="B208" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="C208" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F208" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="B209" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="C209" t="s">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="F209" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="B210" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="C210" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="F210" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="B211" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C211" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="F211" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="B212" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="C212" t="s">
-        <v>602</v>
-      </c>
-      <c r="D212" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>725</v>
-      </c>
-      <c r="H212">
-        <v>764</v>
-      </c>
-      <c r="I212">
-        <v>220</v>
+        <v>722</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="B213" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="C213" t="s">
-        <v>728</v>
+        <v>602</v>
       </c>
       <c r="D213" t="s">
         <v>62</v>
@@ -8694,160 +8696,163 @@
         <v>725</v>
       </c>
       <c r="H213">
-        <v>2820</v>
+        <v>764</v>
+      </c>
+      <c r="I213">
+        <v>220</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="B214" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C214" t="s">
-        <v>76</v>
+        <v>728</v>
       </c>
       <c r="D214" t="s">
-        <v>448</v>
+        <v>62</v>
       </c>
       <c r="F214" t="s">
         <v>725</v>
       </c>
-      <c r="I214">
-        <v>11005</v>
+      <c r="H214">
+        <v>2820</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B215" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="C215" t="s">
-        <v>33</v>
+        <v>76</v>
+      </c>
+      <c r="D215" t="s">
+        <v>448</v>
       </c>
       <c r="F215" t="s">
-        <v>733</v>
+        <v>725</v>
+      </c>
+      <c r="I215">
+        <v>11005</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="B216" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="C216" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F216" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="B217" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="C217" t="s">
-        <v>76</v>
-      </c>
-      <c r="D217" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="F217" t="s">
-        <v>739</v>
-      </c>
-      <c r="H217">
-        <v>2808</v>
+        <v>736</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="B218" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="C218" t="s">
-        <v>742</v>
+        <v>76</v>
       </c>
       <c r="D218" t="s">
-        <v>743</v>
+        <v>62</v>
       </c>
       <c r="F218" t="s">
-        <v>744</v>
-      </c>
-      <c r="I218">
-        <v>20758</v>
+        <v>739</v>
+      </c>
+      <c r="H218">
+        <v>2808</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="B219" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="C219" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="D219" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="F219" t="s">
-        <v>749</v>
-      </c>
-      <c r="H219">
-        <v>7938</v>
+        <v>744</v>
+      </c>
+      <c r="I219">
+        <v>20758</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="B220" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="C220" t="s">
-        <v>424</v>
+        <v>747</v>
+      </c>
+      <c r="D220" t="s">
+        <v>748</v>
       </c>
       <c r="F220" t="s">
         <v>749</v>
       </c>
+      <c r="H220">
+        <v>7938</v>
+      </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B221" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C221" t="s">
-        <v>754</v>
-      </c>
-      <c r="D221" t="s">
-        <v>755</v>
+        <v>424</v>
       </c>
       <c r="F221" t="s">
-        <v>756</v>
-      </c>
-      <c r="H221">
-        <v>5677</v>
+        <v>749</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="B222" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="C222" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="D222" t="s">
         <v>755</v>
@@ -8856,151 +8861,151 @@
         <v>756</v>
       </c>
       <c r="H222">
-        <v>8152</v>
+        <v>5677</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="B223" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="C223" t="s">
-        <v>286</v>
+        <v>759</v>
       </c>
       <c r="D223" t="s">
-        <v>456</v>
+        <v>755</v>
       </c>
       <c r="F223" t="s">
-        <v>762</v>
-      </c>
-      <c r="I223">
-        <v>11950</v>
+        <v>756</v>
+      </c>
+      <c r="H223">
+        <v>8152</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="B224" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="C224" t="s">
-        <v>14</v>
+        <v>286</v>
+      </c>
+      <c r="D224" t="s">
+        <v>456</v>
       </c>
       <c r="F224" t="s">
-        <v>765</v>
+        <v>762</v>
+      </c>
+      <c r="I224">
+        <v>11950</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="B225" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="C225" t="s">
-        <v>768</v>
+        <v>14</v>
       </c>
       <c r="F225" t="s">
-        <v>769</v>
-      </c>
-      <c r="I225">
-        <v>8374</v>
+        <v>765</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="B226" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="C226" t="s">
-        <v>772</v>
-      </c>
-      <c r="D226" t="s">
-        <v>290</v>
+        <v>768</v>
       </c>
       <c r="F226" t="s">
-        <v>773</v>
-      </c>
-      <c r="H226">
-        <v>4264</v>
+        <v>769</v>
+      </c>
+      <c r="I226">
+        <v>8374</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="B227" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="C227" t="s">
-        <v>33</v>
+        <v>772</v>
+      </c>
+      <c r="D227" t="s">
+        <v>290</v>
       </c>
       <c r="F227" t="s">
-        <v>776</v>
+        <v>773</v>
+      </c>
+      <c r="H227">
+        <v>4264</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="B228" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="C228" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="F228" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="B229" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="C229" t="s">
-        <v>782</v>
-      </c>
-      <c r="D229" t="s">
-        <v>159</v>
+        <v>62</v>
       </c>
       <c r="F229" t="s">
-        <v>783</v>
-      </c>
-      <c r="I229">
-        <v>1754</v>
+        <v>779</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="B230" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="C230" t="s">
-        <v>14</v>
+        <v>782</v>
       </c>
       <c r="D230" t="s">
-        <v>786</v>
+        <v>159</v>
       </c>
       <c r="F230" t="s">
-        <v>787</v>
-      </c>
-      <c r="H230">
-        <v>4946</v>
+        <v>783</v>
+      </c>
+      <c r="I230">
+        <v>1754</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="B231" t="s">
         <v>785</v>
@@ -9020,83 +9025,89 @@
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B232" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="C232" t="s">
-        <v>112</v>
+        <v>14</v>
+      </c>
+      <c r="D232" t="s">
+        <v>786</v>
       </c>
       <c r="F232" t="s">
-        <v>791</v>
+        <v>787</v>
+      </c>
+      <c r="H232">
+        <v>4946</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B233" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="C233" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="F233" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="B234" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="C234" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="F234" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="B235" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="C235" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="B236" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="C236" t="s">
-        <v>62</v>
+        <v>130</v>
       </c>
       <c r="F236" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="B237" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="C237" t="s">
-        <v>159</v>
+        <v>62</v>
       </c>
       <c r="F237" t="s">
         <v>803</v>
@@ -9104,13 +9115,13 @@
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B238" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C238" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="F238" t="s">
         <v>803</v>
@@ -9118,13 +9129,13 @@
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B239" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C239" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="F239" t="s">
         <v>803</v>
@@ -9132,13 +9143,13 @@
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B240" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C240" t="s">
-        <v>117</v>
+        <v>10</v>
       </c>
       <c r="F240" t="s">
         <v>803</v>
@@ -9146,185 +9157,185 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B241" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C241" t="s">
         <v>117</v>
       </c>
       <c r="F241" t="s">
-        <v>814</v>
+        <v>803</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="B242" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="C242" t="s">
-        <v>817</v>
+        <v>117</v>
       </c>
       <c r="F242" t="s">
-        <v>818</v>
-      </c>
-      <c r="H242">
-        <v>6632</v>
+        <v>814</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="B243" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="C243" t="s">
-        <v>28</v>
+        <v>817</v>
       </c>
       <c r="F243" t="s">
-        <v>821</v>
+        <v>818</v>
+      </c>
+      <c r="H243">
+        <v>6632</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="B244" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="C244" t="s">
-        <v>824</v>
-      </c>
-      <c r="D244" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="F244" t="s">
-        <v>825</v>
-      </c>
-      <c r="H244">
-        <v>8826</v>
+        <v>821</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="B245" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="C245" t="s">
-        <v>14</v>
+        <v>824</v>
+      </c>
+      <c r="D245" t="s">
+        <v>91</v>
       </c>
       <c r="F245" t="s">
-        <v>828</v>
+        <v>825</v>
+      </c>
+      <c r="H245">
+        <v>8826</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="B246" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="C246" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="F246" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="B247" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="C247" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="F247" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="B248" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="C248" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="F248" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="B249" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C249" t="s">
-        <v>526</v>
-      </c>
-      <c r="D249" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F249" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="B250" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="C250" t="s">
-        <v>71</v>
+        <v>526</v>
       </c>
       <c r="D250" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="F250" t="s">
-        <v>843</v>
-      </c>
-      <c r="H250">
-        <v>4602</v>
+        <v>840</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="B251" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="C251" t="s">
-        <v>54</v>
+        <v>71</v>
+      </c>
+      <c r="D251" t="s">
+        <v>76</v>
       </c>
       <c r="F251" t="s">
-        <v>846</v>
+        <v>843</v>
+      </c>
+      <c r="H251">
+        <v>4602</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B252" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="C252" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="F252" t="s">
         <v>846</v>
@@ -9332,69 +9343,69 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B253" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C253" t="s">
         <v>27</v>
       </c>
       <c r="F253" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="B254" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="C254" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="F254" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="B255" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="C255" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="F255" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="B256" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="C256" t="s">
-        <v>159</v>
+        <v>27</v>
       </c>
       <c r="F256" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="B257" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="C257" t="s">
-        <v>27</v>
+        <v>159</v>
       </c>
       <c r="F257" t="s">
         <v>860</v>
@@ -9402,159 +9413,159 @@
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B258" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="C258" t="s">
         <v>27</v>
       </c>
       <c r="F258" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="B259" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="C259" t="s">
-        <v>67</v>
-      </c>
-      <c r="D259" t="s">
-        <v>867</v>
+        <v>27</v>
       </c>
       <c r="F259" t="s">
-        <v>868</v>
-      </c>
-      <c r="H259">
-        <v>3945</v>
+        <v>865</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B260" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="C260" t="s">
-        <v>91</v>
+        <v>67</v>
+      </c>
+      <c r="D260" t="s">
+        <v>867</v>
       </c>
       <c r="F260" t="s">
-        <v>872</v>
+        <v>868</v>
+      </c>
+      <c r="H260">
+        <v>3945</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="B261" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="C261" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="F261" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="B262" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="C262" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F262" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="B263" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C263" t="s">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="F263" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B264" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="C264" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="F264" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="B265" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="C265" t="s">
-        <v>159</v>
+        <v>14</v>
       </c>
       <c r="F265" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="B266" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="C266" t="s">
-        <v>117</v>
+        <v>159</v>
       </c>
       <c r="F266" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="B267" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="C267" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="F267" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="B268" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="C268" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F268" t="s">
         <v>893</v>
@@ -9562,919 +9573,919 @@
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="B269" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="C269" t="s">
-        <v>900</v>
-      </c>
-      <c r="D269" t="s">
-        <v>213</v>
+        <v>27</v>
       </c>
       <c r="F269" t="s">
-        <v>897</v>
-      </c>
-      <c r="I269">
-        <v>30688</v>
+        <v>893</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="B270" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="C270" t="s">
-        <v>130</v>
+        <v>900</v>
+      </c>
+      <c r="D270" t="s">
+        <v>213</v>
       </c>
       <c r="F270" t="s">
         <v>897</v>
       </c>
+      <c r="I270">
+        <v>30688</v>
+      </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B271" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="C271" t="s">
-        <v>67</v>
-      </c>
-      <c r="D271" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="F271" t="s">
         <v>897</v>
       </c>
-      <c r="H271">
-        <v>5160</v>
-      </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B272" t="s">
-        <v>905</v>
+        <v>896</v>
       </c>
       <c r="C272" t="s">
-        <v>62</v>
+        <v>67</v>
+      </c>
+      <c r="D272" t="s">
+        <v>121</v>
       </c>
       <c r="F272" t="s">
-        <v>906</v>
+        <v>897</v>
+      </c>
+      <c r="H272">
+        <v>5160</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="B273" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="C273" t="s">
-        <v>909</v>
-      </c>
-      <c r="D273" t="s">
-        <v>910</v>
+        <v>62</v>
       </c>
       <c r="F273" t="s">
-        <v>911</v>
-      </c>
-      <c r="H273">
-        <v>6191</v>
+        <v>906</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="B274" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="C274" t="s">
-        <v>256</v>
+        <v>909</v>
+      </c>
+      <c r="D274" t="s">
+        <v>910</v>
       </c>
       <c r="F274" t="s">
-        <v>914</v>
+        <v>911</v>
+      </c>
+      <c r="H274">
+        <v>6191</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="B275" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="C275" t="s">
-        <v>117</v>
+        <v>256</v>
       </c>
       <c r="F275" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="B276" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="C276" t="s">
-        <v>121</v>
-      </c>
-      <c r="D276" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="F276" t="s">
-        <v>920</v>
-      </c>
-      <c r="I276">
-        <v>19203</v>
+        <v>917</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="B277" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="C277" t="s">
         <v>121</v>
       </c>
       <c r="D277" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="F277" t="s">
         <v>920</v>
       </c>
+      <c r="I277">
+        <v>19203</v>
+      </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B278" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="C278" t="s">
-        <v>117</v>
+        <v>121</v>
+      </c>
+      <c r="D278" t="s">
+        <v>33</v>
       </c>
       <c r="F278" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="B279" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="C279" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="F279" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="B280" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="C280" t="s">
-        <v>330</v>
-      </c>
-      <c r="D280" t="s">
-        <v>931</v>
+        <v>159</v>
       </c>
       <c r="F280" t="s">
-        <v>932</v>
-      </c>
-      <c r="H280">
-        <v>5164</v>
+        <v>928</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="B281" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="C281" t="s">
-        <v>27</v>
+        <v>330</v>
+      </c>
+      <c r="D281" t="s">
+        <v>931</v>
       </c>
       <c r="F281" t="s">
         <v>932</v>
       </c>
+      <c r="H281">
+        <v>5164</v>
+      </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="B282" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="C282" t="s">
-        <v>324</v>
-      </c>
-      <c r="D282" t="s">
-        <v>937</v>
+        <v>27</v>
       </c>
       <c r="F282" t="s">
         <v>932</v>
       </c>
-      <c r="I282">
-        <v>31998</v>
-      </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="B283" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="C283" t="s">
-        <v>940</v>
+        <v>324</v>
       </c>
       <c r="D283" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="F283" t="s">
-        <v>942</v>
+        <v>932</v>
       </c>
       <c r="I283">
-        <v>25681</v>
+        <v>31998</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="B284" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="C284" t="s">
-        <v>112</v>
+        <v>940</v>
+      </c>
+      <c r="D284" t="s">
+        <v>941</v>
       </c>
       <c r="F284" t="s">
-        <v>945</v>
+        <v>942</v>
+      </c>
+      <c r="I284">
+        <v>25681</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="B285" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="C285" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="F285" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="B286" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="C286" t="s">
-        <v>66</v>
-      </c>
-      <c r="D286" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F286" t="s">
-        <v>951</v>
-      </c>
-      <c r="H286">
-        <v>3150</v>
+        <v>948</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="B287" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="C287" t="s">
+        <v>66</v>
+      </c>
+      <c r="D287" t="s">
         <v>62</v>
       </c>
       <c r="F287" t="s">
-        <v>954</v>
+        <v>951</v>
+      </c>
+      <c r="H287">
+        <v>3150</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>962</v>
+        <v>952</v>
       </c>
       <c r="B288" t="s">
-        <v>963</v>
+        <v>953</v>
       </c>
       <c r="C288" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="F288" t="s">
-        <v>964</v>
+        <v>954</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>955</v>
+        <v>962</v>
       </c>
       <c r="B289" t="s">
-        <v>956</v>
+        <v>963</v>
       </c>
       <c r="C289" t="s">
-        <v>67</v>
-      </c>
-      <c r="D289" t="s">
-        <v>772</v>
+        <v>10</v>
       </c>
       <c r="F289" t="s">
-        <v>957</v>
-      </c>
-      <c r="H289">
-        <v>4829</v>
+        <v>964</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>965</v>
+        <v>955</v>
       </c>
       <c r="B290" t="s">
-        <v>966</v>
+        <v>956</v>
       </c>
       <c r="C290" t="s">
-        <v>27</v>
+        <v>67</v>
+      </c>
+      <c r="D290" t="s">
+        <v>772</v>
       </c>
       <c r="F290" t="s">
-        <v>967</v>
+        <v>957</v>
+      </c>
+      <c r="H290">
+        <v>4829</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="B291" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="C291" t="s">
-        <v>121</v>
-      </c>
-      <c r="D291" t="s">
-        <v>970</v>
+        <v>27</v>
       </c>
       <c r="F291" t="s">
-        <v>971</v>
-      </c>
-      <c r="H291">
-        <v>3115</v>
+        <v>967</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="B292" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="C292" t="s">
-        <v>130</v>
+        <v>121</v>
+      </c>
+      <c r="D292" t="s">
+        <v>970</v>
       </c>
       <c r="F292" t="s">
         <v>971</v>
       </c>
+      <c r="H292">
+        <v>3115</v>
+      </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B293" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="C293" t="s">
-        <v>324</v>
-      </c>
-      <c r="D293" t="s">
-        <v>71</v>
+        <v>130</v>
       </c>
       <c r="F293" t="s">
-        <v>976</v>
-      </c>
-      <c r="G293" t="s">
-        <v>209</v>
-      </c>
-      <c r="H293">
-        <v>4446</v>
-      </c>
-      <c r="I293">
-        <v>28556</v>
+        <v>971</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>958</v>
+        <v>974</v>
       </c>
       <c r="B294" t="s">
-        <v>959</v>
+        <v>975</v>
       </c>
       <c r="C294" t="s">
-        <v>960</v>
+        <v>324</v>
       </c>
       <c r="D294" t="s">
         <v>71</v>
       </c>
       <c r="F294" t="s">
-        <v>961</v>
+        <v>976</v>
+      </c>
+      <c r="G294" t="s">
+        <v>209</v>
       </c>
       <c r="H294">
-        <v>9348</v>
+        <v>4446</v>
+      </c>
+      <c r="I294">
+        <v>28556</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>977</v>
+        <v>958</v>
       </c>
       <c r="B295" t="s">
-        <v>978</v>
+        <v>959</v>
       </c>
       <c r="C295" t="s">
-        <v>648</v>
+        <v>960</v>
       </c>
       <c r="D295" t="s">
-        <v>979</v>
+        <v>71</v>
       </c>
       <c r="F295" t="s">
-        <v>980</v>
+        <v>961</v>
       </c>
       <c r="H295">
-        <v>3678</v>
-      </c>
-      <c r="I295">
-        <v>29557</v>
+        <v>9348</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="B296" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="C296" t="s">
-        <v>424</v>
+        <v>648</v>
+      </c>
+      <c r="D296" t="s">
+        <v>979</v>
       </c>
       <c r="F296" t="s">
-        <v>983</v>
+        <v>980</v>
+      </c>
+      <c r="H296">
+        <v>3678</v>
+      </c>
+      <c r="I296">
+        <v>29557</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="B297" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="C297" t="s">
-        <v>155</v>
+        <v>424</v>
       </c>
       <c r="F297" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="B298" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="C298" t="s">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="F298" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="B299" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="C299" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="F299" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="B300" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="C300" t="s">
-        <v>995</v>
-      </c>
-      <c r="D300" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="F300" t="s">
-        <v>996</v>
-      </c>
-      <c r="I300">
-        <v>12155</v>
+        <v>992</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="B301" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="C301" t="s">
-        <v>159</v>
+        <v>995</v>
+      </c>
+      <c r="D301" t="s">
+        <v>135</v>
       </c>
       <c r="F301" t="s">
-        <v>999</v>
+        <v>996</v>
+      </c>
+      <c r="I301">
+        <v>12155</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="B302" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="C302" t="s">
-        <v>1002</v>
-      </c>
-      <c r="D302" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="F302" t="s">
-        <v>1003</v>
-      </c>
-      <c r="H302">
-        <v>2561</v>
+        <v>999</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="B303" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="C303" t="s">
-        <v>10</v>
+        <v>1002</v>
+      </c>
+      <c r="D303" t="s">
+        <v>112</v>
       </c>
       <c r="F303" t="s">
-        <v>1006</v>
+        <v>1003</v>
+      </c>
+      <c r="H303">
+        <v>2561</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="B304" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="C304" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F304" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="B305" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="C305" t="s">
         <v>28</v>
       </c>
       <c r="F305" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="B306" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="C306" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F306" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="B307" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="C307" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="F307" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="B308" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="C308" t="s">
-        <v>191</v>
-      </c>
-      <c r="D308" t="s">
-        <v>1021</v>
+        <v>27</v>
       </c>
       <c r="F308" t="s">
-        <v>1022</v>
-      </c>
-      <c r="H308">
-        <v>8662</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="B309" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="C309" t="s">
-        <v>1025</v>
+        <v>191</v>
       </c>
       <c r="D309" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="F309" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="H309">
-        <v>9153</v>
-      </c>
-      <c r="I309">
-        <v>62665</v>
+        <v>8662</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>1030</v>
+        <v>1023</v>
       </c>
       <c r="B310" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="C310" t="s">
-        <v>67</v>
+        <v>1025</v>
       </c>
       <c r="D310" t="s">
-        <v>163</v>
+        <v>1026</v>
       </c>
       <c r="F310" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="H310">
-        <v>7793</v>
+        <v>9153</v>
+      </c>
+      <c r="I310">
+        <v>62665</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B311" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="C311" t="s">
-        <v>1033</v>
+        <v>67</v>
       </c>
       <c r="D311" t="s">
-        <v>772</v>
+        <v>163</v>
       </c>
       <c r="F311" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="H311">
-        <v>5009</v>
+        <v>7793</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="B312" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="C312" t="s">
-        <v>27</v>
+        <v>1033</v>
+      </c>
+      <c r="D312" t="s">
+        <v>772</v>
       </c>
       <c r="F312" t="s">
-        <v>1037</v>
+        <v>1034</v>
+      </c>
+      <c r="H312">
+        <v>5009</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="B313" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="C313" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="F313" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>1417</v>
+        <v>1038</v>
       </c>
       <c r="B314" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="C314" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="F314" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>1043</v>
+        <v>1417</v>
       </c>
       <c r="B315" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="C315" t="s">
-        <v>648</v>
-      </c>
-      <c r="D315" t="s">
-        <v>694</v>
+        <v>28</v>
       </c>
       <c r="F315" t="s">
-        <v>1045</v>
-      </c>
-      <c r="I315">
-        <v>21908</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="B316" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="C316" t="s">
-        <v>159</v>
+        <v>648</v>
+      </c>
+      <c r="D316" t="s">
+        <v>694</v>
       </c>
       <c r="F316" t="s">
-        <v>1048</v>
+        <v>1045</v>
+      </c>
+      <c r="I316">
+        <v>21908</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="B317" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="C317" t="s">
-        <v>102</v>
-      </c>
-      <c r="D317" t="s">
-        <v>1051</v>
+        <v>159</v>
       </c>
       <c r="F317" t="s">
-        <v>1052</v>
-      </c>
-      <c r="H317">
-        <v>4894</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="B318" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="C318" t="s">
-        <v>256</v>
+        <v>102</v>
+      </c>
+      <c r="D318" t="s">
+        <v>1051</v>
       </c>
       <c r="F318" t="s">
-        <v>1055</v>
+        <v>1052</v>
+      </c>
+      <c r="H318">
+        <v>4894</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="B319" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="C319" t="s">
         <v>256</v>
       </c>
       <c r="F319" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="B320" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="C320" t="s">
-        <v>91</v>
+        <v>256</v>
       </c>
       <c r="F320" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="B321" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="C321" t="s">
-        <v>111</v>
-      </c>
-      <c r="D321" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="F321" t="s">
-        <v>1064</v>
-      </c>
-      <c r="G321" t="s">
-        <v>209</v>
-      </c>
-      <c r="I321">
-        <v>7885</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="B322" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="C322" t="s">
-        <v>62</v>
+        <v>111</v>
+      </c>
+      <c r="D322" t="s">
+        <v>33</v>
       </c>
       <c r="F322" t="s">
-        <v>1067</v>
+        <v>1064</v>
+      </c>
+      <c r="G322" t="s">
+        <v>209</v>
+      </c>
+      <c r="I322">
+        <v>7885</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="B323" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="C323" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="F323" t="s">
         <v>1067</v>
@@ -10482,724 +10493,721 @@
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="B324" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="C324" t="s">
-        <v>76</v>
-      </c>
-      <c r="D324" t="s">
-        <v>1072</v>
+        <v>14</v>
       </c>
       <c r="F324" t="s">
         <v>1067</v>
       </c>
-      <c r="H324">
-        <v>4389</v>
-      </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="B325" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="C325" t="s">
-        <v>1075</v>
+        <v>76</v>
       </c>
       <c r="D325" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="F325" t="s">
-        <v>1077</v>
+        <v>1067</v>
       </c>
       <c r="H325">
-        <v>4322</v>
+        <v>4389</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="B326" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="C326" t="s">
-        <v>130</v>
+        <v>1075</v>
+      </c>
+      <c r="D326" t="s">
+        <v>1076</v>
       </c>
       <c r="F326" t="s">
         <v>1077</v>
       </c>
+      <c r="H326">
+        <v>4322</v>
+      </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="B327" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="C327" t="s">
-        <v>117</v>
-      </c>
-      <c r="D327" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F327" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="B328" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="C328" t="s">
         <v>117</v>
       </c>
+      <c r="D328" t="s">
+        <v>135</v>
+      </c>
       <c r="F328" t="s">
         <v>1082</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="B329" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="C329" t="s">
-        <v>226</v>
-      </c>
-      <c r="D329" t="s">
-        <v>1075</v>
+        <v>117</v>
       </c>
       <c r="F329" t="s">
-        <v>1087</v>
-      </c>
-      <c r="H329">
-        <v>3596</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="B330" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="C330" t="s">
-        <v>330</v>
+        <v>226</v>
       </c>
       <c r="D330" t="s">
-        <v>213</v>
+        <v>1075</v>
       </c>
       <c r="F330" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="H330">
-        <v>5504</v>
-      </c>
-      <c r="I330">
-        <v>35379</v>
+        <v>3596</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="B331" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="C331" t="s">
-        <v>456</v>
+        <v>330</v>
       </c>
       <c r="D331" t="s">
-        <v>91</v>
+        <v>213</v>
       </c>
       <c r="F331" t="s">
-        <v>1093</v>
+        <v>1090</v>
+      </c>
+      <c r="H331">
+        <v>5504</v>
       </c>
       <c r="I331">
-        <v>9157</v>
+        <v>35379</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="B332" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C332" t="s">
-        <v>1096</v>
+        <v>456</v>
       </c>
       <c r="D332" t="s">
-        <v>135</v>
+        <v>91</v>
       </c>
       <c r="F332" t="s">
         <v>1093</v>
       </c>
       <c r="I332">
-        <v>4588</v>
+        <v>9157</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="B333" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="C333" t="s">
-        <v>10</v>
+        <v>1096</v>
+      </c>
+      <c r="D333" t="s">
+        <v>135</v>
       </c>
       <c r="F333" t="s">
-        <v>1099</v>
+        <v>1093</v>
+      </c>
+      <c r="I333">
+        <v>4588</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="B334" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="C334" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="F334" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="B335" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="C335" t="s">
-        <v>163</v>
-      </c>
-      <c r="D335" t="s">
-        <v>71</v>
+        <v>159</v>
       </c>
       <c r="F335" t="s">
-        <v>1105</v>
-      </c>
-      <c r="H335">
-        <v>6212</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="B336" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="C336" t="s">
-        <v>255</v>
+        <v>163</v>
       </c>
       <c r="D336" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F336" t="s">
         <v>1105</v>
       </c>
-      <c r="I336">
-        <v>32143</v>
+      <c r="H336">
+        <v>6212</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="B337" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="C337" t="s">
-        <v>27</v>
+        <v>255</v>
+      </c>
+      <c r="D337" t="s">
+        <v>67</v>
       </c>
       <c r="F337" t="s">
         <v>1105</v>
       </c>
+      <c r="I337">
+        <v>32143</v>
+      </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="B338" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="C338" t="s">
-        <v>1112</v>
-      </c>
-      <c r="D338" t="s">
-        <v>1113</v>
+        <v>27</v>
       </c>
       <c r="F338" t="s">
-        <v>1114</v>
-      </c>
-      <c r="H338">
-        <v>8063</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>1115</v>
+        <v>1110</v>
       </c>
       <c r="B339" t="s">
-        <v>1116</v>
+        <v>1111</v>
       </c>
       <c r="C339" t="s">
-        <v>1117</v>
+        <v>1112</v>
       </c>
       <c r="D339" t="s">
-        <v>960</v>
+        <v>1113</v>
       </c>
       <c r="F339" t="s">
         <v>1114</v>
       </c>
       <c r="H339">
-        <v>8391</v>
+        <v>8063</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="B340" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="C340" t="s">
-        <v>67</v>
+        <v>1117</v>
       </c>
       <c r="D340" t="s">
-        <v>1120</v>
+        <v>960</v>
       </c>
       <c r="F340" t="s">
-        <v>1121</v>
-      </c>
-      <c r="I340">
-        <v>30850</v>
+        <v>1114</v>
+      </c>
+      <c r="H340">
+        <v>8391</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="B341" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="C341" t="s">
-        <v>10</v>
+        <v>67</v>
+      </c>
+      <c r="D341" t="s">
+        <v>1120</v>
       </c>
       <c r="F341" t="s">
-        <v>1124</v>
+        <v>1121</v>
+      </c>
+      <c r="I341">
+        <v>30850</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="B342" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="C342" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F342" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="B343" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="C343" t="s">
-        <v>772</v>
-      </c>
-      <c r="D343" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F343" t="s">
-        <v>1130</v>
-      </c>
-      <c r="H343">
-        <v>3089</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="B344" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="C344" t="s">
-        <v>507</v>
+        <v>772</v>
+      </c>
+      <c r="D344" t="s">
+        <v>27</v>
       </c>
       <c r="F344" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="H344">
-        <v>3797</v>
-      </c>
-      <c r="I344">
-        <v>25283</v>
+        <v>3089</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="B345" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="C345" t="s">
-        <v>1418</v>
-      </c>
-      <c r="D345" t="s">
-        <v>28</v>
+        <v>507</v>
       </c>
       <c r="F345" t="s">
         <v>1133</v>
       </c>
       <c r="H345">
-        <v>7969</v>
+        <v>3797</v>
+      </c>
+      <c r="I345">
+        <v>25283</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="B346" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="C346" t="s">
-        <v>27</v>
+        <v>1418</v>
+      </c>
+      <c r="D346" t="s">
+        <v>28</v>
       </c>
       <c r="F346" t="s">
-        <v>1138</v>
+        <v>1133</v>
+      </c>
+      <c r="H346">
+        <v>7969</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="B347" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="C347" t="s">
-        <v>256</v>
+        <v>27</v>
       </c>
       <c r="F347" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="B348" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="C348" t="s">
-        <v>163</v>
-      </c>
-      <c r="D348" t="s">
-        <v>1144</v>
+        <v>256</v>
       </c>
       <c r="F348" t="s">
-        <v>1145</v>
-      </c>
-      <c r="I348">
-        <v>27285</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="B349" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="C349" t="s">
-        <v>424</v>
+        <v>163</v>
+      </c>
+      <c r="D349" t="s">
+        <v>1144</v>
       </c>
       <c r="F349" t="s">
-        <v>1148</v>
+        <v>1145</v>
+      </c>
+      <c r="I349">
+        <v>27285</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="B350" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="C350" t="s">
-        <v>130</v>
+        <v>424</v>
       </c>
       <c r="F350" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="B351" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="C351" t="s">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="F351" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="B352" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="C352" t="s">
-        <v>121</v>
-      </c>
-      <c r="D352" t="s">
-        <v>1157</v>
+        <v>43</v>
       </c>
       <c r="F352" t="s">
-        <v>1158</v>
-      </c>
-      <c r="I352">
-        <v>21099</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="B353" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="C353" t="s">
-        <v>91</v>
+        <v>121</v>
+      </c>
+      <c r="D353" t="s">
+        <v>1157</v>
       </c>
       <c r="F353" t="s">
-        <v>1161</v>
+        <v>1158</v>
+      </c>
+      <c r="I353">
+        <v>21099</v>
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="B354" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="C354" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="F354" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="B355" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="C355" t="s">
-        <v>117</v>
+        <v>15</v>
       </c>
       <c r="F355" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="B356" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="C356" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="F356" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="B357" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="C357" t="s">
-        <v>1173</v>
-      </c>
-      <c r="D357" t="s">
-        <v>1174</v>
+        <v>27</v>
       </c>
       <c r="F357" t="s">
         <v>1170</v>
       </c>
-      <c r="H357">
-        <v>8279</v>
-      </c>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="B358" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="C358" t="s">
-        <v>91</v>
+        <v>1173</v>
+      </c>
+      <c r="D358" t="s">
+        <v>1174</v>
       </c>
       <c r="F358" t="s">
-        <v>1177</v>
+        <v>1170</v>
+      </c>
+      <c r="H358">
+        <v>8279</v>
       </c>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="B359" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="C359" t="s">
-        <v>256</v>
+        <v>91</v>
       </c>
       <c r="F359" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="B360" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="C360" t="s">
-        <v>27</v>
+        <v>256</v>
       </c>
       <c r="F360" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="B361" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="C361" t="s">
-        <v>47</v>
-      </c>
-      <c r="D361" t="s">
-        <v>507</v>
+        <v>27</v>
       </c>
       <c r="F361" t="s">
         <v>1183</v>
       </c>
-      <c r="I361">
-        <v>22288</v>
-      </c>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="B362" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="C362" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="D362" t="s">
-        <v>941</v>
+        <v>507</v>
       </c>
       <c r="F362" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="I362">
-        <v>19342</v>
+        <v>22288</v>
       </c>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="B363" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="C363" t="s">
-        <v>15</v>
+        <v>71</v>
+      </c>
+      <c r="D363" t="s">
+        <v>941</v>
       </c>
       <c r="F363" t="s">
-        <v>1191</v>
+        <v>1188</v>
+      </c>
+      <c r="I363">
+        <v>19342</v>
       </c>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="B364" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="C364" t="s">
-        <v>72</v>
-      </c>
-      <c r="D364" t="s">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="F364" t="s">
-        <v>1194</v>
-      </c>
-      <c r="I364">
-        <v>25289</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="B365" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="C365" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="D365" t="s">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="F365" t="s">
-        <v>1197</v>
+        <v>1194</v>
+      </c>
+      <c r="I365">
+        <v>25289</v>
       </c>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>1419</v>
+        <v>1195</v>
       </c>
       <c r="B366" t="s">
         <v>1196</v>
@@ -11216,13 +11224,16 @@
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>1198</v>
+        <v>1419</v>
       </c>
       <c r="B367" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="C367" t="s">
-        <v>62</v>
+        <v>28</v>
+      </c>
+      <c r="D367" t="s">
+        <v>43</v>
       </c>
       <c r="F367" t="s">
         <v>1197</v>
@@ -11230,13 +11241,13 @@
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="B368" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="C368" t="s">
-        <v>392</v>
+        <v>62</v>
       </c>
       <c r="F368" t="s">
         <v>1197</v>
@@ -11244,459 +11255,459 @@
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="B369" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="C369" t="s">
-        <v>76</v>
-      </c>
-      <c r="D369" t="s">
-        <v>213</v>
+        <v>392</v>
       </c>
       <c r="F369" t="s">
         <v>1197</v>
       </c>
-      <c r="I369">
-        <v>74771</v>
-      </c>
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="B370" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="C370" t="s">
-        <v>43</v>
+        <v>76</v>
+      </c>
+      <c r="D370" t="s">
+        <v>213</v>
       </c>
       <c r="F370" t="s">
         <v>1197</v>
       </c>
+      <c r="I370">
+        <v>74771</v>
+      </c>
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="B371" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="C371" t="s">
-        <v>112</v>
+        <v>43</v>
       </c>
       <c r="F371" t="s">
-        <v>1208</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="B372" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="C372" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="F372" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="B373" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="C373" t="s">
         <v>10</v>
       </c>
       <c r="F373" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="B374" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="C374" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="F374" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="375" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="B375" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="C375" t="s">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="F375" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="B376" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="C376" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="F376" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="B377" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="C377" t="s">
-        <v>392</v>
+        <v>117</v>
       </c>
       <c r="F377" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="B378" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="C378" t="s">
-        <v>647</v>
-      </c>
-      <c r="D378" t="s">
-        <v>1229</v>
+        <v>392</v>
       </c>
       <c r="F378" t="s">
-        <v>1230</v>
-      </c>
-      <c r="H378">
-        <v>3650</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="B379" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="C379" t="s">
-        <v>1233</v>
+        <v>647</v>
       </c>
       <c r="D379" t="s">
-        <v>432</v>
+        <v>1229</v>
       </c>
       <c r="F379" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="H379">
-        <v>7294</v>
-      </c>
-      <c r="I379">
-        <v>60260</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="B380" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
       <c r="C380" t="s">
-        <v>10</v>
+        <v>1233</v>
+      </c>
+      <c r="D380" t="s">
+        <v>432</v>
       </c>
       <c r="F380" t="s">
-        <v>1237</v>
+        <v>1234</v>
+      </c>
+      <c r="H380">
+        <v>7294</v>
+      </c>
+      <c r="I380">
+        <v>60260</v>
       </c>
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="B381" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="C381" t="s">
-        <v>598</v>
-      </c>
-      <c r="D381" t="s">
-        <v>1240</v>
+        <v>10</v>
       </c>
       <c r="F381" t="s">
-        <v>1241</v>
-      </c>
-      <c r="H381">
-        <v>6734</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>1244</v>
+        <v>1238</v>
       </c>
       <c r="B382" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="C382" t="s">
-        <v>102</v>
+        <v>598</v>
       </c>
       <c r="D382" t="s">
-        <v>135</v>
+        <v>1240</v>
       </c>
       <c r="F382" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="H382">
-        <v>2583</v>
+        <v>6734</v>
       </c>
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B383" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="C383" t="s">
-        <v>14</v>
+        <v>102</v>
+      </c>
+      <c r="D383" t="s">
+        <v>135</v>
       </c>
       <c r="F383" t="s">
-        <v>1247</v>
+        <v>1243</v>
+      </c>
+      <c r="H383">
+        <v>2583</v>
       </c>
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="B384" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="C384" t="s">
-        <v>1250</v>
-      </c>
-      <c r="D384" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="F384" t="s">
-        <v>1251</v>
-      </c>
-      <c r="I384">
-        <v>14369</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="B385" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="C385" t="s">
-        <v>10</v>
+        <v>1250</v>
+      </c>
+      <c r="D385" t="s">
+        <v>62</v>
       </c>
       <c r="F385" t="s">
-        <v>1254</v>
+        <v>1251</v>
+      </c>
+      <c r="I385">
+        <v>14369</v>
       </c>
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="B386" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="C386" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="F386" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="B387" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="C387" t="s">
-        <v>223</v>
-      </c>
-      <c r="D387" t="s">
-        <v>27</v>
+        <v>159</v>
       </c>
       <c r="F387" t="s">
-        <v>1260</v>
-      </c>
-      <c r="I387">
-        <v>15373</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="B388" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="C388" t="s">
-        <v>159</v>
+        <v>223</v>
+      </c>
+      <c r="D388" t="s">
+        <v>27</v>
       </c>
       <c r="F388" t="s">
-        <v>1263</v>
+        <v>1260</v>
+      </c>
+      <c r="I388">
+        <v>15373</v>
       </c>
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="B389" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="C389" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="F389" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="B390" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="C390" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="F390" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="391" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="B391" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="C391" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="F391" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="B392" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="C392" t="s">
-        <v>1120</v>
-      </c>
-      <c r="D392" t="s">
-        <v>135</v>
+        <v>15</v>
       </c>
       <c r="F392" t="s">
         <v>1272</v>
       </c>
-      <c r="I392">
-        <v>13184</v>
-      </c>
     </row>
     <row r="393" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="B393" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="C393" t="s">
-        <v>28</v>
+        <v>1120</v>
+      </c>
+      <c r="D393" t="s">
+        <v>135</v>
       </c>
       <c r="F393" t="s">
-        <v>1277</v>
+        <v>1272</v>
+      </c>
+      <c r="I393">
+        <v>13184</v>
       </c>
     </row>
     <row r="394" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="B394" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="C394" t="s">
-        <v>1280</v>
+        <v>28</v>
       </c>
       <c r="F394" t="s">
-        <v>1281</v>
-      </c>
-      <c r="I394">
-        <v>15504</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="395" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="B395" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="C395" t="s">
-        <v>424</v>
+        <v>1280</v>
       </c>
       <c r="F395" t="s">
-        <v>1284</v>
+        <v>1281</v>
+      </c>
+      <c r="I395">
+        <v>15504</v>
       </c>
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="B396" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="C396" t="s">
-        <v>15</v>
+        <v>424</v>
       </c>
       <c r="F396" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="B397" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="C397" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="F397" t="s">
         <v>1287</v>
@@ -11704,295 +11715,295 @@
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="B398" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="C398" t="s">
-        <v>542</v>
-      </c>
-      <c r="D398" t="s">
-        <v>1292</v>
+        <v>62</v>
       </c>
       <c r="F398" t="s">
         <v>1287</v>
       </c>
-      <c r="H398">
-        <v>7925</v>
-      </c>
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="B399" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="C399" t="s">
-        <v>1295</v>
+        <v>542</v>
       </c>
       <c r="D399" t="s">
-        <v>456</v>
+        <v>1292</v>
       </c>
       <c r="F399" t="s">
-        <v>1296</v>
+        <v>1287</v>
       </c>
       <c r="H399">
-        <v>4393</v>
+        <v>7925</v>
       </c>
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="B400" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="C400" t="s">
-        <v>54</v>
+        <v>1295</v>
+      </c>
+      <c r="D400" t="s">
+        <v>456</v>
       </c>
       <c r="F400" t="s">
-        <v>1299</v>
+        <v>1296</v>
+      </c>
+      <c r="H400">
+        <v>4393</v>
       </c>
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="B401" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="C401" t="s">
-        <v>817</v>
-      </c>
-      <c r="D401" t="s">
-        <v>1302</v>
+        <v>54</v>
       </c>
       <c r="F401" t="s">
-        <v>598</v>
-      </c>
-      <c r="I401">
-        <v>35554</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="B402" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="C402" t="s">
-        <v>117</v>
+        <v>817</v>
+      </c>
+      <c r="D402" t="s">
+        <v>1302</v>
       </c>
       <c r="F402" t="s">
         <v>598</v>
       </c>
+      <c r="I402">
+        <v>35554</v>
+      </c>
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="B403" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="C403" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="F403" t="s">
-        <v>1307</v>
+        <v>598</v>
       </c>
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="B404" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="C404" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="F404" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="B405" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="C405" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="F405" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="B406" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="C406" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="F406" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="B407" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="C407" t="s">
-        <v>27</v>
+        <v>130</v>
       </c>
       <c r="F407" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="B408" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="C408" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F408" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="B409" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="C409" t="s">
-        <v>102</v>
-      </c>
-      <c r="D409" t="s">
-        <v>1051</v>
+        <v>15</v>
       </c>
       <c r="F409" t="s">
-        <v>1325</v>
-      </c>
-      <c r="I409">
-        <v>16760</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="B410" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="C410" t="s">
-        <v>135</v>
+        <v>102</v>
+      </c>
+      <c r="D410" t="s">
+        <v>1051</v>
       </c>
       <c r="F410" t="s">
-        <v>1328</v>
+        <v>1325</v>
+      </c>
+      <c r="I410">
+        <v>16760</v>
       </c>
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="B411" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="C411" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F411" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="B412" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="C412" t="s">
-        <v>1334</v>
-      </c>
-      <c r="D412" t="s">
-        <v>507</v>
+        <v>130</v>
       </c>
       <c r="F412" t="s">
-        <v>1335</v>
-      </c>
-      <c r="I412">
-        <v>19264</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
       <c r="B413" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
       <c r="C413" t="s">
-        <v>15</v>
+        <v>1334</v>
+      </c>
+      <c r="D413" t="s">
+        <v>507</v>
       </c>
       <c r="F413" t="s">
-        <v>1338</v>
+        <v>1335</v>
+      </c>
+      <c r="I413">
+        <v>19264</v>
       </c>
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
       <c r="B414" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
       <c r="C414" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F414" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="415" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B415" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="C415" t="s">
-        <v>130</v>
+        <v>27</v>
       </c>
       <c r="F415" t="s">
-        <v>1120</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="B416" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="C416" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="F416" t="s">
         <v>1120</v>
@@ -12000,275 +12011,275 @@
     </row>
     <row r="417" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="B417" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="C417" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="F417" t="s">
-        <v>1348</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="418" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="B418" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="C418" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="F418" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="419" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="B419" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="C419" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="F419" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="420" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="B420" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="C420" t="s">
-        <v>28</v>
+        <v>159</v>
       </c>
       <c r="F420" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="421" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="B421" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="C421" t="s">
-        <v>112</v>
+        <v>28</v>
       </c>
       <c r="F421" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="422" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="B422" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="C422" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="F422" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="423" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="B423" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="C423" t="s">
-        <v>1366</v>
-      </c>
-      <c r="D423" t="s">
-        <v>135</v>
+        <v>27</v>
       </c>
       <c r="F423" t="s">
-        <v>1367</v>
-      </c>
-      <c r="H423">
-        <v>2910</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="424" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>1368</v>
+        <v>1364</v>
       </c>
       <c r="B424" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
       <c r="C424" t="s">
-        <v>15</v>
+        <v>1366</v>
+      </c>
+      <c r="D424" t="s">
+        <v>135</v>
       </c>
       <c r="F424" t="s">
-        <v>1370</v>
+        <v>1367</v>
+      </c>
+      <c r="H424">
+        <v>2910</v>
       </c>
     </row>
     <row r="425" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="B425" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="C425" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F425" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="426" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="B426" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="C426" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="F426" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="427" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="B427" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="C427" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="F427" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="428" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="B428" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="C428" t="s">
-        <v>76</v>
-      </c>
-      <c r="D428" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="F428" t="s">
-        <v>1382</v>
-      </c>
-      <c r="I428">
-        <v>12650</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="429" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="B429" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="C429" t="s">
-        <v>159</v>
+        <v>76</v>
+      </c>
+      <c r="D429" t="s">
+        <v>130</v>
       </c>
       <c r="F429" t="s">
-        <v>1385</v>
+        <v>1382</v>
+      </c>
+      <c r="I429">
+        <v>12650</v>
       </c>
     </row>
     <row r="430" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="B430" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="C430" t="s">
-        <v>121</v>
-      </c>
-      <c r="D430" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="F430" t="s">
         <v>1385</v>
       </c>
-      <c r="I430">
-        <v>9878</v>
-      </c>
     </row>
     <row r="431" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="B431" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="C431" t="s">
-        <v>130</v>
+        <v>121</v>
+      </c>
+      <c r="D431" t="s">
+        <v>10</v>
       </c>
       <c r="F431" t="s">
-        <v>1390</v>
+        <v>1385</v>
+      </c>
+      <c r="I431">
+        <v>9878</v>
       </c>
     </row>
     <row r="432" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="B432" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="C432" t="s">
-        <v>223</v>
-      </c>
-      <c r="D432" t="s">
-        <v>392</v>
+        <v>130</v>
       </c>
       <c r="F432" t="s">
-        <v>1393</v>
-      </c>
-      <c r="I432">
-        <v>15567</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="433" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="B433" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="C433" t="s">
-        <v>28</v>
+        <v>223</v>
+      </c>
+      <c r="D433" t="s">
+        <v>392</v>
       </c>
       <c r="F433" t="s">
-        <v>1396</v>
+        <v>1393</v>
+      </c>
+      <c r="I433">
+        <v>15567</v>
       </c>
     </row>
     <row r="434" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="B434" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="C434" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F434" t="s">
         <v>1396</v>
@@ -12276,96 +12287,110 @@
     </row>
     <row r="435" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="B435" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="C435" t="s">
-        <v>647</v>
-      </c>
-      <c r="D435" t="s">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="F435" t="s">
-        <v>1400</v>
-      </c>
-      <c r="H435">
-        <v>4851</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="436" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="B436" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="C436" t="s">
-        <v>54</v>
+        <v>647</v>
+      </c>
+      <c r="D436" t="s">
+        <v>103</v>
       </c>
       <c r="F436" t="s">
-        <v>1404</v>
+        <v>1400</v>
+      </c>
+      <c r="H436">
+        <v>4851</v>
       </c>
     </row>
     <row r="437" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="B437" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="C437" t="s">
-        <v>456</v>
-      </c>
-      <c r="D437" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="F437" t="s">
-        <v>1407</v>
-      </c>
-      <c r="I437">
-        <v>10658</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="438" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="B438" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="C438" t="s">
-        <v>256</v>
+        <v>456</v>
+      </c>
+      <c r="D438" t="s">
+        <v>10</v>
       </c>
       <c r="F438" t="s">
         <v>1407</v>
       </c>
+      <c r="I438">
+        <v>10658</v>
+      </c>
     </row>
     <row r="439" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="B439" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="C439" t="s">
-        <v>1105</v>
+        <v>256</v>
       </c>
       <c r="F439" t="s">
         <v>1407</v>
       </c>
-      <c r="H439">
+    </row>
+    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B440" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C440" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F440" t="s">
+        <v>1407</v>
+      </c>
+      <c r="H440">
         <v>9088</v>
       </c>
-      <c r="I439">
+      <c r="I440">
         <v>67604</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:J488">
-    <sortCondition ref="F2:F488"/>
-    <sortCondition ref="C2:C488"/>
+  <sortState ref="A2:J489">
+    <sortCondition ref="F2:F489"/>
+    <sortCondition ref="C2:C489"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/surveyor.xlsx
+++ b/data/surveyor.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1944" uniqueCount="1422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1950" uniqueCount="1428">
   <si>
     <t>fullname</t>
   </si>
@@ -3984,9 +3984,6 @@
     <t>C. TRAINA</t>
   </si>
   <si>
-    <t>C TRAINA</t>
-  </si>
-  <si>
     <t>TRAINA</t>
   </si>
   <si>
@@ -4285,6 +4282,27 @@
   </si>
   <si>
     <t>A.BONES</t>
+  </si>
+  <si>
+    <t>CURT</t>
+  </si>
+  <si>
+    <t>CURT D TRAINA</t>
+  </si>
+  <si>
+    <t>J. BUFFINGTON</t>
+  </si>
+  <si>
+    <t>JESSE NILES BUFFINGTON</t>
+  </si>
+  <si>
+    <t>JESSE</t>
+  </si>
+  <si>
+    <t>NILES</t>
+  </si>
+  <si>
+    <t>BUFFINGTON</t>
   </si>
 </sst>
 </file>
@@ -5125,10 +5143,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I440"/>
+  <dimension ref="A1:I441"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5146,7 +5164,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -5730,7 +5748,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="B32" t="s">
         <v>133</v>
@@ -6106,1484 +6124,1481 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>210</v>
+        <v>1423</v>
       </c>
       <c r="B52" t="s">
-        <v>211</v>
+        <v>1424</v>
       </c>
       <c r="C52" t="s">
-        <v>212</v>
+        <v>1425</v>
       </c>
       <c r="D52" t="s">
-        <v>213</v>
+        <v>1426</v>
       </c>
       <c r="F52" t="s">
-        <v>214</v>
+        <v>1427</v>
       </c>
       <c r="H52">
-        <v>4790</v>
+        <v>9339</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B53" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C53" t="s">
-        <v>15</v>
+        <v>212</v>
+      </c>
+      <c r="D53" t="s">
+        <v>213</v>
       </c>
       <c r="F53" t="s">
-        <v>217</v>
+        <v>214</v>
+      </c>
+      <c r="H53">
+        <v>4790</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B54" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C54" t="s">
-        <v>163</v>
-      </c>
-      <c r="D54" t="s">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="F54" t="s">
-        <v>220</v>
-      </c>
-      <c r="H54">
-        <v>7207</v>
+        <v>217</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B55" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C55" t="s">
-        <v>223</v>
+        <v>163</v>
       </c>
       <c r="D55" t="s">
-        <v>62</v>
+        <v>130</v>
       </c>
       <c r="F55" t="s">
         <v>220</v>
       </c>
       <c r="H55">
-        <v>2786</v>
+        <v>7207</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B56" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C56" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="D56" t="s">
-        <v>226</v>
+        <v>62</v>
       </c>
       <c r="F56" t="s">
-        <v>227</v>
-      </c>
-      <c r="I56">
-        <v>20244</v>
+        <v>220</v>
+      </c>
+      <c r="H56">
+        <v>2786</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B57" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C57" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="D57" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F57" t="s">
         <v>227</v>
       </c>
-      <c r="H57">
-        <v>5262</v>
+      <c r="I57">
+        <v>20244</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B58" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C58" t="s">
-        <v>233</v>
+        <v>223</v>
+      </c>
+      <c r="D58" t="s">
+        <v>230</v>
       </c>
       <c r="F58" t="s">
         <v>227</v>
       </c>
+      <c r="H58">
+        <v>5262</v>
+      </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B59" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C59" t="s">
-        <v>135</v>
+        <v>233</v>
       </c>
       <c r="F59" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B60" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C60" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F60" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B61" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C61" t="s">
-        <v>163</v>
-      </c>
-      <c r="D61" t="s">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="F61" t="s">
-        <v>242</v>
-      </c>
-      <c r="I61">
-        <v>27515</v>
+        <v>239</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B62" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C62" t="s">
-        <v>27</v>
+        <v>163</v>
+      </c>
+      <c r="D62" t="s">
+        <v>14</v>
       </c>
       <c r="F62" t="s">
-        <v>245</v>
+        <v>242</v>
+      </c>
+      <c r="I62">
+        <v>27515</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B63" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C63" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="F63" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B64" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C64" t="s">
-        <v>76</v>
-      </c>
-      <c r="D64" t="s">
-        <v>251</v>
+        <v>117</v>
       </c>
       <c r="F64" t="s">
-        <v>252</v>
-      </c>
-      <c r="I64">
-        <v>28465</v>
+        <v>248</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B65" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C65" t="s">
-        <v>255</v>
+        <v>76</v>
       </c>
       <c r="D65" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="F65" t="s">
-        <v>257</v>
-      </c>
-      <c r="H65">
-        <v>5043</v>
+        <v>252</v>
+      </c>
+      <c r="I65">
+        <v>28465</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B66" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C66" t="s">
-        <v>155</v>
+        <v>255</v>
+      </c>
+      <c r="D66" t="s">
+        <v>256</v>
       </c>
       <c r="F66" t="s">
         <v>257</v>
       </c>
+      <c r="H66">
+        <v>5043</v>
+      </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B67" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C67" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F67" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B68" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C68" t="s">
-        <v>91</v>
+        <v>159</v>
       </c>
       <c r="F68" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B69" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C69" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="F69" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B70" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C70" t="s">
-        <v>71</v>
-      </c>
-      <c r="D70" t="s">
-        <v>117</v>
+        <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>271</v>
-      </c>
-      <c r="H70">
-        <v>7335</v>
+        <v>268</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B71" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C71" t="s">
+        <v>71</v>
+      </c>
+      <c r="D71" t="s">
         <v>117</v>
       </c>
       <c r="F71" t="s">
-        <v>274</v>
+        <v>271</v>
+      </c>
+      <c r="H71">
+        <v>7335</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B72" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C72" t="s">
         <v>117</v>
       </c>
       <c r="F72" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B73" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C73" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="F73" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B74" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C74" t="s">
-        <v>159</v>
+        <v>27</v>
       </c>
       <c r="F74" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B75" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C75" t="s">
-        <v>286</v>
-      </c>
-      <c r="D75" t="s">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="F75" t="s">
-        <v>287</v>
-      </c>
-      <c r="I75">
-        <v>14398</v>
+        <v>283</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B76" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C76" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D76" t="s">
-        <v>291</v>
+        <v>121</v>
       </c>
       <c r="F76" t="s">
-        <v>292</v>
-      </c>
-      <c r="H76">
-        <v>3966</v>
+        <v>287</v>
+      </c>
+      <c r="I76">
+        <v>14398</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B77" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C77" t="s">
-        <v>112</v>
+        <v>290</v>
+      </c>
+      <c r="D77" t="s">
+        <v>291</v>
       </c>
       <c r="F77" t="s">
-        <v>295</v>
+        <v>292</v>
+      </c>
+      <c r="H77">
+        <v>3966</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B78" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C78" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="F78" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B79" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C79" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="F79" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B80" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C80" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="F80" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B81" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C81" t="s">
-        <v>71</v>
-      </c>
-      <c r="D81" t="s">
-        <v>117</v>
+        <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>307</v>
-      </c>
-      <c r="H81">
-        <v>4793</v>
+        <v>304</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B82" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C82" t="s">
-        <v>163</v>
+        <v>71</v>
       </c>
       <c r="D82" t="s">
-        <v>28</v>
+        <v>117</v>
       </c>
       <c r="F82" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="H82">
-        <v>7015</v>
+        <v>4793</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B83" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C83" t="s">
-        <v>76</v>
+        <v>163</v>
       </c>
       <c r="D83" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="F83" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="H83">
-        <v>4592</v>
+        <v>7015</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B84" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C84" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="D84" t="s">
-        <v>316</v>
+        <v>47</v>
       </c>
       <c r="F84" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H84">
-        <v>3340</v>
+        <v>4592</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B85" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C85" t="s">
-        <v>320</v>
+        <v>102</v>
       </c>
       <c r="D85" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F85" t="s">
         <v>317</v>
       </c>
-      <c r="I85">
-        <v>30351</v>
+      <c r="H85">
+        <v>3340</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B86" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C86" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D86" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F86" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="I86">
-        <v>21533</v>
+        <v>30351</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B87" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C87" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D87" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="F87" t="s">
-        <v>331</v>
-      </c>
-      <c r="H87">
-        <v>3621</v>
+        <v>326</v>
+      </c>
+      <c r="I87">
+        <v>21533</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B88" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C88" t="s">
-        <v>256</v>
+        <v>329</v>
+      </c>
+      <c r="D88" t="s">
+        <v>330</v>
       </c>
       <c r="F88" t="s">
-        <v>334</v>
+        <v>331</v>
+      </c>
+      <c r="H88">
+        <v>3621</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B89" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C89" t="s">
-        <v>33</v>
+        <v>256</v>
       </c>
       <c r="F89" t="s">
-        <v>147</v>
+        <v>334</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B90" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C90" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F90" t="s">
-        <v>339</v>
+        <v>147</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B91" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C91" t="s">
         <v>27</v>
       </c>
       <c r="F91" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B92" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C92" t="s">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="F92" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B93" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C93" t="s">
-        <v>47</v>
-      </c>
-      <c r="D93" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="F93" t="s">
-        <v>348</v>
-      </c>
-      <c r="I93">
-        <v>29113</v>
+        <v>345</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B94" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C94" t="s">
-        <v>54</v>
+        <v>47</v>
+      </c>
+      <c r="D94" t="s">
+        <v>71</v>
       </c>
       <c r="F94" t="s">
-        <v>351</v>
+        <v>348</v>
+      </c>
+      <c r="I94">
+        <v>29113</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B95" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C95" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="F95" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B96" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C96" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F96" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B97" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C97" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F97" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B98" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C98" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="F98" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>1412</v>
+        <v>361</v>
       </c>
       <c r="B99" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C99" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>366</v>
+        <v>1411</v>
       </c>
       <c r="B100" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C100" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="F100" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B101" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C101" t="s">
-        <v>67</v>
-      </c>
-      <c r="D101" t="s">
-        <v>163</v>
+        <v>54</v>
       </c>
       <c r="F101" t="s">
-        <v>371</v>
-      </c>
-      <c r="I101">
-        <v>22957</v>
+        <v>368</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B102" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C102" t="s">
-        <v>54</v>
+        <v>67</v>
+      </c>
+      <c r="D102" t="s">
+        <v>163</v>
       </c>
       <c r="F102" t="s">
-        <v>374</v>
+        <v>371</v>
+      </c>
+      <c r="I102">
+        <v>22957</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B103" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C103" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="F103" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B104" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C104" t="s">
-        <v>256</v>
+        <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B105" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C105" t="s">
-        <v>28</v>
+        <v>256</v>
       </c>
       <c r="F105" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B106" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C106" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="F106" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B107" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C107" t="s">
         <v>91</v>
       </c>
       <c r="F107" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B108" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C108" t="s">
-        <v>392</v>
+        <v>91</v>
       </c>
       <c r="F108" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B109" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C109" t="s">
-        <v>10</v>
+        <v>392</v>
       </c>
       <c r="F109" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B110" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C110" t="s">
-        <v>117</v>
+        <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B111" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C111" t="s">
-        <v>121</v>
-      </c>
-      <c r="D111" t="s">
-        <v>256</v>
+        <v>117</v>
       </c>
       <c r="F111" t="s">
-        <v>402</v>
-      </c>
-      <c r="I111">
-        <v>12475</v>
+        <v>399</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B112" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C112" t="s">
-        <v>27</v>
+        <v>121</v>
+      </c>
+      <c r="D112" t="s">
+        <v>256</v>
       </c>
       <c r="F112" t="s">
-        <v>405</v>
+        <v>402</v>
+      </c>
+      <c r="I112">
+        <v>12475</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B113" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C113" t="s">
         <v>27</v>
       </c>
       <c r="F113" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B114" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C114" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="F114" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B115" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C115" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="F115" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B116" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C116" t="s">
-        <v>130</v>
+        <v>27</v>
       </c>
       <c r="F116" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B117" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C117" t="s">
-        <v>420</v>
+        <v>130</v>
       </c>
       <c r="F117" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B118" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C118" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="F118" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B119" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C119" t="s">
-        <v>33</v>
+        <v>424</v>
       </c>
       <c r="F119" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B120" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C120" t="s">
-        <v>431</v>
-      </c>
-      <c r="D120" t="s">
-        <v>432</v>
+        <v>33</v>
       </c>
       <c r="F120" t="s">
-        <v>433</v>
-      </c>
-      <c r="I120">
-        <v>28493</v>
+        <v>428</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B121" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C121" t="s">
-        <v>33</v>
+        <v>431</v>
+      </c>
+      <c r="D121" t="s">
+        <v>432</v>
       </c>
       <c r="F121" t="s">
-        <v>436</v>
+        <v>433</v>
+      </c>
+      <c r="I121">
+        <v>28493</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B122" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C122" t="s">
-        <v>439</v>
-      </c>
-      <c r="D122" t="s">
-        <v>440</v>
+        <v>33</v>
       </c>
       <c r="F122" t="s">
-        <v>441</v>
-      </c>
-      <c r="H122">
-        <v>5904</v>
-      </c>
-      <c r="I122">
-        <v>36444</v>
+        <v>436</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>1413</v>
+        <v>437</v>
       </c>
       <c r="B123" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C123" t="s">
-        <v>43</v>
+        <v>439</v>
+      </c>
+      <c r="D123" t="s">
+        <v>440</v>
       </c>
       <c r="F123" t="s">
-        <v>443</v>
+        <v>441</v>
+      </c>
+      <c r="H123">
+        <v>5904</v>
+      </c>
+      <c r="I123">
+        <v>36444</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>444</v>
+        <v>1412</v>
       </c>
       <c r="B124" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C124" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F124" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>1414</v>
+        <v>444</v>
       </c>
       <c r="B125" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C125" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="F125" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="B126" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C126" t="s">
-        <v>420</v>
+        <v>54</v>
       </c>
       <c r="F126" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>451</v>
+        <v>1414</v>
       </c>
       <c r="B127" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C127" t="s">
-        <v>117</v>
+        <v>420</v>
       </c>
       <c r="F127" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B128" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C128" t="s">
-        <v>456</v>
-      </c>
-      <c r="D128" t="s">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="F128" t="s">
-        <v>457</v>
-      </c>
-      <c r="I128">
-        <v>20181</v>
+        <v>453</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B129" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C129" t="s">
-        <v>15</v>
+        <v>456</v>
+      </c>
+      <c r="D129" t="s">
+        <v>47</v>
       </c>
       <c r="F129" t="s">
-        <v>460</v>
+        <v>457</v>
+      </c>
+      <c r="I129">
+        <v>20181</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B130" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C130" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="F130" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B131" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C131" t="s">
-        <v>466</v>
-      </c>
-      <c r="D131" t="s">
-        <v>456</v>
+        <v>62</v>
       </c>
       <c r="F131" t="s">
-        <v>467</v>
-      </c>
-      <c r="H131">
-        <v>7717</v>
+        <v>463</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B132" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C132" t="s">
-        <v>62</v>
+        <v>466</v>
+      </c>
+      <c r="D132" t="s">
+        <v>456</v>
       </c>
       <c r="F132" t="s">
-        <v>470</v>
+        <v>467</v>
+      </c>
+      <c r="H132">
+        <v>7717</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B133" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C133" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="F133" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B134" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C134" t="s">
-        <v>112</v>
-      </c>
-      <c r="D134" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="F134" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B135" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C135" t="s">
-        <v>479</v>
+        <v>112</v>
       </c>
       <c r="D135" t="s">
-        <v>480</v>
+        <v>43</v>
       </c>
       <c r="F135" t="s">
-        <v>481</v>
-      </c>
-      <c r="H135">
-        <v>5125</v>
-      </c>
-      <c r="I135">
-        <v>25217</v>
+        <v>476</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="B136" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="C136" t="s">
-        <v>27</v>
+        <v>479</v>
+      </c>
+      <c r="D136" t="s">
+        <v>480</v>
       </c>
       <c r="F136" t="s">
-        <v>484</v>
+        <v>481</v>
+      </c>
+      <c r="H136">
+        <v>5125</v>
+      </c>
+      <c r="I136">
+        <v>25217</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B137" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C137" t="s">
         <v>27</v>
       </c>
       <c r="F137" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B138" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C138" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="F138" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B139" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C139" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="F139" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B140" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C140" t="s">
-        <v>37</v>
-      </c>
-      <c r="D140" t="s">
-        <v>147</v>
+        <v>27</v>
       </c>
       <c r="F140" t="s">
-        <v>496</v>
-      </c>
-      <c r="H140">
-        <v>7242</v>
+        <v>493</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B141" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C141" t="s">
-        <v>499</v>
+        <v>37</v>
       </c>
       <c r="D141" t="s">
-        <v>500</v>
+        <v>147</v>
       </c>
       <c r="F141" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="H141">
-        <v>6157</v>
+        <v>7242</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="B142" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="C142" t="s">
-        <v>159</v>
+        <v>499</v>
+      </c>
+      <c r="D142" t="s">
+        <v>500</v>
       </c>
       <c r="F142" t="s">
-        <v>504</v>
+        <v>501</v>
+      </c>
+      <c r="H142">
+        <v>6157</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B143" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C143" t="s">
-        <v>507</v>
-      </c>
-      <c r="D143" t="s">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="F143" t="s">
-        <v>508</v>
-      </c>
-      <c r="G143" t="s">
-        <v>209</v>
-      </c>
-      <c r="H143">
-        <v>7541</v>
+        <v>504</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B144" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C144" t="s">
         <v>507</v>
@@ -7595,343 +7610,349 @@
         <v>508</v>
       </c>
       <c r="G144" t="s">
-        <v>511</v>
-      </c>
-      <c r="I144">
-        <v>22093</v>
+        <v>209</v>
+      </c>
+      <c r="H144">
+        <v>7541</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B145" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C145" t="s">
-        <v>424</v>
+        <v>507</v>
+      </c>
+      <c r="D145" t="s">
+        <v>121</v>
       </c>
       <c r="F145" t="s">
-        <v>514</v>
+        <v>508</v>
+      </c>
+      <c r="G145" t="s">
+        <v>511</v>
+      </c>
+      <c r="I145">
+        <v>22093</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B146" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C146" t="s">
-        <v>112</v>
+        <v>424</v>
       </c>
       <c r="F146" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B147" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C147" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="F147" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B148" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C148" t="s">
-        <v>256</v>
+        <v>54</v>
       </c>
       <c r="F148" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B149" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C149" t="s">
-        <v>526</v>
-      </c>
-      <c r="D149" t="s">
-        <v>14</v>
+        <v>256</v>
       </c>
       <c r="F149" t="s">
-        <v>527</v>
-      </c>
-      <c r="H149">
-        <v>3318</v>
+        <v>523</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="B150" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C150" t="s">
-        <v>112</v>
+        <v>526</v>
+      </c>
+      <c r="D150" t="s">
+        <v>14</v>
       </c>
       <c r="F150" t="s">
-        <v>530</v>
+        <v>527</v>
+      </c>
+      <c r="H150">
+        <v>3318</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B151" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C151" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="F151" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B152" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C152" t="s">
-        <v>163</v>
-      </c>
-      <c r="D152" t="s">
-        <v>130</v>
+        <v>27</v>
       </c>
       <c r="F152" t="s">
-        <v>536</v>
-      </c>
-      <c r="I152">
-        <v>23355</v>
+        <v>533</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B153" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C153" t="s">
-        <v>28</v>
+        <v>163</v>
+      </c>
+      <c r="D153" t="s">
+        <v>130</v>
       </c>
       <c r="F153" t="s">
-        <v>539</v>
+        <v>536</v>
+      </c>
+      <c r="I153">
+        <v>23355</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B154" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C154" t="s">
-        <v>542</v>
-      </c>
-      <c r="D154" t="s">
         <v>28</v>
       </c>
       <c r="F154" t="s">
-        <v>543</v>
-      </c>
-      <c r="G154" t="s">
-        <v>209</v>
-      </c>
-      <c r="H154">
-        <v>7245</v>
+        <v>539</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B155" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C155" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="D155" t="s">
-        <v>159</v>
+        <v>28</v>
       </c>
       <c r="F155" t="s">
-        <v>547</v>
+        <v>543</v>
+      </c>
+      <c r="G155" t="s">
+        <v>209</v>
       </c>
       <c r="H155">
-        <v>3431</v>
+        <v>7245</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B156" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C156" t="s">
-        <v>54</v>
+        <v>546</v>
+      </c>
+      <c r="D156" t="s">
+        <v>159</v>
       </c>
       <c r="F156" t="s">
-        <v>550</v>
+        <v>547</v>
+      </c>
+      <c r="H156">
+        <v>3431</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B157" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C157" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="F157" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B158" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C158" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B159" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C159" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F159" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B160" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C160" t="s">
-        <v>562</v>
-      </c>
-      <c r="D160" t="s">
-        <v>563</v>
+        <v>14</v>
       </c>
       <c r="F160" t="s">
-        <v>564</v>
-      </c>
-      <c r="H160">
-        <v>6611</v>
+        <v>559</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="B161" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="C161" t="s">
-        <v>71</v>
+        <v>562</v>
       </c>
       <c r="D161" t="s">
-        <v>91</v>
+        <v>563</v>
       </c>
       <c r="F161" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="H161">
-        <v>7683</v>
+        <v>6611</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B162" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C162" t="s">
-        <v>27</v>
+        <v>71</v>
+      </c>
+      <c r="D162" t="s">
+        <v>91</v>
       </c>
       <c r="F162" t="s">
-        <v>570</v>
+        <v>567</v>
+      </c>
+      <c r="H162">
+        <v>7683</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B163" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C163" t="s">
-        <v>107</v>
-      </c>
-      <c r="D163" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F163" t="s">
-        <v>573</v>
-      </c>
-      <c r="I163">
-        <v>7642</v>
+        <v>570</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B164" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C164" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D164" t="s">
-        <v>117</v>
+        <v>15</v>
       </c>
       <c r="F164" t="s">
-        <v>576</v>
+        <v>573</v>
+      </c>
+      <c r="I164">
+        <v>7642</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>1416</v>
+        <v>574</v>
       </c>
       <c r="B165" t="s">
         <v>575</v>
@@ -7948,137 +7969,137 @@
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>577</v>
+        <v>1415</v>
       </c>
       <c r="B166" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C166" t="s">
-        <v>27</v>
+        <v>112</v>
+      </c>
+      <c r="D166" t="s">
+        <v>117</v>
       </c>
       <c r="F166" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B167" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C167" t="s">
         <v>27</v>
       </c>
       <c r="F167" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B168" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C168" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="F168" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B169" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C169" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="F169" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B170" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C170" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F170" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B171" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C171" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="F171" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B172" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C172" t="s">
-        <v>597</v>
-      </c>
-      <c r="D172" t="s">
-        <v>598</v>
+        <v>33</v>
       </c>
       <c r="F172" t="s">
-        <v>599</v>
-      </c>
-      <c r="H172">
-        <v>8335</v>
+        <v>594</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="B173" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="C173" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="D173" t="s">
-        <v>62</v>
+        <v>598</v>
       </c>
       <c r="F173" t="s">
-        <v>603</v>
+        <v>599</v>
+      </c>
+      <c r="H173">
+        <v>8335</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B174" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C174" t="s">
-        <v>10</v>
+        <v>602</v>
       </c>
       <c r="D174" t="s">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="F174" t="s">
         <v>603</v>
@@ -8086,276 +8107,279 @@
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B175" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C175" t="s">
-        <v>62</v>
+        <v>10</v>
+      </c>
+      <c r="D175" t="s">
+        <v>112</v>
       </c>
       <c r="F175" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B176" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C176" t="s">
-        <v>117</v>
+        <v>62</v>
       </c>
       <c r="F176" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B177" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C177" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="F177" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B178" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C178" t="s">
-        <v>617</v>
-      </c>
-      <c r="D178" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>618</v>
-      </c>
-      <c r="I178">
-        <v>5438</v>
+        <v>614</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B179" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C179" t="s">
-        <v>507</v>
+        <v>617</v>
+      </c>
+      <c r="D179" t="s">
+        <v>28</v>
       </c>
       <c r="F179" t="s">
         <v>618</v>
       </c>
-      <c r="H179">
-        <v>3254</v>
+      <c r="I179">
+        <v>5438</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B180" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C180" t="s">
-        <v>10</v>
+        <v>507</v>
       </c>
       <c r="F180" t="s">
-        <v>623</v>
+        <v>618</v>
+      </c>
+      <c r="H180">
+        <v>3254</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B181" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C181" t="s">
-        <v>117</v>
+        <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B182" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C182" t="s">
-        <v>15</v>
+        <v>117</v>
       </c>
       <c r="F182" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B183" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="C183" t="s">
-        <v>632</v>
-      </c>
-      <c r="D183" t="s">
-        <v>135</v>
+        <v>15</v>
       </c>
       <c r="F183" t="s">
         <v>629</v>
       </c>
-      <c r="H183">
-        <v>7801</v>
-      </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="B184" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C184" t="s">
-        <v>130</v>
+        <v>632</v>
+      </c>
+      <c r="D184" t="s">
+        <v>135</v>
       </c>
       <c r="F184" t="s">
-        <v>635</v>
+        <v>629</v>
+      </c>
+      <c r="H184">
+        <v>7801</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B185" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C185" t="s">
-        <v>67</v>
-      </c>
-      <c r="D185" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="F185" t="s">
         <v>635</v>
       </c>
-      <c r="H185">
-        <v>6356</v>
-      </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B186" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C186" t="s">
-        <v>640</v>
+        <v>67</v>
       </c>
       <c r="D186" t="s">
-        <v>641</v>
+        <v>121</v>
       </c>
       <c r="F186" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="H186">
-        <v>7858</v>
+        <v>6356</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="B187" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="C187" t="s">
-        <v>420</v>
+        <v>640</v>
+      </c>
+      <c r="D187" t="s">
+        <v>641</v>
       </c>
       <c r="F187" t="s">
-        <v>95</v>
+        <v>642</v>
+      </c>
+      <c r="H187">
+        <v>7858</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B188" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C188" t="s">
-        <v>647</v>
-      </c>
-      <c r="D188" t="s">
-        <v>648</v>
+        <v>420</v>
       </c>
       <c r="F188" t="s">
-        <v>649</v>
-      </c>
-      <c r="I188">
-        <v>24779</v>
+        <v>95</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="B189" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="C189" t="s">
-        <v>466</v>
+        <v>647</v>
       </c>
       <c r="D189" t="s">
-        <v>147</v>
+        <v>648</v>
       </c>
       <c r="F189" t="s">
-        <v>652</v>
-      </c>
-      <c r="H189">
-        <v>4570</v>
+        <v>649</v>
+      </c>
+      <c r="I189">
+        <v>24779</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B190" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C190" t="s">
-        <v>54</v>
+        <v>466</v>
+      </c>
+      <c r="D190" t="s">
+        <v>147</v>
       </c>
       <c r="F190" t="s">
-        <v>655</v>
+        <v>652</v>
+      </c>
+      <c r="H190">
+        <v>4570</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="B191" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C191" t="s">
-        <v>117</v>
+        <v>54</v>
       </c>
       <c r="F191" t="s">
         <v>655</v>
@@ -8363,69 +8387,69 @@
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B192" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C192" t="s">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="F192" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="B193" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C193" t="s">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c r="F193" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="B194" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="C194" t="s">
-        <v>256</v>
+        <v>117</v>
       </c>
       <c r="F194" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="B195" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C195" t="s">
-        <v>112</v>
+        <v>256</v>
       </c>
       <c r="F195" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="B196" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C196" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="F196" t="s">
         <v>669</v>
@@ -8433,284 +8457,275 @@
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B197" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C197" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="F197" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="B198" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="C198" t="s">
-        <v>677</v>
-      </c>
-      <c r="D198" t="s">
-        <v>678</v>
+        <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>679</v>
-      </c>
-      <c r="H198">
-        <v>8153</v>
+        <v>674</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="B199" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="C199" t="s">
-        <v>33</v>
+        <v>677</v>
+      </c>
+      <c r="D199" t="s">
+        <v>678</v>
       </c>
       <c r="F199" t="s">
-        <v>682</v>
+        <v>679</v>
+      </c>
+      <c r="H199">
+        <v>8153</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="B200" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="C200" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="F200" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="B201" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="C201" t="s">
-        <v>117</v>
+        <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B202" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="C202" t="s">
-        <v>47</v>
-      </c>
-      <c r="D202" t="s">
-        <v>456</v>
+        <v>117</v>
       </c>
       <c r="F202" t="s">
-        <v>691</v>
-      </c>
-      <c r="I202">
-        <v>18584</v>
+        <v>688</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="B203" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="C203" t="s">
-        <v>694</v>
+        <v>47</v>
       </c>
       <c r="D203" t="s">
-        <v>695</v>
+        <v>456</v>
       </c>
       <c r="F203" t="s">
-        <v>696</v>
-      </c>
-      <c r="H203">
-        <v>6621</v>
+        <v>691</v>
+      </c>
+      <c r="I203">
+        <v>18584</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="B204" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="C204" t="s">
-        <v>324</v>
+        <v>694</v>
       </c>
       <c r="D204" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="F204" t="s">
         <v>696</v>
       </c>
       <c r="H204">
-        <v>9194</v>
+        <v>6621</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="B205" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C205" t="s">
-        <v>33</v>
+        <v>324</v>
+      </c>
+      <c r="D205" t="s">
+        <v>699</v>
       </c>
       <c r="F205" t="s">
         <v>696</v>
       </c>
+      <c r="H205">
+        <v>9194</v>
+      </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B206" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C206" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="F206" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="B207" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="C207" t="s">
-        <v>256</v>
+        <v>91</v>
       </c>
       <c r="F207" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="B208" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="C208" t="s">
-        <v>14</v>
+        <v>256</v>
       </c>
       <c r="F208" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="B209" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="C209" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F209" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="B210" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="C210" t="s">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="F210" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="B211" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="C211" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="F211" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="B212" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C212" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="F212" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="B213" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="C213" t="s">
-        <v>602</v>
-      </c>
-      <c r="D213" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>725</v>
-      </c>
-      <c r="H213">
-        <v>764</v>
-      </c>
-      <c r="I213">
-        <v>220</v>
+        <v>722</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="B214" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="C214" t="s">
-        <v>728</v>
+        <v>602</v>
       </c>
       <c r="D214" t="s">
         <v>62</v>
@@ -8719,160 +8734,163 @@
         <v>725</v>
       </c>
       <c r="H214">
-        <v>2820</v>
+        <v>764</v>
+      </c>
+      <c r="I214">
+        <v>220</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="B215" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C215" t="s">
-        <v>76</v>
+        <v>728</v>
       </c>
       <c r="D215" t="s">
-        <v>448</v>
+        <v>62</v>
       </c>
       <c r="F215" t="s">
         <v>725</v>
       </c>
-      <c r="I215">
-        <v>11005</v>
+      <c r="H215">
+        <v>2820</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B216" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="C216" t="s">
-        <v>33</v>
+        <v>76</v>
+      </c>
+      <c r="D216" t="s">
+        <v>448</v>
       </c>
       <c r="F216" t="s">
-        <v>733</v>
+        <v>725</v>
+      </c>
+      <c r="I216">
+        <v>11005</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="B217" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="C217" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F217" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="B218" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="C218" t="s">
-        <v>76</v>
-      </c>
-      <c r="D218" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="F218" t="s">
-        <v>739</v>
-      </c>
-      <c r="H218">
-        <v>2808</v>
+        <v>736</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="B219" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="C219" t="s">
-        <v>742</v>
+        <v>76</v>
       </c>
       <c r="D219" t="s">
-        <v>743</v>
+        <v>62</v>
       </c>
       <c r="F219" t="s">
-        <v>744</v>
-      </c>
-      <c r="I219">
-        <v>20758</v>
+        <v>739</v>
+      </c>
+      <c r="H219">
+        <v>2808</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="B220" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="C220" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="D220" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="F220" t="s">
-        <v>749</v>
-      </c>
-      <c r="H220">
-        <v>7938</v>
+        <v>744</v>
+      </c>
+      <c r="I220">
+        <v>20758</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="B221" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="C221" t="s">
-        <v>424</v>
+        <v>747</v>
+      </c>
+      <c r="D221" t="s">
+        <v>748</v>
       </c>
       <c r="F221" t="s">
         <v>749</v>
       </c>
+      <c r="H221">
+        <v>7938</v>
+      </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B222" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C222" t="s">
-        <v>754</v>
-      </c>
-      <c r="D222" t="s">
-        <v>755</v>
+        <v>424</v>
       </c>
       <c r="F222" t="s">
-        <v>756</v>
-      </c>
-      <c r="H222">
-        <v>5677</v>
+        <v>749</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="B223" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="C223" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="D223" t="s">
         <v>755</v>
@@ -8881,151 +8899,151 @@
         <v>756</v>
       </c>
       <c r="H223">
-        <v>8152</v>
+        <v>5677</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="B224" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="C224" t="s">
-        <v>286</v>
+        <v>759</v>
       </c>
       <c r="D224" t="s">
-        <v>456</v>
+        <v>755</v>
       </c>
       <c r="F224" t="s">
-        <v>762</v>
-      </c>
-      <c r="I224">
-        <v>11950</v>
+        <v>756</v>
+      </c>
+      <c r="H224">
+        <v>8152</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="B225" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="C225" t="s">
-        <v>14</v>
+        <v>286</v>
+      </c>
+      <c r="D225" t="s">
+        <v>456</v>
       </c>
       <c r="F225" t="s">
-        <v>765</v>
+        <v>762</v>
+      </c>
+      <c r="I225">
+        <v>11950</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="B226" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="C226" t="s">
-        <v>768</v>
+        <v>14</v>
       </c>
       <c r="F226" t="s">
-        <v>769</v>
-      </c>
-      <c r="I226">
-        <v>8374</v>
+        <v>765</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="B227" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="C227" t="s">
-        <v>772</v>
-      </c>
-      <c r="D227" t="s">
-        <v>290</v>
+        <v>768</v>
       </c>
       <c r="F227" t="s">
-        <v>773</v>
-      </c>
-      <c r="H227">
-        <v>4264</v>
+        <v>769</v>
+      </c>
+      <c r="I227">
+        <v>8374</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="B228" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="C228" t="s">
-        <v>33</v>
+        <v>772</v>
+      </c>
+      <c r="D228" t="s">
+        <v>290</v>
       </c>
       <c r="F228" t="s">
-        <v>776</v>
+        <v>773</v>
+      </c>
+      <c r="H228">
+        <v>4264</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="B229" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="C229" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="F229" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="B230" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="C230" t="s">
-        <v>782</v>
-      </c>
-      <c r="D230" t="s">
-        <v>159</v>
+        <v>62</v>
       </c>
       <c r="F230" t="s">
-        <v>783</v>
-      </c>
-      <c r="I230">
-        <v>1754</v>
+        <v>779</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="B231" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="C231" t="s">
-        <v>14</v>
+        <v>782</v>
       </c>
       <c r="D231" t="s">
-        <v>786</v>
+        <v>159</v>
       </c>
       <c r="F231" t="s">
-        <v>787</v>
-      </c>
-      <c r="H231">
-        <v>4946</v>
+        <v>783</v>
+      </c>
+      <c r="I231">
+        <v>1754</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="B232" t="s">
         <v>785</v>
@@ -9045,83 +9063,89 @@
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B233" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="C233" t="s">
-        <v>112</v>
+        <v>14</v>
+      </c>
+      <c r="D233" t="s">
+        <v>786</v>
       </c>
       <c r="F233" t="s">
-        <v>791</v>
+        <v>787</v>
+      </c>
+      <c r="H233">
+        <v>4946</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B234" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="C234" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="F234" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="B235" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="C235" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="F235" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="B236" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="C236" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="B237" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="C237" t="s">
-        <v>62</v>
+        <v>130</v>
       </c>
       <c r="F237" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="B238" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="C238" t="s">
-        <v>159</v>
+        <v>62</v>
       </c>
       <c r="F238" t="s">
         <v>803</v>
@@ -9129,13 +9153,13 @@
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B239" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C239" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="F239" t="s">
         <v>803</v>
@@ -9143,13 +9167,13 @@
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B240" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C240" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="F240" t="s">
         <v>803</v>
@@ -9157,13 +9181,13 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B241" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C241" t="s">
-        <v>117</v>
+        <v>10</v>
       </c>
       <c r="F241" t="s">
         <v>803</v>
@@ -9171,185 +9195,185 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B242" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C242" t="s">
         <v>117</v>
       </c>
       <c r="F242" t="s">
-        <v>814</v>
+        <v>803</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="B243" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="C243" t="s">
-        <v>817</v>
+        <v>117</v>
       </c>
       <c r="F243" t="s">
-        <v>818</v>
-      </c>
-      <c r="H243">
-        <v>6632</v>
+        <v>814</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="B244" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="C244" t="s">
-        <v>28</v>
+        <v>817</v>
       </c>
       <c r="F244" t="s">
-        <v>821</v>
+        <v>818</v>
+      </c>
+      <c r="H244">
+        <v>6632</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="B245" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="C245" t="s">
-        <v>824</v>
-      </c>
-      <c r="D245" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="F245" t="s">
-        <v>825</v>
-      </c>
-      <c r="H245">
-        <v>8826</v>
+        <v>821</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="B246" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="C246" t="s">
-        <v>14</v>
+        <v>824</v>
+      </c>
+      <c r="D246" t="s">
+        <v>91</v>
       </c>
       <c r="F246" t="s">
-        <v>828</v>
+        <v>825</v>
+      </c>
+      <c r="H246">
+        <v>8826</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="B247" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="C247" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="F247" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="B248" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="C248" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="F248" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="B249" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="C249" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="B250" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C250" t="s">
-        <v>526</v>
-      </c>
-      <c r="D250" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F250" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="B251" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="C251" t="s">
-        <v>71</v>
+        <v>526</v>
       </c>
       <c r="D251" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="F251" t="s">
-        <v>843</v>
-      </c>
-      <c r="H251">
-        <v>4602</v>
+        <v>840</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="B252" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="C252" t="s">
-        <v>54</v>
+        <v>71</v>
+      </c>
+      <c r="D252" t="s">
+        <v>76</v>
       </c>
       <c r="F252" t="s">
-        <v>846</v>
+        <v>843</v>
+      </c>
+      <c r="H252">
+        <v>4602</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B253" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="C253" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="F253" t="s">
         <v>846</v>
@@ -9357,69 +9381,69 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B254" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C254" t="s">
         <v>27</v>
       </c>
       <c r="F254" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="B255" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="C255" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="F255" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="B256" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="C256" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="F256" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="B257" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="C257" t="s">
-        <v>159</v>
+        <v>27</v>
       </c>
       <c r="F257" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="B258" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="C258" t="s">
-        <v>27</v>
+        <v>159</v>
       </c>
       <c r="F258" t="s">
         <v>860</v>
@@ -9427,159 +9451,159 @@
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B259" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="C259" t="s">
         <v>27</v>
       </c>
       <c r="F259" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="B260" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="C260" t="s">
-        <v>67</v>
-      </c>
-      <c r="D260" t="s">
-        <v>867</v>
+        <v>27</v>
       </c>
       <c r="F260" t="s">
-        <v>868</v>
-      </c>
-      <c r="H260">
-        <v>3945</v>
+        <v>865</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B261" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="C261" t="s">
-        <v>91</v>
+        <v>67</v>
+      </c>
+      <c r="D261" t="s">
+        <v>867</v>
       </c>
       <c r="F261" t="s">
-        <v>872</v>
+        <v>868</v>
+      </c>
+      <c r="H261">
+        <v>3945</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="B262" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="C262" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="F262" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="B263" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="C263" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F263" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="B264" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C264" t="s">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="F264" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B265" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="C265" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="F265" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="B266" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="C266" t="s">
-        <v>159</v>
+        <v>14</v>
       </c>
       <c r="F266" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="B267" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="C267" t="s">
-        <v>117</v>
+        <v>159</v>
       </c>
       <c r="F267" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="B268" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="C268" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="F268" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="B269" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="C269" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F269" t="s">
         <v>893</v>
@@ -9587,919 +9611,919 @@
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="B270" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="C270" t="s">
-        <v>900</v>
-      </c>
-      <c r="D270" t="s">
-        <v>213</v>
+        <v>27</v>
       </c>
       <c r="F270" t="s">
-        <v>897</v>
-      </c>
-      <c r="I270">
-        <v>30688</v>
+        <v>893</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="B271" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="C271" t="s">
-        <v>130</v>
+        <v>900</v>
+      </c>
+      <c r="D271" t="s">
+        <v>213</v>
       </c>
       <c r="F271" t="s">
         <v>897</v>
       </c>
+      <c r="I271">
+        <v>30688</v>
+      </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B272" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="C272" t="s">
-        <v>67</v>
-      </c>
-      <c r="D272" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="F272" t="s">
         <v>897</v>
       </c>
-      <c r="H272">
-        <v>5160</v>
-      </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B273" t="s">
-        <v>905</v>
+        <v>896</v>
       </c>
       <c r="C273" t="s">
-        <v>62</v>
+        <v>67</v>
+      </c>
+      <c r="D273" t="s">
+        <v>121</v>
       </c>
       <c r="F273" t="s">
-        <v>906</v>
+        <v>897</v>
+      </c>
+      <c r="H273">
+        <v>5160</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="B274" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="C274" t="s">
-        <v>909</v>
-      </c>
-      <c r="D274" t="s">
-        <v>910</v>
+        <v>62</v>
       </c>
       <c r="F274" t="s">
-        <v>911</v>
-      </c>
-      <c r="H274">
-        <v>6191</v>
+        <v>906</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="B275" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="C275" t="s">
-        <v>256</v>
+        <v>909</v>
+      </c>
+      <c r="D275" t="s">
+        <v>910</v>
       </c>
       <c r="F275" t="s">
-        <v>914</v>
+        <v>911</v>
+      </c>
+      <c r="H275">
+        <v>6191</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="B276" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="C276" t="s">
-        <v>117</v>
+        <v>256</v>
       </c>
       <c r="F276" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="B277" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="C277" t="s">
-        <v>121</v>
-      </c>
-      <c r="D277" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="F277" t="s">
-        <v>920</v>
-      </c>
-      <c r="I277">
-        <v>19203</v>
+        <v>917</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="B278" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="C278" t="s">
         <v>121</v>
       </c>
       <c r="D278" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="F278" t="s">
         <v>920</v>
       </c>
+      <c r="I278">
+        <v>19203</v>
+      </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B279" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="C279" t="s">
-        <v>117</v>
+        <v>121</v>
+      </c>
+      <c r="D279" t="s">
+        <v>33</v>
       </c>
       <c r="F279" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="B280" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="C280" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="F280" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="B281" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="C281" t="s">
-        <v>330</v>
-      </c>
-      <c r="D281" t="s">
-        <v>931</v>
+        <v>159</v>
       </c>
       <c r="F281" t="s">
-        <v>932</v>
-      </c>
-      <c r="H281">
-        <v>5164</v>
+        <v>928</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="B282" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="C282" t="s">
-        <v>27</v>
+        <v>330</v>
+      </c>
+      <c r="D282" t="s">
+        <v>931</v>
       </c>
       <c r="F282" t="s">
         <v>932</v>
       </c>
+      <c r="H282">
+        <v>5164</v>
+      </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="B283" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="C283" t="s">
-        <v>324</v>
-      </c>
-      <c r="D283" t="s">
-        <v>937</v>
+        <v>27</v>
       </c>
       <c r="F283" t="s">
         <v>932</v>
       </c>
-      <c r="I283">
-        <v>31998</v>
-      </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="B284" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="C284" t="s">
-        <v>940</v>
+        <v>324</v>
       </c>
       <c r="D284" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="F284" t="s">
-        <v>942</v>
+        <v>932</v>
       </c>
       <c r="I284">
-        <v>25681</v>
+        <v>31998</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="B285" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="C285" t="s">
-        <v>112</v>
+        <v>940</v>
+      </c>
+      <c r="D285" t="s">
+        <v>941</v>
       </c>
       <c r="F285" t="s">
-        <v>945</v>
+        <v>942</v>
+      </c>
+      <c r="I285">
+        <v>25681</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="B286" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="C286" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="F286" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="B287" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="C287" t="s">
-        <v>66</v>
-      </c>
-      <c r="D287" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F287" t="s">
-        <v>951</v>
-      </c>
-      <c r="H287">
-        <v>3150</v>
+        <v>948</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="B288" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="C288" t="s">
+        <v>66</v>
+      </c>
+      <c r="D288" t="s">
         <v>62</v>
       </c>
       <c r="F288" t="s">
-        <v>954</v>
+        <v>951</v>
+      </c>
+      <c r="H288">
+        <v>3150</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>962</v>
+        <v>952</v>
       </c>
       <c r="B289" t="s">
-        <v>963</v>
+        <v>953</v>
       </c>
       <c r="C289" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="F289" t="s">
-        <v>964</v>
+        <v>954</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>955</v>
+        <v>962</v>
       </c>
       <c r="B290" t="s">
-        <v>956</v>
+        <v>963</v>
       </c>
       <c r="C290" t="s">
-        <v>67</v>
-      </c>
-      <c r="D290" t="s">
-        <v>772</v>
+        <v>10</v>
       </c>
       <c r="F290" t="s">
-        <v>957</v>
-      </c>
-      <c r="H290">
-        <v>4829</v>
+        <v>964</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>965</v>
+        <v>955</v>
       </c>
       <c r="B291" t="s">
-        <v>966</v>
+        <v>956</v>
       </c>
       <c r="C291" t="s">
-        <v>27</v>
+        <v>67</v>
+      </c>
+      <c r="D291" t="s">
+        <v>772</v>
       </c>
       <c r="F291" t="s">
-        <v>967</v>
+        <v>957</v>
+      </c>
+      <c r="H291">
+        <v>4829</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="B292" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="C292" t="s">
-        <v>121</v>
-      </c>
-      <c r="D292" t="s">
-        <v>970</v>
+        <v>27</v>
       </c>
       <c r="F292" t="s">
-        <v>971</v>
-      </c>
-      <c r="H292">
-        <v>3115</v>
+        <v>967</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="B293" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="C293" t="s">
-        <v>130</v>
+        <v>121</v>
+      </c>
+      <c r="D293" t="s">
+        <v>970</v>
       </c>
       <c r="F293" t="s">
         <v>971</v>
       </c>
+      <c r="H293">
+        <v>3115</v>
+      </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B294" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="C294" t="s">
-        <v>324</v>
-      </c>
-      <c r="D294" t="s">
-        <v>71</v>
+        <v>130</v>
       </c>
       <c r="F294" t="s">
-        <v>976</v>
-      </c>
-      <c r="G294" t="s">
-        <v>209</v>
-      </c>
-      <c r="H294">
-        <v>4446</v>
-      </c>
-      <c r="I294">
-        <v>28556</v>
+        <v>971</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>958</v>
+        <v>974</v>
       </c>
       <c r="B295" t="s">
-        <v>959</v>
+        <v>975</v>
       </c>
       <c r="C295" t="s">
-        <v>960</v>
+        <v>324</v>
       </c>
       <c r="D295" t="s">
         <v>71</v>
       </c>
       <c r="F295" t="s">
-        <v>961</v>
+        <v>976</v>
+      </c>
+      <c r="G295" t="s">
+        <v>209</v>
       </c>
       <c r="H295">
-        <v>9348</v>
+        <v>4446</v>
+      </c>
+      <c r="I295">
+        <v>28556</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>977</v>
+        <v>958</v>
       </c>
       <c r="B296" t="s">
-        <v>978</v>
+        <v>959</v>
       </c>
       <c r="C296" t="s">
-        <v>648</v>
+        <v>960</v>
       </c>
       <c r="D296" t="s">
-        <v>979</v>
+        <v>71</v>
       </c>
       <c r="F296" t="s">
-        <v>980</v>
+        <v>961</v>
       </c>
       <c r="H296">
-        <v>3678</v>
-      </c>
-      <c r="I296">
-        <v>29557</v>
+        <v>9348</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="B297" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="C297" t="s">
-        <v>424</v>
+        <v>648</v>
+      </c>
+      <c r="D297" t="s">
+        <v>979</v>
       </c>
       <c r="F297" t="s">
-        <v>983</v>
+        <v>980</v>
+      </c>
+      <c r="H297">
+        <v>3678</v>
+      </c>
+      <c r="I297">
+        <v>29557</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="B298" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="C298" t="s">
-        <v>155</v>
+        <v>424</v>
       </c>
       <c r="F298" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="B299" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="C299" t="s">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="F299" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="B300" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="C300" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="F300" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="B301" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="C301" t="s">
-        <v>995</v>
-      </c>
-      <c r="D301" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="F301" t="s">
-        <v>996</v>
-      </c>
-      <c r="I301">
-        <v>12155</v>
+        <v>992</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="B302" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="C302" t="s">
-        <v>159</v>
+        <v>995</v>
+      </c>
+      <c r="D302" t="s">
+        <v>135</v>
       </c>
       <c r="F302" t="s">
-        <v>999</v>
+        <v>996</v>
+      </c>
+      <c r="I302">
+        <v>12155</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="B303" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="C303" t="s">
-        <v>1002</v>
-      </c>
-      <c r="D303" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="F303" t="s">
-        <v>1003</v>
-      </c>
-      <c r="H303">
-        <v>2561</v>
+        <v>999</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="B304" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="C304" t="s">
-        <v>10</v>
+        <v>1002</v>
+      </c>
+      <c r="D304" t="s">
+        <v>112</v>
       </c>
       <c r="F304" t="s">
-        <v>1006</v>
+        <v>1003</v>
+      </c>
+      <c r="H304">
+        <v>2561</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="B305" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="C305" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F305" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="B306" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="C306" t="s">
         <v>28</v>
       </c>
       <c r="F306" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="B307" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="C307" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F307" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="B308" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="C308" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="F308" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="B309" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="C309" t="s">
-        <v>191</v>
-      </c>
-      <c r="D309" t="s">
-        <v>1021</v>
+        <v>27</v>
       </c>
       <c r="F309" t="s">
-        <v>1022</v>
-      </c>
-      <c r="H309">
-        <v>8662</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="B310" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="C310" t="s">
-        <v>1025</v>
+        <v>191</v>
       </c>
       <c r="D310" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="F310" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="H310">
-        <v>9153</v>
-      </c>
-      <c r="I310">
-        <v>62665</v>
+        <v>8662</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>1030</v>
+        <v>1023</v>
       </c>
       <c r="B311" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="C311" t="s">
-        <v>67</v>
+        <v>1025</v>
       </c>
       <c r="D311" t="s">
-        <v>163</v>
+        <v>1026</v>
       </c>
       <c r="F311" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="H311">
-        <v>7793</v>
+        <v>9153</v>
+      </c>
+      <c r="I311">
+        <v>62665</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B312" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="C312" t="s">
-        <v>1033</v>
+        <v>67</v>
       </c>
       <c r="D312" t="s">
-        <v>772</v>
+        <v>163</v>
       </c>
       <c r="F312" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="H312">
-        <v>5009</v>
+        <v>7793</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="B313" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="C313" t="s">
-        <v>27</v>
+        <v>1033</v>
+      </c>
+      <c r="D313" t="s">
+        <v>772</v>
       </c>
       <c r="F313" t="s">
-        <v>1037</v>
+        <v>1034</v>
+      </c>
+      <c r="H313">
+        <v>5009</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="B314" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="C314" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="F314" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>1417</v>
+        <v>1038</v>
       </c>
       <c r="B315" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="C315" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="F315" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>1043</v>
+        <v>1416</v>
       </c>
       <c r="B316" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="C316" t="s">
-        <v>648</v>
-      </c>
-      <c r="D316" t="s">
-        <v>694</v>
+        <v>28</v>
       </c>
       <c r="F316" t="s">
-        <v>1045</v>
-      </c>
-      <c r="I316">
-        <v>21908</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="B317" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="C317" t="s">
-        <v>159</v>
+        <v>648</v>
+      </c>
+      <c r="D317" t="s">
+        <v>694</v>
       </c>
       <c r="F317" t="s">
-        <v>1048</v>
+        <v>1045</v>
+      </c>
+      <c r="I317">
+        <v>21908</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="B318" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="C318" t="s">
-        <v>102</v>
-      </c>
-      <c r="D318" t="s">
-        <v>1051</v>
+        <v>159</v>
       </c>
       <c r="F318" t="s">
-        <v>1052</v>
-      </c>
-      <c r="H318">
-        <v>4894</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="B319" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="C319" t="s">
-        <v>256</v>
+        <v>102</v>
+      </c>
+      <c r="D319" t="s">
+        <v>1051</v>
       </c>
       <c r="F319" t="s">
-        <v>1055</v>
+        <v>1052</v>
+      </c>
+      <c r="H319">
+        <v>4894</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="B320" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="C320" t="s">
         <v>256</v>
       </c>
       <c r="F320" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="B321" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="C321" t="s">
-        <v>91</v>
+        <v>256</v>
       </c>
       <c r="F321" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="B322" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="C322" t="s">
-        <v>111</v>
-      </c>
-      <c r="D322" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="F322" t="s">
-        <v>1064</v>
-      </c>
-      <c r="G322" t="s">
-        <v>209</v>
-      </c>
-      <c r="I322">
-        <v>7885</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="B323" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="C323" t="s">
-        <v>62</v>
+        <v>111</v>
+      </c>
+      <c r="D323" t="s">
+        <v>33</v>
       </c>
       <c r="F323" t="s">
-        <v>1067</v>
+        <v>1064</v>
+      </c>
+      <c r="G323" t="s">
+        <v>209</v>
+      </c>
+      <c r="I323">
+        <v>7885</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="B324" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="C324" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="F324" t="s">
         <v>1067</v>
@@ -10507,724 +10531,721 @@
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="B325" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="C325" t="s">
-        <v>76</v>
-      </c>
-      <c r="D325" t="s">
-        <v>1072</v>
+        <v>14</v>
       </c>
       <c r="F325" t="s">
         <v>1067</v>
       </c>
-      <c r="H325">
-        <v>4389</v>
-      </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="B326" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="C326" t="s">
-        <v>1075</v>
+        <v>76</v>
       </c>
       <c r="D326" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="F326" t="s">
-        <v>1077</v>
+        <v>1067</v>
       </c>
       <c r="H326">
-        <v>4322</v>
+        <v>4389</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="B327" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="C327" t="s">
-        <v>130</v>
+        <v>1075</v>
+      </c>
+      <c r="D327" t="s">
+        <v>1076</v>
       </c>
       <c r="F327" t="s">
         <v>1077</v>
       </c>
+      <c r="H327">
+        <v>4322</v>
+      </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="B328" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="C328" t="s">
-        <v>117</v>
-      </c>
-      <c r="D328" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F328" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="B329" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="C329" t="s">
         <v>117</v>
       </c>
+      <c r="D329" t="s">
+        <v>135</v>
+      </c>
       <c r="F329" t="s">
         <v>1082</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="B330" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="C330" t="s">
-        <v>226</v>
-      </c>
-      <c r="D330" t="s">
-        <v>1075</v>
+        <v>117</v>
       </c>
       <c r="F330" t="s">
-        <v>1087</v>
-      </c>
-      <c r="H330">
-        <v>3596</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="B331" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="C331" t="s">
-        <v>330</v>
+        <v>226</v>
       </c>
       <c r="D331" t="s">
-        <v>213</v>
+        <v>1075</v>
       </c>
       <c r="F331" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="H331">
-        <v>5504</v>
-      </c>
-      <c r="I331">
-        <v>35379</v>
+        <v>3596</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="B332" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="C332" t="s">
-        <v>456</v>
+        <v>330</v>
       </c>
       <c r="D332" t="s">
-        <v>91</v>
+        <v>213</v>
       </c>
       <c r="F332" t="s">
-        <v>1093</v>
+        <v>1090</v>
+      </c>
+      <c r="H332">
+        <v>5504</v>
       </c>
       <c r="I332">
-        <v>9157</v>
+        <v>35379</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="B333" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C333" t="s">
-        <v>1096</v>
+        <v>456</v>
       </c>
       <c r="D333" t="s">
-        <v>135</v>
+        <v>91</v>
       </c>
       <c r="F333" t="s">
         <v>1093</v>
       </c>
       <c r="I333">
-        <v>4588</v>
+        <v>9157</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="B334" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="C334" t="s">
-        <v>10</v>
+        <v>1096</v>
+      </c>
+      <c r="D334" t="s">
+        <v>135</v>
       </c>
       <c r="F334" t="s">
-        <v>1099</v>
+        <v>1093</v>
+      </c>
+      <c r="I334">
+        <v>4588</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="B335" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="C335" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="F335" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="B336" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="C336" t="s">
-        <v>163</v>
-      </c>
-      <c r="D336" t="s">
-        <v>71</v>
+        <v>159</v>
       </c>
       <c r="F336" t="s">
-        <v>1105</v>
-      </c>
-      <c r="H336">
-        <v>6212</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="B337" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="C337" t="s">
-        <v>255</v>
+        <v>163</v>
       </c>
       <c r="D337" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F337" t="s">
         <v>1105</v>
       </c>
-      <c r="I337">
-        <v>32143</v>
+      <c r="H337">
+        <v>6212</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="B338" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="C338" t="s">
-        <v>27</v>
+        <v>255</v>
+      </c>
+      <c r="D338" t="s">
+        <v>67</v>
       </c>
       <c r="F338" t="s">
         <v>1105</v>
       </c>
+      <c r="I338">
+        <v>32143</v>
+      </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="B339" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="C339" t="s">
-        <v>1112</v>
-      </c>
-      <c r="D339" t="s">
-        <v>1113</v>
+        <v>27</v>
       </c>
       <c r="F339" t="s">
-        <v>1114</v>
-      </c>
-      <c r="H339">
-        <v>8063</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>1115</v>
+        <v>1110</v>
       </c>
       <c r="B340" t="s">
-        <v>1116</v>
+        <v>1111</v>
       </c>
       <c r="C340" t="s">
-        <v>1117</v>
+        <v>1112</v>
       </c>
       <c r="D340" t="s">
-        <v>960</v>
+        <v>1113</v>
       </c>
       <c r="F340" t="s">
         <v>1114</v>
       </c>
       <c r="H340">
-        <v>8391</v>
+        <v>8063</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="B341" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="C341" t="s">
-        <v>67</v>
+        <v>1117</v>
       </c>
       <c r="D341" t="s">
-        <v>1120</v>
+        <v>960</v>
       </c>
       <c r="F341" t="s">
-        <v>1121</v>
-      </c>
-      <c r="I341">
-        <v>30850</v>
+        <v>1114</v>
+      </c>
+      <c r="H341">
+        <v>8391</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="B342" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="C342" t="s">
-        <v>10</v>
+        <v>67</v>
+      </c>
+      <c r="D342" t="s">
+        <v>1120</v>
       </c>
       <c r="F342" t="s">
-        <v>1124</v>
+        <v>1121</v>
+      </c>
+      <c r="I342">
+        <v>30850</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="B343" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="C343" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F343" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="B344" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="C344" t="s">
-        <v>772</v>
-      </c>
-      <c r="D344" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F344" t="s">
-        <v>1130</v>
-      </c>
-      <c r="H344">
-        <v>3089</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="B345" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="C345" t="s">
-        <v>507</v>
+        <v>772</v>
+      </c>
+      <c r="D345" t="s">
+        <v>27</v>
       </c>
       <c r="F345" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="H345">
-        <v>3797</v>
-      </c>
-      <c r="I345">
-        <v>25283</v>
+        <v>3089</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="B346" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="C346" t="s">
-        <v>1418</v>
-      </c>
-      <c r="D346" t="s">
-        <v>28</v>
+        <v>507</v>
       </c>
       <c r="F346" t="s">
         <v>1133</v>
       </c>
       <c r="H346">
-        <v>7969</v>
+        <v>3797</v>
+      </c>
+      <c r="I346">
+        <v>25283</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="B347" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="C347" t="s">
-        <v>27</v>
+        <v>1417</v>
+      </c>
+      <c r="D347" t="s">
+        <v>28</v>
       </c>
       <c r="F347" t="s">
-        <v>1138</v>
+        <v>1133</v>
+      </c>
+      <c r="H347">
+        <v>7969</v>
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="B348" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="C348" t="s">
-        <v>256</v>
+        <v>27</v>
       </c>
       <c r="F348" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="B349" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="C349" t="s">
-        <v>163</v>
-      </c>
-      <c r="D349" t="s">
-        <v>1144</v>
+        <v>256</v>
       </c>
       <c r="F349" t="s">
-        <v>1145</v>
-      </c>
-      <c r="I349">
-        <v>27285</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="B350" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="C350" t="s">
-        <v>424</v>
+        <v>163</v>
+      </c>
+      <c r="D350" t="s">
+        <v>1144</v>
       </c>
       <c r="F350" t="s">
-        <v>1148</v>
+        <v>1145</v>
+      </c>
+      <c r="I350">
+        <v>27285</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="B351" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="C351" t="s">
-        <v>130</v>
+        <v>424</v>
       </c>
       <c r="F351" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="B352" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="C352" t="s">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="F352" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="B353" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="C353" t="s">
-        <v>121</v>
-      </c>
-      <c r="D353" t="s">
-        <v>1157</v>
+        <v>43</v>
       </c>
       <c r="F353" t="s">
-        <v>1158</v>
-      </c>
-      <c r="I353">
-        <v>21099</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="B354" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="C354" t="s">
-        <v>91</v>
+        <v>121</v>
+      </c>
+      <c r="D354" t="s">
+        <v>1157</v>
       </c>
       <c r="F354" t="s">
-        <v>1161</v>
+        <v>1158</v>
+      </c>
+      <c r="I354">
+        <v>21099</v>
       </c>
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="B355" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="C355" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="F355" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="B356" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="C356" t="s">
-        <v>117</v>
+        <v>15</v>
       </c>
       <c r="F356" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="B357" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="C357" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="F357" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="B358" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="C358" t="s">
-        <v>1173</v>
-      </c>
-      <c r="D358" t="s">
-        <v>1174</v>
+        <v>27</v>
       </c>
       <c r="F358" t="s">
         <v>1170</v>
       </c>
-      <c r="H358">
-        <v>8279</v>
-      </c>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="B359" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="C359" t="s">
-        <v>91</v>
+        <v>1173</v>
+      </c>
+      <c r="D359" t="s">
+        <v>1174</v>
       </c>
       <c r="F359" t="s">
-        <v>1177</v>
+        <v>1170</v>
+      </c>
+      <c r="H359">
+        <v>8279</v>
       </c>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="B360" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="C360" t="s">
-        <v>256</v>
+        <v>91</v>
       </c>
       <c r="F360" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="B361" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="C361" t="s">
-        <v>27</v>
+        <v>256</v>
       </c>
       <c r="F361" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="B362" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="C362" t="s">
-        <v>47</v>
-      </c>
-      <c r="D362" t="s">
-        <v>507</v>
+        <v>27</v>
       </c>
       <c r="F362" t="s">
         <v>1183</v>
       </c>
-      <c r="I362">
-        <v>22288</v>
-      </c>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="B363" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="C363" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="D363" t="s">
-        <v>941</v>
+        <v>507</v>
       </c>
       <c r="F363" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="I363">
-        <v>19342</v>
+        <v>22288</v>
       </c>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="B364" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="C364" t="s">
-        <v>15</v>
+        <v>71</v>
+      </c>
+      <c r="D364" t="s">
+        <v>941</v>
       </c>
       <c r="F364" t="s">
-        <v>1191</v>
+        <v>1188</v>
+      </c>
+      <c r="I364">
+        <v>19342</v>
       </c>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="B365" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="C365" t="s">
-        <v>72</v>
-      </c>
-      <c r="D365" t="s">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="F365" t="s">
-        <v>1194</v>
-      </c>
-      <c r="I365">
-        <v>25289</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="B366" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="C366" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="D366" t="s">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="F366" t="s">
-        <v>1197</v>
+        <v>1194</v>
+      </c>
+      <c r="I366">
+        <v>25289</v>
       </c>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>1419</v>
+        <v>1195</v>
       </c>
       <c r="B367" t="s">
         <v>1196</v>
@@ -11241,13 +11262,16 @@
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>1198</v>
+        <v>1418</v>
       </c>
       <c r="B368" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="C368" t="s">
-        <v>62</v>
+        <v>28</v>
+      </c>
+      <c r="D368" t="s">
+        <v>43</v>
       </c>
       <c r="F368" t="s">
         <v>1197</v>
@@ -11255,13 +11279,13 @@
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="B369" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="C369" t="s">
-        <v>392</v>
+        <v>62</v>
       </c>
       <c r="F369" t="s">
         <v>1197</v>
@@ -11269,459 +11293,459 @@
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="B370" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="C370" t="s">
-        <v>76</v>
-      </c>
-      <c r="D370" t="s">
-        <v>213</v>
+        <v>392</v>
       </c>
       <c r="F370" t="s">
         <v>1197</v>
       </c>
-      <c r="I370">
-        <v>74771</v>
-      </c>
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="B371" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="C371" t="s">
-        <v>43</v>
+        <v>76</v>
+      </c>
+      <c r="D371" t="s">
+        <v>213</v>
       </c>
       <c r="F371" t="s">
         <v>1197</v>
       </c>
+      <c r="I371">
+        <v>74771</v>
+      </c>
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="B372" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="C372" t="s">
-        <v>112</v>
+        <v>43</v>
       </c>
       <c r="F372" t="s">
-        <v>1208</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="B373" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="C373" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="F373" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="B374" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="C374" t="s">
         <v>10</v>
       </c>
       <c r="F374" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="375" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="B375" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="C375" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="F375" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="B376" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="C376" t="s">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="F376" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="B377" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="C377" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="F377" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="B378" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="C378" t="s">
-        <v>392</v>
+        <v>117</v>
       </c>
       <c r="F378" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="B379" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="C379" t="s">
-        <v>647</v>
-      </c>
-      <c r="D379" t="s">
-        <v>1229</v>
+        <v>392</v>
       </c>
       <c r="F379" t="s">
-        <v>1230</v>
-      </c>
-      <c r="H379">
-        <v>3650</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="B380" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="C380" t="s">
-        <v>1233</v>
+        <v>647</v>
       </c>
       <c r="D380" t="s">
-        <v>432</v>
+        <v>1229</v>
       </c>
       <c r="F380" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="H380">
-        <v>7294</v>
-      </c>
-      <c r="I380">
-        <v>60260</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="B381" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
       <c r="C381" t="s">
-        <v>10</v>
+        <v>1233</v>
+      </c>
+      <c r="D381" t="s">
+        <v>432</v>
       </c>
       <c r="F381" t="s">
-        <v>1237</v>
+        <v>1234</v>
+      </c>
+      <c r="H381">
+        <v>7294</v>
+      </c>
+      <c r="I381">
+        <v>60260</v>
       </c>
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="B382" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="C382" t="s">
-        <v>598</v>
-      </c>
-      <c r="D382" t="s">
-        <v>1240</v>
+        <v>10</v>
       </c>
       <c r="F382" t="s">
-        <v>1241</v>
-      </c>
-      <c r="H382">
-        <v>6734</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>1244</v>
+        <v>1238</v>
       </c>
       <c r="B383" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="C383" t="s">
-        <v>102</v>
+        <v>598</v>
       </c>
       <c r="D383" t="s">
-        <v>135</v>
+        <v>1240</v>
       </c>
       <c r="F383" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="H383">
-        <v>2583</v>
+        <v>6734</v>
       </c>
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B384" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="C384" t="s">
-        <v>14</v>
+        <v>102</v>
+      </c>
+      <c r="D384" t="s">
+        <v>135</v>
       </c>
       <c r="F384" t="s">
-        <v>1247</v>
+        <v>1243</v>
+      </c>
+      <c r="H384">
+        <v>2583</v>
       </c>
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="B385" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="C385" t="s">
-        <v>1250</v>
-      </c>
-      <c r="D385" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="F385" t="s">
-        <v>1251</v>
-      </c>
-      <c r="I385">
-        <v>14369</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="B386" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="C386" t="s">
-        <v>10</v>
+        <v>1250</v>
+      </c>
+      <c r="D386" t="s">
+        <v>62</v>
       </c>
       <c r="F386" t="s">
-        <v>1254</v>
+        <v>1251</v>
+      </c>
+      <c r="I386">
+        <v>14369</v>
       </c>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="B387" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="C387" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="F387" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="B388" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="C388" t="s">
-        <v>223</v>
-      </c>
-      <c r="D388" t="s">
-        <v>27</v>
+        <v>159</v>
       </c>
       <c r="F388" t="s">
-        <v>1260</v>
-      </c>
-      <c r="I388">
-        <v>15373</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="B389" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="C389" t="s">
-        <v>159</v>
+        <v>223</v>
+      </c>
+      <c r="D389" t="s">
+        <v>27</v>
       </c>
       <c r="F389" t="s">
-        <v>1263</v>
+        <v>1260</v>
+      </c>
+      <c r="I389">
+        <v>15373</v>
       </c>
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="B390" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="C390" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="F390" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="391" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="B391" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="C391" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="F391" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="B392" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="C392" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="F392" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="393" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="B393" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="C393" t="s">
-        <v>1120</v>
-      </c>
-      <c r="D393" t="s">
-        <v>135</v>
+        <v>15</v>
       </c>
       <c r="F393" t="s">
         <v>1272</v>
       </c>
-      <c r="I393">
-        <v>13184</v>
-      </c>
     </row>
     <row r="394" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="B394" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="C394" t="s">
-        <v>28</v>
+        <v>1120</v>
+      </c>
+      <c r="D394" t="s">
+        <v>135</v>
       </c>
       <c r="F394" t="s">
-        <v>1277</v>
+        <v>1272</v>
+      </c>
+      <c r="I394">
+        <v>13184</v>
       </c>
     </row>
     <row r="395" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="B395" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="C395" t="s">
-        <v>1280</v>
+        <v>28</v>
       </c>
       <c r="F395" t="s">
-        <v>1281</v>
-      </c>
-      <c r="I395">
-        <v>15504</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="B396" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="C396" t="s">
-        <v>424</v>
+        <v>1280</v>
       </c>
       <c r="F396" t="s">
-        <v>1284</v>
+        <v>1281</v>
+      </c>
+      <c r="I396">
+        <v>15504</v>
       </c>
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="B397" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="C397" t="s">
-        <v>15</v>
+        <v>424</v>
       </c>
       <c r="F397" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="B398" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="C398" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="F398" t="s">
         <v>1287</v>
@@ -11729,295 +11753,301 @@
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="B399" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="C399" t="s">
-        <v>542</v>
-      </c>
-      <c r="D399" t="s">
-        <v>1292</v>
+        <v>62</v>
       </c>
       <c r="F399" t="s">
         <v>1287</v>
       </c>
-      <c r="H399">
-        <v>7925</v>
-      </c>
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="B400" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="C400" t="s">
-        <v>1295</v>
+        <v>542</v>
       </c>
       <c r="D400" t="s">
-        <v>456</v>
+        <v>1292</v>
       </c>
       <c r="F400" t="s">
-        <v>1296</v>
+        <v>1287</v>
       </c>
       <c r="H400">
-        <v>4393</v>
+        <v>7925</v>
       </c>
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="B401" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="C401" t="s">
-        <v>54</v>
+        <v>1295</v>
+      </c>
+      <c r="D401" t="s">
+        <v>456</v>
       </c>
       <c r="F401" t="s">
-        <v>1299</v>
+        <v>1296</v>
+      </c>
+      <c r="H401">
+        <v>4393</v>
       </c>
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="B402" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="C402" t="s">
-        <v>817</v>
-      </c>
-      <c r="D402" t="s">
-        <v>1302</v>
+        <v>54</v>
       </c>
       <c r="F402" t="s">
-        <v>598</v>
-      </c>
-      <c r="I402">
-        <v>35554</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="B403" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="C403" t="s">
-        <v>117</v>
+        <v>817</v>
+      </c>
+      <c r="D403" t="s">
+        <v>1302</v>
       </c>
       <c r="F403" t="s">
         <v>598</v>
       </c>
+      <c r="I403">
+        <v>35554</v>
+      </c>
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="B404" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="C404" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="F404" t="s">
-        <v>1307</v>
+        <v>598</v>
       </c>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="B405" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="C405" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="F405" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="B406" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="C406" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="F406" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="B407" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="C407" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="F407" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="B408" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="C408" t="s">
-        <v>27</v>
+        <v>130</v>
       </c>
       <c r="F408" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="B409" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="C409" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F409" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="B410" t="s">
-        <v>1324</v>
+        <v>1422</v>
       </c>
       <c r="C410" t="s">
-        <v>102</v>
+        <v>1421</v>
       </c>
       <c r="D410" t="s">
-        <v>1051</v>
+        <v>54</v>
       </c>
       <c r="F410" t="s">
-        <v>1325</v>
-      </c>
-      <c r="I410">
-        <v>16760</v>
+        <v>1321</v>
+      </c>
+      <c r="H410">
+        <v>8683</v>
       </c>
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
       <c r="B411" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
       <c r="C411" t="s">
-        <v>135</v>
+        <v>102</v>
+      </c>
+      <c r="D411" t="s">
+        <v>1051</v>
       </c>
       <c r="F411" t="s">
-        <v>1328</v>
+        <v>1324</v>
+      </c>
+      <c r="I411">
+        <v>16760</v>
       </c>
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="B412" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="C412" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F412" t="s">
-        <v>1331</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
       <c r="B413" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="C413" t="s">
-        <v>1334</v>
-      </c>
-      <c r="D413" t="s">
-        <v>507</v>
+        <v>130</v>
       </c>
       <c r="F413" t="s">
-        <v>1335</v>
-      </c>
-      <c r="I413">
-        <v>19264</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>1336</v>
+        <v>1331</v>
       </c>
       <c r="B414" t="s">
-        <v>1337</v>
+        <v>1332</v>
       </c>
       <c r="C414" t="s">
-        <v>15</v>
+        <v>1333</v>
+      </c>
+      <c r="D414" t="s">
+        <v>507</v>
       </c>
       <c r="F414" t="s">
-        <v>1338</v>
+        <v>1334</v>
+      </c>
+      <c r="I414">
+        <v>19264</v>
       </c>
     </row>
     <row r="415" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="B415" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="C415" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F415" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="B416" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="C416" t="s">
-        <v>130</v>
+        <v>27</v>
       </c>
       <c r="F416" t="s">
-        <v>1120</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="417" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="B417" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="C417" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="F417" t="s">
         <v>1120</v>
@@ -12025,372 +12055,386 @@
     </row>
     <row r="418" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="B418" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="C418" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="F418" t="s">
-        <v>1348</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="419" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
       <c r="B419" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="C419" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="F419" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="420" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="B420" t="s">
-        <v>1353</v>
+        <v>1349</v>
       </c>
       <c r="C420" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="F420" t="s">
-        <v>1354</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="421" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>1355</v>
+        <v>1351</v>
       </c>
       <c r="B421" t="s">
-        <v>1356</v>
+        <v>1352</v>
       </c>
       <c r="C421" t="s">
-        <v>28</v>
+        <v>159</v>
       </c>
       <c r="F421" t="s">
-        <v>1357</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="422" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>1358</v>
+        <v>1354</v>
       </c>
       <c r="B422" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
       <c r="C422" t="s">
-        <v>112</v>
+        <v>28</v>
       </c>
       <c r="F422" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="423" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>1361</v>
+        <v>1357</v>
       </c>
       <c r="B423" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
       <c r="C423" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="F423" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="424" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>1364</v>
+        <v>1360</v>
       </c>
       <c r="B424" t="s">
-        <v>1365</v>
+        <v>1361</v>
       </c>
       <c r="C424" t="s">
-        <v>1366</v>
-      </c>
-      <c r="D424" t="s">
-        <v>135</v>
+        <v>27</v>
       </c>
       <c r="F424" t="s">
-        <v>1367</v>
-      </c>
-      <c r="H424">
-        <v>2910</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="425" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>1368</v>
+        <v>1363</v>
       </c>
       <c r="B425" t="s">
-        <v>1369</v>
+        <v>1364</v>
       </c>
       <c r="C425" t="s">
-        <v>15</v>
+        <v>1365</v>
+      </c>
+      <c r="D425" t="s">
+        <v>135</v>
       </c>
       <c r="F425" t="s">
-        <v>1370</v>
+        <v>1366</v>
+      </c>
+      <c r="H425">
+        <v>2910</v>
       </c>
     </row>
     <row r="426" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
       <c r="B426" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="C426" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F426" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="427" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="B427" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
       <c r="C427" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="F427" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="428" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="B428" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="C428" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="F428" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="429" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="B429" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="C429" t="s">
-        <v>76</v>
-      </c>
-      <c r="D429" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="F429" t="s">
-        <v>1382</v>
-      </c>
-      <c r="I429">
-        <v>12650</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="430" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
       <c r="B430" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="C430" t="s">
-        <v>159</v>
+        <v>76</v>
+      </c>
+      <c r="D430" t="s">
+        <v>130</v>
       </c>
       <c r="F430" t="s">
-        <v>1385</v>
+        <v>1381</v>
+      </c>
+      <c r="I430">
+        <v>12650</v>
       </c>
     </row>
     <row r="431" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
       <c r="B431" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="C431" t="s">
-        <v>121</v>
-      </c>
-      <c r="D431" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="F431" t="s">
-        <v>1385</v>
-      </c>
-      <c r="I431">
-        <v>9878</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="432" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="B432" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="C432" t="s">
-        <v>130</v>
+        <v>121</v>
+      </c>
+      <c r="D432" t="s">
+        <v>10</v>
       </c>
       <c r="F432" t="s">
-        <v>1390</v>
+        <v>1384</v>
+      </c>
+      <c r="I432">
+        <v>9878</v>
       </c>
     </row>
     <row r="433" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="B433" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="C433" t="s">
-        <v>223</v>
-      </c>
-      <c r="D433" t="s">
-        <v>392</v>
+        <v>130</v>
       </c>
       <c r="F433" t="s">
-        <v>1393</v>
-      </c>
-      <c r="I433">
-        <v>15567</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="434" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="B434" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
       <c r="C434" t="s">
-        <v>28</v>
+        <v>223</v>
+      </c>
+      <c r="D434" t="s">
+        <v>392</v>
       </c>
       <c r="F434" t="s">
-        <v>1396</v>
+        <v>1392</v>
+      </c>
+      <c r="I434">
+        <v>15567</v>
       </c>
     </row>
     <row r="435" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
       <c r="B435" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="C435" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F435" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="436" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>1401</v>
+        <v>1396</v>
       </c>
       <c r="B436" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="C436" t="s">
-        <v>647</v>
-      </c>
-      <c r="D436" t="s">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="F436" t="s">
-        <v>1400</v>
-      </c>
-      <c r="H436">
-        <v>4851</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="437" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="B437" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
       <c r="C437" t="s">
-        <v>54</v>
+        <v>647</v>
+      </c>
+      <c r="D437" t="s">
+        <v>103</v>
       </c>
       <c r="F437" t="s">
-        <v>1404</v>
+        <v>1399</v>
+      </c>
+      <c r="H437">
+        <v>4851</v>
       </c>
     </row>
     <row r="438" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="B438" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
       <c r="C438" t="s">
-        <v>456</v>
-      </c>
-      <c r="D438" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="F438" t="s">
-        <v>1407</v>
-      </c>
-      <c r="I438">
-        <v>10658</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="439" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
       <c r="B439" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
       <c r="C439" t="s">
-        <v>256</v>
+        <v>456</v>
+      </c>
+      <c r="D439" t="s">
+        <v>10</v>
       </c>
       <c r="F439" t="s">
-        <v>1407</v>
+        <v>1406</v>
+      </c>
+      <c r="I439">
+        <v>10658</v>
       </c>
     </row>
     <row r="440" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B440" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C440" t="s">
+        <v>256</v>
+      </c>
+      <c r="F440" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B441" t="s">
         <v>1410</v>
       </c>
-      <c r="B440" t="s">
-        <v>1411</v>
-      </c>
-      <c r="C440" t="s">
+      <c r="C441" t="s">
         <v>1105</v>
       </c>
-      <c r="F440" t="s">
-        <v>1407</v>
-      </c>
-      <c r="H440">
+      <c r="F441" t="s">
+        <v>1406</v>
+      </c>
+      <c r="H441">
         <v>9088</v>
       </c>
-      <c r="I440">
+      <c r="I441">
         <v>67604</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:J489">
-    <sortCondition ref="F2:F489"/>
-    <sortCondition ref="C2:C489"/>
+  <sortState ref="A2:J490">
+    <sortCondition ref="F2:F490"/>
+    <sortCondition ref="C2:C490"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/surveyor.xlsx
+++ b/data/surveyor.xlsx
@@ -21,30 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1950" uniqueCount="1428">
   <si>
-    <t>fullname</t>
-  </si>
-  <si>
-    <t>firstname</t>
-  </si>
-  <si>
-    <t>secondname</t>
-  </si>
-  <si>
-    <t>thirdname</t>
-  </si>
-  <si>
-    <t>lastname</t>
-  </si>
-  <si>
-    <t>suffix</t>
-  </si>
-  <si>
-    <t>pls</t>
-  </si>
-  <si>
-    <t>rce</t>
-  </si>
-  <si>
     <t>R. AANRUD</t>
   </si>
   <si>
@@ -4278,9 +4254,6 @@
     <t>H. SMITH</t>
   </si>
   <si>
-    <t>hollins_fullname</t>
-  </si>
-  <si>
     <t>A.BONES</t>
   </si>
   <si>
@@ -4303,6 +4276,33 @@
   </si>
   <si>
     <t>BUFFINGTON</t>
+  </si>
+  <si>
+    <t>HOLLINS_FULLNAME</t>
+  </si>
+  <si>
+    <t>FULLNAME</t>
+  </si>
+  <si>
+    <t>FIRSTNAME</t>
+  </si>
+  <si>
+    <t>SECONDNAME</t>
+  </si>
+  <si>
+    <t>THIRDNAME</t>
+  </si>
+  <si>
+    <t>LASTNAME</t>
+  </si>
+  <si>
+    <t>SUFFIX</t>
+  </si>
+  <si>
+    <t>PLS</t>
+  </si>
+  <si>
+    <t>RCE</t>
   </si>
 </sst>
 </file>
@@ -5145,9 +5145,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I441"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="J52" sqref="J52"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5167,59 +5165,59 @@
         <v>1419</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1420</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>1421</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>1422</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>1423</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>1424</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>1425</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>1426</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I3">
         <v>4956</v>
@@ -5227,33 +5225,33 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H5">
         <v>4495</v>
@@ -5261,53 +5259,53 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H8">
         <v>4149</v>
@@ -5315,19 +5313,19 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H9">
         <v>2047</v>
@@ -5335,16 +5333,16 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H10">
         <v>1936</v>
@@ -5352,19 +5350,19 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H11">
         <v>4277</v>
@@ -5372,19 +5370,19 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="H12">
         <v>2823</v>
@@ -5392,47 +5390,47 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F14" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F15" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="I15">
         <v>23681</v>
@@ -5440,19 +5438,19 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D16" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F16" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="H16">
         <v>4784</v>
@@ -5460,19 +5458,19 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C17" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D17" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F17" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="H17">
         <v>2825</v>
@@ -5480,33 +5478,33 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F18" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C19" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D19" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F19" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="I19">
         <v>32794</v>
@@ -5514,36 +5512,36 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D20" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F20" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B21" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D21" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F21" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="H21">
         <v>2029</v>
@@ -5551,19 +5549,19 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B22" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C22" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D22" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F22" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="I22">
         <v>22623</v>
@@ -5571,33 +5569,33 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B23" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F23" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B24" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C24" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D24" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F24" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="H24">
         <v>7861</v>
@@ -5605,19 +5603,19 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B25" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C25" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D25" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F25" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="I25">
         <v>98</v>
@@ -5625,22 +5623,22 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B26" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C26" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D26" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E26" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F26" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="I26">
         <v>7181</v>
@@ -5648,19 +5646,19 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B27" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C27" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D27" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F27" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="I27">
         <v>15389</v>
@@ -5668,19 +5666,19 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B28" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C28" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D28" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F28" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="H28">
         <v>4280</v>
@@ -5688,19 +5686,19 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B29" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C29" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D29" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F29" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="I29">
         <v>16503</v>
@@ -5708,19 +5706,19 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B30" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C30" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D30" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F30" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="I30">
         <v>4153</v>
@@ -5728,19 +5726,19 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B31" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C31" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D31" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F31" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="H31">
         <v>2020</v>
@@ -5748,19 +5746,19 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1420</v>
+        <v>1411</v>
       </c>
       <c r="B32" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C32" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D32" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F32" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="H32">
         <v>2020</v>
@@ -5768,19 +5766,19 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B33" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C33" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D33" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F33" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="I33">
         <v>26121</v>
@@ -5788,19 +5786,19 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B34" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C34" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D34" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F34" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="H34">
         <v>889</v>
@@ -5808,19 +5806,19 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B35" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C35" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D35" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="F35" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="I35">
         <v>26124</v>
@@ -5828,36 +5826,36 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B36" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D36" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F36" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B37" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C37" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D37" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="F37" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="H37">
         <v>1727</v>
@@ -5865,33 +5863,33 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B38" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C38" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F38" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B39" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C39" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D39" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="F39" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="I39">
         <v>20541</v>
@@ -5899,19 +5897,19 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B40" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C40" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D40" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="F40" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="H40">
         <v>7051</v>
@@ -5919,19 +5917,19 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B41" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C41" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D41" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="F41" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="I41">
         <v>28967</v>
@@ -5939,16 +5937,16 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="B42" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C42" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="F42" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="H42">
         <v>2473</v>
@@ -5956,19 +5954,19 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B43" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C43" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D43" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F43" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="H43">
         <v>7645</v>
@@ -5979,19 +5977,19 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B44" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C44" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D44" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F44" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="H44">
         <v>8523</v>
@@ -5999,33 +5997,33 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B45" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C45" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F45" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B46" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C46" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D46" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="F46" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="I46">
         <v>28977</v>
@@ -6033,19 +6031,19 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B47" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C47" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D47" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F47" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="I47">
         <v>24293</v>
@@ -6053,19 +6051,19 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B48" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C48" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D48" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F48" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="H48">
         <v>4206</v>
@@ -6073,50 +6071,50 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B49" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C49" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F49" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B50" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C50" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F50" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B51" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C51" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D51" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="F51" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="G51" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="H51">
         <v>5259</v>
@@ -6124,19 +6122,19 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>1423</v>
+        <v>1414</v>
       </c>
       <c r="B52" t="s">
-        <v>1424</v>
+        <v>1415</v>
       </c>
       <c r="C52" t="s">
-        <v>1425</v>
+        <v>1416</v>
       </c>
       <c r="D52" t="s">
-        <v>1426</v>
+        <v>1417</v>
       </c>
       <c r="F52" t="s">
-        <v>1427</v>
+        <v>1418</v>
       </c>
       <c r="H52">
         <v>9339</v>
@@ -6144,19 +6142,19 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B53" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C53" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D53" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F53" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="H53">
         <v>4790</v>
@@ -6164,33 +6162,33 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B54" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C54" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F54" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="B55" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C55" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D55" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F55" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="H55">
         <v>7207</v>
@@ -6198,19 +6196,19 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B56" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C56" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D56" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F56" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="H56">
         <v>2786</v>
@@ -6218,19 +6216,19 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B57" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C57" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="D57" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="F57" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="I57">
         <v>20244</v>
@@ -6238,19 +6236,19 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="B58" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C58" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D58" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="F58" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="H58">
         <v>5262</v>
@@ -6258,61 +6256,61 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="B59" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C59" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="F59" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B60" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C60" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F60" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B61" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C61" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F61" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B62" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C62" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D62" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F62" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="I62">
         <v>27515</v>
@@ -6320,47 +6318,47 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B63" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C63" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F63" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B64" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C64" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F64" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B65" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C65" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D65" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="F65" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="I65">
         <v>28465</v>
@@ -6368,19 +6366,19 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B66" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="C66" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="D66" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="F66" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="H66">
         <v>5043</v>
@@ -6388,75 +6386,75 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B67" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="C67" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="F67" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="B68" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="C68" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F68" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B69" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C69" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F69" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="B70" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C70" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F70" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B71" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C71" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D71" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F71" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="H71">
         <v>7335</v>
@@ -6464,75 +6462,75 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="B72" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="C72" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F72" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B73" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C73" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F73" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B74" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="C74" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F74" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="B75" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C75" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F75" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="B76" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C76" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="D76" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F76" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="I76">
         <v>14398</v>
@@ -6540,19 +6538,19 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="B77" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="C77" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="D77" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="F77" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="H77">
         <v>3966</v>
@@ -6560,75 +6558,75 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="B78" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="C78" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F78" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B79" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="C79" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F79" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B80" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="C80" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F80" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B81" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="C81" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F81" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B82" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="C82" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D82" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F82" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="H82">
         <v>4793</v>
@@ -6636,19 +6634,19 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="B83" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="C83" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D83" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F83" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="H83">
         <v>7015</v>
@@ -6656,19 +6654,19 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="B84" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="C84" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D84" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F84" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="H84">
         <v>4592</v>
@@ -6676,19 +6674,19 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="B85" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C85" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D85" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="F85" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="H85">
         <v>3340</v>
@@ -6696,19 +6694,19 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="B86" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="C86" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="D86" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="F86" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="I86">
         <v>30351</v>
@@ -6716,19 +6714,19 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="B87" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="C87" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="D87" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="F87" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="I87">
         <v>21533</v>
@@ -6736,19 +6734,19 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="B88" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="C88" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="D88" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="F88" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H88">
         <v>3621</v>
@@ -6756,89 +6754,89 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="B89" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="C89" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="F89" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="B90" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="C90" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F90" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="B91" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="C91" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F91" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="B92" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C92" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F92" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="B93" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C93" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F93" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="B94" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="C94" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D94" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F94" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="I94">
         <v>29113</v>
@@ -6846,117 +6844,117 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="B95" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="C95" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F95" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="B96" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="C96" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F96" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="B97" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="C97" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F97" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="B98" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="C98" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F98" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="B99" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="C99" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F99" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>1411</v>
+        <v>1403</v>
       </c>
       <c r="B100" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="C100" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F100" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="B101" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="C101" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F101" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="B102" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="C102" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D102" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="F102" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="I102">
         <v>22957</v>
@@ -6964,145 +6962,145 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="B103" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="C103" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F103" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="B104" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="C104" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F104" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="B105" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="C105" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="F105" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="B106" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="C106" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F106" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="B107" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="C107" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F107" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="B108" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="C108" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F108" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="B109" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="C109" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="F109" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="B110" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="C110" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F110" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="B111" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="C111" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F111" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="B112" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="C112" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D112" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="F112" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="I112">
         <v>12475</v>
@@ -7110,131 +7108,131 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="B113" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="C113" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F113" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="B114" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="C114" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F114" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="B115" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="C115" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F115" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="B116" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="C116" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F116" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="B117" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="C117" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F117" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="B118" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="C118" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="F118" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="B119" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C119" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="F119" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B120" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="C120" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F120" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="B121" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="C121" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="D121" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="F121" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="I121">
         <v>28493</v>
@@ -7242,33 +7240,33 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="B122" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="C122" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F122" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="B123" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="C123" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="D123" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="F123" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="H123">
         <v>5904</v>
@@ -7279,89 +7277,89 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>1412</v>
+        <v>1404</v>
       </c>
       <c r="B124" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="C124" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F124" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="B125" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="C125" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F125" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>1413</v>
+        <v>1405</v>
       </c>
       <c r="B126" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C126" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F126" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>1414</v>
+        <v>1406</v>
       </c>
       <c r="B127" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="C127" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="F127" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="B128" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="C128" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F128" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="B129" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="C129" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="D129" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F129" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="I129">
         <v>20181</v>
@@ -7369,47 +7367,47 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="B130" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="C130" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F130" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="B131" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="C131" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F131" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="B132" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="C132" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="D132" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="F132" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="H132">
         <v>7717</v>
@@ -7417,64 +7415,64 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="B133" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="C133" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F133" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="B134" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="C134" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F134" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="B135" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="C135" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D135" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F135" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="B136" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="C136" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="D136" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="F136" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="H136">
         <v>5125</v>
@@ -7485,75 +7483,75 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="B137" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="C137" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F137" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="B138" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="C138" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F138" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="B139" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="C139" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F139" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B140" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="C140" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F140" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="B141" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="C141" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D141" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="F141" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="H141">
         <v>7242</v>
@@ -7561,19 +7559,19 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="B142" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="C142" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="D142" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="F142" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="H142">
         <v>6157</v>
@@ -7581,36 +7579,36 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="B143" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="C143" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F143" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="B144" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="C144" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="D144" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F144" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="G144" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="H144">
         <v>7541</v>
@@ -7618,22 +7616,22 @@
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="B145" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="C145" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="D145" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F145" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="G145" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="I145">
         <v>22093</v>
@@ -7641,75 +7639,75 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="B146" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="C146" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="F146" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="B147" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="C147" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F147" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="B148" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="C148" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F148" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="B149" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="C149" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="F149" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="B150" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="C150" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="D150" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F150" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="H150">
         <v>3318</v>
@@ -7717,47 +7715,47 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="B151" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="C151" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F151" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="B152" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="C152" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F152" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="B153" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="C153" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D153" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F153" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="I153">
         <v>23355</v>
@@ -7765,36 +7763,36 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="B154" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="C154" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F154" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="B155" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="C155" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="D155" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F155" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="G155" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="H155">
         <v>7245</v>
@@ -7802,19 +7800,19 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="B156" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="C156" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="D156" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F156" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="H156">
         <v>3431</v>
@@ -7822,75 +7820,75 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="B157" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="C157" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F157" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="B158" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="C158" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F158" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="B159" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="C159" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F159" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="B160" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="C160" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F160" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="B161" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="C161" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="D161" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="F161" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="H161">
         <v>6611</v>
@@ -7898,19 +7896,19 @@
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="B162" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="C162" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D162" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F162" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="H162">
         <v>7683</v>
@@ -7918,33 +7916,33 @@
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="B163" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="C163" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F163" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="B164" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="C164" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D164" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F164" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="I164">
         <v>7642</v>
@@ -7952,137 +7950,137 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="B165" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="C165" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D165" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F165" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>1415</v>
+        <v>1407</v>
       </c>
       <c r="B166" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="C166" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D166" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F166" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="B167" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="C167" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F167" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="B168" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="C168" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F168" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="B169" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="C169" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F169" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="B170" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="C170" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F170" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="B171" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="C171" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F171" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="B172" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="C172" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F172" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="B173" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="C173" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="D173" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="F173" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="H173">
         <v>8335</v>
@@ -8090,95 +8088,95 @@
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="B174" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="C174" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="D174" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F174" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="B175" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="C175" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D175" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F175" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="B176" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="C176" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F176" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="B177" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="C177" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F177" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="B178" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="C178" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F178" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="B179" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="C179" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="D179" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F179" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="I179">
         <v>5438</v>
@@ -8186,16 +8184,16 @@
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="B180" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="C180" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="F180" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="H180">
         <v>3254</v>
@@ -8203,61 +8201,61 @@
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="B181" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="C181" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F181" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="B182" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="C182" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F182" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="B183" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="C183" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F183" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="B184" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="C184" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="D184" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F184" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="H184">
         <v>7801</v>
@@ -8265,33 +8263,33 @@
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="B185" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="C185" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F185" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="B186" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="C186" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D186" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F186" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="H186">
         <v>6356</v>
@@ -8299,19 +8297,19 @@
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="B187" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="C187" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="D187" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="F187" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="H187">
         <v>7858</v>
@@ -8319,33 +8317,33 @@
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="B188" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="C188" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="F188" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="B189" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="C189" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="D189" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="F189" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="I189">
         <v>24779</v>
@@ -8353,19 +8351,19 @@
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="B190" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="C190" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="D190" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="F190" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="H190">
         <v>4570</v>
@@ -8373,131 +8371,131 @@
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="B191" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="C191" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F191" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="B192" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="C192" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F192" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="B193" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="C193" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F193" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="B194" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="C194" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F194" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="B195" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="C195" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="F195" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="B196" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="C196" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F196" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="B197" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="C197" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F197" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="B198" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="C198" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F198" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="B199" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="C199" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="D199" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="F199" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="H199">
         <v>8153</v>
@@ -8505,61 +8503,61 @@
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="B200" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="C200" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F200" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="B201" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="C201" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F201" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="B202" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="C202" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F202" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="B203" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="C203" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D203" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="F203" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="I203">
         <v>18584</v>
@@ -8567,19 +8565,19 @@
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="B204" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="C204" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="D204" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="F204" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="H204">
         <v>6621</v>
@@ -8587,19 +8585,19 @@
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="B205" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="C205" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="D205" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="F205" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="H205">
         <v>9194</v>
@@ -8607,131 +8605,131 @@
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="B206" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="C206" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F206" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="B207" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="C207" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F207" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="B208" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="C208" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="F208" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="B209" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="C209" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F209" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="B210" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="C210" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F210" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="B211" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="C211" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F211" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="B212" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="C212" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F212" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="B213" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="C213" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F213" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="B214" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="C214" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="D214" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F214" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="H214">
         <v>764</v>
@@ -8742,19 +8740,19 @@
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="B215" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="C215" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="D215" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F215" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="H215">
         <v>2820</v>
@@ -8762,19 +8760,19 @@
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="B216" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="C216" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D216" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="F216" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="I216">
         <v>11005</v>
@@ -8782,47 +8780,47 @@
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="B217" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="C217" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F217" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="B218" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="C218" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F218" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="B219" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="C219" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D219" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F219" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="H219">
         <v>2808</v>
@@ -8830,19 +8828,19 @@
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="B220" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="C220" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="D220" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="F220" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="I220">
         <v>20758</v>
@@ -8850,19 +8848,19 @@
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="B221" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="C221" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="D221" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="F221" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="H221">
         <v>7938</v>
@@ -8870,33 +8868,33 @@
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="B222" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="C222" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="F222" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="B223" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="C223" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="D223" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="F223" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="H223">
         <v>5677</v>
@@ -8904,19 +8902,19 @@
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="B224" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="C224" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="D224" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="F224" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="H224">
         <v>8152</v>
@@ -8924,19 +8922,19 @@
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="B225" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="C225" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="D225" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="F225" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="I225">
         <v>11950</v>
@@ -8944,30 +8942,30 @@
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="B226" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="C226" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F226" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
       <c r="B227" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="C227" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="F227" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="I227">
         <v>8374</v>
@@ -8975,19 +8973,19 @@
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="B228" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="C228" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="D228" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="F228" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="H228">
         <v>4264</v>
@@ -8995,47 +8993,47 @@
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="B229" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="C229" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F229" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
       <c r="B230" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="C230" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F230" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
       <c r="B231" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
       <c r="C231" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="D231" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F231" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
       <c r="I231">
         <v>1754</v>
@@ -9043,19 +9041,19 @@
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="B232" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="C232" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D232" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="F232" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="H232">
         <v>4946</v>
@@ -9063,19 +9061,19 @@
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="B233" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="C233" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D233" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="F233" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="H233">
         <v>4946</v>
@@ -9083,156 +9081,156 @@
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="B234" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="C234" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F234" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="B235" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="C235" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F235" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="B236" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="C236" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F236" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="B237" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="C237" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F237" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="B238" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
       <c r="C238" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F238" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="B239" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="C239" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F239" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="B240" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="C240" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F240" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="B241" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="C241" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F241" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="B242" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="C242" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F242" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="B243" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
       <c r="C243" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F243" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="B244" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="C244" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
       <c r="F244" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="H244">
         <v>6632</v>
@@ -9240,33 +9238,33 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="B245" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
       <c r="C245" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F245" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
       <c r="B246" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="C246" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
       <c r="D246" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F246" t="s">
-        <v>825</v>
+        <v>817</v>
       </c>
       <c r="H246">
         <v>8826</v>
@@ -9274,92 +9272,92 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
       <c r="B247" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
       <c r="C247" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F247" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
       <c r="B248" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
       <c r="C248" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F248" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
       <c r="B249" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
       <c r="C249" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F249" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
       <c r="B250" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="C250" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F250" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
       <c r="B251" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="C251" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="D251" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F251" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
       <c r="B252" t="s">
-        <v>842</v>
+        <v>834</v>
       </c>
       <c r="C252" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D252" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F252" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
       <c r="H252">
         <v>4602</v>
@@ -9367,131 +9365,131 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
       <c r="B253" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
       <c r="C253" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F253" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="B254" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="C254" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F254" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="B255" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="C255" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F255" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="B256" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="C256" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F256" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
       <c r="B257" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
       <c r="C257" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F257" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>858</v>
+        <v>850</v>
       </c>
       <c r="B258" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="C258" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F258" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="B259" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="C259" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F259" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
       <c r="B260" t="s">
-        <v>864</v>
+        <v>856</v>
       </c>
       <c r="C260" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F260" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="B261" t="s">
-        <v>866</v>
+        <v>858</v>
       </c>
       <c r="C261" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D261" t="s">
-        <v>867</v>
+        <v>859</v>
       </c>
       <c r="F261" t="s">
-        <v>868</v>
+        <v>860</v>
       </c>
       <c r="H261">
         <v>3945</v>
@@ -9499,145 +9497,145 @@
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>870</v>
+        <v>862</v>
       </c>
       <c r="B262" t="s">
-        <v>871</v>
+        <v>863</v>
       </c>
       <c r="C262" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F262" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>873</v>
+        <v>865</v>
       </c>
       <c r="B263" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
       <c r="C263" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F263" t="s">
-        <v>875</v>
+        <v>867</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>876</v>
+        <v>868</v>
       </c>
       <c r="B264" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
       <c r="C264" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F264" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
       <c r="B265" t="s">
-        <v>879</v>
+        <v>871</v>
       </c>
       <c r="C265" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F265" t="s">
-        <v>880</v>
+        <v>872</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>882</v>
+        <v>874</v>
       </c>
       <c r="B266" t="s">
-        <v>883</v>
+        <v>875</v>
       </c>
       <c r="C266" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F266" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="B267" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="C267" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F267" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>888</v>
+        <v>880</v>
       </c>
       <c r="B268" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="C268" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F268" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
       <c r="B269" t="s">
-        <v>892</v>
+        <v>884</v>
       </c>
       <c r="C269" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F269" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
       <c r="B270" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="C270" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F270" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="B271" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
       <c r="C271" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
       <c r="D271" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F271" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
       <c r="I271">
         <v>30688</v>
@@ -9645,33 +9643,33 @@
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="B272" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
       <c r="C272" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F272" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="B273" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="C273" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D273" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F273" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
       <c r="H273">
         <v>5160</v>
@@ -9679,33 +9677,33 @@
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="B274" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="C274" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F274" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="B275" t="s">
-        <v>908</v>
+        <v>900</v>
       </c>
       <c r="C275" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="D275" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
       <c r="F275" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="H275">
         <v>6191</v>
@@ -9713,47 +9711,47 @@
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="B276" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
       <c r="C276" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="F276" t="s">
-        <v>914</v>
+        <v>906</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>915</v>
+        <v>907</v>
       </c>
       <c r="B277" t="s">
-        <v>916</v>
+        <v>908</v>
       </c>
       <c r="C277" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F277" t="s">
-        <v>917</v>
+        <v>909</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
       <c r="B278" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
       <c r="C278" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D278" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F278" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
       <c r="I278">
         <v>19203</v>
@@ -9761,64 +9759,64 @@
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="B279" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="C279" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D279" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F279" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="B280" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
       <c r="C280" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F280" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>926</v>
+        <v>918</v>
       </c>
       <c r="B281" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="C281" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F281" t="s">
-        <v>928</v>
+        <v>920</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>929</v>
+        <v>921</v>
       </c>
       <c r="B282" t="s">
-        <v>930</v>
+        <v>922</v>
       </c>
       <c r="C282" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="D282" t="s">
-        <v>931</v>
+        <v>923</v>
       </c>
       <c r="F282" t="s">
-        <v>932</v>
+        <v>924</v>
       </c>
       <c r="H282">
         <v>5164</v>
@@ -9826,33 +9824,33 @@
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>933</v>
+        <v>925</v>
       </c>
       <c r="B283" t="s">
-        <v>934</v>
+        <v>926</v>
       </c>
       <c r="C283" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F283" t="s">
-        <v>932</v>
+        <v>924</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>935</v>
+        <v>927</v>
       </c>
       <c r="B284" t="s">
-        <v>936</v>
+        <v>928</v>
       </c>
       <c r="C284" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="D284" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="F284" t="s">
-        <v>932</v>
+        <v>924</v>
       </c>
       <c r="I284">
         <v>31998</v>
@@ -9860,19 +9858,19 @@
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>938</v>
+        <v>930</v>
       </c>
       <c r="B285" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="C285" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
       <c r="D285" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
       <c r="F285" t="s">
-        <v>942</v>
+        <v>934</v>
       </c>
       <c r="I285">
         <v>25681</v>
@@ -9880,47 +9878,47 @@
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>943</v>
+        <v>935</v>
       </c>
       <c r="B286" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
       <c r="C286" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F286" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="B287" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="C287" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F287" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
       <c r="B288" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="C288" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D288" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F288" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
       <c r="H288">
         <v>3150</v>
@@ -9928,47 +9926,47 @@
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
       <c r="B289" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
       <c r="C289" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F289" t="s">
-        <v>954</v>
+        <v>946</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>962</v>
+        <v>954</v>
       </c>
       <c r="B290" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="C290" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F290" t="s">
-        <v>964</v>
+        <v>956</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
       <c r="B291" t="s">
-        <v>956</v>
+        <v>948</v>
       </c>
       <c r="C291" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D291" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="F291" t="s">
-        <v>957</v>
+        <v>949</v>
       </c>
       <c r="H291">
         <v>4829</v>
@@ -9976,33 +9974,33 @@
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>965</v>
+        <v>957</v>
       </c>
       <c r="B292" t="s">
-        <v>966</v>
+        <v>958</v>
       </c>
       <c r="C292" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F292" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="B293" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="C293" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D293" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
       <c r="F293" t="s">
-        <v>971</v>
+        <v>963</v>
       </c>
       <c r="H293">
         <v>3115</v>
@@ -10010,36 +10008,36 @@
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>972</v>
+        <v>964</v>
       </c>
       <c r="B294" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
       <c r="C294" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F294" t="s">
-        <v>971</v>
+        <v>963</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>974</v>
+        <v>966</v>
       </c>
       <c r="B295" t="s">
-        <v>975</v>
+        <v>967</v>
       </c>
       <c r="C295" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="D295" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F295" t="s">
-        <v>976</v>
+        <v>968</v>
       </c>
       <c r="G295" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="H295">
         <v>4446</v>
@@ -10050,19 +10048,19 @@
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="B296" t="s">
-        <v>959</v>
+        <v>951</v>
       </c>
       <c r="C296" t="s">
-        <v>960</v>
+        <v>952</v>
       </c>
       <c r="D296" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F296" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="H296">
         <v>9348</v>
@@ -10070,19 +10068,19 @@
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="B297" t="s">
-        <v>978</v>
+        <v>970</v>
       </c>
       <c r="C297" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="D297" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
       <c r="F297" t="s">
-        <v>980</v>
+        <v>972</v>
       </c>
       <c r="H297">
         <v>3678</v>
@@ -10093,75 +10091,75 @@
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>981</v>
+        <v>973</v>
       </c>
       <c r="B298" t="s">
-        <v>982</v>
+        <v>974</v>
       </c>
       <c r="C298" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="F298" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>984</v>
+        <v>976</v>
       </c>
       <c r="B299" t="s">
-        <v>985</v>
+        <v>977</v>
       </c>
       <c r="C299" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="F299" t="s">
-        <v>986</v>
+        <v>978</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>987</v>
+        <v>979</v>
       </c>
       <c r="B300" t="s">
-        <v>988</v>
+        <v>980</v>
       </c>
       <c r="C300" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F300" t="s">
-        <v>989</v>
+        <v>981</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>990</v>
+        <v>982</v>
       </c>
       <c r="B301" t="s">
-        <v>991</v>
+        <v>983</v>
       </c>
       <c r="C301" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F301" t="s">
-        <v>992</v>
+        <v>984</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>993</v>
+        <v>985</v>
       </c>
       <c r="B302" t="s">
-        <v>994</v>
+        <v>986</v>
       </c>
       <c r="C302" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
       <c r="D302" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F302" t="s">
-        <v>996</v>
+        <v>988</v>
       </c>
       <c r="I302">
         <v>12155</v>
@@ -10169,33 +10167,33 @@
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="B303" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
       <c r="C303" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F303" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>1000</v>
+        <v>992</v>
       </c>
       <c r="B304" t="s">
-        <v>1001</v>
+        <v>993</v>
       </c>
       <c r="C304" t="s">
-        <v>1002</v>
+        <v>994</v>
       </c>
       <c r="D304" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F304" t="s">
-        <v>1003</v>
+        <v>995</v>
       </c>
       <c r="H304">
         <v>2561</v>
@@ -10203,89 +10201,89 @@
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>1004</v>
+        <v>996</v>
       </c>
       <c r="B305" t="s">
-        <v>1005</v>
+        <v>997</v>
       </c>
       <c r="C305" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F305" t="s">
-        <v>1006</v>
+        <v>998</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>1007</v>
+        <v>999</v>
       </c>
       <c r="B306" t="s">
-        <v>1008</v>
+        <v>1000</v>
       </c>
       <c r="C306" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F306" t="s">
-        <v>1009</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>1010</v>
+        <v>1002</v>
       </c>
       <c r="B307" t="s">
-        <v>1011</v>
+        <v>1003</v>
       </c>
       <c r="C307" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F307" t="s">
-        <v>1012</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>1013</v>
+        <v>1005</v>
       </c>
       <c r="B308" t="s">
-        <v>1014</v>
+        <v>1006</v>
       </c>
       <c r="C308" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F308" t="s">
-        <v>1015</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>1016</v>
+        <v>1008</v>
       </c>
       <c r="B309" t="s">
-        <v>1017</v>
+        <v>1009</v>
       </c>
       <c r="C309" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F309" t="s">
-        <v>1018</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>1019</v>
+        <v>1011</v>
       </c>
       <c r="B310" t="s">
-        <v>1020</v>
+        <v>1012</v>
       </c>
       <c r="C310" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D310" t="s">
-        <v>1021</v>
+        <v>1013</v>
       </c>
       <c r="F310" t="s">
-        <v>1022</v>
+        <v>1014</v>
       </c>
       <c r="H310">
         <v>8662</v>
@@ -10293,19 +10291,19 @@
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>1023</v>
+        <v>1015</v>
       </c>
       <c r="B311" t="s">
-        <v>1024</v>
+        <v>1016</v>
       </c>
       <c r="C311" t="s">
-        <v>1025</v>
+        <v>1017</v>
       </c>
       <c r="D311" t="s">
-        <v>1026</v>
+        <v>1018</v>
       </c>
       <c r="F311" t="s">
-        <v>1027</v>
+        <v>1019</v>
       </c>
       <c r="H311">
         <v>9153</v>
@@ -10316,19 +10314,19 @@
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>1030</v>
+        <v>1022</v>
       </c>
       <c r="B312" t="s">
-        <v>1028</v>
+        <v>1020</v>
       </c>
       <c r="C312" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D312" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="F312" t="s">
-        <v>1029</v>
+        <v>1021</v>
       </c>
       <c r="H312">
         <v>7793</v>
@@ -10336,19 +10334,19 @@
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>1031</v>
+        <v>1023</v>
       </c>
       <c r="B313" t="s">
-        <v>1032</v>
+        <v>1024</v>
       </c>
       <c r="C313" t="s">
-        <v>1033</v>
+        <v>1025</v>
       </c>
       <c r="D313" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="F313" t="s">
-        <v>1034</v>
+        <v>1026</v>
       </c>
       <c r="H313">
         <v>5009</v>
@@ -10356,61 +10354,61 @@
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>1035</v>
+        <v>1027</v>
       </c>
       <c r="B314" t="s">
-        <v>1036</v>
+        <v>1028</v>
       </c>
       <c r="C314" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F314" t="s">
-        <v>1037</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>1038</v>
+        <v>1030</v>
       </c>
       <c r="B315" t="s">
-        <v>1039</v>
+        <v>1031</v>
       </c>
       <c r="C315" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F315" t="s">
-        <v>1040</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>1416</v>
+        <v>1408</v>
       </c>
       <c r="B316" t="s">
-        <v>1041</v>
+        <v>1033</v>
       </c>
       <c r="C316" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F316" t="s">
-        <v>1042</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>1043</v>
+        <v>1035</v>
       </c>
       <c r="B317" t="s">
-        <v>1044</v>
+        <v>1036</v>
       </c>
       <c r="C317" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="D317" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="F317" t="s">
-        <v>1045</v>
+        <v>1037</v>
       </c>
       <c r="I317">
         <v>21908</v>
@@ -10418,33 +10416,33 @@
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>1046</v>
+        <v>1038</v>
       </c>
       <c r="B318" t="s">
-        <v>1047</v>
+        <v>1039</v>
       </c>
       <c r="C318" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F318" t="s">
-        <v>1048</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>1049</v>
+        <v>1041</v>
       </c>
       <c r="B319" t="s">
-        <v>1050</v>
+        <v>1042</v>
       </c>
       <c r="C319" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D319" t="s">
-        <v>1051</v>
+        <v>1043</v>
       </c>
       <c r="F319" t="s">
-        <v>1052</v>
+        <v>1044</v>
       </c>
       <c r="H319">
         <v>4894</v>
@@ -10452,64 +10450,64 @@
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>1053</v>
+        <v>1045</v>
       </c>
       <c r="B320" t="s">
-        <v>1054</v>
+        <v>1046</v>
       </c>
       <c r="C320" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="F320" t="s">
-        <v>1055</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>1056</v>
+        <v>1048</v>
       </c>
       <c r="B321" t="s">
-        <v>1057</v>
+        <v>1049</v>
       </c>
       <c r="C321" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="F321" t="s">
-        <v>1058</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>1059</v>
+        <v>1051</v>
       </c>
       <c r="B322" t="s">
-        <v>1060</v>
+        <v>1052</v>
       </c>
       <c r="C322" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F322" t="s">
-        <v>1061</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>1062</v>
+        <v>1054</v>
       </c>
       <c r="B323" t="s">
-        <v>1063</v>
+        <v>1055</v>
       </c>
       <c r="C323" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D323" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F323" t="s">
-        <v>1064</v>
+        <v>1056</v>
       </c>
       <c r="G323" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="I323">
         <v>7885</v>
@@ -10517,47 +10515,47 @@
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>1065</v>
+        <v>1057</v>
       </c>
       <c r="B324" t="s">
-        <v>1066</v>
+        <v>1058</v>
       </c>
       <c r="C324" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F324" t="s">
-        <v>1067</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>1068</v>
+        <v>1060</v>
       </c>
       <c r="B325" t="s">
-        <v>1069</v>
+        <v>1061</v>
       </c>
       <c r="C325" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F325" t="s">
-        <v>1067</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>1070</v>
+        <v>1062</v>
       </c>
       <c r="B326" t="s">
-        <v>1071</v>
+        <v>1063</v>
       </c>
       <c r="C326" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D326" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
       <c r="F326" t="s">
-        <v>1067</v>
+        <v>1059</v>
       </c>
       <c r="H326">
         <v>4389</v>
@@ -10565,19 +10563,19 @@
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>1073</v>
+        <v>1065</v>
       </c>
       <c r="B327" t="s">
-        <v>1074</v>
+        <v>1066</v>
       </c>
       <c r="C327" t="s">
-        <v>1075</v>
+        <v>1067</v>
       </c>
       <c r="D327" t="s">
-        <v>1076</v>
+        <v>1068</v>
       </c>
       <c r="F327" t="s">
-        <v>1077</v>
+        <v>1069</v>
       </c>
       <c r="H327">
         <v>4322</v>
@@ -10585,64 +10583,64 @@
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>1078</v>
+        <v>1070</v>
       </c>
       <c r="B328" t="s">
-        <v>1079</v>
+        <v>1071</v>
       </c>
       <c r="C328" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F328" t="s">
-        <v>1077</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>1080</v>
+        <v>1072</v>
       </c>
       <c r="B329" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="C329" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D329" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F329" t="s">
-        <v>1082</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>1083</v>
+        <v>1075</v>
       </c>
       <c r="B330" t="s">
-        <v>1084</v>
+        <v>1076</v>
       </c>
       <c r="C330" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F330" t="s">
-        <v>1082</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>1085</v>
+        <v>1077</v>
       </c>
       <c r="B331" t="s">
-        <v>1086</v>
+        <v>1078</v>
       </c>
       <c r="C331" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="D331" t="s">
-        <v>1075</v>
+        <v>1067</v>
       </c>
       <c r="F331" t="s">
-        <v>1087</v>
+        <v>1079</v>
       </c>
       <c r="H331">
         <v>3596</v>
@@ -10650,19 +10648,19 @@
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>1088</v>
+        <v>1080</v>
       </c>
       <c r="B332" t="s">
-        <v>1089</v>
+        <v>1081</v>
       </c>
       <c r="C332" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="D332" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F332" t="s">
-        <v>1090</v>
+        <v>1082</v>
       </c>
       <c r="H332">
         <v>5504</v>
@@ -10673,19 +10671,19 @@
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>1091</v>
+        <v>1083</v>
       </c>
       <c r="B333" t="s">
-        <v>1092</v>
+        <v>1084</v>
       </c>
       <c r="C333" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="D333" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F333" t="s">
-        <v>1093</v>
+        <v>1085</v>
       </c>
       <c r="I333">
         <v>9157</v>
@@ -10693,19 +10691,19 @@
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>1094</v>
+        <v>1086</v>
       </c>
       <c r="B334" t="s">
-        <v>1095</v>
+        <v>1087</v>
       </c>
       <c r="C334" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="D334" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F334" t="s">
-        <v>1093</v>
+        <v>1085</v>
       </c>
       <c r="I334">
         <v>4588</v>
@@ -10713,47 +10711,47 @@
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>1097</v>
+        <v>1089</v>
       </c>
       <c r="B335" t="s">
-        <v>1098</v>
+        <v>1090</v>
       </c>
       <c r="C335" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F335" t="s">
-        <v>1099</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>1100</v>
+        <v>1092</v>
       </c>
       <c r="B336" t="s">
-        <v>1101</v>
+        <v>1093</v>
       </c>
       <c r="C336" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F336" t="s">
-        <v>1102</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>1103</v>
+        <v>1095</v>
       </c>
       <c r="B337" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="C337" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D337" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F337" t="s">
-        <v>1105</v>
+        <v>1097</v>
       </c>
       <c r="H337">
         <v>6212</v>
@@ -10761,19 +10759,19 @@
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="B338" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="C338" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="D338" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F338" t="s">
-        <v>1105</v>
+        <v>1097</v>
       </c>
       <c r="I338">
         <v>32143</v>
@@ -10781,33 +10779,33 @@
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
       <c r="B339" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
       <c r="C339" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F339" t="s">
-        <v>1105</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
       <c r="B340" t="s">
-        <v>1111</v>
+        <v>1103</v>
       </c>
       <c r="C340" t="s">
-        <v>1112</v>
+        <v>1104</v>
       </c>
       <c r="D340" t="s">
-        <v>1113</v>
+        <v>1105</v>
       </c>
       <c r="F340" t="s">
-        <v>1114</v>
+        <v>1106</v>
       </c>
       <c r="H340">
         <v>8063</v>
@@ -10815,19 +10813,19 @@
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>1115</v>
+        <v>1107</v>
       </c>
       <c r="B341" t="s">
-        <v>1116</v>
+        <v>1108</v>
       </c>
       <c r="C341" t="s">
-        <v>1117</v>
+        <v>1109</v>
       </c>
       <c r="D341" t="s">
-        <v>960</v>
+        <v>952</v>
       </c>
       <c r="F341" t="s">
-        <v>1114</v>
+        <v>1106</v>
       </c>
       <c r="H341">
         <v>8391</v>
@@ -10835,19 +10833,19 @@
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>1118</v>
+        <v>1110</v>
       </c>
       <c r="B342" t="s">
-        <v>1119</v>
+        <v>1111</v>
       </c>
       <c r="C342" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D342" t="s">
-        <v>1120</v>
+        <v>1112</v>
       </c>
       <c r="F342" t="s">
-        <v>1121</v>
+        <v>1113</v>
       </c>
       <c r="I342">
         <v>30850</v>
@@ -10855,47 +10853,47 @@
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>1122</v>
+        <v>1114</v>
       </c>
       <c r="B343" t="s">
-        <v>1123</v>
+        <v>1115</v>
       </c>
       <c r="C343" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F343" t="s">
-        <v>1124</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>1125</v>
+        <v>1117</v>
       </c>
       <c r="B344" t="s">
-        <v>1126</v>
+        <v>1118</v>
       </c>
       <c r="C344" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F344" t="s">
-        <v>1127</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>1128</v>
+        <v>1120</v>
       </c>
       <c r="B345" t="s">
-        <v>1129</v>
+        <v>1121</v>
       </c>
       <c r="C345" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="D345" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F345" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
       <c r="H345">
         <v>3089</v>
@@ -10903,16 +10901,16 @@
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>1131</v>
+        <v>1123</v>
       </c>
       <c r="B346" t="s">
-        <v>1132</v>
+        <v>1124</v>
       </c>
       <c r="C346" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="F346" t="s">
-        <v>1133</v>
+        <v>1125</v>
       </c>
       <c r="H346">
         <v>3797</v>
@@ -10923,19 +10921,19 @@
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>1134</v>
+        <v>1126</v>
       </c>
       <c r="B347" t="s">
-        <v>1135</v>
+        <v>1127</v>
       </c>
       <c r="C347" t="s">
-        <v>1417</v>
+        <v>1409</v>
       </c>
       <c r="D347" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F347" t="s">
-        <v>1133</v>
+        <v>1125</v>
       </c>
       <c r="H347">
         <v>7969</v>
@@ -10943,47 +10941,47 @@
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>1136</v>
+        <v>1128</v>
       </c>
       <c r="B348" t="s">
-        <v>1137</v>
+        <v>1129</v>
       </c>
       <c r="C348" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F348" t="s">
-        <v>1138</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>1139</v>
+        <v>1131</v>
       </c>
       <c r="B349" t="s">
-        <v>1140</v>
+        <v>1132</v>
       </c>
       <c r="C349" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="F349" t="s">
-        <v>1141</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>1142</v>
+        <v>1134</v>
       </c>
       <c r="B350" t="s">
-        <v>1143</v>
+        <v>1135</v>
       </c>
       <c r="C350" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D350" t="s">
-        <v>1144</v>
+        <v>1136</v>
       </c>
       <c r="F350" t="s">
-        <v>1145</v>
+        <v>1137</v>
       </c>
       <c r="I350">
         <v>27285</v>
@@ -10991,61 +10989,61 @@
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>1146</v>
+        <v>1138</v>
       </c>
       <c r="B351" t="s">
-        <v>1147</v>
+        <v>1139</v>
       </c>
       <c r="C351" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="F351" t="s">
-        <v>1148</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>1149</v>
+        <v>1141</v>
       </c>
       <c r="B352" t="s">
-        <v>1150</v>
+        <v>1142</v>
       </c>
       <c r="C352" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F352" t="s">
-        <v>1151</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>1152</v>
+        <v>1144</v>
       </c>
       <c r="B353" t="s">
-        <v>1153</v>
+        <v>1145</v>
       </c>
       <c r="C353" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F353" t="s">
-        <v>1154</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>1155</v>
+        <v>1147</v>
       </c>
       <c r="B354" t="s">
-        <v>1156</v>
+        <v>1148</v>
       </c>
       <c r="C354" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D354" t="s">
-        <v>1157</v>
+        <v>1149</v>
       </c>
       <c r="F354" t="s">
-        <v>1158</v>
+        <v>1150</v>
       </c>
       <c r="I354">
         <v>21099</v>
@@ -11053,75 +11051,75 @@
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>1159</v>
+        <v>1151</v>
       </c>
       <c r="B355" t="s">
-        <v>1160</v>
+        <v>1152</v>
       </c>
       <c r="C355" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F355" t="s">
-        <v>1161</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>1162</v>
+        <v>1154</v>
       </c>
       <c r="B356" t="s">
-        <v>1163</v>
+        <v>1155</v>
       </c>
       <c r="C356" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F356" t="s">
-        <v>1164</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>1165</v>
+        <v>1157</v>
       </c>
       <c r="B357" t="s">
-        <v>1166</v>
+        <v>1158</v>
       </c>
       <c r="C357" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F357" t="s">
-        <v>1167</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>1168</v>
+        <v>1160</v>
       </c>
       <c r="B358" t="s">
-        <v>1169</v>
+        <v>1161</v>
       </c>
       <c r="C358" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F358" t="s">
-        <v>1170</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>1171</v>
+        <v>1163</v>
       </c>
       <c r="B359" t="s">
-        <v>1172</v>
+        <v>1164</v>
       </c>
       <c r="C359" t="s">
-        <v>1173</v>
+        <v>1165</v>
       </c>
       <c r="D359" t="s">
-        <v>1174</v>
+        <v>1166</v>
       </c>
       <c r="F359" t="s">
-        <v>1170</v>
+        <v>1162</v>
       </c>
       <c r="H359">
         <v>8279</v>
@@ -11129,61 +11127,61 @@
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>1175</v>
+        <v>1167</v>
       </c>
       <c r="B360" t="s">
-        <v>1176</v>
+        <v>1168</v>
       </c>
       <c r="C360" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F360" t="s">
-        <v>1177</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>1178</v>
+        <v>1170</v>
       </c>
       <c r="B361" t="s">
-        <v>1179</v>
+        <v>1171</v>
       </c>
       <c r="C361" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="F361" t="s">
-        <v>1180</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>1181</v>
+        <v>1173</v>
       </c>
       <c r="B362" t="s">
-        <v>1182</v>
+        <v>1174</v>
       </c>
       <c r="C362" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F362" t="s">
-        <v>1183</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>1184</v>
+        <v>1176</v>
       </c>
       <c r="B363" t="s">
-        <v>1185</v>
+        <v>1177</v>
       </c>
       <c r="C363" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D363" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="F363" t="s">
-        <v>1183</v>
+        <v>1175</v>
       </c>
       <c r="I363">
         <v>22288</v>
@@ -11191,19 +11189,19 @@
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>1186</v>
+        <v>1178</v>
       </c>
       <c r="B364" t="s">
-        <v>1187</v>
+        <v>1179</v>
       </c>
       <c r="C364" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D364" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
       <c r="F364" t="s">
-        <v>1188</v>
+        <v>1180</v>
       </c>
       <c r="I364">
         <v>19342</v>
@@ -11211,33 +11209,33 @@
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>1189</v>
+        <v>1181</v>
       </c>
       <c r="B365" t="s">
-        <v>1190</v>
+        <v>1182</v>
       </c>
       <c r="C365" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F365" t="s">
-        <v>1191</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>1192</v>
+        <v>1184</v>
       </c>
       <c r="B366" t="s">
-        <v>1193</v>
+        <v>1185</v>
       </c>
       <c r="C366" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D366" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F366" t="s">
-        <v>1194</v>
+        <v>1186</v>
       </c>
       <c r="I366">
         <v>25289</v>
@@ -11245,81 +11243,81 @@
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>1195</v>
+        <v>1187</v>
       </c>
       <c r="B367" t="s">
-        <v>1196</v>
+        <v>1188</v>
       </c>
       <c r="C367" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D367" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F367" t="s">
-        <v>1197</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>1418</v>
+        <v>1410</v>
       </c>
       <c r="B368" t="s">
-        <v>1196</v>
+        <v>1188</v>
       </c>
       <c r="C368" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D368" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F368" t="s">
-        <v>1197</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>1198</v>
+        <v>1190</v>
       </c>
       <c r="B369" t="s">
-        <v>1199</v>
+        <v>1191</v>
       </c>
       <c r="C369" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F369" t="s">
-        <v>1197</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>1200</v>
+        <v>1192</v>
       </c>
       <c r="B370" t="s">
-        <v>1201</v>
+        <v>1193</v>
       </c>
       <c r="C370" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="F370" t="s">
-        <v>1197</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>1202</v>
+        <v>1194</v>
       </c>
       <c r="B371" t="s">
-        <v>1203</v>
+        <v>1195</v>
       </c>
       <c r="C371" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D371" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F371" t="s">
-        <v>1197</v>
+        <v>1189</v>
       </c>
       <c r="I371">
         <v>74771</v>
@@ -11327,131 +11325,131 @@
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>1204</v>
+        <v>1196</v>
       </c>
       <c r="B372" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="C372" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F372" t="s">
-        <v>1197</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>1206</v>
+        <v>1198</v>
       </c>
       <c r="B373" t="s">
-        <v>1207</v>
+        <v>1199</v>
       </c>
       <c r="C373" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F373" t="s">
-        <v>1208</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>1209</v>
+        <v>1201</v>
       </c>
       <c r="B374" t="s">
-        <v>1210</v>
+        <v>1202</v>
       </c>
       <c r="C374" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F374" t="s">
-        <v>1211</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="375" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="B375" t="s">
-        <v>1213</v>
+        <v>1205</v>
       </c>
       <c r="C375" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F375" t="s">
-        <v>1214</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>1215</v>
+        <v>1207</v>
       </c>
       <c r="B376" t="s">
-        <v>1216</v>
+        <v>1208</v>
       </c>
       <c r="C376" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F376" t="s">
-        <v>1217</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>1218</v>
+        <v>1210</v>
       </c>
       <c r="B377" t="s">
-        <v>1219</v>
+        <v>1211</v>
       </c>
       <c r="C377" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F377" t="s">
-        <v>1220</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>1221</v>
+        <v>1213</v>
       </c>
       <c r="B378" t="s">
-        <v>1222</v>
+        <v>1214</v>
       </c>
       <c r="C378" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F378" t="s">
-        <v>1223</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>1224</v>
+        <v>1216</v>
       </c>
       <c r="B379" t="s">
-        <v>1225</v>
+        <v>1217</v>
       </c>
       <c r="C379" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="F379" t="s">
-        <v>1226</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>1227</v>
+        <v>1219</v>
       </c>
       <c r="B380" t="s">
-        <v>1228</v>
+        <v>1220</v>
       </c>
       <c r="C380" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="D380" t="s">
-        <v>1229</v>
+        <v>1221</v>
       </c>
       <c r="F380" t="s">
-        <v>1230</v>
+        <v>1222</v>
       </c>
       <c r="H380">
         <v>3650</v>
@@ -11459,19 +11457,19 @@
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>1231</v>
+        <v>1223</v>
       </c>
       <c r="B381" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="C381" t="s">
-        <v>1233</v>
+        <v>1225</v>
       </c>
       <c r="D381" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="F381" t="s">
-        <v>1234</v>
+        <v>1226</v>
       </c>
       <c r="H381">
         <v>7294</v>
@@ -11482,33 +11480,33 @@
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>1235</v>
+        <v>1227</v>
       </c>
       <c r="B382" t="s">
-        <v>1236</v>
+        <v>1228</v>
       </c>
       <c r="C382" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F382" t="s">
-        <v>1237</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>1238</v>
+        <v>1230</v>
       </c>
       <c r="B383" t="s">
-        <v>1239</v>
+        <v>1231</v>
       </c>
       <c r="C383" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="D383" t="s">
-        <v>1240</v>
+        <v>1232</v>
       </c>
       <c r="F383" t="s">
-        <v>1241</v>
+        <v>1233</v>
       </c>
       <c r="H383">
         <v>6734</v>
@@ -11516,19 +11514,19 @@
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>1244</v>
+        <v>1236</v>
       </c>
       <c r="B384" t="s">
-        <v>1242</v>
+        <v>1234</v>
       </c>
       <c r="C384" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D384" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F384" t="s">
-        <v>1243</v>
+        <v>1235</v>
       </c>
       <c r="H384">
         <v>2583</v>
@@ -11536,33 +11534,33 @@
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>1245</v>
+        <v>1237</v>
       </c>
       <c r="B385" t="s">
-        <v>1246</v>
+        <v>1238</v>
       </c>
       <c r="C385" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F385" t="s">
-        <v>1247</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>1248</v>
+        <v>1240</v>
       </c>
       <c r="B386" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
       <c r="C386" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
       <c r="D386" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F386" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
       <c r="I386">
         <v>14369</v>
@@ -11570,47 +11568,47 @@
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
       <c r="B387" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="C387" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F387" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="B388" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="C388" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F388" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="B389" t="s">
-        <v>1259</v>
+        <v>1251</v>
       </c>
       <c r="C389" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D389" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F389" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
       <c r="I389">
         <v>15373</v>
@@ -11618,75 +11616,75 @@
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="B390" t="s">
-        <v>1262</v>
+        <v>1254</v>
       </c>
       <c r="C390" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F390" t="s">
-        <v>1263</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="391" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>1264</v>
+        <v>1256</v>
       </c>
       <c r="B391" t="s">
-        <v>1265</v>
+        <v>1257</v>
       </c>
       <c r="C391" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F391" t="s">
-        <v>1266</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>1267</v>
+        <v>1259</v>
       </c>
       <c r="B392" t="s">
-        <v>1268</v>
+        <v>1260</v>
       </c>
       <c r="C392" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F392" t="s">
-        <v>1269</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="393" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>1270</v>
+        <v>1262</v>
       </c>
       <c r="B393" t="s">
-        <v>1271</v>
+        <v>1263</v>
       </c>
       <c r="C393" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F393" t="s">
-        <v>1272</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="394" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>1273</v>
+        <v>1265</v>
       </c>
       <c r="B394" t="s">
-        <v>1274</v>
+        <v>1266</v>
       </c>
       <c r="C394" t="s">
-        <v>1120</v>
+        <v>1112</v>
       </c>
       <c r="D394" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F394" t="s">
-        <v>1272</v>
+        <v>1264</v>
       </c>
       <c r="I394">
         <v>13184</v>
@@ -11694,30 +11692,30 @@
     </row>
     <row r="395" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>1275</v>
+        <v>1267</v>
       </c>
       <c r="B395" t="s">
-        <v>1276</v>
+        <v>1268</v>
       </c>
       <c r="C395" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F395" t="s">
-        <v>1277</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>1278</v>
+        <v>1270</v>
       </c>
       <c r="B396" t="s">
-        <v>1279</v>
+        <v>1271</v>
       </c>
       <c r="C396" t="s">
-        <v>1280</v>
+        <v>1272</v>
       </c>
       <c r="F396" t="s">
-        <v>1281</v>
+        <v>1273</v>
       </c>
       <c r="I396">
         <v>15504</v>
@@ -11725,61 +11723,61 @@
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>1282</v>
+        <v>1274</v>
       </c>
       <c r="B397" t="s">
-        <v>1283</v>
+        <v>1275</v>
       </c>
       <c r="C397" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="F397" t="s">
-        <v>1284</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>1285</v>
+        <v>1277</v>
       </c>
       <c r="B398" t="s">
-        <v>1286</v>
+        <v>1278</v>
       </c>
       <c r="C398" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F398" t="s">
-        <v>1287</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>1288</v>
+        <v>1280</v>
       </c>
       <c r="B399" t="s">
-        <v>1289</v>
+        <v>1281</v>
       </c>
       <c r="C399" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F399" t="s">
-        <v>1287</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>1290</v>
+        <v>1282</v>
       </c>
       <c r="B400" t="s">
-        <v>1291</v>
+        <v>1283</v>
       </c>
       <c r="C400" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="D400" t="s">
-        <v>1292</v>
+        <v>1284</v>
       </c>
       <c r="F400" t="s">
-        <v>1287</v>
+        <v>1279</v>
       </c>
       <c r="H400">
         <v>7925</v>
@@ -11787,19 +11785,19 @@
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>1293</v>
+        <v>1285</v>
       </c>
       <c r="B401" t="s">
-        <v>1294</v>
+        <v>1286</v>
       </c>
       <c r="C401" t="s">
-        <v>1295</v>
+        <v>1287</v>
       </c>
       <c r="D401" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="F401" t="s">
-        <v>1296</v>
+        <v>1288</v>
       </c>
       <c r="H401">
         <v>4393</v>
@@ -11807,33 +11805,33 @@
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>1297</v>
+        <v>1289</v>
       </c>
       <c r="B402" t="s">
-        <v>1298</v>
+        <v>1290</v>
       </c>
       <c r="C402" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F402" t="s">
-        <v>1299</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>1300</v>
+        <v>1292</v>
       </c>
       <c r="B403" t="s">
-        <v>1301</v>
+        <v>1293</v>
       </c>
       <c r="C403" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
       <c r="D403" t="s">
-        <v>1302</v>
+        <v>1294</v>
       </c>
       <c r="F403" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="I403">
         <v>35554</v>
@@ -11841,103 +11839,103 @@
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>1303</v>
+        <v>1295</v>
       </c>
       <c r="B404" t="s">
-        <v>1304</v>
+        <v>1296</v>
       </c>
       <c r="C404" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F404" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>1305</v>
+        <v>1297</v>
       </c>
       <c r="B405" t="s">
-        <v>1306</v>
+        <v>1298</v>
       </c>
       <c r="C405" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F405" t="s">
-        <v>1307</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>1308</v>
+        <v>1300</v>
       </c>
       <c r="B406" t="s">
-        <v>1309</v>
+        <v>1301</v>
       </c>
       <c r="C406" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F406" t="s">
-        <v>1310</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>1311</v>
+        <v>1303</v>
       </c>
       <c r="B407" t="s">
-        <v>1312</v>
+        <v>1304</v>
       </c>
       <c r="C407" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F407" t="s">
-        <v>1313</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>1314</v>
+        <v>1306</v>
       </c>
       <c r="B408" t="s">
-        <v>1315</v>
+        <v>1307</v>
       </c>
       <c r="C408" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F408" t="s">
-        <v>1316</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
       <c r="B409" t="s">
-        <v>1318</v>
+        <v>1310</v>
       </c>
       <c r="C409" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F409" t="s">
-        <v>1319</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>1320</v>
+        <v>1312</v>
       </c>
       <c r="B410" t="s">
-        <v>1422</v>
+        <v>1413</v>
       </c>
       <c r="C410" t="s">
-        <v>1421</v>
+        <v>1412</v>
       </c>
       <c r="D410" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F410" t="s">
-        <v>1321</v>
+        <v>1313</v>
       </c>
       <c r="H410">
         <v>8683</v>
@@ -11945,19 +11943,19 @@
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>1322</v>
+        <v>1314</v>
       </c>
       <c r="B411" t="s">
-        <v>1323</v>
+        <v>1315</v>
       </c>
       <c r="C411" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D411" t="s">
-        <v>1051</v>
+        <v>1043</v>
       </c>
       <c r="F411" t="s">
-        <v>1324</v>
+        <v>1316</v>
       </c>
       <c r="I411">
         <v>16760</v>
@@ -11965,47 +11963,47 @@
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>1325</v>
+        <v>1317</v>
       </c>
       <c r="B412" t="s">
-        <v>1326</v>
+        <v>1318</v>
       </c>
       <c r="C412" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F412" t="s">
-        <v>1327</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>1328</v>
+        <v>1320</v>
       </c>
       <c r="B413" t="s">
-        <v>1329</v>
+        <v>1321</v>
       </c>
       <c r="C413" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F413" t="s">
-        <v>1330</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>1331</v>
+        <v>1323</v>
       </c>
       <c r="B414" t="s">
-        <v>1332</v>
+        <v>1324</v>
       </c>
       <c r="C414" t="s">
-        <v>1333</v>
+        <v>1325</v>
       </c>
       <c r="D414" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="F414" t="s">
-        <v>1334</v>
+        <v>1326</v>
       </c>
       <c r="I414">
         <v>19264</v>
@@ -12013,159 +12011,159 @@
     </row>
     <row r="415" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>1335</v>
+        <v>1327</v>
       </c>
       <c r="B415" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
       <c r="C415" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F415" t="s">
-        <v>1337</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>1338</v>
+        <v>1330</v>
       </c>
       <c r="B416" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
       <c r="C416" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F416" t="s">
-        <v>1340</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="417" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>1341</v>
+        <v>1333</v>
       </c>
       <c r="B417" t="s">
-        <v>1342</v>
+        <v>1334</v>
       </c>
       <c r="C417" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F417" t="s">
-        <v>1120</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="418" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>1343</v>
+        <v>1335</v>
       </c>
       <c r="B418" t="s">
-        <v>1344</v>
+        <v>1336</v>
       </c>
       <c r="C418" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F418" t="s">
-        <v>1120</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="419" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>1345</v>
+        <v>1337</v>
       </c>
       <c r="B419" t="s">
-        <v>1346</v>
+        <v>1338</v>
       </c>
       <c r="C419" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F419" t="s">
-        <v>1347</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="420" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>1348</v>
+        <v>1340</v>
       </c>
       <c r="B420" t="s">
-        <v>1349</v>
+        <v>1341</v>
       </c>
       <c r="C420" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F420" t="s">
-        <v>1350</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="421" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>1351</v>
+        <v>1343</v>
       </c>
       <c r="B421" t="s">
-        <v>1352</v>
+        <v>1344</v>
       </c>
       <c r="C421" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F421" t="s">
-        <v>1353</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="422" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>1354</v>
+        <v>1346</v>
       </c>
       <c r="B422" t="s">
-        <v>1355</v>
+        <v>1347</v>
       </c>
       <c r="C422" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F422" t="s">
-        <v>1356</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="423" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>1357</v>
+        <v>1349</v>
       </c>
       <c r="B423" t="s">
-        <v>1358</v>
+        <v>1350</v>
       </c>
       <c r="C423" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F423" t="s">
-        <v>1359</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="424" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>1360</v>
+        <v>1352</v>
       </c>
       <c r="B424" t="s">
-        <v>1361</v>
+        <v>1353</v>
       </c>
       <c r="C424" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F424" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="425" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>1363</v>
+        <v>1355</v>
       </c>
       <c r="B425" t="s">
-        <v>1364</v>
+        <v>1356</v>
       </c>
       <c r="C425" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
       <c r="D425" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F425" t="s">
-        <v>1366</v>
+        <v>1358</v>
       </c>
       <c r="H425">
         <v>2910</v>
@@ -12173,75 +12171,75 @@
     </row>
     <row r="426" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>1367</v>
+        <v>1359</v>
       </c>
       <c r="B426" t="s">
-        <v>1368</v>
+        <v>1360</v>
       </c>
       <c r="C426" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F426" t="s">
-        <v>1369</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="427" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>1370</v>
+        <v>1362</v>
       </c>
       <c r="B427" t="s">
-        <v>1371</v>
+        <v>1363</v>
       </c>
       <c r="C427" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F427" t="s">
-        <v>1372</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="428" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>1373</v>
+        <v>1365</v>
       </c>
       <c r="B428" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="C428" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F428" t="s">
-        <v>1375</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="429" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>1376</v>
+        <v>1368</v>
       </c>
       <c r="B429" t="s">
-        <v>1377</v>
+        <v>1369</v>
       </c>
       <c r="C429" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F429" t="s">
-        <v>1378</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="430" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>1379</v>
+        <v>1371</v>
       </c>
       <c r="B430" t="s">
-        <v>1380</v>
+        <v>1372</v>
       </c>
       <c r="C430" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D430" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F430" t="s">
-        <v>1381</v>
+        <v>1373</v>
       </c>
       <c r="I430">
         <v>12650</v>
@@ -12249,33 +12247,33 @@
     </row>
     <row r="431" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>1382</v>
+        <v>1374</v>
       </c>
       <c r="B431" t="s">
-        <v>1383</v>
+        <v>1375</v>
       </c>
       <c r="C431" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F431" t="s">
-        <v>1384</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="432" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>1385</v>
+        <v>1377</v>
       </c>
       <c r="B432" t="s">
-        <v>1386</v>
+        <v>1378</v>
       </c>
       <c r="C432" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D432" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F432" t="s">
-        <v>1384</v>
+        <v>1376</v>
       </c>
       <c r="I432">
         <v>9878</v>
@@ -12283,33 +12281,33 @@
     </row>
     <row r="433" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>1387</v>
+        <v>1379</v>
       </c>
       <c r="B433" t="s">
-        <v>1388</v>
+        <v>1380</v>
       </c>
       <c r="C433" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F433" t="s">
-        <v>1389</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="434" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>1390</v>
+        <v>1382</v>
       </c>
       <c r="B434" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="C434" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D434" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="F434" t="s">
-        <v>1392</v>
+        <v>1384</v>
       </c>
       <c r="I434">
         <v>15567</v>
@@ -12317,47 +12315,47 @@
     </row>
     <row r="435" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>1393</v>
+        <v>1385</v>
       </c>
       <c r="B435" t="s">
-        <v>1394</v>
+        <v>1386</v>
       </c>
       <c r="C435" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F435" t="s">
-        <v>1395</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="436" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>1396</v>
+        <v>1388</v>
       </c>
       <c r="B436" t="s">
-        <v>1397</v>
+        <v>1389</v>
       </c>
       <c r="C436" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F436" t="s">
-        <v>1395</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="437" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>1400</v>
+        <v>1392</v>
       </c>
       <c r="B437" t="s">
-        <v>1398</v>
+        <v>1390</v>
       </c>
       <c r="C437" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="D437" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F437" t="s">
-        <v>1399</v>
+        <v>1391</v>
       </c>
       <c r="H437">
         <v>4851</v>
@@ -12365,33 +12363,33 @@
     </row>
     <row r="438" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>1401</v>
+        <v>1393</v>
       </c>
       <c r="B438" t="s">
-        <v>1402</v>
+        <v>1394</v>
       </c>
       <c r="C438" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F438" t="s">
-        <v>1403</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="439" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>1404</v>
+        <v>1396</v>
       </c>
       <c r="B439" t="s">
-        <v>1405</v>
+        <v>1397</v>
       </c>
       <c r="C439" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="D439" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F439" t="s">
-        <v>1406</v>
+        <v>1398</v>
       </c>
       <c r="I439">
         <v>10658</v>
@@ -12399,30 +12397,30 @@
     </row>
     <row r="440" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>1407</v>
+        <v>1399</v>
       </c>
       <c r="B440" t="s">
-        <v>1408</v>
+        <v>1400</v>
       </c>
       <c r="C440" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="F440" t="s">
-        <v>1406</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="441" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>1409</v>
+        <v>1401</v>
       </c>
       <c r="B441" t="s">
-        <v>1410</v>
+        <v>1402</v>
       </c>
       <c r="C441" t="s">
-        <v>1105</v>
+        <v>1097</v>
       </c>
       <c r="F441" t="s">
-        <v>1406</v>
+        <v>1398</v>
       </c>
       <c r="H441">
         <v>9088</v>

--- a/data/surveyor.xlsx
+++ b/data/surveyor.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1950" uniqueCount="1428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1958" uniqueCount="1432">
   <si>
     <t>R. AANRUD</t>
   </si>
@@ -1029,9 +1029,6 @@
     <t>F. DEMLING</t>
   </si>
   <si>
-    <t>F DEMLING</t>
-  </si>
-  <si>
     <t>DEMLING</t>
   </si>
   <si>
@@ -3402,9 +3399,6 @@
     <t>M. SCHILLINGER</t>
   </si>
   <si>
-    <t>M SCHILLINGER</t>
-  </si>
-  <si>
     <t>J. SCHMITT</t>
   </si>
   <si>
@@ -4303,6 +4297,24 @@
   </si>
   <si>
     <t>RCE</t>
+  </si>
+  <si>
+    <t>P. FERGUSON JR</t>
+  </si>
+  <si>
+    <t>PAUL</t>
+  </si>
+  <si>
+    <t>FERGUSON</t>
+  </si>
+  <si>
+    <t>PAUL FRANCIS FERGUSON JR</t>
+  </si>
+  <si>
+    <t>FRANK CHARLES DEMLING JR</t>
+  </si>
+  <si>
+    <t>MAX A SCHILLINGER</t>
   </si>
 </sst>
 </file>
@@ -5143,9 +5155,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I441"/>
+  <dimension ref="A1:I442"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A309" workbookViewId="0">
+      <selection activeCell="B348" sqref="B348"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5162,31 +5176,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C1" t="s">
         <v>1419</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>1420</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>1421</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>1422</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>1423</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>1424</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>1425</v>
-      </c>
-      <c r="H1" t="s">
-        <v>1426</v>
-      </c>
-      <c r="I1" t="s">
-        <v>1427</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -5746,7 +5760,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="B32" t="s">
         <v>125</v>
@@ -6122,19 +6136,19 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C52" t="s">
         <v>1414</v>
       </c>
-      <c r="B52" t="s">
+      <c r="D52" t="s">
         <v>1415</v>
       </c>
-      <c r="C52" t="s">
+      <c r="F52" t="s">
         <v>1416</v>
-      </c>
-      <c r="D52" t="s">
-        <v>1417</v>
-      </c>
-      <c r="F52" t="s">
-        <v>1418</v>
       </c>
       <c r="H52">
         <v>9339</v>
@@ -6813,21 +6827,30 @@
         <v>335</v>
       </c>
       <c r="B93" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C93" t="s">
+        <v>593</v>
+      </c>
+      <c r="D93" t="s">
+        <v>447</v>
+      </c>
+      <c r="F93" t="s">
         <v>336</v>
       </c>
-      <c r="C93" t="s">
-        <v>104</v>
-      </c>
-      <c r="F93" t="s">
-        <v>337</v>
+      <c r="G93" t="s">
+        <v>201</v>
+      </c>
+      <c r="H93">
+        <v>4969</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>337</v>
+      </c>
+      <c r="B94" t="s">
         <v>338</v>
-      </c>
-      <c r="B94" t="s">
-        <v>339</v>
       </c>
       <c r="C94" t="s">
         <v>39</v>
@@ -6836,7 +6859,7 @@
         <v>63</v>
       </c>
       <c r="F94" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I94">
         <v>29113</v>
@@ -6844,108 +6867,108 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>340</v>
+      </c>
+      <c r="B95" t="s">
         <v>341</v>
-      </c>
-      <c r="B95" t="s">
-        <v>342</v>
       </c>
       <c r="C95" t="s">
         <v>46</v>
       </c>
       <c r="F95" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>343</v>
+      </c>
+      <c r="B96" t="s">
         <v>344</v>
-      </c>
-      <c r="B96" t="s">
-        <v>345</v>
       </c>
       <c r="C96" t="s">
         <v>20</v>
       </c>
       <c r="F96" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>346</v>
+      </c>
+      <c r="B97" t="s">
         <v>347</v>
-      </c>
-      <c r="B97" t="s">
-        <v>348</v>
       </c>
       <c r="C97" t="s">
         <v>19</v>
       </c>
       <c r="F97" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>349</v>
+      </c>
+      <c r="B98" t="s">
         <v>350</v>
-      </c>
-      <c r="B98" t="s">
-        <v>351</v>
       </c>
       <c r="C98" t="s">
         <v>25</v>
       </c>
       <c r="F98" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>352</v>
+      </c>
+      <c r="B99" t="s">
         <v>353</v>
-      </c>
-      <c r="B99" t="s">
-        <v>354</v>
       </c>
       <c r="C99" t="s">
         <v>2</v>
       </c>
       <c r="F99" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="B100" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C100" t="s">
         <v>19</v>
       </c>
       <c r="F100" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>357</v>
+      </c>
+      <c r="B101" t="s">
         <v>358</v>
-      </c>
-      <c r="B101" t="s">
-        <v>359</v>
       </c>
       <c r="C101" t="s">
         <v>46</v>
       </c>
       <c r="F101" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>360</v>
+      </c>
+      <c r="B102" t="s">
         <v>361</v>
-      </c>
-      <c r="B102" t="s">
-        <v>362</v>
       </c>
       <c r="C102" t="s">
         <v>59</v>
@@ -6954,7 +6977,7 @@
         <v>155</v>
       </c>
       <c r="F102" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I102">
         <v>22957</v>
@@ -6962,136 +6985,136 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>363</v>
+      </c>
+      <c r="B103" t="s">
         <v>364</v>
-      </c>
-      <c r="B103" t="s">
-        <v>365</v>
       </c>
       <c r="C103" t="s">
         <v>46</v>
       </c>
       <c r="F103" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>366</v>
+      </c>
+      <c r="B104" t="s">
         <v>367</v>
-      </c>
-      <c r="B104" t="s">
-        <v>368</v>
       </c>
       <c r="C104" t="s">
         <v>2</v>
       </c>
       <c r="F104" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
+        <v>369</v>
+      </c>
+      <c r="B105" t="s">
         <v>370</v>
-      </c>
-      <c r="B105" t="s">
-        <v>371</v>
       </c>
       <c r="C105" t="s">
         <v>248</v>
       </c>
       <c r="F105" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
+        <v>372</v>
+      </c>
+      <c r="B106" t="s">
         <v>373</v>
-      </c>
-      <c r="B106" t="s">
-        <v>374</v>
       </c>
       <c r="C106" t="s">
         <v>20</v>
       </c>
       <c r="F106" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
+        <v>375</v>
+      </c>
+      <c r="B107" t="s">
         <v>376</v>
-      </c>
-      <c r="B107" t="s">
-        <v>377</v>
       </c>
       <c r="C107" t="s">
         <v>83</v>
       </c>
       <c r="F107" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
+        <v>378</v>
+      </c>
+      <c r="B108" t="s">
         <v>379</v>
-      </c>
-      <c r="B108" t="s">
-        <v>380</v>
       </c>
       <c r="C108" t="s">
         <v>83</v>
       </c>
       <c r="F108" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
+        <v>381</v>
+      </c>
+      <c r="B109" t="s">
         <v>382</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C109" t="s">
         <v>383</v>
       </c>
-      <c r="C109" t="s">
+      <c r="F109" t="s">
         <v>384</v>
-      </c>
-      <c r="F109" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>385</v>
+      </c>
+      <c r="B110" t="s">
         <v>386</v>
-      </c>
-      <c r="B110" t="s">
-        <v>387</v>
       </c>
       <c r="C110" t="s">
         <v>2</v>
       </c>
       <c r="F110" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
+        <v>388</v>
+      </c>
+      <c r="B111" t="s">
         <v>389</v>
-      </c>
-      <c r="B111" t="s">
-        <v>390</v>
       </c>
       <c r="C111" t="s">
         <v>109</v>
       </c>
       <c r="F111" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>391</v>
+      </c>
+      <c r="B112" t="s">
         <v>392</v>
-      </c>
-      <c r="B112" t="s">
-        <v>393</v>
       </c>
       <c r="C112" t="s">
         <v>113</v>
@@ -7100,7 +7123,7 @@
         <v>248</v>
       </c>
       <c r="F112" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I112">
         <v>12475</v>
@@ -7108,131 +7131,131 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
+        <v>394</v>
+      </c>
+      <c r="B113" t="s">
         <v>395</v>
-      </c>
-      <c r="B113" t="s">
-        <v>396</v>
       </c>
       <c r="C113" t="s">
         <v>19</v>
       </c>
       <c r="F113" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>397</v>
+      </c>
+      <c r="B114" t="s">
         <v>398</v>
-      </c>
-      <c r="B114" t="s">
-        <v>399</v>
       </c>
       <c r="C114" t="s">
         <v>19</v>
       </c>
       <c r="F114" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
+        <v>400</v>
+      </c>
+      <c r="B115" t="s">
         <v>401</v>
-      </c>
-      <c r="B115" t="s">
-        <v>402</v>
       </c>
       <c r="C115" t="s">
         <v>109</v>
       </c>
       <c r="F115" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
+        <v>403</v>
+      </c>
+      <c r="B116" t="s">
         <v>404</v>
-      </c>
-      <c r="B116" t="s">
-        <v>405</v>
       </c>
       <c r="C116" t="s">
         <v>19</v>
       </c>
       <c r="F116" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
+        <v>406</v>
+      </c>
+      <c r="B117" t="s">
         <v>407</v>
-      </c>
-      <c r="B117" t="s">
-        <v>408</v>
       </c>
       <c r="C117" t="s">
         <v>122</v>
       </c>
       <c r="F117" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>409</v>
+      </c>
+      <c r="B118" t="s">
         <v>410</v>
       </c>
-      <c r="B118" t="s">
+      <c r="C118" t="s">
         <v>411</v>
       </c>
-      <c r="C118" t="s">
+      <c r="F118" t="s">
         <v>412</v>
-      </c>
-      <c r="F118" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
+        <v>413</v>
+      </c>
+      <c r="B119" t="s">
         <v>414</v>
       </c>
-      <c r="B119" t="s">
+      <c r="C119" t="s">
         <v>415</v>
       </c>
-      <c r="C119" t="s">
+      <c r="F119" t="s">
         <v>416</v>
-      </c>
-      <c r="F119" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
+        <v>417</v>
+      </c>
+      <c r="B120" t="s">
         <v>418</v>
-      </c>
-      <c r="B120" t="s">
-        <v>419</v>
       </c>
       <c r="C120" t="s">
         <v>25</v>
       </c>
       <c r="F120" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
+        <v>420</v>
+      </c>
+      <c r="B121" t="s">
         <v>421</v>
       </c>
-      <c r="B121" t="s">
+      <c r="C121" t="s">
         <v>422</v>
       </c>
-      <c r="C121" t="s">
+      <c r="D121" t="s">
         <v>423</v>
       </c>
-      <c r="D121" t="s">
+      <c r="F121" t="s">
         <v>424</v>
-      </c>
-      <c r="F121" t="s">
-        <v>425</v>
       </c>
       <c r="I121">
         <v>28493</v>
@@ -7240,33 +7263,33 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
+        <v>425</v>
+      </c>
+      <c r="B122" t="s">
         <v>426</v>
-      </c>
-      <c r="B122" t="s">
-        <v>427</v>
       </c>
       <c r="C122" t="s">
         <v>25</v>
       </c>
       <c r="F122" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
+        <v>428</v>
+      </c>
+      <c r="B123" t="s">
         <v>429</v>
       </c>
-      <c r="B123" t="s">
+      <c r="C123" t="s">
         <v>430</v>
       </c>
-      <c r="C123" t="s">
+      <c r="D123" t="s">
         <v>431</v>
       </c>
-      <c r="D123" t="s">
+      <c r="F123" t="s">
         <v>432</v>
-      </c>
-      <c r="F123" t="s">
-        <v>433</v>
       </c>
       <c r="H123">
         <v>5904</v>
@@ -7277,700 +7300,706 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="B124" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C124" t="s">
         <v>35</v>
       </c>
       <c r="F124" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
+        <v>435</v>
+      </c>
+      <c r="B125" t="s">
         <v>436</v>
-      </c>
-      <c r="B125" t="s">
-        <v>437</v>
       </c>
       <c r="C125" t="s">
         <v>20</v>
       </c>
       <c r="F125" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="B126" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C126" t="s">
         <v>46</v>
       </c>
       <c r="F126" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="B127" t="s">
+        <v>440</v>
+      </c>
+      <c r="C127" t="s">
+        <v>411</v>
+      </c>
+      <c r="F127" t="s">
         <v>441</v>
-      </c>
-      <c r="C127" t="s">
-        <v>412</v>
-      </c>
-      <c r="F127" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
+        <v>442</v>
+      </c>
+      <c r="B128" t="s">
         <v>443</v>
-      </c>
-      <c r="B128" t="s">
-        <v>444</v>
       </c>
       <c r="C128" t="s">
         <v>109</v>
       </c>
       <c r="F128" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>446</v>
+        <v>1426</v>
       </c>
       <c r="B129" t="s">
-        <v>447</v>
+        <v>1429</v>
       </c>
       <c r="C129" t="s">
-        <v>448</v>
+        <v>1427</v>
       </c>
       <c r="D129" t="s">
-        <v>39</v>
+        <v>439</v>
       </c>
       <c r="F129" t="s">
-        <v>449</v>
-      </c>
-      <c r="I129">
-        <v>20181</v>
+        <v>1428</v>
+      </c>
+      <c r="G129" t="s">
+        <v>201</v>
+      </c>
+      <c r="H129">
+        <v>9265</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B130" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="C130" t="s">
-        <v>7</v>
+        <v>447</v>
+      </c>
+      <c r="D130" t="s">
+        <v>39</v>
       </c>
       <c r="F130" t="s">
-        <v>452</v>
+        <v>448</v>
+      </c>
+      <c r="I130">
+        <v>20181</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B131" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C131" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="F131" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B132" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C132" t="s">
-        <v>458</v>
-      </c>
-      <c r="D132" t="s">
-        <v>448</v>
+        <v>54</v>
       </c>
       <c r="F132" t="s">
-        <v>459</v>
-      </c>
-      <c r="H132">
-        <v>7717</v>
+        <v>454</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="B133" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="C133" t="s">
-        <v>54</v>
+        <v>457</v>
+      </c>
+      <c r="D133" t="s">
+        <v>447</v>
       </c>
       <c r="F133" t="s">
-        <v>462</v>
+        <v>458</v>
+      </c>
+      <c r="H133">
+        <v>7717</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B134" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C134" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="F134" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B135" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C135" t="s">
-        <v>104</v>
-      </c>
-      <c r="D135" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="F135" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B136" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C136" t="s">
-        <v>471</v>
+        <v>104</v>
       </c>
       <c r="D136" t="s">
-        <v>472</v>
+        <v>35</v>
       </c>
       <c r="F136" t="s">
-        <v>473</v>
-      </c>
-      <c r="H136">
-        <v>5125</v>
-      </c>
-      <c r="I136">
-        <v>25217</v>
+        <v>467</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="B137" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C137" t="s">
-        <v>19</v>
+        <v>470</v>
+      </c>
+      <c r="D137" t="s">
+        <v>471</v>
       </c>
       <c r="F137" t="s">
-        <v>476</v>
+        <v>472</v>
+      </c>
+      <c r="H137">
+        <v>5125</v>
+      </c>
+      <c r="I137">
+        <v>25217</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B138" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C138" t="s">
         <v>19</v>
       </c>
       <c r="F138" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B139" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C139" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="F139" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B140" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C140" t="s">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="F140" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B141" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C141" t="s">
-        <v>29</v>
-      </c>
-      <c r="D141" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F141" t="s">
-        <v>488</v>
-      </c>
-      <c r="H141">
-        <v>7242</v>
+        <v>484</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B142" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C142" t="s">
-        <v>491</v>
+        <v>29</v>
       </c>
       <c r="D142" t="s">
-        <v>492</v>
+        <v>139</v>
       </c>
       <c r="F142" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="H142">
-        <v>6157</v>
+        <v>7242</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="B143" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="C143" t="s">
-        <v>151</v>
+        <v>490</v>
+      </c>
+      <c r="D143" t="s">
+        <v>491</v>
       </c>
       <c r="F143" t="s">
-        <v>496</v>
+        <v>492</v>
+      </c>
+      <c r="H143">
+        <v>6157</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B144" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C144" t="s">
-        <v>499</v>
-      </c>
-      <c r="D144" t="s">
-        <v>113</v>
+        <v>151</v>
       </c>
       <c r="F144" t="s">
-        <v>500</v>
-      </c>
-      <c r="G144" t="s">
-        <v>201</v>
-      </c>
-      <c r="H144">
-        <v>7541</v>
+        <v>495</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="B145" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="C145" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D145" t="s">
         <v>113</v>
       </c>
       <c r="F145" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G145" t="s">
-        <v>503</v>
-      </c>
-      <c r="I145">
-        <v>22093</v>
+        <v>201</v>
+      </c>
+      <c r="H145">
+        <v>7541</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B146" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C146" t="s">
-        <v>416</v>
+        <v>498</v>
+      </c>
+      <c r="D146" t="s">
+        <v>113</v>
       </c>
       <c r="F146" t="s">
-        <v>506</v>
+        <v>499</v>
+      </c>
+      <c r="G146" t="s">
+        <v>502</v>
+      </c>
+      <c r="I146">
+        <v>22093</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B147" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C147" t="s">
-        <v>104</v>
+        <v>415</v>
       </c>
       <c r="F147" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B148" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C148" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="F148" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B149" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C149" t="s">
-        <v>248</v>
+        <v>46</v>
       </c>
       <c r="F149" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="B150" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C150" t="s">
-        <v>518</v>
-      </c>
-      <c r="D150" t="s">
-        <v>6</v>
+        <v>248</v>
       </c>
       <c r="F150" t="s">
-        <v>519</v>
-      </c>
-      <c r="H150">
-        <v>3318</v>
+        <v>514</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="B151" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="C151" t="s">
-        <v>104</v>
+        <v>517</v>
+      </c>
+      <c r="D151" t="s">
+        <v>6</v>
       </c>
       <c r="F151" t="s">
-        <v>522</v>
+        <v>518</v>
+      </c>
+      <c r="H151">
+        <v>3318</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B152" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C152" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="F152" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B153" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C153" t="s">
-        <v>155</v>
-      </c>
-      <c r="D153" t="s">
-        <v>122</v>
+        <v>19</v>
       </c>
       <c r="F153" t="s">
-        <v>528</v>
-      </c>
-      <c r="I153">
-        <v>23355</v>
+        <v>524</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B154" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="C154" t="s">
-        <v>20</v>
+        <v>155</v>
+      </c>
+      <c r="D154" t="s">
+        <v>122</v>
       </c>
       <c r="F154" t="s">
-        <v>531</v>
+        <v>527</v>
+      </c>
+      <c r="I154">
+        <v>23355</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B155" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C155" t="s">
-        <v>534</v>
-      </c>
-      <c r="D155" t="s">
         <v>20</v>
       </c>
       <c r="F155" t="s">
-        <v>535</v>
-      </c>
-      <c r="G155" t="s">
-        <v>201</v>
-      </c>
-      <c r="H155">
-        <v>7245</v>
+        <v>530</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="B156" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="C156" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="D156" t="s">
-        <v>151</v>
+        <v>20</v>
       </c>
       <c r="F156" t="s">
-        <v>539</v>
+        <v>534</v>
+      </c>
+      <c r="G156" t="s">
+        <v>201</v>
       </c>
       <c r="H156">
-        <v>3431</v>
+        <v>7245</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="B157" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="C157" t="s">
-        <v>46</v>
+        <v>537</v>
+      </c>
+      <c r="D157" t="s">
+        <v>151</v>
       </c>
       <c r="F157" t="s">
-        <v>542</v>
+        <v>538</v>
+      </c>
+      <c r="H157">
+        <v>3431</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B158" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="C158" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="F158" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B159" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="C159" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F159" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B160" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="C160" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F160" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B161" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="C161" t="s">
-        <v>554</v>
-      </c>
-      <c r="D161" t="s">
-        <v>555</v>
+        <v>6</v>
       </c>
       <c r="F161" t="s">
-        <v>556</v>
-      </c>
-      <c r="H161">
-        <v>6611</v>
+        <v>550</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="B162" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="C162" t="s">
-        <v>63</v>
+        <v>553</v>
       </c>
       <c r="D162" t="s">
-        <v>83</v>
+        <v>554</v>
       </c>
       <c r="F162" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="H162">
-        <v>7683</v>
+        <v>6611</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="B163" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="C163" t="s">
-        <v>19</v>
+        <v>63</v>
+      </c>
+      <c r="D163" t="s">
+        <v>83</v>
       </c>
       <c r="F163" t="s">
-        <v>562</v>
+        <v>558</v>
+      </c>
+      <c r="H163">
+        <v>7683</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B164" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="C164" t="s">
-        <v>99</v>
-      </c>
-      <c r="D164" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F164" t="s">
-        <v>565</v>
-      </c>
-      <c r="I164">
-        <v>7642</v>
+        <v>561</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B165" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C165" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D165" t="s">
-        <v>109</v>
+        <v>7</v>
       </c>
       <c r="F165" t="s">
-        <v>568</v>
+        <v>564</v>
+      </c>
+      <c r="I165">
+        <v>7642</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>1407</v>
+        <v>565</v>
       </c>
       <c r="B166" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C166" t="s">
         <v>104</v>
@@ -7979,1101 +8008,1098 @@
         <v>109</v>
       </c>
       <c r="F166" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>569</v>
+        <v>1405</v>
       </c>
       <c r="B167" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C167" t="s">
-        <v>19</v>
+        <v>104</v>
+      </c>
+      <c r="D167" t="s">
+        <v>109</v>
       </c>
       <c r="F167" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B168" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="C168" t="s">
         <v>19</v>
       </c>
       <c r="F168" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B169" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C169" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="F169" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B170" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="C170" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="F170" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B171" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C171" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="F171" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="B172" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="C172" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="F172" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="B173" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="C173" t="s">
-        <v>589</v>
-      </c>
-      <c r="D173" t="s">
-        <v>590</v>
+        <v>25</v>
       </c>
       <c r="F173" t="s">
-        <v>591</v>
-      </c>
-      <c r="H173">
-        <v>8335</v>
+        <v>585</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="B174" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="C174" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="D174" t="s">
-        <v>54</v>
+        <v>589</v>
       </c>
       <c r="F174" t="s">
-        <v>595</v>
+        <v>590</v>
+      </c>
+      <c r="H174">
+        <v>8335</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="B175" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="C175" t="s">
-        <v>2</v>
+        <v>593</v>
       </c>
       <c r="D175" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="F175" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B176" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C176" t="s">
-        <v>54</v>
+        <v>2</v>
+      </c>
+      <c r="D176" t="s">
+        <v>104</v>
       </c>
       <c r="F176" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="B177" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="C177" t="s">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="F177" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B178" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C178" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="F178" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="B179" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="C179" t="s">
-        <v>609</v>
-      </c>
-      <c r="D179" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F179" t="s">
-        <v>610</v>
-      </c>
-      <c r="I179">
-        <v>5438</v>
+        <v>605</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="B180" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="C180" t="s">
-        <v>499</v>
+        <v>608</v>
+      </c>
+      <c r="D180" t="s">
+        <v>20</v>
       </c>
       <c r="F180" t="s">
-        <v>610</v>
-      </c>
-      <c r="H180">
-        <v>3254</v>
+        <v>609</v>
+      </c>
+      <c r="I180">
+        <v>5438</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B181" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C181" t="s">
-        <v>2</v>
+        <v>498</v>
       </c>
       <c r="F181" t="s">
-        <v>615</v>
+        <v>609</v>
+      </c>
+      <c r="H181">
+        <v>3254</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B182" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="C182" t="s">
-        <v>109</v>
+        <v>2</v>
       </c>
       <c r="F182" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B183" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C183" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="F183" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B184" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="C184" t="s">
-        <v>624</v>
-      </c>
-      <c r="D184" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="F184" t="s">
-        <v>621</v>
-      </c>
-      <c r="H184">
-        <v>7801</v>
+        <v>620</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B185" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="C185" t="s">
-        <v>122</v>
+        <v>623</v>
+      </c>
+      <c r="D185" t="s">
+        <v>127</v>
       </c>
       <c r="F185" t="s">
-        <v>627</v>
+        <v>620</v>
+      </c>
+      <c r="H185">
+        <v>7801</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B186" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C186" t="s">
-        <v>59</v>
-      </c>
-      <c r="D186" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="F186" t="s">
-        <v>627</v>
-      </c>
-      <c r="H186">
-        <v>6356</v>
+        <v>626</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B187" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="C187" t="s">
-        <v>632</v>
+        <v>59</v>
       </c>
       <c r="D187" t="s">
-        <v>633</v>
+        <v>113</v>
       </c>
       <c r="F187" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="H187">
-        <v>7858</v>
+        <v>6356</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="B188" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="C188" t="s">
-        <v>412</v>
+        <v>631</v>
+      </c>
+      <c r="D188" t="s">
+        <v>632</v>
       </c>
       <c r="F188" t="s">
-        <v>87</v>
+        <v>633</v>
+      </c>
+      <c r="H188">
+        <v>7858</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="B189" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="C189" t="s">
-        <v>639</v>
-      </c>
-      <c r="D189" t="s">
-        <v>640</v>
+        <v>411</v>
       </c>
       <c r="F189" t="s">
-        <v>641</v>
-      </c>
-      <c r="I189">
-        <v>24779</v>
+        <v>87</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="B190" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="C190" t="s">
-        <v>458</v>
+        <v>638</v>
       </c>
       <c r="D190" t="s">
-        <v>139</v>
+        <v>639</v>
       </c>
       <c r="F190" t="s">
-        <v>644</v>
-      </c>
-      <c r="H190">
-        <v>4570</v>
+        <v>640</v>
+      </c>
+      <c r="I190">
+        <v>24779</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B191" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="C191" t="s">
-        <v>46</v>
+        <v>457</v>
+      </c>
+      <c r="D191" t="s">
+        <v>139</v>
       </c>
       <c r="F191" t="s">
-        <v>647</v>
+        <v>643</v>
+      </c>
+      <c r="H191">
+        <v>4570</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="B192" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="C192" t="s">
-        <v>109</v>
+        <v>46</v>
       </c>
       <c r="F192" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B193" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="C193" t="s">
-        <v>35</v>
+        <v>109</v>
       </c>
       <c r="F193" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="B194" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="C194" t="s">
-        <v>109</v>
+        <v>35</v>
       </c>
       <c r="F194" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="B195" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="C195" t="s">
-        <v>248</v>
+        <v>109</v>
       </c>
       <c r="F195" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B196" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="C196" t="s">
-        <v>104</v>
+        <v>248</v>
       </c>
       <c r="F196" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="B197" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="C197" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="F197" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="B198" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="C198" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F198" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="B199" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="C199" t="s">
-        <v>669</v>
-      </c>
-      <c r="D199" t="s">
-        <v>670</v>
+        <v>2</v>
       </c>
       <c r="F199" t="s">
-        <v>671</v>
-      </c>
-      <c r="H199">
-        <v>8153</v>
+        <v>665</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="B200" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="C200" t="s">
-        <v>25</v>
+        <v>668</v>
+      </c>
+      <c r="D200" t="s">
+        <v>669</v>
       </c>
       <c r="F200" t="s">
-        <v>674</v>
+        <v>670</v>
+      </c>
+      <c r="H200">
+        <v>8153</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="B201" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C201" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="F201" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="B202" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="C202" t="s">
-        <v>109</v>
+        <v>2</v>
       </c>
       <c r="F202" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="B203" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="C203" t="s">
-        <v>39</v>
-      </c>
-      <c r="D203" t="s">
-        <v>448</v>
+        <v>109</v>
       </c>
       <c r="F203" t="s">
-        <v>683</v>
-      </c>
-      <c r="I203">
-        <v>18584</v>
+        <v>679</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B204" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="C204" t="s">
-        <v>686</v>
+        <v>39</v>
       </c>
       <c r="D204" t="s">
-        <v>687</v>
+        <v>447</v>
       </c>
       <c r="F204" t="s">
-        <v>688</v>
-      </c>
-      <c r="H204">
-        <v>6621</v>
+        <v>682</v>
+      </c>
+      <c r="I204">
+        <v>18584</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="B205" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="C205" t="s">
-        <v>316</v>
+        <v>685</v>
       </c>
       <c r="D205" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="F205" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H205">
-        <v>9194</v>
+        <v>6621</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B206" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="C206" t="s">
-        <v>25</v>
+        <v>316</v>
+      </c>
+      <c r="D206" t="s">
+        <v>690</v>
       </c>
       <c r="F206" t="s">
-        <v>688</v>
+        <v>687</v>
+      </c>
+      <c r="H206">
+        <v>9194</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="B207" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="C207" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="F207" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="B208" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="C208" t="s">
-        <v>248</v>
+        <v>83</v>
       </c>
       <c r="F208" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B209" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="C209" t="s">
-        <v>6</v>
+        <v>248</v>
       </c>
       <c r="F209" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="B210" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="C210" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="F210" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="B211" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="C211" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="F211" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="B212" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="C212" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="F212" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="B213" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C213" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="F213" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B214" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="C214" t="s">
-        <v>594</v>
-      </c>
-      <c r="D214" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="F214" t="s">
-        <v>717</v>
-      </c>
-      <c r="H214">
-        <v>764</v>
-      </c>
-      <c r="I214">
-        <v>220</v>
+        <v>713</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="B215" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="C215" t="s">
-        <v>720</v>
+        <v>593</v>
       </c>
       <c r="D215" t="s">
         <v>54</v>
       </c>
       <c r="F215" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H215">
-        <v>2820</v>
+        <v>764</v>
+      </c>
+      <c r="I215">
+        <v>220</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="B216" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C216" t="s">
-        <v>68</v>
+        <v>719</v>
       </c>
       <c r="D216" t="s">
-        <v>440</v>
+        <v>54</v>
       </c>
       <c r="F216" t="s">
-        <v>717</v>
-      </c>
-      <c r="I216">
-        <v>11005</v>
+        <v>716</v>
+      </c>
+      <c r="H216">
+        <v>2820</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B217" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="C217" t="s">
-        <v>25</v>
+        <v>68</v>
+      </c>
+      <c r="D217" t="s">
+        <v>439</v>
       </c>
       <c r="F217" t="s">
-        <v>725</v>
+        <v>716</v>
+      </c>
+      <c r="I217">
+        <v>11005</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="B218" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="C218" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F218" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="B219" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="C219" t="s">
-        <v>68</v>
-      </c>
-      <c r="D219" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="F219" t="s">
-        <v>731</v>
-      </c>
-      <c r="H219">
-        <v>2808</v>
+        <v>727</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="B220" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="C220" t="s">
-        <v>734</v>
+        <v>68</v>
       </c>
       <c r="D220" t="s">
-        <v>735</v>
+        <v>54</v>
       </c>
       <c r="F220" t="s">
-        <v>736</v>
-      </c>
-      <c r="I220">
-        <v>20758</v>
+        <v>730</v>
+      </c>
+      <c r="H220">
+        <v>2808</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="B221" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="C221" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="D221" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="F221" t="s">
-        <v>741</v>
-      </c>
-      <c r="H221">
-        <v>7938</v>
+        <v>735</v>
+      </c>
+      <c r="I221">
+        <v>20758</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="B222" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="C222" t="s">
-        <v>416</v>
+        <v>738</v>
+      </c>
+      <c r="D222" t="s">
+        <v>739</v>
       </c>
       <c r="F222" t="s">
-        <v>741</v>
+        <v>740</v>
+      </c>
+      <c r="H222">
+        <v>7938</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B223" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="C223" t="s">
-        <v>746</v>
-      </c>
-      <c r="D223" t="s">
-        <v>747</v>
+        <v>415</v>
       </c>
       <c r="F223" t="s">
-        <v>748</v>
-      </c>
-      <c r="H223">
-        <v>5677</v>
+        <v>740</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="B224" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="C224" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="D224" t="s">
+        <v>746</v>
+      </c>
+      <c r="F224" t="s">
         <v>747</v>
       </c>
-      <c r="F224" t="s">
-        <v>748</v>
-      </c>
       <c r="H224">
-        <v>8152</v>
+        <v>5677</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="B225" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="C225" t="s">
-        <v>278</v>
+        <v>750</v>
       </c>
       <c r="D225" t="s">
-        <v>448</v>
+        <v>746</v>
       </c>
       <c r="F225" t="s">
-        <v>754</v>
-      </c>
-      <c r="I225">
-        <v>11950</v>
+        <v>747</v>
+      </c>
+      <c r="H225">
+        <v>8152</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="B226" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="C226" t="s">
-        <v>6</v>
+        <v>278</v>
+      </c>
+      <c r="D226" t="s">
+        <v>447</v>
       </c>
       <c r="F226" t="s">
-        <v>757</v>
+        <v>753</v>
+      </c>
+      <c r="I226">
+        <v>11950</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="B227" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="C227" t="s">
-        <v>760</v>
+        <v>6</v>
       </c>
       <c r="F227" t="s">
-        <v>761</v>
-      </c>
-      <c r="I227">
-        <v>8374</v>
+        <v>756</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="B228" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="C228" t="s">
-        <v>764</v>
-      </c>
-      <c r="D228" t="s">
-        <v>282</v>
+        <v>759</v>
       </c>
       <c r="F228" t="s">
-        <v>765</v>
-      </c>
-      <c r="H228">
-        <v>4264</v>
+        <v>760</v>
+      </c>
+      <c r="I228">
+        <v>8374</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="B229" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="C229" t="s">
-        <v>25</v>
+        <v>763</v>
+      </c>
+      <c r="D229" t="s">
+        <v>282</v>
       </c>
       <c r="F229" t="s">
-        <v>768</v>
+        <v>764</v>
+      </c>
+      <c r="H229">
+        <v>4264</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="B230" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="C230" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="F230" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="B231" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="C231" t="s">
-        <v>774</v>
-      </c>
-      <c r="D231" t="s">
-        <v>151</v>
+        <v>54</v>
       </c>
       <c r="F231" t="s">
-        <v>775</v>
-      </c>
-      <c r="I231">
-        <v>1754</v>
+        <v>770</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="B232" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="C232" t="s">
-        <v>6</v>
+        <v>773</v>
       </c>
       <c r="D232" t="s">
-        <v>778</v>
+        <v>151</v>
       </c>
       <c r="F232" t="s">
-        <v>779</v>
-      </c>
-      <c r="H232">
-        <v>4946</v>
+        <v>774</v>
+      </c>
+      <c r="I232">
+        <v>1754</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="B233" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C233" t="s">
         <v>6</v>
       </c>
       <c r="D233" t="s">
+        <v>777</v>
+      </c>
+      <c r="F233" t="s">
         <v>778</v>
-      </c>
-      <c r="F233" t="s">
-        <v>779</v>
       </c>
       <c r="H233">
         <v>4946</v>
@@ -9081,2189 +9107,2192 @@
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B234" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="C234" t="s">
-        <v>104</v>
+        <v>6</v>
+      </c>
+      <c r="D234" t="s">
+        <v>777</v>
       </c>
       <c r="F234" t="s">
-        <v>783</v>
+        <v>778</v>
+      </c>
+      <c r="H234">
+        <v>4946</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="B235" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="C235" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="F235" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="B236" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="C236" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F236" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="B237" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="C237" t="s">
-        <v>122</v>
+        <v>2</v>
       </c>
       <c r="F237" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="B238" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="C238" t="s">
-        <v>54</v>
+        <v>122</v>
       </c>
       <c r="F238" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="B239" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="C239" t="s">
-        <v>151</v>
+        <v>54</v>
       </c>
       <c r="F239" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="B240" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="C240" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="F240" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="B241" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="C241" t="s">
-        <v>2</v>
+        <v>122</v>
       </c>
       <c r="F241" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="B242" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="C242" t="s">
-        <v>109</v>
+        <v>2</v>
       </c>
       <c r="F242" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="B243" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="C243" t="s">
         <v>109</v>
       </c>
       <c r="F243" t="s">
-        <v>806</v>
+        <v>794</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="B244" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="C244" t="s">
-        <v>809</v>
+        <v>109</v>
       </c>
       <c r="F244" t="s">
-        <v>810</v>
-      </c>
-      <c r="H244">
-        <v>6632</v>
+        <v>805</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="B245" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="C245" t="s">
-        <v>20</v>
+        <v>808</v>
       </c>
       <c r="F245" t="s">
-        <v>813</v>
+        <v>809</v>
+      </c>
+      <c r="H245">
+        <v>6632</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="B246" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="C246" t="s">
-        <v>816</v>
-      </c>
-      <c r="D246" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="F246" t="s">
-        <v>817</v>
-      </c>
-      <c r="H246">
-        <v>8826</v>
+        <v>812</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="B247" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="C247" t="s">
-        <v>6</v>
+        <v>815</v>
+      </c>
+      <c r="D247" t="s">
+        <v>83</v>
       </c>
       <c r="F247" t="s">
-        <v>820</v>
+        <v>816</v>
+      </c>
+      <c r="H247">
+        <v>8826</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="B248" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="C248" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="F248" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="B249" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="C249" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="F249" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="B250" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="C250" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="F250" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="B251" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="C251" t="s">
-        <v>518</v>
-      </c>
-      <c r="D251" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F251" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="B252" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="C252" t="s">
-        <v>63</v>
+        <v>517</v>
       </c>
       <c r="D252" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="F252" t="s">
-        <v>835</v>
-      </c>
-      <c r="H252">
-        <v>4602</v>
+        <v>831</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="B253" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="C253" t="s">
-        <v>46</v>
+        <v>63</v>
+      </c>
+      <c r="D253" t="s">
+        <v>68</v>
       </c>
       <c r="F253" t="s">
-        <v>838</v>
+        <v>834</v>
+      </c>
+      <c r="H253">
+        <v>4602</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="B254" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="C254" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="F254" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="B255" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="C255" t="s">
         <v>19</v>
       </c>
       <c r="F255" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="B256" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="C256" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F256" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="B257" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="C257" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="F257" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="B258" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="C258" t="s">
-        <v>151</v>
+        <v>19</v>
       </c>
       <c r="F258" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="B259" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="C259" t="s">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c r="F259" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="B260" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="C260" t="s">
         <v>19</v>
       </c>
       <c r="F260" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
       <c r="B261" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="C261" t="s">
-        <v>59</v>
-      </c>
-      <c r="D261" t="s">
-        <v>859</v>
+        <v>19</v>
       </c>
       <c r="F261" t="s">
-        <v>860</v>
-      </c>
-      <c r="H261">
-        <v>3945</v>
+        <v>856</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B262" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="C262" t="s">
-        <v>83</v>
+        <v>59</v>
+      </c>
+      <c r="D262" t="s">
+        <v>858</v>
       </c>
       <c r="F262" t="s">
-        <v>864</v>
+        <v>859</v>
+      </c>
+      <c r="H262">
+        <v>3945</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="B263" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="C263" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="F263" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="B264" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="C264" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="F264" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="B265" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="C265" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="F265" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B266" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="C266" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="F266" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="B267" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="C267" t="s">
-        <v>151</v>
+        <v>6</v>
       </c>
       <c r="F267" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="B268" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="C268" t="s">
-        <v>109</v>
+        <v>151</v>
       </c>
       <c r="F268" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="B269" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="C269" t="s">
-        <v>6</v>
+        <v>109</v>
       </c>
       <c r="F269" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="B270" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="C270" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="F270" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="B271" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="C271" t="s">
-        <v>892</v>
-      </c>
-      <c r="D271" t="s">
-        <v>205</v>
+        <v>19</v>
       </c>
       <c r="F271" t="s">
-        <v>889</v>
-      </c>
-      <c r="I271">
-        <v>30688</v>
+        <v>884</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="B272" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="C272" t="s">
-        <v>122</v>
+        <v>891</v>
+      </c>
+      <c r="D272" t="s">
+        <v>205</v>
       </c>
       <c r="F272" t="s">
-        <v>889</v>
+        <v>888</v>
+      </c>
+      <c r="I272">
+        <v>30688</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="B273" t="s">
+        <v>893</v>
+      </c>
+      <c r="C273" t="s">
+        <v>122</v>
+      </c>
+      <c r="F273" t="s">
         <v>888</v>
-      </c>
-      <c r="C273" t="s">
-        <v>59</v>
-      </c>
-      <c r="D273" t="s">
-        <v>113</v>
-      </c>
-      <c r="F273" t="s">
-        <v>889</v>
-      </c>
-      <c r="H273">
-        <v>5160</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B274" t="s">
-        <v>897</v>
+        <v>887</v>
       </c>
       <c r="C274" t="s">
-        <v>54</v>
+        <v>59</v>
+      </c>
+      <c r="D274" t="s">
+        <v>113</v>
       </c>
       <c r="F274" t="s">
-        <v>898</v>
+        <v>888</v>
+      </c>
+      <c r="H274">
+        <v>5160</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="B275" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="C275" t="s">
-        <v>901</v>
-      </c>
-      <c r="D275" t="s">
-        <v>902</v>
+        <v>54</v>
       </c>
       <c r="F275" t="s">
-        <v>903</v>
-      </c>
-      <c r="H275">
-        <v>6191</v>
+        <v>897</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="B276" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="C276" t="s">
-        <v>248</v>
+        <v>900</v>
+      </c>
+      <c r="D276" t="s">
+        <v>901</v>
       </c>
       <c r="F276" t="s">
-        <v>906</v>
+        <v>902</v>
+      </c>
+      <c r="H276">
+        <v>6191</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="B277" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="C277" t="s">
-        <v>109</v>
+        <v>248</v>
       </c>
       <c r="F277" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="B278" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C278" t="s">
-        <v>113</v>
-      </c>
-      <c r="D278" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="F278" t="s">
-        <v>912</v>
-      </c>
-      <c r="I278">
-        <v>19203</v>
+        <v>908</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="B279" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="C279" t="s">
         <v>113</v>
       </c>
       <c r="D279" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="F279" t="s">
-        <v>912</v>
+        <v>911</v>
+      </c>
+      <c r="I279">
+        <v>19203</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="B280" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="C280" t="s">
-        <v>109</v>
+        <v>113</v>
+      </c>
+      <c r="D280" t="s">
+        <v>25</v>
       </c>
       <c r="F280" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="B281" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="C281" t="s">
-        <v>151</v>
+        <v>109</v>
       </c>
       <c r="F281" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="B282" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="C282" t="s">
-        <v>322</v>
-      </c>
-      <c r="D282" t="s">
-        <v>923</v>
+        <v>151</v>
       </c>
       <c r="F282" t="s">
-        <v>924</v>
-      </c>
-      <c r="H282">
-        <v>5164</v>
+        <v>919</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="B283" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="C283" t="s">
-        <v>19</v>
+        <v>322</v>
+      </c>
+      <c r="D283" t="s">
+        <v>922</v>
       </c>
       <c r="F283" t="s">
-        <v>924</v>
+        <v>923</v>
+      </c>
+      <c r="H283">
+        <v>5164</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="B284" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="C284" t="s">
-        <v>316</v>
-      </c>
-      <c r="D284" t="s">
-        <v>929</v>
+        <v>19</v>
       </c>
       <c r="F284" t="s">
-        <v>924</v>
-      </c>
-      <c r="I284">
-        <v>31998</v>
+        <v>923</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="B285" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="C285" t="s">
-        <v>932</v>
+        <v>316</v>
       </c>
       <c r="D285" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="F285" t="s">
-        <v>934</v>
+        <v>923</v>
       </c>
       <c r="I285">
-        <v>25681</v>
+        <v>31998</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="B286" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="C286" t="s">
-        <v>104</v>
+        <v>931</v>
+      </c>
+      <c r="D286" t="s">
+        <v>932</v>
       </c>
       <c r="F286" t="s">
-        <v>937</v>
+        <v>933</v>
+      </c>
+      <c r="I286">
+        <v>25681</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="B287" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="C287" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="F287" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="B288" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="C288" t="s">
-        <v>58</v>
-      </c>
-      <c r="D288" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F288" t="s">
-        <v>943</v>
-      </c>
-      <c r="H288">
-        <v>3150</v>
+        <v>939</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="B289" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="C289" t="s">
+        <v>58</v>
+      </c>
+      <c r="D289" t="s">
         <v>54</v>
       </c>
       <c r="F289" t="s">
-        <v>946</v>
+        <v>942</v>
+      </c>
+      <c r="H289">
+        <v>3150</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>954</v>
+        <v>943</v>
       </c>
       <c r="B290" t="s">
-        <v>955</v>
+        <v>944</v>
       </c>
       <c r="C290" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="F290" t="s">
-        <v>956</v>
+        <v>945</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="B291" t="s">
-        <v>948</v>
+        <v>954</v>
       </c>
       <c r="C291" t="s">
-        <v>59</v>
-      </c>
-      <c r="D291" t="s">
-        <v>764</v>
+        <v>2</v>
       </c>
       <c r="F291" t="s">
-        <v>949</v>
-      </c>
-      <c r="H291">
-        <v>4829</v>
+        <v>955</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>957</v>
+        <v>946</v>
       </c>
       <c r="B292" t="s">
-        <v>958</v>
+        <v>947</v>
       </c>
       <c r="C292" t="s">
-        <v>19</v>
+        <v>59</v>
+      </c>
+      <c r="D292" t="s">
+        <v>763</v>
       </c>
       <c r="F292" t="s">
-        <v>959</v>
+        <v>948</v>
+      </c>
+      <c r="H292">
+        <v>4829</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="B293" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="C293" t="s">
-        <v>113</v>
-      </c>
-      <c r="D293" t="s">
-        <v>962</v>
+        <v>19</v>
       </c>
       <c r="F293" t="s">
-        <v>963</v>
-      </c>
-      <c r="H293">
-        <v>3115</v>
+        <v>958</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="B294" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="C294" t="s">
-        <v>122</v>
+        <v>113</v>
+      </c>
+      <c r="D294" t="s">
+        <v>961</v>
       </c>
       <c r="F294" t="s">
-        <v>963</v>
+        <v>962</v>
+      </c>
+      <c r="H294">
+        <v>3115</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="B295" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="C295" t="s">
-        <v>316</v>
-      </c>
-      <c r="D295" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="F295" t="s">
-        <v>968</v>
-      </c>
-      <c r="G295" t="s">
-        <v>201</v>
-      </c>
-      <c r="H295">
-        <v>4446</v>
-      </c>
-      <c r="I295">
-        <v>28556</v>
+        <v>962</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>950</v>
+        <v>965</v>
       </c>
       <c r="B296" t="s">
-        <v>951</v>
+        <v>966</v>
       </c>
       <c r="C296" t="s">
-        <v>952</v>
+        <v>316</v>
       </c>
       <c r="D296" t="s">
         <v>63</v>
       </c>
       <c r="F296" t="s">
-        <v>953</v>
+        <v>967</v>
+      </c>
+      <c r="G296" t="s">
+        <v>201</v>
       </c>
       <c r="H296">
-        <v>9348</v>
+        <v>4446</v>
+      </c>
+      <c r="I296">
+        <v>28556</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="B297" t="s">
-        <v>970</v>
+        <v>950</v>
       </c>
       <c r="C297" t="s">
-        <v>640</v>
+        <v>951</v>
       </c>
       <c r="D297" t="s">
-        <v>971</v>
+        <v>63</v>
       </c>
       <c r="F297" t="s">
-        <v>972</v>
+        <v>952</v>
       </c>
       <c r="H297">
-        <v>3678</v>
-      </c>
-      <c r="I297">
-        <v>29557</v>
+        <v>9348</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="B298" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="C298" t="s">
-        <v>416</v>
+        <v>639</v>
+      </c>
+      <c r="D298" t="s">
+        <v>970</v>
       </c>
       <c r="F298" t="s">
-        <v>975</v>
+        <v>971</v>
+      </c>
+      <c r="H298">
+        <v>3678</v>
+      </c>
+      <c r="I298">
+        <v>29557</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="B299" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="C299" t="s">
-        <v>147</v>
+        <v>415</v>
       </c>
       <c r="F299" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="B300" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="C300" t="s">
-        <v>2</v>
+        <v>147</v>
       </c>
       <c r="F300" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="B301" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="C301" t="s">
-        <v>151</v>
+        <v>2</v>
       </c>
       <c r="F301" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="B302" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="C302" t="s">
-        <v>987</v>
-      </c>
-      <c r="D302" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="F302" t="s">
-        <v>988</v>
-      </c>
-      <c r="I302">
-        <v>12155</v>
+        <v>983</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="B303" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="C303" t="s">
-        <v>151</v>
+        <v>986</v>
+      </c>
+      <c r="D303" t="s">
+        <v>127</v>
       </c>
       <c r="F303" t="s">
-        <v>991</v>
+        <v>987</v>
+      </c>
+      <c r="I303">
+        <v>12155</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="B304" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="C304" t="s">
-        <v>994</v>
-      </c>
-      <c r="D304" t="s">
-        <v>104</v>
+        <v>151</v>
       </c>
       <c r="F304" t="s">
-        <v>995</v>
-      </c>
-      <c r="H304">
-        <v>2561</v>
+        <v>990</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="B305" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="C305" t="s">
-        <v>2</v>
+        <v>993</v>
+      </c>
+      <c r="D305" t="s">
+        <v>104</v>
       </c>
       <c r="F305" t="s">
-        <v>998</v>
+        <v>994</v>
+      </c>
+      <c r="H305">
+        <v>2561</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="B306" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="C306" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F306" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="B307" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="C307" t="s">
         <v>20</v>
       </c>
       <c r="F307" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="B308" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="C308" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F308" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="B309" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="C309" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="F309" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="B310" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="C310" t="s">
-        <v>183</v>
-      </c>
-      <c r="D310" t="s">
-        <v>1013</v>
+        <v>19</v>
       </c>
       <c r="F310" t="s">
-        <v>1014</v>
-      </c>
-      <c r="H310">
-        <v>8662</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="B311" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="C311" t="s">
-        <v>1017</v>
+        <v>183</v>
       </c>
       <c r="D311" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="F311" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="H311">
-        <v>9153</v>
-      </c>
-      <c r="I311">
-        <v>62665</v>
+        <v>8662</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>1022</v>
+        <v>1014</v>
       </c>
       <c r="B312" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="C312" t="s">
-        <v>59</v>
+        <v>1016</v>
       </c>
       <c r="D312" t="s">
-        <v>155</v>
+        <v>1017</v>
       </c>
       <c r="F312" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="H312">
-        <v>7793</v>
+        <v>9153</v>
+      </c>
+      <c r="I312">
+        <v>62665</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="B313" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="C313" t="s">
-        <v>1025</v>
+        <v>59</v>
       </c>
       <c r="D313" t="s">
-        <v>764</v>
+        <v>155</v>
       </c>
       <c r="F313" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="H313">
-        <v>5009</v>
+        <v>7793</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="B314" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="C314" t="s">
-        <v>19</v>
+        <v>1024</v>
+      </c>
+      <c r="D314" t="s">
+        <v>763</v>
       </c>
       <c r="F314" t="s">
-        <v>1029</v>
+        <v>1025</v>
+      </c>
+      <c r="H314">
+        <v>5009</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="B315" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="C315" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="F315" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>1408</v>
+        <v>1029</v>
       </c>
       <c r="B316" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="C316" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="F316" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>1035</v>
+        <v>1406</v>
       </c>
       <c r="B317" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="C317" t="s">
-        <v>640</v>
-      </c>
-      <c r="D317" t="s">
-        <v>686</v>
+        <v>20</v>
       </c>
       <c r="F317" t="s">
-        <v>1037</v>
-      </c>
-      <c r="I317">
-        <v>21908</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="B318" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="C318" t="s">
-        <v>151</v>
+        <v>639</v>
+      </c>
+      <c r="D318" t="s">
+        <v>685</v>
       </c>
       <c r="F318" t="s">
-        <v>1040</v>
+        <v>1036</v>
+      </c>
+      <c r="I318">
+        <v>21908</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="B319" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="C319" t="s">
-        <v>94</v>
-      </c>
-      <c r="D319" t="s">
-        <v>1043</v>
+        <v>151</v>
       </c>
       <c r="F319" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H319">
-        <v>4894</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="B320" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="C320" t="s">
-        <v>248</v>
+        <v>94</v>
+      </c>
+      <c r="D320" t="s">
+        <v>1042</v>
       </c>
       <c r="F320" t="s">
-        <v>1047</v>
+        <v>1043</v>
+      </c>
+      <c r="H320">
+        <v>4894</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="B321" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="C321" t="s">
         <v>248</v>
       </c>
       <c r="F321" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="B322" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="C322" t="s">
-        <v>83</v>
+        <v>248</v>
       </c>
       <c r="F322" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="B323" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="C323" t="s">
-        <v>103</v>
-      </c>
-      <c r="D323" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="F323" t="s">
-        <v>1056</v>
-      </c>
-      <c r="G323" t="s">
-        <v>201</v>
-      </c>
-      <c r="I323">
-        <v>7885</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="B324" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="C324" t="s">
-        <v>54</v>
+        <v>103</v>
+      </c>
+      <c r="D324" t="s">
+        <v>25</v>
       </c>
       <c r="F324" t="s">
-        <v>1059</v>
+        <v>1055</v>
+      </c>
+      <c r="G324" t="s">
+        <v>201</v>
+      </c>
+      <c r="I324">
+        <v>7885</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="B325" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="C325" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="F325" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="B326" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="C326" t="s">
-        <v>68</v>
-      </c>
-      <c r="D326" t="s">
-        <v>1064</v>
+        <v>6</v>
       </c>
       <c r="F326" t="s">
-        <v>1059</v>
-      </c>
-      <c r="H326">
-        <v>4389</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="B327" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="C327" t="s">
-        <v>1067</v>
+        <v>68</v>
       </c>
       <c r="D327" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="F327" t="s">
-        <v>1069</v>
+        <v>1058</v>
       </c>
       <c r="H327">
-        <v>4322</v>
+        <v>4389</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
       <c r="B328" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="C328" t="s">
-        <v>122</v>
+        <v>1066</v>
+      </c>
+      <c r="D328" t="s">
+        <v>1067</v>
       </c>
       <c r="F328" t="s">
-        <v>1069</v>
+        <v>1068</v>
+      </c>
+      <c r="H328">
+        <v>4322</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="B329" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="C329" t="s">
-        <v>109</v>
-      </c>
-      <c r="D329" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F329" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="B330" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="C330" t="s">
         <v>109</v>
       </c>
+      <c r="D330" t="s">
+        <v>127</v>
+      </c>
       <c r="F330" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="B331" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="C331" t="s">
-        <v>218</v>
-      </c>
-      <c r="D331" t="s">
-        <v>1067</v>
+        <v>109</v>
       </c>
       <c r="F331" t="s">
-        <v>1079</v>
-      </c>
-      <c r="H331">
-        <v>3596</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="B332" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="C332" t="s">
-        <v>322</v>
+        <v>218</v>
       </c>
       <c r="D332" t="s">
-        <v>205</v>
+        <v>1066</v>
       </c>
       <c r="F332" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="H332">
-        <v>5504</v>
-      </c>
-      <c r="I332">
-        <v>35379</v>
+        <v>3596</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="B333" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="C333" t="s">
-        <v>448</v>
+        <v>322</v>
       </c>
       <c r="D333" t="s">
-        <v>83</v>
+        <v>205</v>
       </c>
       <c r="F333" t="s">
-        <v>1085</v>
+        <v>1081</v>
+      </c>
+      <c r="H333">
+        <v>5504</v>
       </c>
       <c r="I333">
-        <v>9157</v>
+        <v>35379</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="B334" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="C334" t="s">
-        <v>1088</v>
+        <v>447</v>
       </c>
       <c r="D334" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="F334" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="I334">
-        <v>4588</v>
+        <v>9157</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="B335" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="C335" t="s">
-        <v>2</v>
+        <v>1087</v>
+      </c>
+      <c r="D335" t="s">
+        <v>127</v>
       </c>
       <c r="F335" t="s">
-        <v>1091</v>
+        <v>1084</v>
+      </c>
+      <c r="I335">
+        <v>4588</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="B336" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="C336" t="s">
-        <v>151</v>
+        <v>2</v>
       </c>
       <c r="F336" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="B337" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="C337" t="s">
-        <v>155</v>
-      </c>
-      <c r="D337" t="s">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="F337" t="s">
-        <v>1097</v>
-      </c>
-      <c r="H337">
-        <v>6212</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="B338" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="C338" t="s">
-        <v>247</v>
+        <v>155</v>
       </c>
       <c r="D338" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F338" t="s">
-        <v>1097</v>
-      </c>
-      <c r="I338">
-        <v>32143</v>
+        <v>1096</v>
+      </c>
+      <c r="H338">
+        <v>6212</v>
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="B339" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="C339" t="s">
-        <v>19</v>
+        <v>247</v>
+      </c>
+      <c r="D339" t="s">
+        <v>59</v>
       </c>
       <c r="F339" t="s">
-        <v>1097</v>
+        <v>1096</v>
+      </c>
+      <c r="I339">
+        <v>32143</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="B340" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="C340" t="s">
-        <v>1104</v>
-      </c>
-      <c r="D340" t="s">
-        <v>1105</v>
+        <v>19</v>
       </c>
       <c r="F340" t="s">
-        <v>1106</v>
-      </c>
-      <c r="H340">
-        <v>8063</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="B341" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="C341" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="D341" t="s">
-        <v>952</v>
+        <v>1104</v>
       </c>
       <c r="F341" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="H341">
-        <v>8391</v>
+        <v>8063</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="B342" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="C342" t="s">
-        <v>59</v>
+        <v>1108</v>
       </c>
       <c r="D342" t="s">
-        <v>1112</v>
+        <v>951</v>
       </c>
       <c r="F342" t="s">
-        <v>1113</v>
-      </c>
-      <c r="I342">
-        <v>30850</v>
+        <v>1105</v>
+      </c>
+      <c r="H342">
+        <v>8391</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>1114</v>
+        <v>1109</v>
       </c>
       <c r="B343" t="s">
-        <v>1115</v>
+        <v>1110</v>
       </c>
       <c r="C343" t="s">
-        <v>2</v>
+        <v>59</v>
+      </c>
+      <c r="D343" t="s">
+        <v>1111</v>
       </c>
       <c r="F343" t="s">
-        <v>1116</v>
+        <v>1112</v>
+      </c>
+      <c r="I343">
+        <v>30850</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="B344" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="C344" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F344" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="B345" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="C345" t="s">
-        <v>764</v>
-      </c>
-      <c r="D345" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F345" t="s">
-        <v>1122</v>
-      </c>
-      <c r="H345">
-        <v>3089</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="B346" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="C346" t="s">
-        <v>499</v>
+        <v>763</v>
+      </c>
+      <c r="D346" t="s">
+        <v>19</v>
       </c>
       <c r="F346" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="H346">
-        <v>3797</v>
-      </c>
-      <c r="I346">
-        <v>25283</v>
+        <v>3089</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="B347" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="C347" t="s">
-        <v>1409</v>
-      </c>
-      <c r="D347" t="s">
-        <v>20</v>
+        <v>498</v>
       </c>
       <c r="F347" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="H347">
-        <v>7969</v>
+        <v>3797</v>
+      </c>
+      <c r="I347">
+        <v>25283</v>
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="B348" t="s">
-        <v>1129</v>
+        <v>1431</v>
       </c>
       <c r="C348" t="s">
-        <v>19</v>
+        <v>1407</v>
+      </c>
+      <c r="D348" t="s">
+        <v>20</v>
       </c>
       <c r="F348" t="s">
-        <v>1130</v>
+        <v>1124</v>
+      </c>
+      <c r="H348">
+        <v>7969</v>
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>1131</v>
+        <v>1126</v>
       </c>
       <c r="B349" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
       <c r="C349" t="s">
-        <v>248</v>
+        <v>19</v>
       </c>
       <c r="F349" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
       <c r="B350" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
       <c r="C350" t="s">
-        <v>155</v>
-      </c>
-      <c r="D350" t="s">
-        <v>1136</v>
+        <v>248</v>
       </c>
       <c r="F350" t="s">
-        <v>1137</v>
-      </c>
-      <c r="I350">
-        <v>27285</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>1138</v>
+        <v>1132</v>
       </c>
       <c r="B351" t="s">
-        <v>1139</v>
+        <v>1133</v>
       </c>
       <c r="C351" t="s">
-        <v>416</v>
+        <v>155</v>
+      </c>
+      <c r="D351" t="s">
+        <v>1134</v>
       </c>
       <c r="F351" t="s">
-        <v>1140</v>
+        <v>1135</v>
+      </c>
+      <c r="I351">
+        <v>27285</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>1141</v>
+        <v>1136</v>
       </c>
       <c r="B352" t="s">
-        <v>1142</v>
+        <v>1137</v>
       </c>
       <c r="C352" t="s">
-        <v>122</v>
+        <v>415</v>
       </c>
       <c r="F352" t="s">
-        <v>1143</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>1144</v>
+        <v>1139</v>
       </c>
       <c r="B353" t="s">
-        <v>1145</v>
+        <v>1140</v>
       </c>
       <c r="C353" t="s">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="F353" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="B354" t="s">
-        <v>1148</v>
+        <v>1143</v>
       </c>
       <c r="C354" t="s">
-        <v>113</v>
-      </c>
-      <c r="D354" t="s">
-        <v>1149</v>
+        <v>35</v>
       </c>
       <c r="F354" t="s">
-        <v>1150</v>
-      </c>
-      <c r="I354">
-        <v>21099</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
       <c r="B355" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
       <c r="C355" t="s">
-        <v>83</v>
+        <v>113</v>
+      </c>
+      <c r="D355" t="s">
+        <v>1147</v>
       </c>
       <c r="F355" t="s">
-        <v>1153</v>
+        <v>1148</v>
+      </c>
+      <c r="I355">
+        <v>21099</v>
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="B356" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
       <c r="C356" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="F356" t="s">
-        <v>1156</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
       <c r="B357" t="s">
-        <v>1158</v>
+        <v>1153</v>
       </c>
       <c r="C357" t="s">
-        <v>109</v>
+        <v>7</v>
       </c>
       <c r="F357" t="s">
-        <v>1159</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>1160</v>
+        <v>1155</v>
       </c>
       <c r="B358" t="s">
-        <v>1161</v>
+        <v>1156</v>
       </c>
       <c r="C358" t="s">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="F358" t="s">
-        <v>1162</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>1163</v>
+        <v>1158</v>
       </c>
       <c r="B359" t="s">
-        <v>1164</v>
+        <v>1159</v>
       </c>
       <c r="C359" t="s">
-        <v>1165</v>
-      </c>
-      <c r="D359" t="s">
-        <v>1166</v>
+        <v>19</v>
       </c>
       <c r="F359" t="s">
-        <v>1162</v>
-      </c>
-      <c r="H359">
-        <v>8279</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>1167</v>
+        <v>1161</v>
       </c>
       <c r="B360" t="s">
-        <v>1168</v>
+        <v>1162</v>
       </c>
       <c r="C360" t="s">
-        <v>83</v>
+        <v>1163</v>
+      </c>
+      <c r="D360" t="s">
+        <v>1164</v>
       </c>
       <c r="F360" t="s">
-        <v>1169</v>
+        <v>1160</v>
+      </c>
+      <c r="H360">
+        <v>8279</v>
       </c>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>1170</v>
+        <v>1165</v>
       </c>
       <c r="B361" t="s">
-        <v>1171</v>
+        <v>1166</v>
       </c>
       <c r="C361" t="s">
-        <v>248</v>
+        <v>83</v>
       </c>
       <c r="F361" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>1173</v>
+        <v>1168</v>
       </c>
       <c r="B362" t="s">
-        <v>1174</v>
+        <v>1169</v>
       </c>
       <c r="C362" t="s">
-        <v>19</v>
+        <v>248</v>
       </c>
       <c r="F362" t="s">
-        <v>1175</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>1176</v>
+        <v>1171</v>
       </c>
       <c r="B363" t="s">
-        <v>1177</v>
+        <v>1172</v>
       </c>
       <c r="C363" t="s">
-        <v>39</v>
-      </c>
-      <c r="D363" t="s">
-        <v>499</v>
+        <v>19</v>
       </c>
       <c r="F363" t="s">
-        <v>1175</v>
-      </c>
-      <c r="I363">
-        <v>22288</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
       <c r="B364" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="C364" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="D364" t="s">
-        <v>933</v>
+        <v>498</v>
       </c>
       <c r="F364" t="s">
-        <v>1180</v>
+        <v>1173</v>
       </c>
       <c r="I364">
-        <v>19342</v>
+        <v>22288</v>
       </c>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>1181</v>
+        <v>1176</v>
       </c>
       <c r="B365" t="s">
-        <v>1182</v>
+        <v>1177</v>
       </c>
       <c r="C365" t="s">
-        <v>7</v>
+        <v>63</v>
+      </c>
+      <c r="D365" t="s">
+        <v>932</v>
       </c>
       <c r="F365" t="s">
-        <v>1183</v>
+        <v>1178</v>
+      </c>
+      <c r="I365">
+        <v>19342</v>
       </c>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>1184</v>
+        <v>1179</v>
       </c>
       <c r="B366" t="s">
-        <v>1185</v>
+        <v>1180</v>
       </c>
       <c r="C366" t="s">
-        <v>64</v>
-      </c>
-      <c r="D366" t="s">
-        <v>113</v>
+        <v>7</v>
       </c>
       <c r="F366" t="s">
-        <v>1186</v>
-      </c>
-      <c r="I366">
-        <v>25289</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>1187</v>
+        <v>1182</v>
       </c>
       <c r="B367" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="C367" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="D367" t="s">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="F367" t="s">
-        <v>1189</v>
+        <v>1184</v>
+      </c>
+      <c r="I367">
+        <v>25289</v>
       </c>
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>1410</v>
+        <v>1185</v>
       </c>
       <c r="B368" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="C368" t="s">
         <v>20</v>
@@ -11272,1167 +11301,1184 @@
         <v>35</v>
       </c>
       <c r="F368" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>1190</v>
+        <v>1408</v>
       </c>
       <c r="B369" t="s">
-        <v>1191</v>
+        <v>1186</v>
       </c>
       <c r="C369" t="s">
-        <v>54</v>
+        <v>20</v>
+      </c>
+      <c r="D369" t="s">
+        <v>35</v>
       </c>
       <c r="F369" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="B370" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
       <c r="C370" t="s">
-        <v>384</v>
+        <v>54</v>
       </c>
       <c r="F370" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="B371" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="C371" t="s">
-        <v>68</v>
-      </c>
-      <c r="D371" t="s">
-        <v>205</v>
+        <v>383</v>
       </c>
       <c r="F371" t="s">
-        <v>1189</v>
-      </c>
-      <c r="I371">
-        <v>74771</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="B372" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="C372" t="s">
-        <v>35</v>
+        <v>68</v>
+      </c>
+      <c r="D372" t="s">
+        <v>205</v>
       </c>
       <c r="F372" t="s">
-        <v>1189</v>
+        <v>1187</v>
+      </c>
+      <c r="I372">
+        <v>74771</v>
       </c>
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="B373" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="C373" t="s">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="F373" t="s">
-        <v>1200</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>1201</v>
+        <v>1196</v>
       </c>
       <c r="B374" t="s">
-        <v>1202</v>
+        <v>1197</v>
       </c>
       <c r="C374" t="s">
-        <v>2</v>
+        <v>104</v>
       </c>
       <c r="F374" t="s">
-        <v>1203</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="375" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>1204</v>
+        <v>1199</v>
       </c>
       <c r="B375" t="s">
-        <v>1205</v>
+        <v>1200</v>
       </c>
       <c r="C375" t="s">
         <v>2</v>
       </c>
       <c r="F375" t="s">
-        <v>1206</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="B376" t="s">
-        <v>1208</v>
+        <v>1203</v>
       </c>
       <c r="C376" t="s">
-        <v>127</v>
+        <v>2</v>
       </c>
       <c r="F376" t="s">
-        <v>1209</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>1210</v>
+        <v>1205</v>
       </c>
       <c r="B377" t="s">
-        <v>1211</v>
+        <v>1206</v>
       </c>
       <c r="C377" t="s">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c r="F377" t="s">
-        <v>1212</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>1213</v>
+        <v>1208</v>
       </c>
       <c r="B378" t="s">
-        <v>1214</v>
+        <v>1209</v>
       </c>
       <c r="C378" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="F378" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>1216</v>
+        <v>1211</v>
       </c>
       <c r="B379" t="s">
-        <v>1217</v>
+        <v>1212</v>
       </c>
       <c r="C379" t="s">
-        <v>384</v>
+        <v>109</v>
       </c>
       <c r="F379" t="s">
-        <v>1218</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>1219</v>
+        <v>1214</v>
       </c>
       <c r="B380" t="s">
-        <v>1220</v>
+        <v>1215</v>
       </c>
       <c r="C380" t="s">
-        <v>639</v>
-      </c>
-      <c r="D380" t="s">
-        <v>1221</v>
+        <v>383</v>
       </c>
       <c r="F380" t="s">
-        <v>1222</v>
-      </c>
-      <c r="H380">
-        <v>3650</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
       <c r="B381" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="C381" t="s">
-        <v>1225</v>
+        <v>638</v>
       </c>
       <c r="D381" t="s">
-        <v>424</v>
+        <v>1219</v>
       </c>
       <c r="F381" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="H381">
-        <v>7294</v>
-      </c>
-      <c r="I381">
-        <v>60260</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>1227</v>
+        <v>1221</v>
       </c>
       <c r="B382" t="s">
-        <v>1228</v>
+        <v>1222</v>
       </c>
       <c r="C382" t="s">
-        <v>2</v>
+        <v>1223</v>
+      </c>
+      <c r="D382" t="s">
+        <v>423</v>
       </c>
       <c r="F382" t="s">
-        <v>1229</v>
+        <v>1224</v>
+      </c>
+      <c r="H382">
+        <v>7294</v>
+      </c>
+      <c r="I382">
+        <v>60260</v>
       </c>
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>1230</v>
+        <v>1225</v>
       </c>
       <c r="B383" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="C383" t="s">
-        <v>590</v>
-      </c>
-      <c r="D383" t="s">
-        <v>1232</v>
+        <v>2</v>
       </c>
       <c r="F383" t="s">
-        <v>1233</v>
-      </c>
-      <c r="H383">
-        <v>6734</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>1236</v>
+        <v>1228</v>
       </c>
       <c r="B384" t="s">
-        <v>1234</v>
+        <v>1229</v>
       </c>
       <c r="C384" t="s">
-        <v>94</v>
+        <v>589</v>
       </c>
       <c r="D384" t="s">
-        <v>127</v>
+        <v>1230</v>
       </c>
       <c r="F384" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="H384">
-        <v>2583</v>
+        <v>6734</v>
       </c>
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="B385" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="C385" t="s">
-        <v>6</v>
+        <v>94</v>
+      </c>
+      <c r="D385" t="s">
+        <v>127</v>
       </c>
       <c r="F385" t="s">
-        <v>1239</v>
+        <v>1233</v>
+      </c>
+      <c r="H385">
+        <v>2583</v>
       </c>
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>1240</v>
+        <v>1235</v>
       </c>
       <c r="B386" t="s">
-        <v>1241</v>
+        <v>1236</v>
       </c>
       <c r="C386" t="s">
-        <v>1242</v>
-      </c>
-      <c r="D386" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="F386" t="s">
-        <v>1243</v>
-      </c>
-      <c r="I386">
-        <v>14369</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>1244</v>
+        <v>1238</v>
       </c>
       <c r="B387" t="s">
-        <v>1245</v>
+        <v>1239</v>
       </c>
       <c r="C387" t="s">
-        <v>2</v>
+        <v>1240</v>
+      </c>
+      <c r="D387" t="s">
+        <v>54</v>
       </c>
       <c r="F387" t="s">
-        <v>1246</v>
+        <v>1241</v>
+      </c>
+      <c r="I387">
+        <v>14369</v>
       </c>
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="B388" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="C388" t="s">
-        <v>151</v>
+        <v>2</v>
       </c>
       <c r="F388" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="B389" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="C389" t="s">
-        <v>215</v>
-      </c>
-      <c r="D389" t="s">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c r="F389" t="s">
-        <v>1252</v>
-      </c>
-      <c r="I389">
-        <v>15373</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
       <c r="B390" t="s">
-        <v>1254</v>
+        <v>1249</v>
       </c>
       <c r="C390" t="s">
-        <v>151</v>
+        <v>215</v>
+      </c>
+      <c r="D390" t="s">
+        <v>19</v>
       </c>
       <c r="F390" t="s">
-        <v>1255</v>
+        <v>1250</v>
+      </c>
+      <c r="I390">
+        <v>15373</v>
       </c>
     </row>
     <row r="391" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
       <c r="B391" t="s">
-        <v>1257</v>
+        <v>1252</v>
       </c>
       <c r="C391" t="s">
-        <v>2</v>
+        <v>151</v>
       </c>
       <c r="F391" t="s">
-        <v>1258</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>1259</v>
+        <v>1254</v>
       </c>
       <c r="B392" t="s">
-        <v>1260</v>
+        <v>1255</v>
       </c>
       <c r="C392" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="F392" t="s">
-        <v>1261</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="393" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>1262</v>
+        <v>1257</v>
       </c>
       <c r="B393" t="s">
-        <v>1263</v>
+        <v>1258</v>
       </c>
       <c r="C393" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="F393" t="s">
-        <v>1264</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="394" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>1265</v>
+        <v>1260</v>
       </c>
       <c r="B394" t="s">
-        <v>1266</v>
+        <v>1261</v>
       </c>
       <c r="C394" t="s">
-        <v>1112</v>
-      </c>
-      <c r="D394" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="F394" t="s">
-        <v>1264</v>
-      </c>
-      <c r="I394">
-        <v>13184</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="395" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="B395" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="C395" t="s">
-        <v>20</v>
+        <v>1111</v>
+      </c>
+      <c r="D395" t="s">
+        <v>127</v>
       </c>
       <c r="F395" t="s">
-        <v>1269</v>
+        <v>1262</v>
+      </c>
+      <c r="I395">
+        <v>13184</v>
       </c>
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>1270</v>
+        <v>1265</v>
       </c>
       <c r="B396" t="s">
-        <v>1271</v>
+        <v>1266</v>
       </c>
       <c r="C396" t="s">
-        <v>1272</v>
+        <v>20</v>
       </c>
       <c r="F396" t="s">
-        <v>1273</v>
-      </c>
-      <c r="I396">
-        <v>15504</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>1274</v>
+        <v>1268</v>
       </c>
       <c r="B397" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
       <c r="C397" t="s">
-        <v>416</v>
+        <v>1270</v>
       </c>
       <c r="F397" t="s">
-        <v>1276</v>
+        <v>1271</v>
+      </c>
+      <c r="I397">
+        <v>15504</v>
       </c>
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>1277</v>
+        <v>1272</v>
       </c>
       <c r="B398" t="s">
-        <v>1278</v>
+        <v>1273</v>
       </c>
       <c r="C398" t="s">
-        <v>7</v>
+        <v>415</v>
       </c>
       <c r="F398" t="s">
-        <v>1279</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>1280</v>
+        <v>1275</v>
       </c>
       <c r="B399" t="s">
-        <v>1281</v>
+        <v>1276</v>
       </c>
       <c r="C399" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="F399" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="B400" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="C400" t="s">
-        <v>534</v>
-      </c>
-      <c r="D400" t="s">
-        <v>1284</v>
+        <v>54</v>
       </c>
       <c r="F400" t="s">
-        <v>1279</v>
-      </c>
-      <c r="H400">
-        <v>7925</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>1285</v>
+        <v>1280</v>
       </c>
       <c r="B401" t="s">
-        <v>1286</v>
+        <v>1281</v>
       </c>
       <c r="C401" t="s">
-        <v>1287</v>
+        <v>533</v>
       </c>
       <c r="D401" t="s">
-        <v>448</v>
+        <v>1282</v>
       </c>
       <c r="F401" t="s">
-        <v>1288</v>
+        <v>1277</v>
       </c>
       <c r="H401">
-        <v>4393</v>
+        <v>7925</v>
       </c>
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>1289</v>
+        <v>1283</v>
       </c>
       <c r="B402" t="s">
-        <v>1290</v>
+        <v>1284</v>
       </c>
       <c r="C402" t="s">
-        <v>46</v>
+        <v>1285</v>
+      </c>
+      <c r="D402" t="s">
+        <v>447</v>
       </c>
       <c r="F402" t="s">
-        <v>1291</v>
+        <v>1286</v>
+      </c>
+      <c r="H402">
+        <v>4393</v>
       </c>
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
       <c r="B403" t="s">
-        <v>1293</v>
+        <v>1288</v>
       </c>
       <c r="C403" t="s">
-        <v>809</v>
-      </c>
-      <c r="D403" t="s">
-        <v>1294</v>
+        <v>46</v>
       </c>
       <c r="F403" t="s">
-        <v>590</v>
-      </c>
-      <c r="I403">
-        <v>35554</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B404" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="C404" t="s">
-        <v>109</v>
+        <v>808</v>
+      </c>
+      <c r="D404" t="s">
+        <v>1292</v>
       </c>
       <c r="F404" t="s">
-        <v>590</v>
+        <v>589</v>
+      </c>
+      <c r="I404">
+        <v>35554</v>
       </c>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="B405" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="C405" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="F405" t="s">
-        <v>1299</v>
+        <v>589</v>
       </c>
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>1300</v>
+        <v>1295</v>
       </c>
       <c r="B406" t="s">
-        <v>1301</v>
+        <v>1296</v>
       </c>
       <c r="C406" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="F406" t="s">
-        <v>1302</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>1303</v>
+        <v>1298</v>
       </c>
       <c r="B407" t="s">
-        <v>1304</v>
+        <v>1299</v>
       </c>
       <c r="C407" t="s">
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="F407" t="s">
-        <v>1305</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>1306</v>
+        <v>1301</v>
       </c>
       <c r="B408" t="s">
-        <v>1307</v>
+        <v>1302</v>
       </c>
       <c r="C408" t="s">
-        <v>122</v>
+        <v>2</v>
       </c>
       <c r="F408" t="s">
-        <v>1308</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>1309</v>
+        <v>1304</v>
       </c>
       <c r="B409" t="s">
-        <v>1310</v>
+        <v>1305</v>
       </c>
       <c r="C409" t="s">
-        <v>19</v>
+        <v>122</v>
       </c>
       <c r="F409" t="s">
-        <v>1311</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>1312</v>
+        <v>1307</v>
       </c>
       <c r="B410" t="s">
-        <v>1413</v>
+        <v>1308</v>
       </c>
       <c r="C410" t="s">
-        <v>1412</v>
-      </c>
-      <c r="D410" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="F410" t="s">
-        <v>1313</v>
-      </c>
-      <c r="H410">
-        <v>8683</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="B411" t="s">
-        <v>1315</v>
+        <v>1411</v>
       </c>
       <c r="C411" t="s">
-        <v>94</v>
+        <v>1410</v>
       </c>
       <c r="D411" t="s">
-        <v>1043</v>
+        <v>46</v>
       </c>
       <c r="F411" t="s">
-        <v>1316</v>
-      </c>
-      <c r="I411">
-        <v>16760</v>
+        <v>1311</v>
+      </c>
+      <c r="H411">
+        <v>8683</v>
       </c>
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>1317</v>
+        <v>1312</v>
       </c>
       <c r="B412" t="s">
-        <v>1318</v>
+        <v>1313</v>
       </c>
       <c r="C412" t="s">
-        <v>127</v>
+        <v>94</v>
+      </c>
+      <c r="D412" t="s">
+        <v>1042</v>
       </c>
       <c r="F412" t="s">
-        <v>1319</v>
+        <v>1314</v>
+      </c>
+      <c r="I412">
+        <v>16760</v>
       </c>
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>1320</v>
+        <v>1315</v>
       </c>
       <c r="B413" t="s">
-        <v>1321</v>
+        <v>1316</v>
       </c>
       <c r="C413" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="F413" t="s">
-        <v>1322</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>1323</v>
+        <v>1318</v>
       </c>
       <c r="B414" t="s">
-        <v>1324</v>
+        <v>1319</v>
       </c>
       <c r="C414" t="s">
-        <v>1325</v>
-      </c>
-      <c r="D414" t="s">
-        <v>499</v>
+        <v>122</v>
       </c>
       <c r="F414" t="s">
-        <v>1326</v>
-      </c>
-      <c r="I414">
-        <v>19264</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="415" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>1327</v>
+        <v>1321</v>
       </c>
       <c r="B415" t="s">
-        <v>1328</v>
+        <v>1322</v>
       </c>
       <c r="C415" t="s">
-        <v>7</v>
+        <v>1323</v>
+      </c>
+      <c r="D415" t="s">
+        <v>498</v>
       </c>
       <c r="F415" t="s">
-        <v>1329</v>
+        <v>1324</v>
+      </c>
+      <c r="I415">
+        <v>19264</v>
       </c>
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>1330</v>
+        <v>1325</v>
       </c>
       <c r="B416" t="s">
-        <v>1331</v>
+        <v>1326</v>
       </c>
       <c r="C416" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F416" t="s">
-        <v>1332</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="417" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>1333</v>
+        <v>1328</v>
       </c>
       <c r="B417" t="s">
-        <v>1334</v>
+        <v>1329</v>
       </c>
       <c r="C417" t="s">
-        <v>122</v>
+        <v>19</v>
       </c>
       <c r="F417" t="s">
-        <v>1112</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="418" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>1335</v>
+        <v>1331</v>
       </c>
       <c r="B418" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
       <c r="C418" t="s">
-        <v>2</v>
+        <v>122</v>
       </c>
       <c r="F418" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="419" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
       <c r="B419" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
       <c r="C419" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="F419" t="s">
-        <v>1339</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="420" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
       <c r="B420" t="s">
-        <v>1341</v>
+        <v>1336</v>
       </c>
       <c r="C420" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="F420" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="421" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>1343</v>
+        <v>1338</v>
       </c>
       <c r="B421" t="s">
-        <v>1344</v>
+        <v>1339</v>
       </c>
       <c r="C421" t="s">
-        <v>151</v>
+        <v>109</v>
       </c>
       <c r="F421" t="s">
-        <v>1345</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="422" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>1346</v>
+        <v>1341</v>
       </c>
       <c r="B422" t="s">
-        <v>1347</v>
+        <v>1342</v>
       </c>
       <c r="C422" t="s">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="F422" t="s">
-        <v>1348</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="423" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
       <c r="B423" t="s">
-        <v>1350</v>
+        <v>1345</v>
       </c>
       <c r="C423" t="s">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="F423" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="424" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
       <c r="B424" t="s">
-        <v>1353</v>
+        <v>1348</v>
       </c>
       <c r="C424" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="F424" t="s">
-        <v>1354</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="425" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>1355</v>
+        <v>1350</v>
       </c>
       <c r="B425" t="s">
-        <v>1356</v>
+        <v>1351</v>
       </c>
       <c r="C425" t="s">
-        <v>1357</v>
-      </c>
-      <c r="D425" t="s">
-        <v>127</v>
+        <v>19</v>
       </c>
       <c r="F425" t="s">
-        <v>1358</v>
-      </c>
-      <c r="H425">
-        <v>2910</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="426" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>1359</v>
+        <v>1353</v>
       </c>
       <c r="B426" t="s">
-        <v>1360</v>
+        <v>1354</v>
       </c>
       <c r="C426" t="s">
-        <v>7</v>
+        <v>1355</v>
+      </c>
+      <c r="D426" t="s">
+        <v>127</v>
       </c>
       <c r="F426" t="s">
-        <v>1361</v>
+        <v>1356</v>
+      </c>
+      <c r="H426">
+        <v>2910</v>
       </c>
     </row>
     <row r="427" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>1362</v>
+        <v>1357</v>
       </c>
       <c r="B427" t="s">
-        <v>1363</v>
+        <v>1358</v>
       </c>
       <c r="C427" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="F427" t="s">
-        <v>1364</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="428" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>1365</v>
+        <v>1360</v>
       </c>
       <c r="B428" t="s">
-        <v>1366</v>
+        <v>1361</v>
       </c>
       <c r="C428" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="F428" t="s">
-        <v>1367</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="429" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>1368</v>
+        <v>1363</v>
       </c>
       <c r="B429" t="s">
-        <v>1369</v>
+        <v>1364</v>
       </c>
       <c r="C429" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="F429" t="s">
-        <v>1370</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="430" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>1371</v>
+        <v>1366</v>
       </c>
       <c r="B430" t="s">
-        <v>1372</v>
+        <v>1367</v>
       </c>
       <c r="C430" t="s">
-        <v>68</v>
-      </c>
-      <c r="D430" t="s">
-        <v>122</v>
+        <v>2</v>
       </c>
       <c r="F430" t="s">
-        <v>1373</v>
-      </c>
-      <c r="I430">
-        <v>12650</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="431" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>1374</v>
+        <v>1369</v>
       </c>
       <c r="B431" t="s">
-        <v>1375</v>
+        <v>1370</v>
       </c>
       <c r="C431" t="s">
-        <v>151</v>
+        <v>68</v>
+      </c>
+      <c r="D431" t="s">
+        <v>122</v>
       </c>
       <c r="F431" t="s">
-        <v>1376</v>
+        <v>1371</v>
+      </c>
+      <c r="I431">
+        <v>12650</v>
       </c>
     </row>
     <row r="432" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>1377</v>
+        <v>1372</v>
       </c>
       <c r="B432" t="s">
-        <v>1378</v>
+        <v>1373</v>
       </c>
       <c r="C432" t="s">
-        <v>113</v>
-      </c>
-      <c r="D432" t="s">
-        <v>2</v>
+        <v>151</v>
       </c>
       <c r="F432" t="s">
-        <v>1376</v>
-      </c>
-      <c r="I432">
-        <v>9878</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="433" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
       <c r="B433" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="C433" t="s">
-        <v>122</v>
+        <v>113</v>
+      </c>
+      <c r="D433" t="s">
+        <v>2</v>
       </c>
       <c r="F433" t="s">
-        <v>1381</v>
+        <v>1374</v>
+      </c>
+      <c r="I433">
+        <v>9878</v>
       </c>
     </row>
     <row r="434" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="B434" t="s">
-        <v>1383</v>
+        <v>1378</v>
       </c>
       <c r="C434" t="s">
-        <v>215</v>
-      </c>
-      <c r="D434" t="s">
-        <v>384</v>
+        <v>122</v>
       </c>
       <c r="F434" t="s">
-        <v>1384</v>
-      </c>
-      <c r="I434">
-        <v>15567</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="435" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>1385</v>
+        <v>1380</v>
       </c>
       <c r="B435" t="s">
-        <v>1386</v>
+        <v>1381</v>
       </c>
       <c r="C435" t="s">
-        <v>20</v>
+        <v>215</v>
+      </c>
+      <c r="D435" t="s">
+        <v>383</v>
       </c>
       <c r="F435" t="s">
-        <v>1387</v>
+        <v>1382</v>
+      </c>
+      <c r="I435">
+        <v>15567</v>
       </c>
     </row>
     <row r="436" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>1388</v>
+        <v>1383</v>
       </c>
       <c r="B436" t="s">
-        <v>1389</v>
+        <v>1384</v>
       </c>
       <c r="C436" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F436" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="437" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>1392</v>
+        <v>1386</v>
       </c>
       <c r="B437" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="C437" t="s">
-        <v>639</v>
-      </c>
-      <c r="D437" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="F437" t="s">
-        <v>1391</v>
-      </c>
-      <c r="H437">
-        <v>4851</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="438" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="B438" t="s">
-        <v>1394</v>
+        <v>1388</v>
       </c>
       <c r="C438" t="s">
-        <v>46</v>
+        <v>638</v>
+      </c>
+      <c r="D438" t="s">
+        <v>95</v>
       </c>
       <c r="F438" t="s">
-        <v>1395</v>
+        <v>1389</v>
+      </c>
+      <c r="H438">
+        <v>4851</v>
       </c>
     </row>
     <row r="439" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>1396</v>
+        <v>1391</v>
       </c>
       <c r="B439" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
       <c r="C439" t="s">
-        <v>448</v>
-      </c>
-      <c r="D439" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="F439" t="s">
-        <v>1398</v>
-      </c>
-      <c r="I439">
-        <v>10658</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="440" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>1399</v>
+        <v>1394</v>
       </c>
       <c r="B440" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="C440" t="s">
-        <v>248</v>
+        <v>447</v>
+      </c>
+      <c r="D440" t="s">
+        <v>2</v>
       </c>
       <c r="F440" t="s">
-        <v>1398</v>
+        <v>1396</v>
+      </c>
+      <c r="I440">
+        <v>10658</v>
       </c>
     </row>
     <row r="441" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="B441" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="C441" t="s">
-        <v>1097</v>
+        <v>248</v>
       </c>
       <c r="F441" t="s">
-        <v>1398</v>
-      </c>
-      <c r="H441">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="442" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B442" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C442" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F442" t="s">
+        <v>1396</v>
+      </c>
+      <c r="H442">
         <v>9088</v>
       </c>
-      <c r="I441">
+      <c r="I442">
         <v>67604</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:J490">
-    <sortCondition ref="F2:F490"/>
-    <sortCondition ref="C2:C490"/>
+  <sortState ref="A2:J491">
+    <sortCondition ref="F2:F491"/>
+    <sortCondition ref="C2:C491"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/surveyor.xlsx
+++ b/data/surveyor.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Python\hummaps-admin\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9ADFC85-A40B-4470-B5F7-E0DDE7AEC3A8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22590" windowHeight="10185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1958" uniqueCount="1432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1976" uniqueCount="1443">
   <si>
     <t>R. AANRUD</t>
   </si>
@@ -1746,9 +1747,6 @@
     <t>D. HELT</t>
   </si>
   <si>
-    <t>D HELT</t>
-  </si>
-  <si>
     <t>HELT</t>
   </si>
   <si>
@@ -4315,6 +4313,42 @@
   </si>
   <si>
     <t>MAX A SCHILLINGER</t>
+  </si>
+  <si>
+    <t>B. RUSSELL</t>
+  </si>
+  <si>
+    <t>J. HUBBARD</t>
+  </si>
+  <si>
+    <t>JACK JEROME HUBBARD</t>
+  </si>
+  <si>
+    <t>JEROME</t>
+  </si>
+  <si>
+    <t>HUBBARD</t>
+  </si>
+  <si>
+    <t>CURTIS</t>
+  </si>
+  <si>
+    <t>DANIEL CURTIS HELT</t>
+  </si>
+  <si>
+    <t>BENJAMIN D W RUSSELL</t>
+  </si>
+  <si>
+    <t>J. EDDY JR.</t>
+  </si>
+  <si>
+    <t>EDDY</t>
+  </si>
+  <si>
+    <t>JAMES QUINCY EDDY JR</t>
+  </si>
+  <si>
+    <t>QUINCY</t>
   </si>
 </sst>
 </file>
@@ -5155,10 +5189,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I442"/>
+  <dimension ref="A1:I445"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A309" workbookViewId="0">
-      <selection activeCell="B348" sqref="B348"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="A105" sqref="A105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5176,31 +5210,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B1" t="s">
         <v>1417</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1418</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1419</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1420</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>1421</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>1422</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>1423</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>1424</v>
-      </c>
-      <c r="I1" t="s">
-        <v>1425</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -5760,7 +5794,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="B32" t="s">
         <v>125</v>
@@ -6136,19 +6170,19 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B52" t="s">
         <v>1412</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>1413</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>1414</v>
       </c>
-      <c r="D52" t="s">
+      <c r="F52" t="s">
         <v>1415</v>
-      </c>
-      <c r="F52" t="s">
-        <v>1416</v>
       </c>
       <c r="H52">
         <v>9339</v>
@@ -6827,10 +6861,10 @@
         <v>335</v>
       </c>
       <c r="B93" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="C93" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D93" t="s">
         <v>447</v>
@@ -6937,7 +6971,7 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="B100" t="s">
         <v>355</v>
@@ -7013,659 +7047,659 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>369</v>
+        <v>1439</v>
       </c>
       <c r="B105" t="s">
-        <v>370</v>
+        <v>1441</v>
       </c>
       <c r="C105" t="s">
-        <v>248</v>
+        <v>63</v>
+      </c>
+      <c r="D105" t="s">
+        <v>1442</v>
       </c>
       <c r="F105" t="s">
-        <v>371</v>
+        <v>1440</v>
+      </c>
+      <c r="G105" t="s">
+        <v>201</v>
+      </c>
+      <c r="H105">
+        <v>4530</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B106" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C106" t="s">
-        <v>20</v>
+        <v>248</v>
       </c>
       <c r="F106" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B107" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C107" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="F107" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B108" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C108" t="s">
         <v>83</v>
       </c>
       <c r="F108" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B109" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C109" t="s">
-        <v>383</v>
+        <v>83</v>
       </c>
       <c r="F109" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B110" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C110" t="s">
-        <v>2</v>
+        <v>383</v>
       </c>
       <c r="F110" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B111" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C111" t="s">
-        <v>109</v>
+        <v>2</v>
       </c>
       <c r="F111" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B112" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C112" t="s">
-        <v>113</v>
-      </c>
-      <c r="D112" t="s">
-        <v>248</v>
+        <v>109</v>
       </c>
       <c r="F112" t="s">
-        <v>393</v>
-      </c>
-      <c r="I112">
-        <v>12475</v>
+        <v>390</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B113" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C113" t="s">
-        <v>19</v>
+        <v>113</v>
+      </c>
+      <c r="D113" t="s">
+        <v>248</v>
       </c>
       <c r="F113" t="s">
-        <v>396</v>
+        <v>393</v>
+      </c>
+      <c r="I113">
+        <v>12475</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B114" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C114" t="s">
         <v>19</v>
       </c>
       <c r="F114" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B115" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C115" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="F115" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B116" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C116" t="s">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="F116" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B117" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C117" t="s">
-        <v>122</v>
+        <v>19</v>
       </c>
       <c r="F117" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B118" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C118" t="s">
-        <v>411</v>
+        <v>122</v>
       </c>
       <c r="F118" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B119" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C119" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F119" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B120" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C120" t="s">
-        <v>25</v>
+        <v>415</v>
       </c>
       <c r="F120" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B121" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C121" t="s">
-        <v>422</v>
-      </c>
-      <c r="D121" t="s">
-        <v>423</v>
+        <v>25</v>
       </c>
       <c r="F121" t="s">
-        <v>424</v>
-      </c>
-      <c r="I121">
-        <v>28493</v>
+        <v>419</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B122" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C122" t="s">
-        <v>25</v>
+        <v>422</v>
+      </c>
+      <c r="D122" t="s">
+        <v>423</v>
       </c>
       <c r="F122" t="s">
-        <v>427</v>
+        <v>424</v>
+      </c>
+      <c r="I122">
+        <v>28493</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B123" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C123" t="s">
-        <v>430</v>
-      </c>
-      <c r="D123" t="s">
-        <v>431</v>
+        <v>25</v>
       </c>
       <c r="F123" t="s">
-        <v>432</v>
-      </c>
-      <c r="H123">
-        <v>5904</v>
-      </c>
-      <c r="I123">
-        <v>36444</v>
+        <v>427</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>1402</v>
+        <v>428</v>
       </c>
       <c r="B124" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C124" t="s">
-        <v>35</v>
+        <v>430</v>
+      </c>
+      <c r="D124" t="s">
+        <v>431</v>
       </c>
       <c r="F124" t="s">
-        <v>434</v>
+        <v>432</v>
+      </c>
+      <c r="H124">
+        <v>5904</v>
+      </c>
+      <c r="I124">
+        <v>36444</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>435</v>
+        <v>1401</v>
       </c>
       <c r="B125" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C125" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F125" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>1403</v>
+        <v>435</v>
       </c>
       <c r="B126" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C126" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="F126" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="B127" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C127" t="s">
-        <v>411</v>
+        <v>46</v>
       </c>
       <c r="F127" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>442</v>
+        <v>1403</v>
       </c>
       <c r="B128" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C128" t="s">
-        <v>109</v>
+        <v>411</v>
       </c>
       <c r="F128" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>1426</v>
+        <v>442</v>
       </c>
       <c r="B129" t="s">
-        <v>1429</v>
+        <v>443</v>
       </c>
       <c r="C129" t="s">
-        <v>1427</v>
-      </c>
-      <c r="D129" t="s">
-        <v>439</v>
+        <v>109</v>
       </c>
       <c r="F129" t="s">
-        <v>1428</v>
-      </c>
-      <c r="G129" t="s">
-        <v>201</v>
-      </c>
-      <c r="H129">
-        <v>9265</v>
+        <v>444</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>445</v>
+        <v>1425</v>
       </c>
       <c r="B130" t="s">
-        <v>446</v>
+        <v>1428</v>
       </c>
       <c r="C130" t="s">
-        <v>447</v>
+        <v>1426</v>
       </c>
       <c r="D130" t="s">
-        <v>39</v>
+        <v>439</v>
       </c>
       <c r="F130" t="s">
-        <v>448</v>
-      </c>
-      <c r="I130">
-        <v>20181</v>
+        <v>1427</v>
+      </c>
+      <c r="G130" t="s">
+        <v>201</v>
+      </c>
+      <c r="H130">
+        <v>9265</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B131" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C131" t="s">
-        <v>7</v>
+        <v>447</v>
+      </c>
+      <c r="D131" t="s">
+        <v>39</v>
       </c>
       <c r="F131" t="s">
-        <v>451</v>
+        <v>448</v>
+      </c>
+      <c r="I131">
+        <v>20181</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B132" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C132" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="F132" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B133" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C133" t="s">
-        <v>457</v>
-      </c>
-      <c r="D133" t="s">
-        <v>447</v>
+        <v>54</v>
       </c>
       <c r="F133" t="s">
-        <v>458</v>
-      </c>
-      <c r="H133">
-        <v>7717</v>
+        <v>454</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B134" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C134" t="s">
-        <v>54</v>
+        <v>457</v>
+      </c>
+      <c r="D134" t="s">
+        <v>447</v>
       </c>
       <c r="F134" t="s">
-        <v>461</v>
+        <v>458</v>
+      </c>
+      <c r="H134">
+        <v>7717</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B135" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C135" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="F135" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B136" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C136" t="s">
-        <v>104</v>
-      </c>
-      <c r="D136" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="F136" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B137" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C137" t="s">
-        <v>470</v>
+        <v>104</v>
       </c>
       <c r="D137" t="s">
-        <v>471</v>
+        <v>35</v>
       </c>
       <c r="F137" t="s">
-        <v>472</v>
-      </c>
-      <c r="H137">
-        <v>5125</v>
-      </c>
-      <c r="I137">
-        <v>25217</v>
+        <v>467</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="B138" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C138" t="s">
-        <v>19</v>
+        <v>470</v>
+      </c>
+      <c r="D138" t="s">
+        <v>471</v>
       </c>
       <c r="F138" t="s">
-        <v>475</v>
+        <v>472</v>
+      </c>
+      <c r="H138">
+        <v>5125</v>
+      </c>
+      <c r="I138">
+        <v>25217</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B139" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C139" t="s">
         <v>19</v>
       </c>
       <c r="F139" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B140" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C140" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="F140" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B141" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C141" t="s">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="F141" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B142" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C142" t="s">
-        <v>29</v>
-      </c>
-      <c r="D142" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F142" t="s">
-        <v>487</v>
-      </c>
-      <c r="H142">
-        <v>7242</v>
+        <v>484</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B143" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C143" t="s">
-        <v>490</v>
+        <v>29</v>
       </c>
       <c r="D143" t="s">
-        <v>491</v>
+        <v>139</v>
       </c>
       <c r="F143" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="H143">
-        <v>6157</v>
+        <v>7242</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="B144" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="C144" t="s">
-        <v>151</v>
+        <v>490</v>
+      </c>
+      <c r="D144" t="s">
+        <v>491</v>
       </c>
       <c r="F144" t="s">
-        <v>495</v>
+        <v>492</v>
+      </c>
+      <c r="H144">
+        <v>6157</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B145" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C145" t="s">
-        <v>498</v>
-      </c>
-      <c r="D145" t="s">
-        <v>113</v>
+        <v>151</v>
       </c>
       <c r="F145" t="s">
-        <v>499</v>
-      </c>
-      <c r="G145" t="s">
-        <v>201</v>
-      </c>
-      <c r="H145">
-        <v>7541</v>
+        <v>495</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B146" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C146" t="s">
         <v>498</v>
@@ -7677,343 +7711,349 @@
         <v>499</v>
       </c>
       <c r="G146" t="s">
-        <v>502</v>
-      </c>
-      <c r="I146">
-        <v>22093</v>
+        <v>201</v>
+      </c>
+      <c r="H146">
+        <v>7541</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B147" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C147" t="s">
-        <v>415</v>
+        <v>498</v>
+      </c>
+      <c r="D147" t="s">
+        <v>113</v>
       </c>
       <c r="F147" t="s">
-        <v>505</v>
+        <v>499</v>
+      </c>
+      <c r="G147" t="s">
+        <v>502</v>
+      </c>
+      <c r="I147">
+        <v>22093</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B148" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C148" t="s">
-        <v>104</v>
+        <v>415</v>
       </c>
       <c r="F148" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B149" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C149" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="F149" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B150" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C150" t="s">
-        <v>248</v>
+        <v>46</v>
       </c>
       <c r="F150" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B151" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C151" t="s">
-        <v>517</v>
-      </c>
-      <c r="D151" t="s">
-        <v>6</v>
+        <v>248</v>
       </c>
       <c r="F151" t="s">
-        <v>518</v>
-      </c>
-      <c r="H151">
-        <v>3318</v>
+        <v>514</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B152" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C152" t="s">
-        <v>104</v>
+        <v>517</v>
+      </c>
+      <c r="D152" t="s">
+        <v>6</v>
       </c>
       <c r="F152" t="s">
-        <v>521</v>
+        <v>518</v>
+      </c>
+      <c r="H152">
+        <v>3318</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B153" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C153" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="F153" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B154" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C154" t="s">
-        <v>155</v>
-      </c>
-      <c r="D154" t="s">
-        <v>122</v>
+        <v>19</v>
       </c>
       <c r="F154" t="s">
-        <v>527</v>
-      </c>
-      <c r="I154">
-        <v>23355</v>
+        <v>524</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B155" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C155" t="s">
-        <v>20</v>
+        <v>155</v>
+      </c>
+      <c r="D155" t="s">
+        <v>122</v>
       </c>
       <c r="F155" t="s">
-        <v>530</v>
+        <v>527</v>
+      </c>
+      <c r="I155">
+        <v>23355</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B156" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C156" t="s">
-        <v>533</v>
-      </c>
-      <c r="D156" t="s">
         <v>20</v>
       </c>
       <c r="F156" t="s">
-        <v>534</v>
-      </c>
-      <c r="G156" t="s">
-        <v>201</v>
-      </c>
-      <c r="H156">
-        <v>7245</v>
+        <v>530</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B157" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C157" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="D157" t="s">
-        <v>151</v>
+        <v>20</v>
       </c>
       <c r="F157" t="s">
-        <v>538</v>
+        <v>534</v>
+      </c>
+      <c r="G157" t="s">
+        <v>201</v>
       </c>
       <c r="H157">
-        <v>3431</v>
+        <v>7245</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B158" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="C158" t="s">
-        <v>46</v>
+        <v>537</v>
+      </c>
+      <c r="D158" t="s">
+        <v>151</v>
       </c>
       <c r="F158" t="s">
-        <v>541</v>
+        <v>538</v>
+      </c>
+      <c r="H158">
+        <v>3431</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B159" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C159" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="F159" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B160" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C160" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F160" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B161" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C161" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F161" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B162" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C162" t="s">
-        <v>553</v>
-      </c>
-      <c r="D162" t="s">
-        <v>554</v>
+        <v>6</v>
       </c>
       <c r="F162" t="s">
-        <v>555</v>
-      </c>
-      <c r="H162">
-        <v>6611</v>
+        <v>550</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="B163" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="C163" t="s">
-        <v>63</v>
+        <v>553</v>
       </c>
       <c r="D163" t="s">
-        <v>83</v>
+        <v>554</v>
       </c>
       <c r="F163" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="H163">
-        <v>7683</v>
+        <v>6611</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B164" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C164" t="s">
-        <v>19</v>
+        <v>63</v>
+      </c>
+      <c r="D164" t="s">
+        <v>83</v>
       </c>
       <c r="F164" t="s">
-        <v>561</v>
+        <v>558</v>
+      </c>
+      <c r="H164">
+        <v>7683</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B165" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C165" t="s">
-        <v>99</v>
-      </c>
-      <c r="D165" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F165" t="s">
-        <v>564</v>
-      </c>
-      <c r="I165">
-        <v>7642</v>
+        <v>561</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B166" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C166" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D166" t="s">
-        <v>109</v>
+        <v>7</v>
       </c>
       <c r="F166" t="s">
-        <v>567</v>
+        <v>564</v>
+      </c>
+      <c r="I166">
+        <v>7642</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>1405</v>
+        <v>565</v>
       </c>
       <c r="B167" t="s">
         <v>566</v>
@@ -8030,4455 +8070,4524 @@
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>568</v>
+        <v>1404</v>
       </c>
       <c r="B168" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C168" t="s">
-        <v>19</v>
+        <v>104</v>
+      </c>
+      <c r="D168" t="s">
+        <v>109</v>
       </c>
       <c r="F168" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B169" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C169" t="s">
         <v>19</v>
       </c>
       <c r="F169" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B170" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C170" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="F170" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B171" t="s">
-        <v>578</v>
+        <v>1437</v>
       </c>
       <c r="C171" t="s">
-        <v>25</v>
+        <v>807</v>
+      </c>
+      <c r="D171" t="s">
+        <v>1436</v>
       </c>
       <c r="F171" t="s">
-        <v>579</v>
+        <v>575</v>
+      </c>
+      <c r="H171">
+        <v>8925</v>
+      </c>
+      <c r="I171">
+        <v>69347</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="B172" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C172" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="F172" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B173" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C173" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="F173" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="B174" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="C174" t="s">
-        <v>588</v>
-      </c>
-      <c r="D174" t="s">
-        <v>589</v>
+        <v>25</v>
       </c>
       <c r="F174" t="s">
-        <v>590</v>
-      </c>
-      <c r="H174">
-        <v>8335</v>
+        <v>584</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="B175" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="C175" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="D175" t="s">
-        <v>54</v>
+        <v>588</v>
       </c>
       <c r="F175" t="s">
-        <v>594</v>
+        <v>589</v>
+      </c>
+      <c r="H175">
+        <v>8335</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="B176" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="C176" t="s">
-        <v>2</v>
+        <v>592</v>
       </c>
       <c r="D176" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="F176" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B177" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C177" t="s">
-        <v>54</v>
+        <v>2</v>
+      </c>
+      <c r="D177" t="s">
+        <v>104</v>
       </c>
       <c r="F177" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B178" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="C178" t="s">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="F178" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="B179" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="C179" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="F179" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B180" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="C180" t="s">
-        <v>608</v>
-      </c>
-      <c r="D180" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F180" t="s">
-        <v>609</v>
-      </c>
-      <c r="I180">
-        <v>5438</v>
+        <v>604</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="B181" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="C181" t="s">
-        <v>498</v>
+        <v>607</v>
+      </c>
+      <c r="D181" t="s">
+        <v>20</v>
       </c>
       <c r="F181" t="s">
-        <v>609</v>
-      </c>
-      <c r="H181">
-        <v>3254</v>
+        <v>608</v>
+      </c>
+      <c r="I181">
+        <v>5438</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B182" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C182" t="s">
-        <v>2</v>
+        <v>498</v>
       </c>
       <c r="F182" t="s">
-        <v>614</v>
+        <v>608</v>
+      </c>
+      <c r="H182">
+        <v>3254</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="B183" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="C183" t="s">
-        <v>109</v>
+        <v>2</v>
       </c>
       <c r="F183" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B184" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="C184" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="F184" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B185" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="C185" t="s">
-        <v>623</v>
-      </c>
-      <c r="D185" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="F185" t="s">
-        <v>620</v>
-      </c>
-      <c r="H185">
-        <v>7801</v>
+        <v>619</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B186" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="C186" t="s">
-        <v>122</v>
+        <v>622</v>
+      </c>
+      <c r="D186" t="s">
+        <v>127</v>
       </c>
       <c r="F186" t="s">
-        <v>626</v>
+        <v>619</v>
+      </c>
+      <c r="H186">
+        <v>7801</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B187" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="C187" t="s">
-        <v>59</v>
-      </c>
-      <c r="D187" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="F187" t="s">
-        <v>626</v>
-      </c>
-      <c r="H187">
-        <v>6356</v>
+        <v>625</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B188" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C188" t="s">
-        <v>631</v>
+        <v>59</v>
       </c>
       <c r="D188" t="s">
-        <v>632</v>
+        <v>113</v>
       </c>
       <c r="F188" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="H188">
-        <v>7858</v>
+        <v>6356</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="B189" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="C189" t="s">
-        <v>411</v>
+        <v>630</v>
+      </c>
+      <c r="D189" t="s">
+        <v>631</v>
       </c>
       <c r="F189" t="s">
-        <v>87</v>
+        <v>632</v>
+      </c>
+      <c r="H189">
+        <v>7858</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B190" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C190" t="s">
-        <v>638</v>
-      </c>
-      <c r="D190" t="s">
-        <v>639</v>
+        <v>411</v>
       </c>
       <c r="F190" t="s">
-        <v>640</v>
-      </c>
-      <c r="I190">
-        <v>24779</v>
+        <v>87</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>641</v>
+        <v>1432</v>
       </c>
       <c r="B191" t="s">
-        <v>642</v>
+        <v>1433</v>
       </c>
       <c r="C191" t="s">
-        <v>457</v>
+        <v>890</v>
       </c>
       <c r="D191" t="s">
-        <v>139</v>
+        <v>1434</v>
       </c>
       <c r="F191" t="s">
-        <v>643</v>
+        <v>1435</v>
       </c>
       <c r="H191">
-        <v>4570</v>
+        <v>7366</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="B192" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="C192" t="s">
-        <v>46</v>
+        <v>637</v>
+      </c>
+      <c r="D192" t="s">
+        <v>638</v>
       </c>
       <c r="F192" t="s">
-        <v>646</v>
+        <v>639</v>
+      </c>
+      <c r="I192">
+        <v>24779</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="B193" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="C193" t="s">
-        <v>109</v>
+        <v>457</v>
+      </c>
+      <c r="D193" t="s">
+        <v>139</v>
       </c>
       <c r="F193" t="s">
-        <v>646</v>
+        <v>642</v>
+      </c>
+      <c r="H193">
+        <v>4570</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="B194" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="C194" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F194" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="B195" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="C195" t="s">
         <v>109</v>
       </c>
       <c r="F195" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="B196" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="C196" t="s">
-        <v>248</v>
+        <v>35</v>
       </c>
       <c r="F196" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="B197" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="C197" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F197" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="B198" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="C198" t="s">
-        <v>19</v>
+        <v>248</v>
       </c>
       <c r="F198" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="B199" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="C199" t="s">
-        <v>2</v>
+        <v>104</v>
       </c>
       <c r="F199" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="B200" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="C200" t="s">
-        <v>668</v>
-      </c>
-      <c r="D200" t="s">
-        <v>669</v>
+        <v>19</v>
       </c>
       <c r="F200" t="s">
-        <v>670</v>
-      </c>
-      <c r="H200">
-        <v>8153</v>
+        <v>659</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="B201" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="C201" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="F201" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="B202" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="C202" t="s">
-        <v>2</v>
+        <v>667</v>
+      </c>
+      <c r="D202" t="s">
+        <v>668</v>
       </c>
       <c r="F202" t="s">
-        <v>676</v>
+        <v>669</v>
+      </c>
+      <c r="H202">
+        <v>8153</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="B203" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="C203" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="F203" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="B204" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="C204" t="s">
-        <v>39</v>
-      </c>
-      <c r="D204" t="s">
-        <v>447</v>
+        <v>2</v>
       </c>
       <c r="F204" t="s">
-        <v>682</v>
-      </c>
-      <c r="I204">
-        <v>18584</v>
+        <v>675</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="B205" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="C205" t="s">
-        <v>685</v>
-      </c>
-      <c r="D205" t="s">
-        <v>686</v>
+        <v>109</v>
       </c>
       <c r="F205" t="s">
-        <v>687</v>
-      </c>
-      <c r="H205">
-        <v>6621</v>
+        <v>678</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="B206" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="C206" t="s">
-        <v>316</v>
+        <v>39</v>
       </c>
       <c r="D206" t="s">
-        <v>690</v>
+        <v>447</v>
       </c>
       <c r="F206" t="s">
-        <v>687</v>
-      </c>
-      <c r="H206">
-        <v>9194</v>
+        <v>681</v>
+      </c>
+      <c r="I206">
+        <v>18584</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="B207" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="C207" t="s">
-        <v>25</v>
+        <v>684</v>
+      </c>
+      <c r="D207" t="s">
+        <v>685</v>
       </c>
       <c r="F207" t="s">
-        <v>687</v>
+        <v>686</v>
+      </c>
+      <c r="H207">
+        <v>6621</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="B208" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="C208" t="s">
-        <v>83</v>
+        <v>316</v>
+      </c>
+      <c r="D208" t="s">
+        <v>689</v>
       </c>
       <c r="F208" t="s">
-        <v>695</v>
+        <v>686</v>
+      </c>
+      <c r="H208">
+        <v>9194</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="B209" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="C209" t="s">
-        <v>248</v>
+        <v>25</v>
       </c>
       <c r="F209" t="s">
-        <v>698</v>
+        <v>686</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="B210" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="C210" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="F210" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="B211" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="C211" t="s">
-        <v>19</v>
+        <v>248</v>
       </c>
       <c r="F211" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="B212" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="C212" t="s">
-        <v>104</v>
+        <v>6</v>
       </c>
       <c r="F212" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="B213" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C213" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="F213" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="B214" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="C214" t="s">
-        <v>2</v>
+        <v>104</v>
       </c>
       <c r="F214" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="B215" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="C215" t="s">
-        <v>593</v>
-      </c>
-      <c r="D215" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F215" t="s">
-        <v>716</v>
-      </c>
-      <c r="H215">
-        <v>764</v>
-      </c>
-      <c r="I215">
-        <v>220</v>
+        <v>709</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="B216" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="C216" t="s">
-        <v>719</v>
-      </c>
-      <c r="D216" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="F216" t="s">
-        <v>716</v>
-      </c>
-      <c r="H216">
-        <v>2820</v>
+        <v>712</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="B217" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="C217" t="s">
-        <v>68</v>
+        <v>592</v>
       </c>
       <c r="D217" t="s">
-        <v>439</v>
+        <v>54</v>
       </c>
       <c r="F217" t="s">
-        <v>716</v>
+        <v>715</v>
+      </c>
+      <c r="H217">
+        <v>764</v>
       </c>
       <c r="I217">
-        <v>11005</v>
+        <v>220</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="B218" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="C218" t="s">
-        <v>25</v>
+        <v>718</v>
+      </c>
+      <c r="D218" t="s">
+        <v>54</v>
       </c>
       <c r="F218" t="s">
-        <v>724</v>
+        <v>715</v>
+      </c>
+      <c r="H218">
+        <v>2820</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="B219" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="C219" t="s">
-        <v>19</v>
+        <v>68</v>
+      </c>
+      <c r="D219" t="s">
+        <v>439</v>
       </c>
       <c r="F219" t="s">
-        <v>727</v>
+        <v>715</v>
+      </c>
+      <c r="I219">
+        <v>11005</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="B220" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="C220" t="s">
-        <v>68</v>
-      </c>
-      <c r="D220" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="F220" t="s">
-        <v>730</v>
-      </c>
-      <c r="H220">
-        <v>2808</v>
+        <v>723</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="B221" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="C221" t="s">
-        <v>733</v>
-      </c>
-      <c r="D221" t="s">
-        <v>734</v>
+        <v>19</v>
       </c>
       <c r="F221" t="s">
-        <v>735</v>
-      </c>
-      <c r="I221">
-        <v>20758</v>
+        <v>726</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="B222" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="C222" t="s">
-        <v>738</v>
+        <v>68</v>
       </c>
       <c r="D222" t="s">
-        <v>739</v>
+        <v>54</v>
       </c>
       <c r="F222" t="s">
-        <v>740</v>
+        <v>729</v>
       </c>
       <c r="H222">
-        <v>7938</v>
+        <v>2808</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="B223" t="s">
-        <v>742</v>
+        <v>731</v>
       </c>
       <c r="C223" t="s">
-        <v>415</v>
+        <v>732</v>
+      </c>
+      <c r="D223" t="s">
+        <v>733</v>
       </c>
       <c r="F223" t="s">
-        <v>740</v>
+        <v>734</v>
+      </c>
+      <c r="I223">
+        <v>20758</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="B224" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="C224" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="D224" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="F224" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="H224">
-        <v>5677</v>
+        <v>7938</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="B225" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="C225" t="s">
-        <v>750</v>
-      </c>
-      <c r="D225" t="s">
-        <v>746</v>
+        <v>415</v>
       </c>
       <c r="F225" t="s">
-        <v>747</v>
-      </c>
-      <c r="H225">
-        <v>8152</v>
+        <v>739</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>751</v>
+        <v>742</v>
       </c>
       <c r="B226" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
       <c r="C226" t="s">
-        <v>278</v>
+        <v>744</v>
       </c>
       <c r="D226" t="s">
-        <v>447</v>
+        <v>745</v>
       </c>
       <c r="F226" t="s">
-        <v>753</v>
-      </c>
-      <c r="I226">
-        <v>11950</v>
+        <v>746</v>
+      </c>
+      <c r="H226">
+        <v>5677</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="B227" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="C227" t="s">
-        <v>6</v>
+        <v>749</v>
+      </c>
+      <c r="D227" t="s">
+        <v>745</v>
       </c>
       <c r="F227" t="s">
-        <v>756</v>
+        <v>746</v>
+      </c>
+      <c r="H227">
+        <v>8152</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="B228" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="C228" t="s">
-        <v>759</v>
+        <v>278</v>
+      </c>
+      <c r="D228" t="s">
+        <v>447</v>
       </c>
       <c r="F228" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="I228">
-        <v>8374</v>
+        <v>11950</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="B229" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="C229" t="s">
-        <v>763</v>
-      </c>
-      <c r="D229" t="s">
-        <v>282</v>
+        <v>6</v>
       </c>
       <c r="F229" t="s">
-        <v>764</v>
-      </c>
-      <c r="H229">
-        <v>4264</v>
+        <v>755</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="B230" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="C230" t="s">
-        <v>25</v>
+        <v>758</v>
       </c>
       <c r="F230" t="s">
-        <v>767</v>
+        <v>759</v>
+      </c>
+      <c r="I230">
+        <v>8374</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="B231" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="C231" t="s">
-        <v>54</v>
+        <v>762</v>
+      </c>
+      <c r="D231" t="s">
+        <v>282</v>
       </c>
       <c r="F231" t="s">
-        <v>770</v>
+        <v>763</v>
+      </c>
+      <c r="H231">
+        <v>4264</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="B232" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="C232" t="s">
-        <v>773</v>
-      </c>
-      <c r="D232" t="s">
-        <v>151</v>
+        <v>25</v>
       </c>
       <c r="F232" t="s">
-        <v>774</v>
-      </c>
-      <c r="I232">
-        <v>1754</v>
+        <v>766</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="B233" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="C233" t="s">
-        <v>6</v>
-      </c>
-      <c r="D233" t="s">
-        <v>777</v>
+        <v>54</v>
       </c>
       <c r="F233" t="s">
-        <v>778</v>
-      </c>
-      <c r="H233">
-        <v>4946</v>
+        <v>769</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
       <c r="B234" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="C234" t="s">
-        <v>6</v>
+        <v>772</v>
       </c>
       <c r="D234" t="s">
-        <v>777</v>
+        <v>151</v>
       </c>
       <c r="F234" t="s">
-        <v>778</v>
-      </c>
-      <c r="H234">
-        <v>4946</v>
+        <v>773</v>
+      </c>
+      <c r="I234">
+        <v>1754</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="B235" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="C235" t="s">
-        <v>104</v>
+        <v>6</v>
+      </c>
+      <c r="D235" t="s">
+        <v>776</v>
       </c>
       <c r="F235" t="s">
-        <v>782</v>
+        <v>777</v>
+      </c>
+      <c r="H235">
+        <v>4946</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="B236" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="C236" t="s">
-        <v>19</v>
+        <v>6</v>
+      </c>
+      <c r="D236" t="s">
+        <v>776</v>
       </c>
       <c r="F236" t="s">
-        <v>785</v>
+        <v>777</v>
+      </c>
+      <c r="H236">
+        <v>4946</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="B237" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
       <c r="C237" t="s">
-        <v>2</v>
+        <v>104</v>
       </c>
       <c r="F237" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="B238" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="C238" t="s">
-        <v>122</v>
+        <v>19</v>
       </c>
       <c r="F238" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="B239" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="C239" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="F239" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="B240" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="C240" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="F240" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="B241" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="C241" t="s">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="F241" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="B242" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="C242" t="s">
-        <v>2</v>
+        <v>151</v>
       </c>
       <c r="F242" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="B243" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="C243" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="F243" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="B244" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="C244" t="s">
-        <v>109</v>
+        <v>2</v>
       </c>
       <c r="F244" t="s">
-        <v>805</v>
+        <v>793</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="B245" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="C245" t="s">
-        <v>808</v>
+        <v>109</v>
       </c>
       <c r="F245" t="s">
-        <v>809</v>
-      </c>
-      <c r="H245">
-        <v>6632</v>
+        <v>793</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="B246" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="C246" t="s">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="F246" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
       <c r="B247" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="C247" t="s">
-        <v>815</v>
-      </c>
-      <c r="D247" t="s">
-        <v>83</v>
+        <v>807</v>
       </c>
       <c r="F247" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="H247">
-        <v>8826</v>
+        <v>6632</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
       <c r="B248" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="C248" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F248" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
       <c r="B249" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="C249" t="s">
-        <v>46</v>
+        <v>814</v>
+      </c>
+      <c r="D249" t="s">
+        <v>83</v>
       </c>
       <c r="F249" t="s">
-        <v>822</v>
+        <v>815</v>
+      </c>
+      <c r="H249">
+        <v>8826</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="B250" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="C250" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F250" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
       <c r="B251" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
       <c r="C251" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F251" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>829</v>
+        <v>822</v>
       </c>
       <c r="B252" t="s">
-        <v>830</v>
+        <v>823</v>
       </c>
       <c r="C252" t="s">
-        <v>517</v>
-      </c>
-      <c r="D252" t="s">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="F252" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="B253" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="C253" t="s">
-        <v>63</v>
-      </c>
-      <c r="D253" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="F253" t="s">
-        <v>834</v>
-      </c>
-      <c r="H253">
-        <v>4602</v>
+        <v>827</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>835</v>
+        <v>828</v>
       </c>
       <c r="B254" t="s">
-        <v>836</v>
+        <v>829</v>
       </c>
       <c r="C254" t="s">
+        <v>517</v>
+      </c>
+      <c r="D254" t="s">
         <v>46</v>
       </c>
       <c r="F254" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
       <c r="B255" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="C255" t="s">
-        <v>19</v>
+        <v>63</v>
+      </c>
+      <c r="D255" t="s">
+        <v>68</v>
       </c>
       <c r="F255" t="s">
-        <v>837</v>
+        <v>833</v>
+      </c>
+      <c r="H255">
+        <v>4602</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
+        <v>834</v>
+      </c>
+      <c r="B256" t="s">
+        <v>835</v>
+      </c>
+      <c r="C256" t="s">
+        <v>46</v>
+      </c>
+      <c r="F256" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>837</v>
+      </c>
+      <c r="B257" t="s">
+        <v>838</v>
+      </c>
+      <c r="C257" t="s">
+        <v>19</v>
+      </c>
+      <c r="F257" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>839</v>
+      </c>
+      <c r="B258" t="s">
         <v>840</v>
-      </c>
-      <c r="B256" t="s">
-        <v>841</v>
-      </c>
-      <c r="C256" t="s">
-        <v>19</v>
-      </c>
-      <c r="F256" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
-        <v>843</v>
-      </c>
-      <c r="B257" t="s">
-        <v>844</v>
-      </c>
-      <c r="C257" t="s">
-        <v>2</v>
-      </c>
-      <c r="F257" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
-        <v>846</v>
-      </c>
-      <c r="B258" t="s">
-        <v>847</v>
       </c>
       <c r="C258" t="s">
         <v>19</v>
       </c>
       <c r="F258" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>849</v>
+        <v>842</v>
       </c>
       <c r="B259" t="s">
-        <v>850</v>
+        <v>843</v>
       </c>
       <c r="C259" t="s">
-        <v>151</v>
+        <v>2</v>
       </c>
       <c r="F259" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>852</v>
+        <v>845</v>
       </c>
       <c r="B260" t="s">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="C260" t="s">
         <v>19</v>
       </c>
       <c r="F260" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>848</v>
+      </c>
+      <c r="B261" t="s">
+        <v>849</v>
+      </c>
+      <c r="C261" t="s">
+        <v>151</v>
+      </c>
+      <c r="F261" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
         <v>851</v>
       </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
+      <c r="B262" t="s">
+        <v>852</v>
+      </c>
+      <c r="C262" t="s">
+        <v>19</v>
+      </c>
+      <c r="F262" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>853</v>
+      </c>
+      <c r="B263" t="s">
         <v>854</v>
       </c>
-      <c r="B261" t="s">
+      <c r="C263" t="s">
+        <v>19</v>
+      </c>
+      <c r="F263" t="s">
         <v>855</v>
       </c>
-      <c r="C261" t="s">
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>859</v>
+      </c>
+      <c r="B264" t="s">
+        <v>856</v>
+      </c>
+      <c r="C264" t="s">
+        <v>59</v>
+      </c>
+      <c r="D264" t="s">
+        <v>857</v>
+      </c>
+      <c r="F264" t="s">
+        <v>858</v>
+      </c>
+      <c r="H264">
+        <v>3945</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>860</v>
+      </c>
+      <c r="B265" t="s">
+        <v>861</v>
+      </c>
+      <c r="C265" t="s">
+        <v>83</v>
+      </c>
+      <c r="F265" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>863</v>
+      </c>
+      <c r="B266" t="s">
+        <v>864</v>
+      </c>
+      <c r="C266" t="s">
+        <v>6</v>
+      </c>
+      <c r="F266" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>866</v>
+      </c>
+      <c r="B267" t="s">
+        <v>867</v>
+      </c>
+      <c r="C267" t="s">
         <v>19</v>
       </c>
-      <c r="F261" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
-        <v>860</v>
-      </c>
-      <c r="B262" t="s">
-        <v>857</v>
-      </c>
-      <c r="C262" t="s">
-        <v>59</v>
-      </c>
-      <c r="D262" t="s">
-        <v>858</v>
-      </c>
-      <c r="F262" t="s">
-        <v>859</v>
-      </c>
-      <c r="H262">
-        <v>3945</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
-        <v>861</v>
-      </c>
-      <c r="B263" t="s">
-        <v>862</v>
-      </c>
-      <c r="C263" t="s">
-        <v>83</v>
-      </c>
-      <c r="F263" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
-        <v>864</v>
-      </c>
-      <c r="B264" t="s">
-        <v>865</v>
-      </c>
-      <c r="C264" t="s">
+      <c r="F267" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>871</v>
+      </c>
+      <c r="B268" t="s">
+        <v>869</v>
+      </c>
+      <c r="C268" t="s">
+        <v>104</v>
+      </c>
+      <c r="F268" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>872</v>
+      </c>
+      <c r="B269" t="s">
+        <v>873</v>
+      </c>
+      <c r="C269" t="s">
         <v>6</v>
       </c>
-      <c r="F264" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
-        <v>867</v>
-      </c>
-      <c r="B265" t="s">
-        <v>868</v>
-      </c>
-      <c r="C265" t="s">
-        <v>19</v>
-      </c>
-      <c r="F265" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
-        <v>872</v>
-      </c>
-      <c r="B266" t="s">
-        <v>870</v>
-      </c>
-      <c r="C266" t="s">
-        <v>104</v>
-      </c>
-      <c r="F266" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
-        <v>873</v>
-      </c>
-      <c r="B267" t="s">
+      <c r="F269" t="s">
         <v>874</v>
       </c>
-      <c r="C267" t="s">
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>875</v>
+      </c>
+      <c r="B270" t="s">
+        <v>876</v>
+      </c>
+      <c r="C270" t="s">
+        <v>151</v>
+      </c>
+      <c r="F270" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>878</v>
+      </c>
+      <c r="B271" t="s">
+        <v>879</v>
+      </c>
+      <c r="C271" t="s">
+        <v>109</v>
+      </c>
+      <c r="F271" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>881</v>
+      </c>
+      <c r="B272" t="s">
+        <v>882</v>
+      </c>
+      <c r="C272" t="s">
         <v>6</v>
       </c>
-      <c r="F267" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
-        <v>876</v>
-      </c>
-      <c r="B268" t="s">
-        <v>877</v>
-      </c>
-      <c r="C268" t="s">
-        <v>151</v>
-      </c>
-      <c r="F268" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
-        <v>879</v>
-      </c>
-      <c r="B269" t="s">
-        <v>880</v>
-      </c>
-      <c r="C269" t="s">
-        <v>109</v>
-      </c>
-      <c r="F269" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
-        <v>882</v>
-      </c>
-      <c r="B270" t="s">
+      <c r="F272" t="s">
         <v>883</v>
-      </c>
-      <c r="C270" t="s">
-        <v>6</v>
-      </c>
-      <c r="F270" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
-        <v>885</v>
-      </c>
-      <c r="B271" t="s">
-        <v>886</v>
-      </c>
-      <c r="C271" t="s">
-        <v>19</v>
-      </c>
-      <c r="F271" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
-        <v>889</v>
-      </c>
-      <c r="B272" t="s">
-        <v>890</v>
-      </c>
-      <c r="C272" t="s">
-        <v>891</v>
-      </c>
-      <c r="D272" t="s">
-        <v>205</v>
-      </c>
-      <c r="F272" t="s">
-        <v>888</v>
-      </c>
-      <c r="I272">
-        <v>30688</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>892</v>
+        <v>884</v>
       </c>
       <c r="B273" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
       <c r="C273" t="s">
-        <v>122</v>
+        <v>19</v>
       </c>
       <c r="F273" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="B274" t="s">
+        <v>889</v>
+      </c>
+      <c r="C274" t="s">
+        <v>890</v>
+      </c>
+      <c r="D274" t="s">
+        <v>205</v>
+      </c>
+      <c r="F274" t="s">
         <v>887</v>
       </c>
-      <c r="C274" t="s">
-        <v>59</v>
-      </c>
-      <c r="D274" t="s">
-        <v>113</v>
-      </c>
-      <c r="F274" t="s">
-        <v>888</v>
-      </c>
-      <c r="H274">
-        <v>5160</v>
+      <c r="I274">
+        <v>30688</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="B275" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="C275" t="s">
-        <v>54</v>
+        <v>122</v>
       </c>
       <c r="F275" t="s">
-        <v>897</v>
+        <v>887</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="B276" t="s">
-        <v>899</v>
+        <v>886</v>
       </c>
       <c r="C276" t="s">
-        <v>900</v>
+        <v>59</v>
       </c>
       <c r="D276" t="s">
-        <v>901</v>
+        <v>113</v>
       </c>
       <c r="F276" t="s">
-        <v>902</v>
+        <v>887</v>
       </c>
       <c r="H276">
-        <v>6191</v>
+        <v>5160</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>903</v>
+        <v>894</v>
       </c>
       <c r="B277" t="s">
-        <v>904</v>
+        <v>895</v>
       </c>
       <c r="C277" t="s">
-        <v>248</v>
+        <v>54</v>
       </c>
       <c r="F277" t="s">
-        <v>905</v>
+        <v>896</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>906</v>
+        <v>897</v>
       </c>
       <c r="B278" t="s">
-        <v>907</v>
+        <v>898</v>
       </c>
       <c r="C278" t="s">
-        <v>109</v>
+        <v>899</v>
+      </c>
+      <c r="D278" t="s">
+        <v>900</v>
       </c>
       <c r="F278" t="s">
-        <v>908</v>
+        <v>901</v>
+      </c>
+      <c r="H278">
+        <v>6191</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="B279" t="s">
-        <v>910</v>
+        <v>903</v>
       </c>
       <c r="C279" t="s">
-        <v>113</v>
-      </c>
-      <c r="D279" t="s">
-        <v>54</v>
+        <v>248</v>
       </c>
       <c r="F279" t="s">
-        <v>911</v>
-      </c>
-      <c r="I279">
-        <v>19203</v>
+        <v>904</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>912</v>
+        <v>905</v>
       </c>
       <c r="B280" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
       <c r="C280" t="s">
-        <v>113</v>
-      </c>
-      <c r="D280" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="F280" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="B281" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="C281" t="s">
-        <v>109</v>
+        <v>113</v>
+      </c>
+      <c r="D281" t="s">
+        <v>54</v>
       </c>
       <c r="F281" t="s">
-        <v>916</v>
+        <v>910</v>
+      </c>
+      <c r="I281">
+        <v>19203</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="B282" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="C282" t="s">
-        <v>151</v>
+        <v>113</v>
+      </c>
+      <c r="D282" t="s">
+        <v>25</v>
       </c>
       <c r="F282" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>920</v>
+        <v>913</v>
       </c>
       <c r="B283" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="C283" t="s">
-        <v>322</v>
-      </c>
-      <c r="D283" t="s">
-        <v>922</v>
+        <v>109</v>
       </c>
       <c r="F283" t="s">
-        <v>923</v>
-      </c>
-      <c r="H283">
-        <v>5164</v>
+        <v>915</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
       <c r="B284" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="C284" t="s">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c r="F284" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>926</v>
+        <v>919</v>
       </c>
       <c r="B285" t="s">
-        <v>927</v>
+        <v>920</v>
       </c>
       <c r="C285" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="D285" t="s">
-        <v>928</v>
+        <v>921</v>
       </c>
       <c r="F285" t="s">
-        <v>923</v>
-      </c>
-      <c r="I285">
-        <v>31998</v>
+        <v>922</v>
+      </c>
+      <c r="H285">
+        <v>5164</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="B286" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="C286" t="s">
-        <v>931</v>
-      </c>
-      <c r="D286" t="s">
-        <v>932</v>
+        <v>19</v>
       </c>
       <c r="F286" t="s">
-        <v>933</v>
-      </c>
-      <c r="I286">
-        <v>25681</v>
+        <v>922</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>934</v>
+        <v>925</v>
       </c>
       <c r="B287" t="s">
-        <v>935</v>
+        <v>926</v>
       </c>
       <c r="C287" t="s">
-        <v>104</v>
+        <v>316</v>
+      </c>
+      <c r="D287" t="s">
+        <v>927</v>
       </c>
       <c r="F287" t="s">
-        <v>936</v>
+        <v>922</v>
+      </c>
+      <c r="I287">
+        <v>31998</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>937</v>
+        <v>928</v>
       </c>
       <c r="B288" t="s">
-        <v>938</v>
+        <v>929</v>
       </c>
       <c r="C288" t="s">
-        <v>46</v>
+        <v>930</v>
+      </c>
+      <c r="D288" t="s">
+        <v>931</v>
       </c>
       <c r="F288" t="s">
-        <v>939</v>
+        <v>932</v>
+      </c>
+      <c r="I288">
+        <v>25681</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>940</v>
+        <v>933</v>
       </c>
       <c r="B289" t="s">
-        <v>941</v>
+        <v>934</v>
       </c>
       <c r="C289" t="s">
-        <v>58</v>
-      </c>
-      <c r="D289" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="F289" t="s">
-        <v>942</v>
-      </c>
-      <c r="H289">
-        <v>3150</v>
+        <v>935</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>943</v>
+        <v>936</v>
       </c>
       <c r="B290" t="s">
-        <v>944</v>
+        <v>937</v>
       </c>
       <c r="C290" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F290" t="s">
-        <v>945</v>
+        <v>938</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>953</v>
+        <v>939</v>
       </c>
       <c r="B291" t="s">
-        <v>954</v>
+        <v>940</v>
       </c>
       <c r="C291" t="s">
-        <v>2</v>
+        <v>58</v>
+      </c>
+      <c r="D291" t="s">
+        <v>54</v>
       </c>
       <c r="F291" t="s">
-        <v>955</v>
+        <v>941</v>
+      </c>
+      <c r="H291">
+        <v>3150</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="B292" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="C292" t="s">
-        <v>59</v>
-      </c>
-      <c r="D292" t="s">
-        <v>763</v>
+        <v>54</v>
       </c>
       <c r="F292" t="s">
-        <v>948</v>
-      </c>
-      <c r="H292">
-        <v>4829</v>
+        <v>944</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="B293" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="C293" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="F293" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>959</v>
+        <v>945</v>
       </c>
       <c r="B294" t="s">
-        <v>960</v>
+        <v>946</v>
       </c>
       <c r="C294" t="s">
-        <v>113</v>
+        <v>59</v>
       </c>
       <c r="D294" t="s">
-        <v>961</v>
+        <v>762</v>
       </c>
       <c r="F294" t="s">
-        <v>962</v>
+        <v>947</v>
       </c>
       <c r="H294">
-        <v>3115</v>
+        <v>4829</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="B295" t="s">
-        <v>964</v>
+        <v>956</v>
       </c>
       <c r="C295" t="s">
-        <v>122</v>
+        <v>19</v>
       </c>
       <c r="F295" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>965</v>
+        <v>958</v>
       </c>
       <c r="B296" t="s">
-        <v>966</v>
+        <v>959</v>
       </c>
       <c r="C296" t="s">
-        <v>316</v>
+        <v>113</v>
       </c>
       <c r="D296" t="s">
-        <v>63</v>
+        <v>960</v>
       </c>
       <c r="F296" t="s">
-        <v>967</v>
-      </c>
-      <c r="G296" t="s">
-        <v>201</v>
+        <v>961</v>
       </c>
       <c r="H296">
-        <v>4446</v>
-      </c>
-      <c r="I296">
-        <v>28556</v>
+        <v>3115</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>949</v>
+        <v>962</v>
       </c>
       <c r="B297" t="s">
-        <v>950</v>
+        <v>963</v>
       </c>
       <c r="C297" t="s">
-        <v>951</v>
-      </c>
-      <c r="D297" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="F297" t="s">
-        <v>952</v>
-      </c>
-      <c r="H297">
-        <v>9348</v>
+        <v>961</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="B298" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="C298" t="s">
-        <v>639</v>
+        <v>316</v>
       </c>
       <c r="D298" t="s">
-        <v>970</v>
+        <v>63</v>
       </c>
       <c r="F298" t="s">
-        <v>971</v>
+        <v>966</v>
+      </c>
+      <c r="G298" t="s">
+        <v>201</v>
       </c>
       <c r="H298">
-        <v>3678</v>
+        <v>4446</v>
       </c>
       <c r="I298">
-        <v>29557</v>
+        <v>28556</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>972</v>
+        <v>948</v>
       </c>
       <c r="B299" t="s">
-        <v>973</v>
+        <v>949</v>
       </c>
       <c r="C299" t="s">
-        <v>415</v>
+        <v>950</v>
+      </c>
+      <c r="D299" t="s">
+        <v>63</v>
       </c>
       <c r="F299" t="s">
-        <v>974</v>
+        <v>951</v>
+      </c>
+      <c r="H299">
+        <v>9348</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>975</v>
+        <v>967</v>
       </c>
       <c r="B300" t="s">
-        <v>976</v>
+        <v>968</v>
       </c>
       <c r="C300" t="s">
-        <v>147</v>
+        <v>638</v>
+      </c>
+      <c r="D300" t="s">
+        <v>969</v>
       </c>
       <c r="F300" t="s">
-        <v>977</v>
+        <v>970</v>
+      </c>
+      <c r="H300">
+        <v>3678</v>
+      </c>
+      <c r="I300">
+        <v>29557</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>978</v>
+        <v>971</v>
       </c>
       <c r="B301" t="s">
-        <v>979</v>
+        <v>972</v>
       </c>
       <c r="C301" t="s">
-        <v>2</v>
+        <v>415</v>
       </c>
       <c r="F301" t="s">
-        <v>980</v>
+        <v>973</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>981</v>
+        <v>974</v>
       </c>
       <c r="B302" t="s">
-        <v>982</v>
+        <v>975</v>
       </c>
       <c r="C302" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F302" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>984</v>
+        <v>977</v>
       </c>
       <c r="B303" t="s">
-        <v>985</v>
+        <v>978</v>
       </c>
       <c r="C303" t="s">
-        <v>986</v>
-      </c>
-      <c r="D303" t="s">
-        <v>127</v>
+        <v>2</v>
       </c>
       <c r="F303" t="s">
-        <v>987</v>
-      </c>
-      <c r="I303">
-        <v>12155</v>
+        <v>979</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>988</v>
+        <v>980</v>
       </c>
       <c r="B304" t="s">
-        <v>989</v>
+        <v>981</v>
       </c>
       <c r="C304" t="s">
         <v>151</v>
       </c>
       <c r="F304" t="s">
-        <v>990</v>
+        <v>982</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>991</v>
+        <v>983</v>
       </c>
       <c r="B305" t="s">
-        <v>992</v>
+        <v>984</v>
       </c>
       <c r="C305" t="s">
-        <v>993</v>
+        <v>985</v>
       </c>
       <c r="D305" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="F305" t="s">
-        <v>994</v>
-      </c>
-      <c r="H305">
-        <v>2561</v>
+        <v>986</v>
+      </c>
+      <c r="I305">
+        <v>12155</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
       <c r="B306" t="s">
-        <v>996</v>
+        <v>988</v>
       </c>
       <c r="C306" t="s">
-        <v>2</v>
+        <v>151</v>
       </c>
       <c r="F306" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
       <c r="B307" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
       <c r="C307" t="s">
-        <v>20</v>
+        <v>992</v>
+      </c>
+      <c r="D307" t="s">
+        <v>104</v>
       </c>
       <c r="F307" t="s">
-        <v>1000</v>
+        <v>993</v>
+      </c>
+      <c r="H307">
+        <v>2561</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>1001</v>
+        <v>994</v>
       </c>
       <c r="B308" t="s">
-        <v>1002</v>
+        <v>995</v>
       </c>
       <c r="C308" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F308" t="s">
-        <v>1003</v>
+        <v>996</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>1004</v>
+        <v>997</v>
       </c>
       <c r="B309" t="s">
-        <v>1005</v>
+        <v>998</v>
       </c>
       <c r="C309" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F309" t="s">
-        <v>1006</v>
+        <v>999</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>1007</v>
+        <v>1000</v>
       </c>
       <c r="B310" t="s">
-        <v>1008</v>
+        <v>1001</v>
       </c>
       <c r="C310" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F310" t="s">
-        <v>1009</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>1010</v>
+        <v>1003</v>
       </c>
       <c r="B311" t="s">
-        <v>1011</v>
+        <v>1004</v>
       </c>
       <c r="C311" t="s">
-        <v>183</v>
-      </c>
-      <c r="D311" t="s">
-        <v>1012</v>
+        <v>35</v>
       </c>
       <c r="F311" t="s">
-        <v>1013</v>
-      </c>
-      <c r="H311">
-        <v>8662</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>1014</v>
+        <v>1006</v>
       </c>
       <c r="B312" t="s">
-        <v>1015</v>
+        <v>1007</v>
       </c>
       <c r="C312" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D312" t="s">
-        <v>1017</v>
+        <v>19</v>
       </c>
       <c r="F312" t="s">
-        <v>1018</v>
-      </c>
-      <c r="H312">
-        <v>9153</v>
-      </c>
-      <c r="I312">
-        <v>62665</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>1021</v>
+        <v>1009</v>
       </c>
       <c r="B313" t="s">
-        <v>1019</v>
+        <v>1010</v>
       </c>
       <c r="C313" t="s">
-        <v>59</v>
+        <v>183</v>
       </c>
       <c r="D313" t="s">
-        <v>155</v>
+        <v>1011</v>
       </c>
       <c r="F313" t="s">
-        <v>1020</v>
+        <v>1012</v>
       </c>
       <c r="H313">
-        <v>7793</v>
+        <v>8662</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>1022</v>
+        <v>1013</v>
       </c>
       <c r="B314" t="s">
-        <v>1023</v>
+        <v>1014</v>
       </c>
       <c r="C314" t="s">
-        <v>1024</v>
+        <v>1015</v>
       </c>
       <c r="D314" t="s">
-        <v>763</v>
+        <v>1016</v>
       </c>
       <c r="F314" t="s">
-        <v>1025</v>
+        <v>1017</v>
       </c>
       <c r="H314">
-        <v>5009</v>
+        <v>9153</v>
+      </c>
+      <c r="I314">
+        <v>62665</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B315" t="s">
-        <v>1027</v>
+        <v>1018</v>
       </c>
       <c r="C315" t="s">
-        <v>19</v>
+        <v>59</v>
+      </c>
+      <c r="D315" t="s">
+        <v>155</v>
       </c>
       <c r="F315" t="s">
-        <v>1028</v>
+        <v>1019</v>
+      </c>
+      <c r="H315">
+        <v>7793</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>1029</v>
+        <v>1021</v>
       </c>
       <c r="B316" t="s">
-        <v>1030</v>
+        <v>1022</v>
       </c>
       <c r="C316" t="s">
-        <v>54</v>
+        <v>1023</v>
+      </c>
+      <c r="D316" t="s">
+        <v>762</v>
       </c>
       <c r="F316" t="s">
-        <v>1031</v>
+        <v>1024</v>
+      </c>
+      <c r="H316">
+        <v>5009</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>1406</v>
+        <v>1025</v>
       </c>
       <c r="B317" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="C317" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F317" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="B318" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="C318" t="s">
-        <v>639</v>
-      </c>
-      <c r="D318" t="s">
-        <v>685</v>
+        <v>54</v>
       </c>
       <c r="F318" t="s">
-        <v>1036</v>
-      </c>
-      <c r="I318">
-        <v>21908</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>1037</v>
+        <v>1405</v>
       </c>
       <c r="B319" t="s">
-        <v>1038</v>
+        <v>1031</v>
       </c>
       <c r="C319" t="s">
-        <v>151</v>
+        <v>20</v>
       </c>
       <c r="F319" t="s">
-        <v>1039</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>1040</v>
+        <v>1033</v>
       </c>
       <c r="B320" t="s">
-        <v>1041</v>
+        <v>1034</v>
       </c>
       <c r="C320" t="s">
-        <v>94</v>
+        <v>638</v>
       </c>
       <c r="D320" t="s">
-        <v>1042</v>
+        <v>684</v>
       </c>
       <c r="F320" t="s">
-        <v>1043</v>
-      </c>
-      <c r="H320">
-        <v>4894</v>
+        <v>1035</v>
+      </c>
+      <c r="I320">
+        <v>21908</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>1044</v>
+        <v>1036</v>
       </c>
       <c r="B321" t="s">
-        <v>1045</v>
+        <v>1037</v>
       </c>
       <c r="C321" t="s">
-        <v>248</v>
+        <v>151</v>
       </c>
       <c r="F321" t="s">
-        <v>1046</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>1047</v>
+        <v>1039</v>
       </c>
       <c r="B322" t="s">
-        <v>1048</v>
+        <v>1040</v>
       </c>
       <c r="C322" t="s">
-        <v>248</v>
+        <v>94</v>
+      </c>
+      <c r="D322" t="s">
+        <v>1041</v>
       </c>
       <c r="F322" t="s">
-        <v>1049</v>
+        <v>1042</v>
+      </c>
+      <c r="H322">
+        <v>4894</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>1050</v>
+        <v>1043</v>
       </c>
       <c r="B323" t="s">
-        <v>1051</v>
+        <v>1044</v>
       </c>
       <c r="C323" t="s">
-        <v>83</v>
+        <v>248</v>
       </c>
       <c r="F323" t="s">
-        <v>1052</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>1053</v>
+        <v>1046</v>
       </c>
       <c r="B324" t="s">
-        <v>1054</v>
+        <v>1047</v>
       </c>
       <c r="C324" t="s">
-        <v>103</v>
-      </c>
-      <c r="D324" t="s">
-        <v>25</v>
+        <v>248</v>
       </c>
       <c r="F324" t="s">
-        <v>1055</v>
-      </c>
-      <c r="G324" t="s">
-        <v>201</v>
-      </c>
-      <c r="I324">
-        <v>7885</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>1056</v>
+        <v>1049</v>
       </c>
       <c r="B325" t="s">
-        <v>1057</v>
+        <v>1050</v>
       </c>
       <c r="C325" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="F325" t="s">
-        <v>1058</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>1059</v>
+        <v>1052</v>
       </c>
       <c r="B326" t="s">
-        <v>1060</v>
+        <v>1053</v>
       </c>
       <c r="C326" t="s">
-        <v>6</v>
+        <v>103</v>
+      </c>
+      <c r="D326" t="s">
+        <v>25</v>
       </c>
       <c r="F326" t="s">
-        <v>1058</v>
+        <v>1054</v>
+      </c>
+      <c r="G326" t="s">
+        <v>201</v>
+      </c>
+      <c r="I326">
+        <v>7885</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
       <c r="B327" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
       <c r="C327" t="s">
-        <v>68</v>
-      </c>
-      <c r="D327" t="s">
-        <v>1063</v>
+        <v>54</v>
       </c>
       <c r="F327" t="s">
-        <v>1058</v>
-      </c>
-      <c r="H327">
-        <v>4389</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="B328" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
       <c r="C328" t="s">
-        <v>1066</v>
-      </c>
-      <c r="D328" t="s">
-        <v>1067</v>
+        <v>6</v>
       </c>
       <c r="F328" t="s">
-        <v>1068</v>
-      </c>
-      <c r="H328">
-        <v>4322</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>1069</v>
+        <v>1060</v>
       </c>
       <c r="B329" t="s">
-        <v>1070</v>
+        <v>1061</v>
       </c>
       <c r="C329" t="s">
-        <v>122</v>
+        <v>68</v>
+      </c>
+      <c r="D329" t="s">
+        <v>1062</v>
       </c>
       <c r="F329" t="s">
-        <v>1068</v>
+        <v>1057</v>
+      </c>
+      <c r="H329">
+        <v>4389</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>1071</v>
+        <v>1063</v>
       </c>
       <c r="B330" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
       <c r="C330" t="s">
-        <v>109</v>
+        <v>1065</v>
       </c>
       <c r="D330" t="s">
-        <v>127</v>
+        <v>1066</v>
       </c>
       <c r="F330" t="s">
-        <v>1073</v>
+        <v>1067</v>
+      </c>
+      <c r="H330">
+        <v>4322</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="B331" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="C331" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="F331" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="B332" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="C332" t="s">
-        <v>218</v>
+        <v>109</v>
       </c>
       <c r="D332" t="s">
-        <v>1066</v>
+        <v>127</v>
       </c>
       <c r="F332" t="s">
-        <v>1078</v>
-      </c>
-      <c r="H332">
-        <v>3596</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="B333" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="C333" t="s">
-        <v>322</v>
-      </c>
-      <c r="D333" t="s">
-        <v>205</v>
+        <v>109</v>
       </c>
       <c r="F333" t="s">
-        <v>1081</v>
-      </c>
-      <c r="H333">
-        <v>5504</v>
-      </c>
-      <c r="I333">
-        <v>35379</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="B334" t="s">
-        <v>1083</v>
+        <v>1076</v>
       </c>
       <c r="C334" t="s">
-        <v>447</v>
+        <v>218</v>
       </c>
       <c r="D334" t="s">
-        <v>83</v>
+        <v>1065</v>
       </c>
       <c r="F334" t="s">
-        <v>1084</v>
-      </c>
-      <c r="I334">
-        <v>9157</v>
+        <v>1077</v>
+      </c>
+      <c r="H334">
+        <v>3596</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="B335" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
       <c r="C335" t="s">
-        <v>1087</v>
+        <v>322</v>
       </c>
       <c r="D335" t="s">
-        <v>127</v>
+        <v>205</v>
       </c>
       <c r="F335" t="s">
-        <v>1084</v>
+        <v>1080</v>
+      </c>
+      <c r="H335">
+        <v>5504</v>
       </c>
       <c r="I335">
-        <v>4588</v>
+        <v>35379</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
       <c r="B336" t="s">
-        <v>1089</v>
+        <v>1082</v>
       </c>
       <c r="C336" t="s">
-        <v>2</v>
+        <v>447</v>
+      </c>
+      <c r="D336" t="s">
+        <v>83</v>
       </c>
       <c r="F336" t="s">
-        <v>1090</v>
+        <v>1083</v>
+      </c>
+      <c r="I336">
+        <v>9157</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>1091</v>
+        <v>1084</v>
       </c>
       <c r="B337" t="s">
-        <v>1092</v>
+        <v>1085</v>
       </c>
       <c r="C337" t="s">
-        <v>151</v>
+        <v>1086</v>
+      </c>
+      <c r="D337" t="s">
+        <v>127</v>
       </c>
       <c r="F337" t="s">
-        <v>1093</v>
+        <v>1083</v>
+      </c>
+      <c r="I337">
+        <v>4588</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>1094</v>
+        <v>1087</v>
       </c>
       <c r="B338" t="s">
-        <v>1095</v>
+        <v>1088</v>
       </c>
       <c r="C338" t="s">
-        <v>155</v>
-      </c>
-      <c r="D338" t="s">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="F338" t="s">
-        <v>1096</v>
-      </c>
-      <c r="H338">
-        <v>6212</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>1097</v>
+        <v>1431</v>
       </c>
       <c r="B339" t="s">
-        <v>1098</v>
+        <v>1438</v>
       </c>
       <c r="C339" t="s">
-        <v>247</v>
+        <v>34</v>
       </c>
       <c r="D339" t="s">
-        <v>59</v>
+        <v>46</v>
+      </c>
+      <c r="E339" t="s">
+        <v>109</v>
       </c>
       <c r="F339" t="s">
-        <v>1096</v>
-      </c>
-      <c r="I339">
-        <v>32143</v>
+        <v>689</v>
+      </c>
+      <c r="H339">
+        <v>8283</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>1099</v>
+        <v>1090</v>
       </c>
       <c r="B340" t="s">
-        <v>1100</v>
+        <v>1091</v>
       </c>
       <c r="C340" t="s">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c r="F340" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>1101</v>
+        <v>1093</v>
       </c>
       <c r="B341" t="s">
-        <v>1102</v>
+        <v>1094</v>
       </c>
       <c r="C341" t="s">
-        <v>1103</v>
+        <v>155</v>
       </c>
       <c r="D341" t="s">
-        <v>1104</v>
+        <v>63</v>
       </c>
       <c r="F341" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
       <c r="H341">
-        <v>8063</v>
+        <v>6212</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>1106</v>
+        <v>1096</v>
       </c>
       <c r="B342" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
       <c r="C342" t="s">
-        <v>1108</v>
+        <v>247</v>
       </c>
       <c r="D342" t="s">
-        <v>951</v>
+        <v>59</v>
       </c>
       <c r="F342" t="s">
-        <v>1105</v>
-      </c>
-      <c r="H342">
-        <v>8391</v>
+        <v>1095</v>
+      </c>
+      <c r="I342">
+        <v>32143</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>1109</v>
+        <v>1098</v>
       </c>
       <c r="B343" t="s">
-        <v>1110</v>
+        <v>1099</v>
       </c>
       <c r="C343" t="s">
-        <v>59</v>
-      </c>
-      <c r="D343" t="s">
-        <v>1111</v>
+        <v>19</v>
       </c>
       <c r="F343" t="s">
-        <v>1112</v>
-      </c>
-      <c r="I343">
-        <v>30850</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>1113</v>
+        <v>1100</v>
       </c>
       <c r="B344" t="s">
-        <v>1114</v>
+        <v>1101</v>
       </c>
       <c r="C344" t="s">
-        <v>2</v>
+        <v>1102</v>
+      </c>
+      <c r="D344" t="s">
+        <v>1103</v>
       </c>
       <c r="F344" t="s">
-        <v>1115</v>
+        <v>1104</v>
+      </c>
+      <c r="H344">
+        <v>8063</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>1116</v>
+        <v>1105</v>
       </c>
       <c r="B345" t="s">
-        <v>1117</v>
+        <v>1106</v>
       </c>
       <c r="C345" t="s">
-        <v>7</v>
+        <v>1107</v>
+      </c>
+      <c r="D345" t="s">
+        <v>950</v>
       </c>
       <c r="F345" t="s">
-        <v>1118</v>
+        <v>1104</v>
+      </c>
+      <c r="H345">
+        <v>8391</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="B346" t="s">
-        <v>1120</v>
+        <v>1109</v>
       </c>
       <c r="C346" t="s">
-        <v>763</v>
+        <v>59</v>
       </c>
       <c r="D346" t="s">
-        <v>19</v>
+        <v>1110</v>
       </c>
       <c r="F346" t="s">
-        <v>1121</v>
-      </c>
-      <c r="H346">
-        <v>3089</v>
+        <v>1111</v>
+      </c>
+      <c r="I346">
+        <v>30850</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>1122</v>
+        <v>1112</v>
       </c>
       <c r="B347" t="s">
-        <v>1123</v>
+        <v>1113</v>
       </c>
       <c r="C347" t="s">
-        <v>498</v>
+        <v>2</v>
       </c>
       <c r="F347" t="s">
-        <v>1124</v>
-      </c>
-      <c r="H347">
-        <v>3797</v>
-      </c>
-      <c r="I347">
-        <v>25283</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>1125</v>
+        <v>1115</v>
       </c>
       <c r="B348" t="s">
-        <v>1431</v>
+        <v>1116</v>
       </c>
       <c r="C348" t="s">
-        <v>1407</v>
-      </c>
-      <c r="D348" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="F348" t="s">
-        <v>1124</v>
-      </c>
-      <c r="H348">
-        <v>7969</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>1126</v>
+        <v>1118</v>
       </c>
       <c r="B349" t="s">
-        <v>1127</v>
+        <v>1119</v>
       </c>
       <c r="C349" t="s">
+        <v>762</v>
+      </c>
+      <c r="D349" t="s">
         <v>19</v>
       </c>
       <c r="F349" t="s">
-        <v>1128</v>
+        <v>1120</v>
+      </c>
+      <c r="H349">
+        <v>3089</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>1129</v>
+        <v>1121</v>
       </c>
       <c r="B350" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
       <c r="C350" t="s">
-        <v>248</v>
+        <v>498</v>
       </c>
       <c r="F350" t="s">
-        <v>1131</v>
+        <v>1123</v>
+      </c>
+      <c r="H350">
+        <v>3797</v>
+      </c>
+      <c r="I350">
+        <v>25283</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>1132</v>
+        <v>1124</v>
       </c>
       <c r="B351" t="s">
-        <v>1133</v>
+        <v>1430</v>
       </c>
       <c r="C351" t="s">
-        <v>155</v>
+        <v>1406</v>
       </c>
       <c r="D351" t="s">
-        <v>1134</v>
+        <v>20</v>
       </c>
       <c r="F351" t="s">
-        <v>1135</v>
-      </c>
-      <c r="I351">
-        <v>27285</v>
+        <v>1123</v>
+      </c>
+      <c r="H351">
+        <v>7969</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>1136</v>
+        <v>1125</v>
       </c>
       <c r="B352" t="s">
-        <v>1137</v>
+        <v>1126</v>
       </c>
       <c r="C352" t="s">
-        <v>415</v>
+        <v>19</v>
       </c>
       <c r="F352" t="s">
-        <v>1138</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>1139</v>
+        <v>1128</v>
       </c>
       <c r="B353" t="s">
-        <v>1140</v>
+        <v>1129</v>
       </c>
       <c r="C353" t="s">
-        <v>122</v>
+        <v>248</v>
       </c>
       <c r="F353" t="s">
-        <v>1141</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>1142</v>
+        <v>1131</v>
       </c>
       <c r="B354" t="s">
-        <v>1143</v>
+        <v>1132</v>
       </c>
       <c r="C354" t="s">
-        <v>35</v>
+        <v>155</v>
+      </c>
+      <c r="D354" t="s">
+        <v>1133</v>
       </c>
       <c r="F354" t="s">
-        <v>1144</v>
+        <v>1134</v>
+      </c>
+      <c r="I354">
+        <v>27285</v>
       </c>
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>1145</v>
+        <v>1135</v>
       </c>
       <c r="B355" t="s">
-        <v>1146</v>
+        <v>1136</v>
       </c>
       <c r="C355" t="s">
-        <v>113</v>
-      </c>
-      <c r="D355" t="s">
-        <v>1147</v>
+        <v>415</v>
       </c>
       <c r="F355" t="s">
-        <v>1148</v>
-      </c>
-      <c r="I355">
-        <v>21099</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>1149</v>
+        <v>1138</v>
       </c>
       <c r="B356" t="s">
-        <v>1150</v>
+        <v>1139</v>
       </c>
       <c r="C356" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="F356" t="s">
-        <v>1151</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>1152</v>
+        <v>1141</v>
       </c>
       <c r="B357" t="s">
-        <v>1153</v>
+        <v>1142</v>
       </c>
       <c r="C357" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="F357" t="s">
-        <v>1154</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>1155</v>
+        <v>1144</v>
       </c>
       <c r="B358" t="s">
-        <v>1156</v>
+        <v>1145</v>
       </c>
       <c r="C358" t="s">
-        <v>109</v>
+        <v>113</v>
+      </c>
+      <c r="D358" t="s">
+        <v>1146</v>
       </c>
       <c r="F358" t="s">
-        <v>1157</v>
+        <v>1147</v>
+      </c>
+      <c r="I358">
+        <v>21099</v>
       </c>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>1158</v>
+        <v>1148</v>
       </c>
       <c r="B359" t="s">
-        <v>1159</v>
+        <v>1149</v>
       </c>
       <c r="C359" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="F359" t="s">
-        <v>1160</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>1161</v>
+        <v>1151</v>
       </c>
       <c r="B360" t="s">
-        <v>1162</v>
+        <v>1152</v>
       </c>
       <c r="C360" t="s">
-        <v>1163</v>
-      </c>
-      <c r="D360" t="s">
-        <v>1164</v>
+        <v>7</v>
       </c>
       <c r="F360" t="s">
-        <v>1160</v>
-      </c>
-      <c r="H360">
-        <v>8279</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>1165</v>
+        <v>1154</v>
       </c>
       <c r="B361" t="s">
-        <v>1166</v>
+        <v>1155</v>
       </c>
       <c r="C361" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="F361" t="s">
-        <v>1167</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>1168</v>
+        <v>1157</v>
       </c>
       <c r="B362" t="s">
-        <v>1169</v>
+        <v>1158</v>
       </c>
       <c r="C362" t="s">
-        <v>248</v>
+        <v>19</v>
       </c>
       <c r="F362" t="s">
-        <v>1170</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>1171</v>
+        <v>1160</v>
       </c>
       <c r="B363" t="s">
-        <v>1172</v>
+        <v>1161</v>
       </c>
       <c r="C363" t="s">
-        <v>19</v>
+        <v>1162</v>
+      </c>
+      <c r="D363" t="s">
+        <v>1163</v>
       </c>
       <c r="F363" t="s">
-        <v>1173</v>
+        <v>1159</v>
+      </c>
+      <c r="H363">
+        <v>8279</v>
       </c>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>1174</v>
+        <v>1164</v>
       </c>
       <c r="B364" t="s">
-        <v>1175</v>
+        <v>1165</v>
       </c>
       <c r="C364" t="s">
-        <v>39</v>
-      </c>
-      <c r="D364" t="s">
-        <v>498</v>
+        <v>83</v>
       </c>
       <c r="F364" t="s">
-        <v>1173</v>
-      </c>
-      <c r="I364">
-        <v>22288</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>1176</v>
+        <v>1167</v>
       </c>
       <c r="B365" t="s">
-        <v>1177</v>
+        <v>1168</v>
       </c>
       <c r="C365" t="s">
-        <v>63</v>
-      </c>
-      <c r="D365" t="s">
-        <v>932</v>
+        <v>248</v>
       </c>
       <c r="F365" t="s">
-        <v>1178</v>
-      </c>
-      <c r="I365">
-        <v>19342</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>1179</v>
+        <v>1170</v>
       </c>
       <c r="B366" t="s">
-        <v>1180</v>
+        <v>1171</v>
       </c>
       <c r="C366" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F366" t="s">
-        <v>1181</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>1182</v>
+        <v>1173</v>
       </c>
       <c r="B367" t="s">
-        <v>1183</v>
+        <v>1174</v>
       </c>
       <c r="C367" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="D367" t="s">
-        <v>113</v>
+        <v>498</v>
       </c>
       <c r="F367" t="s">
-        <v>1184</v>
+        <v>1172</v>
       </c>
       <c r="I367">
-        <v>25289</v>
+        <v>22288</v>
       </c>
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>1185</v>
+        <v>1175</v>
       </c>
       <c r="B368" t="s">
-        <v>1186</v>
+        <v>1176</v>
       </c>
       <c r="C368" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="D368" t="s">
-        <v>35</v>
+        <v>931</v>
       </c>
       <c r="F368" t="s">
-        <v>1187</v>
+        <v>1177</v>
+      </c>
+      <c r="I368">
+        <v>19342</v>
       </c>
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>1408</v>
+        <v>1178</v>
       </c>
       <c r="B369" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="C369" t="s">
-        <v>20</v>
-      </c>
-      <c r="D369" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="F369" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>1188</v>
+        <v>1181</v>
       </c>
       <c r="B370" t="s">
-        <v>1189</v>
+        <v>1182</v>
       </c>
       <c r="C370" t="s">
-        <v>54</v>
+        <v>64</v>
+      </c>
+      <c r="D370" t="s">
+        <v>113</v>
       </c>
       <c r="F370" t="s">
-        <v>1187</v>
+        <v>1183</v>
+      </c>
+      <c r="I370">
+        <v>25289</v>
       </c>
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
       <c r="B371" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
       <c r="C371" t="s">
-        <v>383</v>
+        <v>20</v>
+      </c>
+      <c r="D371" t="s">
+        <v>35</v>
       </c>
       <c r="F371" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>1192</v>
+        <v>1407</v>
       </c>
       <c r="B372" t="s">
-        <v>1193</v>
+        <v>1185</v>
       </c>
       <c r="C372" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="D372" t="s">
-        <v>205</v>
+        <v>35</v>
       </c>
       <c r="F372" t="s">
-        <v>1187</v>
-      </c>
-      <c r="I372">
-        <v>74771</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>1194</v>
+        <v>1187</v>
       </c>
       <c r="B373" t="s">
-        <v>1195</v>
+        <v>1188</v>
       </c>
       <c r="C373" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="F373" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>1196</v>
+        <v>1189</v>
       </c>
       <c r="B374" t="s">
-        <v>1197</v>
+        <v>1190</v>
       </c>
       <c r="C374" t="s">
-        <v>104</v>
+        <v>383</v>
       </c>
       <c r="F374" t="s">
-        <v>1198</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="375" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>1199</v>
+        <v>1191</v>
       </c>
       <c r="B375" t="s">
-        <v>1200</v>
+        <v>1192</v>
       </c>
       <c r="C375" t="s">
-        <v>2</v>
+        <v>68</v>
+      </c>
+      <c r="D375" t="s">
+        <v>205</v>
       </c>
       <c r="F375" t="s">
-        <v>1201</v>
+        <v>1186</v>
+      </c>
+      <c r="I375">
+        <v>74771</v>
       </c>
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>1202</v>
+        <v>1193</v>
       </c>
       <c r="B376" t="s">
-        <v>1203</v>
+        <v>1194</v>
       </c>
       <c r="C376" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="F376" t="s">
-        <v>1204</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>1205</v>
+        <v>1195</v>
       </c>
       <c r="B377" t="s">
-        <v>1206</v>
+        <v>1196</v>
       </c>
       <c r="C377" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="F377" t="s">
-        <v>1207</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>1208</v>
+        <v>1198</v>
       </c>
       <c r="B378" t="s">
-        <v>1209</v>
+        <v>1199</v>
       </c>
       <c r="C378" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="F378" t="s">
-        <v>1210</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>1211</v>
+        <v>1201</v>
       </c>
       <c r="B379" t="s">
-        <v>1212</v>
+        <v>1202</v>
       </c>
       <c r="C379" t="s">
-        <v>109</v>
+        <v>2</v>
       </c>
       <c r="F379" t="s">
-        <v>1213</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>1214</v>
+        <v>1204</v>
       </c>
       <c r="B380" t="s">
-        <v>1215</v>
+        <v>1205</v>
       </c>
       <c r="C380" t="s">
-        <v>383</v>
+        <v>127</v>
       </c>
       <c r="F380" t="s">
-        <v>1216</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>1217</v>
+        <v>1207</v>
       </c>
       <c r="B381" t="s">
-        <v>1218</v>
+        <v>1208</v>
       </c>
       <c r="C381" t="s">
-        <v>638</v>
-      </c>
-      <c r="D381" t="s">
-        <v>1219</v>
+        <v>19</v>
       </c>
       <c r="F381" t="s">
-        <v>1220</v>
-      </c>
-      <c r="H381">
-        <v>3650</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>1221</v>
+        <v>1210</v>
       </c>
       <c r="B382" t="s">
-        <v>1222</v>
+        <v>1211</v>
       </c>
       <c r="C382" t="s">
-        <v>1223</v>
-      </c>
-      <c r="D382" t="s">
-        <v>423</v>
+        <v>109</v>
       </c>
       <c r="F382" t="s">
-        <v>1224</v>
-      </c>
-      <c r="H382">
-        <v>7294</v>
-      </c>
-      <c r="I382">
-        <v>60260</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>1225</v>
+        <v>1213</v>
       </c>
       <c r="B383" t="s">
-        <v>1226</v>
+        <v>1214</v>
       </c>
       <c r="C383" t="s">
-        <v>2</v>
+        <v>383</v>
       </c>
       <c r="F383" t="s">
-        <v>1227</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>1228</v>
+        <v>1216</v>
       </c>
       <c r="B384" t="s">
-        <v>1229</v>
+        <v>1217</v>
       </c>
       <c r="C384" t="s">
-        <v>589</v>
+        <v>637</v>
       </c>
       <c r="D384" t="s">
-        <v>1230</v>
+        <v>1218</v>
       </c>
       <c r="F384" t="s">
-        <v>1231</v>
+        <v>1219</v>
       </c>
       <c r="H384">
-        <v>6734</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>1234</v>
+        <v>1220</v>
       </c>
       <c r="B385" t="s">
-        <v>1232</v>
+        <v>1221</v>
       </c>
       <c r="C385" t="s">
-        <v>94</v>
+        <v>1222</v>
       </c>
       <c r="D385" t="s">
-        <v>127</v>
+        <v>423</v>
       </c>
       <c r="F385" t="s">
-        <v>1233</v>
+        <v>1223</v>
       </c>
       <c r="H385">
-        <v>2583</v>
+        <v>7294</v>
+      </c>
+      <c r="I385">
+        <v>60260</v>
       </c>
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>1235</v>
+        <v>1224</v>
       </c>
       <c r="B386" t="s">
-        <v>1236</v>
+        <v>1225</v>
       </c>
       <c r="C386" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F386" t="s">
-        <v>1237</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>1238</v>
+        <v>1227</v>
       </c>
       <c r="B387" t="s">
-        <v>1239</v>
+        <v>1228</v>
       </c>
       <c r="C387" t="s">
-        <v>1240</v>
+        <v>588</v>
       </c>
       <c r="D387" t="s">
-        <v>54</v>
+        <v>1229</v>
       </c>
       <c r="F387" t="s">
-        <v>1241</v>
-      </c>
-      <c r="I387">
-        <v>14369</v>
+        <v>1230</v>
+      </c>
+      <c r="H387">
+        <v>6734</v>
       </c>
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>1242</v>
+        <v>1233</v>
       </c>
       <c r="B388" t="s">
-        <v>1243</v>
+        <v>1231</v>
       </c>
       <c r="C388" t="s">
-        <v>2</v>
+        <v>94</v>
+      </c>
+      <c r="D388" t="s">
+        <v>127</v>
       </c>
       <c r="F388" t="s">
-        <v>1244</v>
+        <v>1232</v>
+      </c>
+      <c r="H388">
+        <v>2583</v>
       </c>
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>1245</v>
+        <v>1234</v>
       </c>
       <c r="B389" t="s">
-        <v>1246</v>
+        <v>1235</v>
       </c>
       <c r="C389" t="s">
-        <v>151</v>
+        <v>6</v>
       </c>
       <c r="F389" t="s">
-        <v>1247</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>1248</v>
+        <v>1237</v>
       </c>
       <c r="B390" t="s">
-        <v>1249</v>
+        <v>1238</v>
       </c>
       <c r="C390" t="s">
-        <v>215</v>
+        <v>1239</v>
       </c>
       <c r="D390" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="F390" t="s">
-        <v>1250</v>
+        <v>1240</v>
       </c>
       <c r="I390">
-        <v>15373</v>
+        <v>14369</v>
       </c>
     </row>
     <row r="391" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>1251</v>
+        <v>1241</v>
       </c>
       <c r="B391" t="s">
-        <v>1252</v>
+        <v>1242</v>
       </c>
       <c r="C391" t="s">
-        <v>151</v>
+        <v>2</v>
       </c>
       <c r="F391" t="s">
-        <v>1253</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>1254</v>
+        <v>1244</v>
       </c>
       <c r="B392" t="s">
-        <v>1255</v>
+        <v>1245</v>
       </c>
       <c r="C392" t="s">
-        <v>2</v>
+        <v>151</v>
       </c>
       <c r="F392" t="s">
-        <v>1256</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="393" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>1257</v>
+        <v>1247</v>
       </c>
       <c r="B393" t="s">
-        <v>1258</v>
+        <v>1248</v>
       </c>
       <c r="C393" t="s">
-        <v>54</v>
+        <v>215</v>
+      </c>
+      <c r="D393" t="s">
+        <v>19</v>
       </c>
       <c r="F393" t="s">
-        <v>1259</v>
+        <v>1249</v>
+      </c>
+      <c r="I393">
+        <v>15373</v>
       </c>
     </row>
     <row r="394" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>1260</v>
+        <v>1250</v>
       </c>
       <c r="B394" t="s">
-        <v>1261</v>
+        <v>1251</v>
       </c>
       <c r="C394" t="s">
-        <v>7</v>
+        <v>151</v>
       </c>
       <c r="F394" t="s">
-        <v>1262</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="395" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>1263</v>
+        <v>1253</v>
       </c>
       <c r="B395" t="s">
-        <v>1264</v>
+        <v>1254</v>
       </c>
       <c r="C395" t="s">
-        <v>1111</v>
-      </c>
-      <c r="D395" t="s">
-        <v>127</v>
+        <v>2</v>
       </c>
       <c r="F395" t="s">
-        <v>1262</v>
-      </c>
-      <c r="I395">
-        <v>13184</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>1265</v>
+        <v>1256</v>
       </c>
       <c r="B396" t="s">
-        <v>1266</v>
+        <v>1257</v>
       </c>
       <c r="C396" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="F396" t="s">
-        <v>1267</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>1268</v>
+        <v>1259</v>
       </c>
       <c r="B397" t="s">
-        <v>1269</v>
+        <v>1260</v>
       </c>
       <c r="C397" t="s">
-        <v>1270</v>
+        <v>7</v>
       </c>
       <c r="F397" t="s">
-        <v>1271</v>
-      </c>
-      <c r="I397">
-        <v>15504</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B398" t="s">
-        <v>1273</v>
+        <v>1263</v>
       </c>
       <c r="C398" t="s">
-        <v>415</v>
+        <v>1110</v>
+      </c>
+      <c r="D398" t="s">
+        <v>127</v>
       </c>
       <c r="F398" t="s">
-        <v>1274</v>
+        <v>1261</v>
+      </c>
+      <c r="I398">
+        <v>13184</v>
       </c>
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>1275</v>
+        <v>1264</v>
       </c>
       <c r="B399" t="s">
-        <v>1276</v>
+        <v>1265</v>
       </c>
       <c r="C399" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="F399" t="s">
-        <v>1277</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>1278</v>
+        <v>1267</v>
       </c>
       <c r="B400" t="s">
-        <v>1279</v>
+        <v>1268</v>
       </c>
       <c r="C400" t="s">
-        <v>54</v>
+        <v>1269</v>
       </c>
       <c r="F400" t="s">
-        <v>1277</v>
+        <v>1270</v>
+      </c>
+      <c r="I400">
+        <v>15504</v>
       </c>
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>1280</v>
+        <v>1271</v>
       </c>
       <c r="B401" t="s">
-        <v>1281</v>
+        <v>1272</v>
       </c>
       <c r="C401" t="s">
-        <v>533</v>
-      </c>
-      <c r="D401" t="s">
-        <v>1282</v>
+        <v>415</v>
       </c>
       <c r="F401" t="s">
-        <v>1277</v>
-      </c>
-      <c r="H401">
-        <v>7925</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>1283</v>
+        <v>1274</v>
       </c>
       <c r="B402" t="s">
-        <v>1284</v>
+        <v>1275</v>
       </c>
       <c r="C402" t="s">
-        <v>1285</v>
-      </c>
-      <c r="D402" t="s">
-        <v>447</v>
+        <v>7</v>
       </c>
       <c r="F402" t="s">
-        <v>1286</v>
-      </c>
-      <c r="H402">
-        <v>4393</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>1287</v>
+        <v>1277</v>
       </c>
       <c r="B403" t="s">
-        <v>1288</v>
+        <v>1278</v>
       </c>
       <c r="C403" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F403" t="s">
-        <v>1289</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>1290</v>
+        <v>1279</v>
       </c>
       <c r="B404" t="s">
-        <v>1291</v>
+        <v>1280</v>
       </c>
       <c r="C404" t="s">
-        <v>808</v>
+        <v>533</v>
       </c>
       <c r="D404" t="s">
-        <v>1292</v>
+        <v>1281</v>
       </c>
       <c r="F404" t="s">
-        <v>589</v>
-      </c>
-      <c r="I404">
-        <v>35554</v>
+        <v>1276</v>
+      </c>
+      <c r="H404">
+        <v>7925</v>
       </c>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>1293</v>
+        <v>1282</v>
       </c>
       <c r="B405" t="s">
-        <v>1294</v>
+        <v>1283</v>
       </c>
       <c r="C405" t="s">
-        <v>109</v>
+        <v>1284</v>
+      </c>
+      <c r="D405" t="s">
+        <v>447</v>
       </c>
       <c r="F405" t="s">
-        <v>589</v>
+        <v>1285</v>
+      </c>
+      <c r="H405">
+        <v>4393</v>
       </c>
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>1295</v>
+        <v>1286</v>
       </c>
       <c r="B406" t="s">
-        <v>1296</v>
+        <v>1287</v>
       </c>
       <c r="C406" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F406" t="s">
-        <v>1297</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>1298</v>
+        <v>1289</v>
       </c>
       <c r="B407" t="s">
-        <v>1299</v>
+        <v>1290</v>
       </c>
       <c r="C407" t="s">
-        <v>83</v>
+        <v>807</v>
+      </c>
+      <c r="D407" t="s">
+        <v>1291</v>
       </c>
       <c r="F407" t="s">
-        <v>1300</v>
+        <v>588</v>
+      </c>
+      <c r="I407">
+        <v>35554</v>
       </c>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>1301</v>
+        <v>1292</v>
       </c>
       <c r="B408" t="s">
-        <v>1302</v>
+        <v>1293</v>
       </c>
       <c r="C408" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="F408" t="s">
-        <v>1303</v>
+        <v>588</v>
       </c>
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>1304</v>
+        <v>1294</v>
       </c>
       <c r="B409" t="s">
-        <v>1305</v>
+        <v>1295</v>
       </c>
       <c r="C409" t="s">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="F409" t="s">
-        <v>1306</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>1307</v>
+        <v>1297</v>
       </c>
       <c r="B410" t="s">
-        <v>1308</v>
+        <v>1298</v>
       </c>
       <c r="C410" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="F410" t="s">
-        <v>1309</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>1310</v>
+        <v>1300</v>
       </c>
       <c r="B411" t="s">
-        <v>1411</v>
+        <v>1301</v>
       </c>
       <c r="C411" t="s">
-        <v>1410</v>
-      </c>
-      <c r="D411" t="s">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="F411" t="s">
-        <v>1311</v>
-      </c>
-      <c r="H411">
-        <v>8683</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>1312</v>
+        <v>1303</v>
       </c>
       <c r="B412" t="s">
-        <v>1313</v>
+        <v>1304</v>
       </c>
       <c r="C412" t="s">
-        <v>94</v>
-      </c>
-      <c r="D412" t="s">
-        <v>1042</v>
+        <v>122</v>
       </c>
       <c r="F412" t="s">
-        <v>1314</v>
-      </c>
-      <c r="I412">
-        <v>16760</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>1315</v>
+        <v>1306</v>
       </c>
       <c r="B413" t="s">
-        <v>1316</v>
+        <v>1307</v>
       </c>
       <c r="C413" t="s">
-        <v>127</v>
+        <v>19</v>
       </c>
       <c r="F413" t="s">
-        <v>1317</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>1318</v>
+        <v>1309</v>
       </c>
       <c r="B414" t="s">
-        <v>1319</v>
+        <v>1410</v>
       </c>
       <c r="C414" t="s">
-        <v>122</v>
+        <v>1409</v>
+      </c>
+      <c r="D414" t="s">
+        <v>46</v>
       </c>
       <c r="F414" t="s">
-        <v>1320</v>
+        <v>1310</v>
+      </c>
+      <c r="H414">
+        <v>8683</v>
       </c>
     </row>
     <row r="415" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>1321</v>
+        <v>1311</v>
       </c>
       <c r="B415" t="s">
-        <v>1322</v>
+        <v>1312</v>
       </c>
       <c r="C415" t="s">
-        <v>1323</v>
+        <v>94</v>
       </c>
       <c r="D415" t="s">
-        <v>498</v>
+        <v>1041</v>
       </c>
       <c r="F415" t="s">
-        <v>1324</v>
+        <v>1313</v>
       </c>
       <c r="I415">
-        <v>19264</v>
+        <v>16760</v>
       </c>
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>1325</v>
+        <v>1314</v>
       </c>
       <c r="B416" t="s">
-        <v>1326</v>
+        <v>1315</v>
       </c>
       <c r="C416" t="s">
-        <v>7</v>
+        <v>127</v>
       </c>
       <c r="F416" t="s">
-        <v>1327</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="417" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>1328</v>
+        <v>1317</v>
       </c>
       <c r="B417" t="s">
-        <v>1329</v>
+        <v>1318</v>
       </c>
       <c r="C417" t="s">
-        <v>19</v>
+        <v>122</v>
       </c>
       <c r="F417" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="418" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>1331</v>
+        <v>1320</v>
       </c>
       <c r="B418" t="s">
-        <v>1332</v>
+        <v>1321</v>
       </c>
       <c r="C418" t="s">
-        <v>122</v>
+        <v>1322</v>
+      </c>
+      <c r="D418" t="s">
+        <v>498</v>
       </c>
       <c r="F418" t="s">
-        <v>1111</v>
+        <v>1323</v>
+      </c>
+      <c r="I418">
+        <v>19264</v>
       </c>
     </row>
     <row r="419" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>1333</v>
+        <v>1324</v>
       </c>
       <c r="B419" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
       <c r="C419" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F419" t="s">
-        <v>1111</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="420" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>1335</v>
+        <v>1327</v>
       </c>
       <c r="B420" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
       <c r="C420" t="s">
         <v>19</v>
       </c>
       <c r="F420" t="s">
-        <v>1337</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="421" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>1338</v>
+        <v>1330</v>
       </c>
       <c r="B421" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
       <c r="C421" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="F421" t="s">
-        <v>1340</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="422" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>1341</v>
+        <v>1332</v>
       </c>
       <c r="B422" t="s">
-        <v>1342</v>
+        <v>1333</v>
       </c>
       <c r="C422" t="s">
-        <v>151</v>
+        <v>2</v>
       </c>
       <c r="F422" t="s">
-        <v>1343</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="423" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>1344</v>
+        <v>1334</v>
       </c>
       <c r="B423" t="s">
-        <v>1345</v>
+        <v>1335</v>
       </c>
       <c r="C423" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F423" t="s">
-        <v>1346</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="424" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>1347</v>
+        <v>1337</v>
       </c>
       <c r="B424" t="s">
-        <v>1348</v>
+        <v>1338</v>
       </c>
       <c r="C424" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F424" t="s">
-        <v>1349</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="425" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>1350</v>
+        <v>1340</v>
       </c>
       <c r="B425" t="s">
-        <v>1351</v>
+        <v>1341</v>
       </c>
       <c r="C425" t="s">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c r="F425" t="s">
-        <v>1352</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="426" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>1353</v>
+        <v>1343</v>
       </c>
       <c r="B426" t="s">
-        <v>1354</v>
+        <v>1344</v>
       </c>
       <c r="C426" t="s">
-        <v>1355</v>
-      </c>
-      <c r="D426" t="s">
-        <v>127</v>
+        <v>20</v>
       </c>
       <c r="F426" t="s">
-        <v>1356</v>
-      </c>
-      <c r="H426">
-        <v>2910</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="427" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>1357</v>
+        <v>1346</v>
       </c>
       <c r="B427" t="s">
-        <v>1358</v>
+        <v>1347</v>
       </c>
       <c r="C427" t="s">
-        <v>7</v>
+        <v>104</v>
       </c>
       <c r="F427" t="s">
-        <v>1359</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="428" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>1360</v>
+        <v>1349</v>
       </c>
       <c r="B428" t="s">
-        <v>1361</v>
+        <v>1350</v>
       </c>
       <c r="C428" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F428" t="s">
-        <v>1362</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="429" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>1363</v>
+        <v>1352</v>
       </c>
       <c r="B429" t="s">
-        <v>1364</v>
+        <v>1353</v>
       </c>
       <c r="C429" t="s">
-        <v>54</v>
+        <v>1354</v>
+      </c>
+      <c r="D429" t="s">
+        <v>127</v>
       </c>
       <c r="F429" t="s">
-        <v>1365</v>
+        <v>1355</v>
+      </c>
+      <c r="H429">
+        <v>2910</v>
       </c>
     </row>
     <row r="430" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>1366</v>
+        <v>1356</v>
       </c>
       <c r="B430" t="s">
-        <v>1367</v>
+        <v>1357</v>
       </c>
       <c r="C430" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F430" t="s">
-        <v>1368</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="431" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>1369</v>
+        <v>1359</v>
       </c>
       <c r="B431" t="s">
-        <v>1370</v>
+        <v>1360</v>
       </c>
       <c r="C431" t="s">
-        <v>68</v>
-      </c>
-      <c r="D431" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
       <c r="F431" t="s">
-        <v>1371</v>
-      </c>
-      <c r="I431">
-        <v>12650</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="432" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>1372</v>
+        <v>1362</v>
       </c>
       <c r="B432" t="s">
-        <v>1373</v>
+        <v>1363</v>
       </c>
       <c r="C432" t="s">
-        <v>151</v>
+        <v>54</v>
       </c>
       <c r="F432" t="s">
-        <v>1374</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="433" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>1375</v>
+        <v>1365</v>
       </c>
       <c r="B433" t="s">
-        <v>1376</v>
+        <v>1366</v>
       </c>
       <c r="C433" t="s">
-        <v>113</v>
-      </c>
-      <c r="D433" t="s">
         <v>2</v>
       </c>
       <c r="F433" t="s">
-        <v>1374</v>
-      </c>
-      <c r="I433">
-        <v>9878</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="434" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>1377</v>
+        <v>1368</v>
       </c>
       <c r="B434" t="s">
-        <v>1378</v>
+        <v>1369</v>
       </c>
       <c r="C434" t="s">
+        <v>68</v>
+      </c>
+      <c r="D434" t="s">
         <v>122</v>
       </c>
       <c r="F434" t="s">
-        <v>1379</v>
+        <v>1370</v>
+      </c>
+      <c r="I434">
+        <v>12650</v>
       </c>
     </row>
     <row r="435" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>1380</v>
+        <v>1371</v>
       </c>
       <c r="B435" t="s">
-        <v>1381</v>
+        <v>1372</v>
       </c>
       <c r="C435" t="s">
-        <v>215</v>
-      </c>
-      <c r="D435" t="s">
-        <v>383</v>
+        <v>151</v>
       </c>
       <c r="F435" t="s">
-        <v>1382</v>
-      </c>
-      <c r="I435">
-        <v>15567</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="436" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>1383</v>
+        <v>1374</v>
       </c>
       <c r="B436" t="s">
-        <v>1384</v>
+        <v>1375</v>
       </c>
       <c r="C436" t="s">
-        <v>20</v>
+        <v>113</v>
+      </c>
+      <c r="D436" t="s">
+        <v>2</v>
       </c>
       <c r="F436" t="s">
-        <v>1385</v>
+        <v>1373</v>
+      </c>
+      <c r="I436">
+        <v>9878</v>
       </c>
     </row>
     <row r="437" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>1386</v>
+        <v>1376</v>
       </c>
       <c r="B437" t="s">
-        <v>1387</v>
+        <v>1377</v>
       </c>
       <c r="C437" t="s">
-        <v>19</v>
+        <v>122</v>
       </c>
       <c r="F437" t="s">
-        <v>1385</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="438" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>1390</v>
+        <v>1379</v>
       </c>
       <c r="B438" t="s">
-        <v>1388</v>
+        <v>1380</v>
       </c>
       <c r="C438" t="s">
-        <v>638</v>
+        <v>215</v>
       </c>
       <c r="D438" t="s">
-        <v>95</v>
+        <v>383</v>
       </c>
       <c r="F438" t="s">
-        <v>1389</v>
-      </c>
-      <c r="H438">
-        <v>4851</v>
+        <v>1381</v>
+      </c>
+      <c r="I438">
+        <v>15567</v>
       </c>
     </row>
     <row r="439" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>1391</v>
+        <v>1382</v>
       </c>
       <c r="B439" t="s">
-        <v>1392</v>
+        <v>1383</v>
       </c>
       <c r="C439" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="F439" t="s">
-        <v>1393</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="440" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>1394</v>
+        <v>1385</v>
       </c>
       <c r="B440" t="s">
-        <v>1395</v>
+        <v>1386</v>
       </c>
       <c r="C440" t="s">
-        <v>447</v>
-      </c>
-      <c r="D440" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F440" t="s">
-        <v>1396</v>
-      </c>
-      <c r="I440">
-        <v>10658</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="441" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>1397</v>
+        <v>1389</v>
       </c>
       <c r="B441" t="s">
-        <v>1398</v>
+        <v>1387</v>
       </c>
       <c r="C441" t="s">
-        <v>248</v>
+        <v>637</v>
+      </c>
+      <c r="D441" t="s">
+        <v>95</v>
       </c>
       <c r="F441" t="s">
-        <v>1396</v>
+        <v>1388</v>
+      </c>
+      <c r="H441">
+        <v>4851</v>
       </c>
     </row>
     <row r="442" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B442" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C442" t="s">
+        <v>46</v>
+      </c>
+      <c r="F442" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B443" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C443" t="s">
+        <v>447</v>
+      </c>
+      <c r="D443" t="s">
+        <v>2</v>
+      </c>
+      <c r="F443" t="s">
+        <v>1395</v>
+      </c>
+      <c r="I443">
+        <v>10658</v>
+      </c>
+    </row>
+    <row r="444" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B444" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C444" t="s">
+        <v>248</v>
+      </c>
+      <c r="F444" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="445" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B445" t="s">
         <v>1399</v>
       </c>
-      <c r="B442" t="s">
-        <v>1400</v>
-      </c>
-      <c r="C442" t="s">
-        <v>1096</v>
-      </c>
-      <c r="F442" t="s">
-        <v>1396</v>
-      </c>
-      <c r="H442">
+      <c r="C445" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F445" t="s">
+        <v>1395</v>
+      </c>
+      <c r="H445">
         <v>9088</v>
       </c>
-      <c r="I442">
+      <c r="I445">
         <v>67604</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:J491">
-    <sortCondition ref="F2:F491"/>
-    <sortCondition ref="C2:C491"/>
+  <sortState ref="A2:J494">
+    <sortCondition ref="F2:F494"/>
+    <sortCondition ref="C2:C494"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/surveyor.xlsx
+++ b/data/surveyor.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Python\hummaps-admin\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9ADFC85-A40B-4470-B5F7-E0DDE7AEC3A8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC77555-BF04-42AC-8F59-D608BAD0BC3A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22590" windowHeight="10185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1976" uniqueCount="1443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="1443">
   <si>
     <t>R. AANRUD</t>
   </si>
@@ -3409,9 +3409,6 @@
     <t>P. SCHMOOK</t>
   </si>
   <si>
-    <t>P SCHMOOK</t>
-  </si>
-  <si>
     <t>SCHMOOK</t>
   </si>
   <si>
@@ -4349,6 +4346,9 @@
   </si>
   <si>
     <t>QUINCY</t>
+  </si>
+  <si>
+    <t>PAUL M SCHMOOK</t>
   </si>
 </sst>
 </file>
@@ -5191,8 +5191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I445"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A105" sqref="A105"/>
+    <sheetView tabSelected="1" topLeftCell="A340" workbookViewId="0">
+      <selection activeCell="A353" sqref="A353"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5210,31 +5210,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B1" t="s">
         <v>1416</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1417</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1418</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1419</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>1420</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>1421</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>1422</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>1423</v>
-      </c>
-      <c r="I1" t="s">
-        <v>1424</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -5794,7 +5794,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B32" t="s">
         <v>125</v>
@@ -6170,19 +6170,19 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B52" t="s">
         <v>1411</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>1412</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>1413</v>
       </c>
-      <c r="D52" t="s">
+      <c r="F52" t="s">
         <v>1414</v>
-      </c>
-      <c r="F52" t="s">
-        <v>1415</v>
       </c>
       <c r="H52">
         <v>9339</v>
@@ -6861,7 +6861,7 @@
         <v>335</v>
       </c>
       <c r="B93" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="C93" t="s">
         <v>592</v>
@@ -6971,7 +6971,7 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="B100" t="s">
         <v>355</v>
@@ -7047,19 +7047,19 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="B105" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="C105" t="s">
         <v>63</v>
       </c>
       <c r="D105" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="F105" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="G105" t="s">
         <v>201</v>
@@ -7357,7 +7357,7 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="B125" t="s">
         <v>433</v>
@@ -7385,7 +7385,7 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="B127" t="s">
         <v>438</v>
@@ -7399,7 +7399,7 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="B128" t="s">
         <v>440</v>
@@ -7427,19 +7427,19 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C130" t="s">
         <v>1425</v>
-      </c>
-      <c r="B130" t="s">
-        <v>1428</v>
-      </c>
-      <c r="C130" t="s">
-        <v>1426</v>
       </c>
       <c r="D130" t="s">
         <v>439</v>
       </c>
       <c r="F130" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="G130" t="s">
         <v>201</v>
@@ -8070,7 +8070,7 @@
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="B168" t="s">
         <v>566</v>
@@ -8118,13 +8118,13 @@
         <v>574</v>
       </c>
       <c r="B171" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="C171" t="s">
         <v>807</v>
       </c>
       <c r="D171" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="F171" t="s">
         <v>575</v>
@@ -8443,19 +8443,19 @@
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B191" t="s">
         <v>1432</v>
-      </c>
-      <c r="B191" t="s">
-        <v>1433</v>
       </c>
       <c r="C191" t="s">
         <v>890</v>
       </c>
       <c r="D191" t="s">
+        <v>1433</v>
+      </c>
+      <c r="F191" t="s">
         <v>1434</v>
-      </c>
-      <c r="F191" t="s">
-        <v>1435</v>
       </c>
       <c r="H191">
         <v>7366</v>
@@ -10514,7 +10514,7 @@
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="B319" t="s">
         <v>1031</v>
@@ -10857,10 +10857,10 @@
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="B339" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="C339" t="s">
         <v>34</v>
@@ -11079,10 +11079,10 @@
         <v>1124</v>
       </c>
       <c r="B351" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="C351" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="D351" t="s">
         <v>20</v>
@@ -11113,30 +11113,33 @@
         <v>1128</v>
       </c>
       <c r="B353" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C353" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D353" t="s">
+        <v>83</v>
+      </c>
+      <c r="F353" t="s">
         <v>1129</v>
-      </c>
-      <c r="C353" t="s">
-        <v>248</v>
-      </c>
-      <c r="F353" t="s">
-        <v>1130</v>
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B354" t="s">
         <v>1131</v>
-      </c>
-      <c r="B354" t="s">
-        <v>1132</v>
       </c>
       <c r="C354" t="s">
         <v>155</v>
       </c>
       <c r="D354" t="s">
+        <v>1132</v>
+      </c>
+      <c r="F354" t="s">
         <v>1133</v>
-      </c>
-      <c r="F354" t="s">
-        <v>1134</v>
       </c>
       <c r="I354">
         <v>27285</v>
@@ -11144,61 +11147,61 @@
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B355" t="s">
         <v>1135</v>
-      </c>
-      <c r="B355" t="s">
-        <v>1136</v>
       </c>
       <c r="C355" t="s">
         <v>415</v>
       </c>
       <c r="F355" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B356" t="s">
         <v>1138</v>
-      </c>
-      <c r="B356" t="s">
-        <v>1139</v>
       </c>
       <c r="C356" t="s">
         <v>122</v>
       </c>
       <c r="F356" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B357" t="s">
         <v>1141</v>
-      </c>
-      <c r="B357" t="s">
-        <v>1142</v>
       </c>
       <c r="C357" t="s">
         <v>35</v>
       </c>
       <c r="F357" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B358" t="s">
         <v>1144</v>
-      </c>
-      <c r="B358" t="s">
-        <v>1145</v>
       </c>
       <c r="C358" t="s">
         <v>113</v>
       </c>
       <c r="D358" t="s">
+        <v>1145</v>
+      </c>
+      <c r="F358" t="s">
         <v>1146</v>
-      </c>
-      <c r="F358" t="s">
-        <v>1147</v>
       </c>
       <c r="I358">
         <v>21099</v>
@@ -11206,75 +11209,75 @@
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B359" t="s">
         <v>1148</v>
-      </c>
-      <c r="B359" t="s">
-        <v>1149</v>
       </c>
       <c r="C359" t="s">
         <v>83</v>
       </c>
       <c r="F359" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B360" t="s">
         <v>1151</v>
-      </c>
-      <c r="B360" t="s">
-        <v>1152</v>
       </c>
       <c r="C360" t="s">
         <v>7</v>
       </c>
       <c r="F360" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B361" t="s">
         <v>1154</v>
-      </c>
-      <c r="B361" t="s">
-        <v>1155</v>
       </c>
       <c r="C361" t="s">
         <v>109</v>
       </c>
       <c r="F361" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B362" t="s">
         <v>1157</v>
-      </c>
-      <c r="B362" t="s">
-        <v>1158</v>
       </c>
       <c r="C362" t="s">
         <v>19</v>
       </c>
       <c r="F362" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B363" t="s">
         <v>1160</v>
       </c>
-      <c r="B363" t="s">
+      <c r="C363" t="s">
         <v>1161</v>
       </c>
-      <c r="C363" t="s">
+      <c r="D363" t="s">
         <v>1162</v>
       </c>
-      <c r="D363" t="s">
-        <v>1163</v>
-      </c>
       <c r="F363" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="H363">
         <v>8279</v>
@@ -11282,52 +11285,52 @@
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B364" t="s">
         <v>1164</v>
-      </c>
-      <c r="B364" t="s">
-        <v>1165</v>
       </c>
       <c r="C364" t="s">
         <v>83</v>
       </c>
       <c r="F364" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B365" t="s">
         <v>1167</v>
-      </c>
-      <c r="B365" t="s">
-        <v>1168</v>
       </c>
       <c r="C365" t="s">
         <v>248</v>
       </c>
       <c r="F365" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B366" t="s">
         <v>1170</v>
-      </c>
-      <c r="B366" t="s">
-        <v>1171</v>
       </c>
       <c r="C366" t="s">
         <v>19</v>
       </c>
       <c r="F366" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B367" t="s">
         <v>1173</v>
-      </c>
-      <c r="B367" t="s">
-        <v>1174</v>
       </c>
       <c r="C367" t="s">
         <v>39</v>
@@ -11336,7 +11339,7 @@
         <v>498</v>
       </c>
       <c r="F367" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="I367">
         <v>22288</v>
@@ -11344,10 +11347,10 @@
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B368" t="s">
         <v>1175</v>
-      </c>
-      <c r="B368" t="s">
-        <v>1176</v>
       </c>
       <c r="C368" t="s">
         <v>63</v>
@@ -11356,7 +11359,7 @@
         <v>931</v>
       </c>
       <c r="F368" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I368">
         <v>19342</v>
@@ -11364,24 +11367,24 @@
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B369" t="s">
         <v>1178</v>
-      </c>
-      <c r="B369" t="s">
-        <v>1179</v>
       </c>
       <c r="C369" t="s">
         <v>7</v>
       </c>
       <c r="F369" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B370" t="s">
         <v>1181</v>
-      </c>
-      <c r="B370" t="s">
-        <v>1182</v>
       </c>
       <c r="C370" t="s">
         <v>64</v>
@@ -11390,7 +11393,7 @@
         <v>113</v>
       </c>
       <c r="F370" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="I370">
         <v>25289</v>
@@ -11398,10 +11401,10 @@
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B371" t="s">
         <v>1184</v>
-      </c>
-      <c r="B371" t="s">
-        <v>1185</v>
       </c>
       <c r="C371" t="s">
         <v>20</v>
@@ -11410,15 +11413,15 @@
         <v>35</v>
       </c>
       <c r="F371" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B372" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C372" t="s">
         <v>20</v>
@@ -11427,43 +11430,43 @@
         <v>35</v>
       </c>
       <c r="F372" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B373" t="s">
         <v>1187</v>
-      </c>
-      <c r="B373" t="s">
-        <v>1188</v>
       </c>
       <c r="C373" t="s">
         <v>54</v>
       </c>
       <c r="F373" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B374" t="s">
         <v>1189</v>
-      </c>
-      <c r="B374" t="s">
-        <v>1190</v>
       </c>
       <c r="C374" t="s">
         <v>383</v>
       </c>
       <c r="F374" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="375" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B375" t="s">
         <v>1191</v>
-      </c>
-      <c r="B375" t="s">
-        <v>1192</v>
       </c>
       <c r="C375" t="s">
         <v>68</v>
@@ -11472,7 +11475,7 @@
         <v>205</v>
       </c>
       <c r="F375" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="I375">
         <v>74771</v>
@@ -11480,131 +11483,131 @@
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B376" t="s">
         <v>1193</v>
-      </c>
-      <c r="B376" t="s">
-        <v>1194</v>
       </c>
       <c r="C376" t="s">
         <v>35</v>
       </c>
       <c r="F376" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B377" t="s">
         <v>1195</v>
-      </c>
-      <c r="B377" t="s">
-        <v>1196</v>
       </c>
       <c r="C377" t="s">
         <v>104</v>
       </c>
       <c r="F377" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B378" t="s">
         <v>1198</v>
-      </c>
-      <c r="B378" t="s">
-        <v>1199</v>
       </c>
       <c r="C378" t="s">
         <v>2</v>
       </c>
       <c r="F378" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B379" t="s">
         <v>1201</v>
-      </c>
-      <c r="B379" t="s">
-        <v>1202</v>
       </c>
       <c r="C379" t="s">
         <v>2</v>
       </c>
       <c r="F379" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B380" t="s">
         <v>1204</v>
-      </c>
-      <c r="B380" t="s">
-        <v>1205</v>
       </c>
       <c r="C380" t="s">
         <v>127</v>
       </c>
       <c r="F380" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B381" t="s">
         <v>1207</v>
-      </c>
-      <c r="B381" t="s">
-        <v>1208</v>
       </c>
       <c r="C381" t="s">
         <v>19</v>
       </c>
       <c r="F381" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B382" t="s">
         <v>1210</v>
-      </c>
-      <c r="B382" t="s">
-        <v>1211</v>
       </c>
       <c r="C382" t="s">
         <v>109</v>
       </c>
       <c r="F382" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B383" t="s">
         <v>1213</v>
-      </c>
-      <c r="B383" t="s">
-        <v>1214</v>
       </c>
       <c r="C383" t="s">
         <v>383</v>
       </c>
       <c r="F383" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B384" t="s">
         <v>1216</v>
-      </c>
-      <c r="B384" t="s">
-        <v>1217</v>
       </c>
       <c r="C384" t="s">
         <v>637</v>
       </c>
       <c r="D384" t="s">
+        <v>1217</v>
+      </c>
+      <c r="F384" t="s">
         <v>1218</v>
-      </c>
-      <c r="F384" t="s">
-        <v>1219</v>
       </c>
       <c r="H384">
         <v>3650</v>
@@ -11612,19 +11615,19 @@
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B385" t="s">
         <v>1220</v>
       </c>
-      <c r="B385" t="s">
+      <c r="C385" t="s">
         <v>1221</v>
-      </c>
-      <c r="C385" t="s">
-        <v>1222</v>
       </c>
       <c r="D385" t="s">
         <v>423</v>
       </c>
       <c r="F385" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="H385">
         <v>7294</v>
@@ -11635,33 +11638,33 @@
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B386" t="s">
         <v>1224</v>
-      </c>
-      <c r="B386" t="s">
-        <v>1225</v>
       </c>
       <c r="C386" t="s">
         <v>2</v>
       </c>
       <c r="F386" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B387" t="s">
         <v>1227</v>
-      </c>
-      <c r="B387" t="s">
-        <v>1228</v>
       </c>
       <c r="C387" t="s">
         <v>588</v>
       </c>
       <c r="D387" t="s">
+        <v>1228</v>
+      </c>
+      <c r="F387" t="s">
         <v>1229</v>
-      </c>
-      <c r="F387" t="s">
-        <v>1230</v>
       </c>
       <c r="H387">
         <v>6734</v>
@@ -11669,10 +11672,10 @@
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B388" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="C388" t="s">
         <v>94</v>
@@ -11681,7 +11684,7 @@
         <v>127</v>
       </c>
       <c r="F388" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="H388">
         <v>2583</v>
@@ -11689,33 +11692,33 @@
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B389" t="s">
         <v>1234</v>
-      </c>
-      <c r="B389" t="s">
-        <v>1235</v>
       </c>
       <c r="C389" t="s">
         <v>6</v>
       </c>
       <c r="F389" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B390" t="s">
         <v>1237</v>
       </c>
-      <c r="B390" t="s">
+      <c r="C390" t="s">
         <v>1238</v>
-      </c>
-      <c r="C390" t="s">
-        <v>1239</v>
       </c>
       <c r="D390" t="s">
         <v>54</v>
       </c>
       <c r="F390" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="I390">
         <v>14369</v>
@@ -11723,38 +11726,38 @@
     </row>
     <row r="391" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B391" t="s">
         <v>1241</v>
-      </c>
-      <c r="B391" t="s">
-        <v>1242</v>
       </c>
       <c r="C391" t="s">
         <v>2</v>
       </c>
       <c r="F391" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B392" t="s">
         <v>1244</v>
-      </c>
-      <c r="B392" t="s">
-        <v>1245</v>
       </c>
       <c r="C392" t="s">
         <v>151</v>
       </c>
       <c r="F392" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="393" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B393" t="s">
         <v>1247</v>
-      </c>
-      <c r="B393" t="s">
-        <v>1248</v>
       </c>
       <c r="C393" t="s">
         <v>215</v>
@@ -11763,7 +11766,7 @@
         <v>19</v>
       </c>
       <c r="F393" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="I393">
         <v>15373</v>
@@ -11771,66 +11774,66 @@
     </row>
     <row r="394" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B394" t="s">
         <v>1250</v>
-      </c>
-      <c r="B394" t="s">
-        <v>1251</v>
       </c>
       <c r="C394" t="s">
         <v>151</v>
       </c>
       <c r="F394" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="395" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B395" t="s">
         <v>1253</v>
-      </c>
-      <c r="B395" t="s">
-        <v>1254</v>
       </c>
       <c r="C395" t="s">
         <v>2</v>
       </c>
       <c r="F395" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B396" t="s">
         <v>1256</v>
-      </c>
-      <c r="B396" t="s">
-        <v>1257</v>
       </c>
       <c r="C396" t="s">
         <v>54</v>
       </c>
       <c r="F396" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B397" t="s">
         <v>1259</v>
-      </c>
-      <c r="B397" t="s">
-        <v>1260</v>
       </c>
       <c r="C397" t="s">
         <v>7</v>
       </c>
       <c r="F397" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B398" t="s">
         <v>1262</v>
-      </c>
-      <c r="B398" t="s">
-        <v>1263</v>
       </c>
       <c r="C398" t="s">
         <v>1110</v>
@@ -11839,7 +11842,7 @@
         <v>127</v>
       </c>
       <c r="F398" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="I398">
         <v>13184</v>
@@ -11847,30 +11850,30 @@
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B399" t="s">
         <v>1264</v>
-      </c>
-      <c r="B399" t="s">
-        <v>1265</v>
       </c>
       <c r="C399" t="s">
         <v>20</v>
       </c>
       <c r="F399" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B400" t="s">
         <v>1267</v>
       </c>
-      <c r="B400" t="s">
+      <c r="C400" t="s">
         <v>1268</v>
       </c>
-      <c r="C400" t="s">
+      <c r="F400" t="s">
         <v>1269</v>
-      </c>
-      <c r="F400" t="s">
-        <v>1270</v>
       </c>
       <c r="I400">
         <v>15504</v>
@@ -11878,61 +11881,61 @@
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B401" t="s">
         <v>1271</v>
-      </c>
-      <c r="B401" t="s">
-        <v>1272</v>
       </c>
       <c r="C401" t="s">
         <v>415</v>
       </c>
       <c r="F401" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B402" t="s">
         <v>1274</v>
-      </c>
-      <c r="B402" t="s">
-        <v>1275</v>
       </c>
       <c r="C402" t="s">
         <v>7</v>
       </c>
       <c r="F402" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B403" t="s">
         <v>1277</v>
-      </c>
-      <c r="B403" t="s">
-        <v>1278</v>
       </c>
       <c r="C403" t="s">
         <v>54</v>
       </c>
       <c r="F403" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B404" t="s">
         <v>1279</v>
-      </c>
-      <c r="B404" t="s">
-        <v>1280</v>
       </c>
       <c r="C404" t="s">
         <v>533</v>
       </c>
       <c r="D404" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="F404" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="H404">
         <v>7925</v>
@@ -11940,19 +11943,19 @@
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B405" t="s">
         <v>1282</v>
       </c>
-      <c r="B405" t="s">
+      <c r="C405" t="s">
         <v>1283</v>
-      </c>
-      <c r="C405" t="s">
-        <v>1284</v>
       </c>
       <c r="D405" t="s">
         <v>447</v>
       </c>
       <c r="F405" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="H405">
         <v>4393</v>
@@ -11960,30 +11963,30 @@
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B406" t="s">
         <v>1286</v>
-      </c>
-      <c r="B406" t="s">
-        <v>1287</v>
       </c>
       <c r="C406" t="s">
         <v>46</v>
       </c>
       <c r="F406" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B407" t="s">
         <v>1289</v>
-      </c>
-      <c r="B407" t="s">
-        <v>1290</v>
       </c>
       <c r="C407" t="s">
         <v>807</v>
       </c>
       <c r="D407" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="F407" t="s">
         <v>588</v>
@@ -11994,10 +11997,10 @@
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B408" t="s">
         <v>1292</v>
-      </c>
-      <c r="B408" t="s">
-        <v>1293</v>
       </c>
       <c r="C408" t="s">
         <v>109</v>
@@ -12008,89 +12011,89 @@
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B409" t="s">
         <v>1294</v>
-      </c>
-      <c r="B409" t="s">
-        <v>1295</v>
       </c>
       <c r="C409" t="s">
         <v>54</v>
       </c>
       <c r="F409" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B410" t="s">
         <v>1297</v>
-      </c>
-      <c r="B410" t="s">
-        <v>1298</v>
       </c>
       <c r="C410" t="s">
         <v>83</v>
       </c>
       <c r="F410" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B411" t="s">
         <v>1300</v>
-      </c>
-      <c r="B411" t="s">
-        <v>1301</v>
       </c>
       <c r="C411" t="s">
         <v>2</v>
       </c>
       <c r="F411" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B412" t="s">
         <v>1303</v>
-      </c>
-      <c r="B412" t="s">
-        <v>1304</v>
       </c>
       <c r="C412" t="s">
         <v>122</v>
       </c>
       <c r="F412" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B413" t="s">
         <v>1306</v>
-      </c>
-      <c r="B413" t="s">
-        <v>1307</v>
       </c>
       <c r="C413" t="s">
         <v>19</v>
       </c>
       <c r="F413" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="B414" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="C414" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="D414" t="s">
         <v>46</v>
       </c>
       <c r="F414" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="H414">
         <v>8683</v>
@@ -12098,10 +12101,10 @@
     </row>
     <row r="415" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B415" t="s">
         <v>1311</v>
-      </c>
-      <c r="B415" t="s">
-        <v>1312</v>
       </c>
       <c r="C415" t="s">
         <v>94</v>
@@ -12110,7 +12113,7 @@
         <v>1041</v>
       </c>
       <c r="F415" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I415">
         <v>16760</v>
@@ -12118,47 +12121,47 @@
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B416" t="s">
         <v>1314</v>
-      </c>
-      <c r="B416" t="s">
-        <v>1315</v>
       </c>
       <c r="C416" t="s">
         <v>127</v>
       </c>
       <c r="F416" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="417" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B417" t="s">
         <v>1317</v>
-      </c>
-      <c r="B417" t="s">
-        <v>1318</v>
       </c>
       <c r="C417" t="s">
         <v>122</v>
       </c>
       <c r="F417" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="418" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B418" t="s">
         <v>1320</v>
       </c>
-      <c r="B418" t="s">
+      <c r="C418" t="s">
         <v>1321</v>
-      </c>
-      <c r="C418" t="s">
-        <v>1322</v>
       </c>
       <c r="D418" t="s">
         <v>498</v>
       </c>
       <c r="F418" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="I418">
         <v>19264</v>
@@ -12166,38 +12169,38 @@
     </row>
     <row r="419" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B419" t="s">
         <v>1324</v>
-      </c>
-      <c r="B419" t="s">
-        <v>1325</v>
       </c>
       <c r="C419" t="s">
         <v>7</v>
       </c>
       <c r="F419" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="420" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B420" t="s">
         <v>1327</v>
-      </c>
-      <c r="B420" t="s">
-        <v>1328</v>
       </c>
       <c r="C420" t="s">
         <v>19</v>
       </c>
       <c r="F420" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="421" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B421" t="s">
         <v>1330</v>
-      </c>
-      <c r="B421" t="s">
-        <v>1331</v>
       </c>
       <c r="C421" t="s">
         <v>122</v>
@@ -12208,10 +12211,10 @@
     </row>
     <row r="422" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B422" t="s">
         <v>1332</v>
-      </c>
-      <c r="B422" t="s">
-        <v>1333</v>
       </c>
       <c r="C422" t="s">
         <v>2</v>
@@ -12222,103 +12225,103 @@
     </row>
     <row r="423" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B423" t="s">
         <v>1334</v>
-      </c>
-      <c r="B423" t="s">
-        <v>1335</v>
       </c>
       <c r="C423" t="s">
         <v>19</v>
       </c>
       <c r="F423" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="424" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B424" t="s">
         <v>1337</v>
-      </c>
-      <c r="B424" t="s">
-        <v>1338</v>
       </c>
       <c r="C424" t="s">
         <v>109</v>
       </c>
       <c r="F424" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="425" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B425" t="s">
         <v>1340</v>
-      </c>
-      <c r="B425" t="s">
-        <v>1341</v>
       </c>
       <c r="C425" t="s">
         <v>151</v>
       </c>
       <c r="F425" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="426" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B426" t="s">
         <v>1343</v>
-      </c>
-      <c r="B426" t="s">
-        <v>1344</v>
       </c>
       <c r="C426" t="s">
         <v>20</v>
       </c>
       <c r="F426" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="427" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B427" t="s">
         <v>1346</v>
-      </c>
-      <c r="B427" t="s">
-        <v>1347</v>
       </c>
       <c r="C427" t="s">
         <v>104</v>
       </c>
       <c r="F427" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="428" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B428" t="s">
         <v>1349</v>
-      </c>
-      <c r="B428" t="s">
-        <v>1350</v>
       </c>
       <c r="C428" t="s">
         <v>19</v>
       </c>
       <c r="F428" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="429" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B429" t="s">
         <v>1352</v>
       </c>
-      <c r="B429" t="s">
+      <c r="C429" t="s">
         <v>1353</v>
-      </c>
-      <c r="C429" t="s">
-        <v>1354</v>
       </c>
       <c r="D429" t="s">
         <v>127</v>
       </c>
       <c r="F429" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="H429">
         <v>2910</v>
@@ -12326,66 +12329,66 @@
     </row>
     <row r="430" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B430" t="s">
         <v>1356</v>
-      </c>
-      <c r="B430" t="s">
-        <v>1357</v>
       </c>
       <c r="C430" t="s">
         <v>7</v>
       </c>
       <c r="F430" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="431" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B431" t="s">
         <v>1359</v>
-      </c>
-      <c r="B431" t="s">
-        <v>1360</v>
       </c>
       <c r="C431" t="s">
         <v>20</v>
       </c>
       <c r="F431" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="432" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B432" t="s">
         <v>1362</v>
-      </c>
-      <c r="B432" t="s">
-        <v>1363</v>
       </c>
       <c r="C432" t="s">
         <v>54</v>
       </c>
       <c r="F432" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="433" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B433" t="s">
         <v>1365</v>
-      </c>
-      <c r="B433" t="s">
-        <v>1366</v>
       </c>
       <c r="C433" t="s">
         <v>2</v>
       </c>
       <c r="F433" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="434" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B434" t="s">
         <v>1368</v>
-      </c>
-      <c r="B434" t="s">
-        <v>1369</v>
       </c>
       <c r="C434" t="s">
         <v>68</v>
@@ -12394,7 +12397,7 @@
         <v>122</v>
       </c>
       <c r="F434" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="I434">
         <v>12650</v>
@@ -12402,24 +12405,24 @@
     </row>
     <row r="435" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B435" t="s">
         <v>1371</v>
-      </c>
-      <c r="B435" t="s">
-        <v>1372</v>
       </c>
       <c r="C435" t="s">
         <v>151</v>
       </c>
       <c r="F435" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="436" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B436" t="s">
         <v>1374</v>
-      </c>
-      <c r="B436" t="s">
-        <v>1375</v>
       </c>
       <c r="C436" t="s">
         <v>113</v>
@@ -12428,7 +12431,7 @@
         <v>2</v>
       </c>
       <c r="F436" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="I436">
         <v>9878</v>
@@ -12436,24 +12439,24 @@
     </row>
     <row r="437" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B437" t="s">
         <v>1376</v>
-      </c>
-      <c r="B437" t="s">
-        <v>1377</v>
       </c>
       <c r="C437" t="s">
         <v>122</v>
       </c>
       <c r="F437" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="438" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B438" t="s">
         <v>1379</v>
-      </c>
-      <c r="B438" t="s">
-        <v>1380</v>
       </c>
       <c r="C438" t="s">
         <v>215</v>
@@ -12462,7 +12465,7 @@
         <v>383</v>
       </c>
       <c r="F438" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="I438">
         <v>15567</v>
@@ -12470,38 +12473,38 @@
     </row>
     <row r="439" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B439" t="s">
         <v>1382</v>
-      </c>
-      <c r="B439" t="s">
-        <v>1383</v>
       </c>
       <c r="C439" t="s">
         <v>20</v>
       </c>
       <c r="F439" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="440" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B440" t="s">
         <v>1385</v>
-      </c>
-      <c r="B440" t="s">
-        <v>1386</v>
       </c>
       <c r="C440" t="s">
         <v>19</v>
       </c>
       <c r="F440" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="441" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="B441" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="C441" t="s">
         <v>637</v>
@@ -12510,7 +12513,7 @@
         <v>95</v>
       </c>
       <c r="F441" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="H441">
         <v>4851</v>
@@ -12518,24 +12521,24 @@
     </row>
     <row r="442" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B442" t="s">
         <v>1390</v>
-      </c>
-      <c r="B442" t="s">
-        <v>1391</v>
       </c>
       <c r="C442" t="s">
         <v>46</v>
       </c>
       <c r="F442" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="443" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B443" t="s">
         <v>1393</v>
-      </c>
-      <c r="B443" t="s">
-        <v>1394</v>
       </c>
       <c r="C443" t="s">
         <v>447</v>
@@ -12544,7 +12547,7 @@
         <v>2</v>
       </c>
       <c r="F443" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="I443">
         <v>10658</v>
@@ -12552,30 +12555,30 @@
     </row>
     <row r="444" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B444" t="s">
         <v>1396</v>
-      </c>
-      <c r="B444" t="s">
-        <v>1397</v>
       </c>
       <c r="C444" t="s">
         <v>248</v>
       </c>
       <c r="F444" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="445" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B445" t="s">
         <v>1398</v>
-      </c>
-      <c r="B445" t="s">
-        <v>1399</v>
       </c>
       <c r="C445" t="s">
         <v>1095</v>
       </c>
       <c r="F445" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="H445">
         <v>9088</v>

--- a/data/surveyor.xlsx
+++ b/data/surveyor.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Python\hummaps-admin\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC77555-BF04-42AC-8F59-D608BAD0BC3A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B9A7DA-D81F-413B-B460-A710D580CD2B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22590" windowHeight="10185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="1443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1982" uniqueCount="1446">
   <si>
     <t>R. AANRUD</t>
   </si>
@@ -4349,6 +4349,15 @@
   </si>
   <si>
     <t>PAUL M SCHMOOK</t>
+  </si>
+  <si>
+    <t>D. HOAGLAND</t>
+  </si>
+  <si>
+    <t>DANIEL ELI HOAGLAND</t>
+  </si>
+  <si>
+    <t>HOAGLAND</t>
   </si>
 </sst>
 </file>
@@ -5189,10 +5198,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I445"/>
+  <dimension ref="A1:I446"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A340" workbookViewId="0">
-      <selection activeCell="A353" sqref="A353"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="A184" sqref="A184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8313,217 +8322,223 @@
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>611</v>
+        <v>1443</v>
       </c>
       <c r="B183" t="s">
-        <v>612</v>
+        <v>1444</v>
       </c>
       <c r="C183" t="s">
-        <v>2</v>
+        <v>807</v>
+      </c>
+      <c r="D183" t="s">
+        <v>380</v>
       </c>
       <c r="F183" t="s">
-        <v>613</v>
+        <v>1445</v>
+      </c>
+      <c r="H183">
+        <v>8621</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="B184" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C184" t="s">
-        <v>109</v>
+        <v>2</v>
       </c>
       <c r="F184" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="B185" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C185" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="F185" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B186" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C186" t="s">
-        <v>622</v>
-      </c>
-      <c r="D186" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="F186" t="s">
         <v>619</v>
       </c>
-      <c r="H186">
-        <v>7801</v>
-      </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="B187" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C187" t="s">
-        <v>122</v>
+        <v>622</v>
+      </c>
+      <c r="D187" t="s">
+        <v>127</v>
       </c>
       <c r="F187" t="s">
-        <v>625</v>
+        <v>619</v>
+      </c>
+      <c r="H187">
+        <v>7801</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B188" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="C188" t="s">
-        <v>59</v>
-      </c>
-      <c r="D188" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="F188" t="s">
         <v>625</v>
       </c>
-      <c r="H188">
-        <v>6356</v>
-      </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B189" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C189" t="s">
-        <v>630</v>
+        <v>59</v>
       </c>
       <c r="D189" t="s">
-        <v>631</v>
+        <v>113</v>
       </c>
       <c r="F189" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="H189">
-        <v>7858</v>
+        <v>6356</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="B190" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="C190" t="s">
-        <v>411</v>
+        <v>630</v>
+      </c>
+      <c r="D190" t="s">
+        <v>631</v>
       </c>
       <c r="F190" t="s">
-        <v>87</v>
+        <v>632</v>
+      </c>
+      <c r="H190">
+        <v>7858</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>1431</v>
+        <v>633</v>
       </c>
       <c r="B191" t="s">
-        <v>1432</v>
+        <v>634</v>
       </c>
       <c r="C191" t="s">
-        <v>890</v>
-      </c>
-      <c r="D191" t="s">
-        <v>1433</v>
+        <v>411</v>
       </c>
       <c r="F191" t="s">
-        <v>1434</v>
-      </c>
-      <c r="H191">
-        <v>7366</v>
+        <v>87</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>635</v>
+        <v>1431</v>
       </c>
       <c r="B192" t="s">
-        <v>636</v>
+        <v>1432</v>
       </c>
       <c r="C192" t="s">
-        <v>637</v>
+        <v>890</v>
       </c>
       <c r="D192" t="s">
-        <v>638</v>
+        <v>1433</v>
       </c>
       <c r="F192" t="s">
-        <v>639</v>
-      </c>
-      <c r="I192">
-        <v>24779</v>
+        <v>1434</v>
+      </c>
+      <c r="H192">
+        <v>7366</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="B193" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="C193" t="s">
-        <v>457</v>
+        <v>637</v>
       </c>
       <c r="D193" t="s">
-        <v>139</v>
+        <v>638</v>
       </c>
       <c r="F193" t="s">
-        <v>642</v>
-      </c>
-      <c r="H193">
-        <v>4570</v>
+        <v>639</v>
+      </c>
+      <c r="I193">
+        <v>24779</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B194" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C194" t="s">
-        <v>46</v>
+        <v>457</v>
+      </c>
+      <c r="D194" t="s">
+        <v>139</v>
       </c>
       <c r="F194" t="s">
-        <v>645</v>
+        <v>642</v>
+      </c>
+      <c r="H194">
+        <v>4570</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B195" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C195" t="s">
-        <v>109</v>
+        <v>46</v>
       </c>
       <c r="F195" t="s">
         <v>645</v>
@@ -8531,69 +8546,69 @@
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B196" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C196" t="s">
-        <v>35</v>
+        <v>109</v>
       </c>
       <c r="F196" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B197" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C197" t="s">
-        <v>109</v>
+        <v>35</v>
       </c>
       <c r="F197" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="B198" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="C198" t="s">
-        <v>248</v>
+        <v>109</v>
       </c>
       <c r="F198" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="B199" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="C199" t="s">
-        <v>104</v>
+        <v>248</v>
       </c>
       <c r="F199" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B200" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="C200" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="F200" t="s">
         <v>659</v>
@@ -8601,284 +8616,275 @@
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B201" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C201" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F201" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="B202" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C202" t="s">
-        <v>667</v>
-      </c>
-      <c r="D202" t="s">
-        <v>668</v>
+        <v>2</v>
       </c>
       <c r="F202" t="s">
-        <v>669</v>
-      </c>
-      <c r="H202">
-        <v>8153</v>
+        <v>664</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="B203" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="C203" t="s">
-        <v>25</v>
+        <v>667</v>
+      </c>
+      <c r="D203" t="s">
+        <v>668</v>
       </c>
       <c r="F203" t="s">
-        <v>672</v>
+        <v>669</v>
+      </c>
+      <c r="H203">
+        <v>8153</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B204" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C204" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="F204" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="B205" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="C205" t="s">
-        <v>109</v>
+        <v>2</v>
       </c>
       <c r="F205" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="B206" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C206" t="s">
-        <v>39</v>
-      </c>
-      <c r="D206" t="s">
-        <v>447</v>
+        <v>109</v>
       </c>
       <c r="F206" t="s">
-        <v>681</v>
-      </c>
-      <c r="I206">
-        <v>18584</v>
+        <v>678</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="B207" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="C207" t="s">
-        <v>684</v>
+        <v>39</v>
       </c>
       <c r="D207" t="s">
-        <v>685</v>
+        <v>447</v>
       </c>
       <c r="F207" t="s">
-        <v>686</v>
-      </c>
-      <c r="H207">
-        <v>6621</v>
+        <v>681</v>
+      </c>
+      <c r="I207">
+        <v>18584</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="B208" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="C208" t="s">
-        <v>316</v>
+        <v>684</v>
       </c>
       <c r="D208" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="F208" t="s">
         <v>686</v>
       </c>
       <c r="H208">
-        <v>9194</v>
+        <v>6621</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="B209" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C209" t="s">
-        <v>25</v>
+        <v>316</v>
+      </c>
+      <c r="D209" t="s">
+        <v>689</v>
       </c>
       <c r="F209" t="s">
         <v>686</v>
       </c>
+      <c r="H209">
+        <v>9194</v>
+      </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B210" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C210" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="F210" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="B211" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="C211" t="s">
-        <v>248</v>
+        <v>83</v>
       </c>
       <c r="F211" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="B212" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="C212" t="s">
-        <v>6</v>
+        <v>248</v>
       </c>
       <c r="F212" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="B213" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="C213" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="F213" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B214" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C214" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="F214" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B215" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="C215" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="F215" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="B216" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="C216" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="F216" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="B217" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="C217" t="s">
-        <v>592</v>
-      </c>
-      <c r="D217" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="F217" t="s">
-        <v>715</v>
-      </c>
-      <c r="H217">
-        <v>764</v>
-      </c>
-      <c r="I217">
-        <v>220</v>
+        <v>712</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="B218" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C218" t="s">
-        <v>718</v>
+        <v>592</v>
       </c>
       <c r="D218" t="s">
         <v>54</v>
@@ -8887,160 +8893,163 @@
         <v>715</v>
       </c>
       <c r="H218">
-        <v>2820</v>
+        <v>764</v>
+      </c>
+      <c r="I218">
+        <v>220</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="B219" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C219" t="s">
-        <v>68</v>
+        <v>718</v>
       </c>
       <c r="D219" t="s">
-        <v>439</v>
+        <v>54</v>
       </c>
       <c r="F219" t="s">
         <v>715</v>
       </c>
-      <c r="I219">
-        <v>11005</v>
+      <c r="H219">
+        <v>2820</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B220" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="C220" t="s">
-        <v>25</v>
+        <v>68</v>
+      </c>
+      <c r="D220" t="s">
+        <v>439</v>
       </c>
       <c r="F220" t="s">
-        <v>723</v>
+        <v>715</v>
+      </c>
+      <c r="I220">
+        <v>11005</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="B221" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="C221" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F221" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="B222" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="C222" t="s">
-        <v>68</v>
-      </c>
-      <c r="D222" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="F222" t="s">
-        <v>729</v>
-      </c>
-      <c r="H222">
-        <v>2808</v>
+        <v>726</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="B223" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="C223" t="s">
-        <v>732</v>
+        <v>68</v>
       </c>
       <c r="D223" t="s">
-        <v>733</v>
+        <v>54</v>
       </c>
       <c r="F223" t="s">
-        <v>734</v>
-      </c>
-      <c r="I223">
-        <v>20758</v>
+        <v>729</v>
+      </c>
+      <c r="H223">
+        <v>2808</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="B224" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="C224" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="D224" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="F224" t="s">
-        <v>739</v>
-      </c>
-      <c r="H224">
-        <v>7938</v>
+        <v>734</v>
+      </c>
+      <c r="I224">
+        <v>20758</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="B225" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="C225" t="s">
-        <v>415</v>
+        <v>737</v>
+      </c>
+      <c r="D225" t="s">
+        <v>738</v>
       </c>
       <c r="F225" t="s">
         <v>739</v>
       </c>
+      <c r="H225">
+        <v>7938</v>
+      </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B226" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C226" t="s">
-        <v>744</v>
-      </c>
-      <c r="D226" t="s">
-        <v>745</v>
+        <v>415</v>
       </c>
       <c r="F226" t="s">
-        <v>746</v>
-      </c>
-      <c r="H226">
-        <v>5677</v>
+        <v>739</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="B227" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="C227" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="D227" t="s">
         <v>745</v>
@@ -9049,151 +9058,151 @@
         <v>746</v>
       </c>
       <c r="H227">
-        <v>8152</v>
+        <v>5677</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="B228" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="C228" t="s">
-        <v>278</v>
+        <v>749</v>
       </c>
       <c r="D228" t="s">
-        <v>447</v>
+        <v>745</v>
       </c>
       <c r="F228" t="s">
-        <v>752</v>
-      </c>
-      <c r="I228">
-        <v>11950</v>
+        <v>746</v>
+      </c>
+      <c r="H228">
+        <v>8152</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="B229" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="C229" t="s">
-        <v>6</v>
+        <v>278</v>
+      </c>
+      <c r="D229" t="s">
+        <v>447</v>
       </c>
       <c r="F229" t="s">
-        <v>755</v>
+        <v>752</v>
+      </c>
+      <c r="I229">
+        <v>11950</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="B230" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="C230" t="s">
-        <v>758</v>
+        <v>6</v>
       </c>
       <c r="F230" t="s">
-        <v>759</v>
-      </c>
-      <c r="I230">
-        <v>8374</v>
+        <v>755</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="B231" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="C231" t="s">
-        <v>762</v>
-      </c>
-      <c r="D231" t="s">
-        <v>282</v>
+        <v>758</v>
       </c>
       <c r="F231" t="s">
-        <v>763</v>
-      </c>
-      <c r="H231">
-        <v>4264</v>
+        <v>759</v>
+      </c>
+      <c r="I231">
+        <v>8374</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="B232" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="C232" t="s">
-        <v>25</v>
+        <v>762</v>
+      </c>
+      <c r="D232" t="s">
+        <v>282</v>
       </c>
       <c r="F232" t="s">
-        <v>766</v>
+        <v>763</v>
+      </c>
+      <c r="H232">
+        <v>4264</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="B233" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="C233" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="F233" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="B234" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="C234" t="s">
-        <v>772</v>
-      </c>
-      <c r="D234" t="s">
-        <v>151</v>
+        <v>54</v>
       </c>
       <c r="F234" t="s">
-        <v>773</v>
-      </c>
-      <c r="I234">
-        <v>1754</v>
+        <v>769</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="B235" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="C235" t="s">
-        <v>6</v>
+        <v>772</v>
       </c>
       <c r="D235" t="s">
-        <v>776</v>
+        <v>151</v>
       </c>
       <c r="F235" t="s">
-        <v>777</v>
-      </c>
-      <c r="H235">
-        <v>4946</v>
+        <v>773</v>
+      </c>
+      <c r="I235">
+        <v>1754</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="B236" t="s">
         <v>775</v>
@@ -9213,83 +9222,89 @@
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B237" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="C237" t="s">
-        <v>104</v>
+        <v>6</v>
+      </c>
+      <c r="D237" t="s">
+        <v>776</v>
       </c>
       <c r="F237" t="s">
-        <v>781</v>
+        <v>777</v>
+      </c>
+      <c r="H237">
+        <v>4946</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="B238" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C238" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="F238" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="B239" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C239" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F239" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="B240" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C240" t="s">
-        <v>122</v>
+        <v>2</v>
       </c>
       <c r="F240" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="B241" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="C241" t="s">
-        <v>54</v>
+        <v>122</v>
       </c>
       <c r="F241" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="B242" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="C242" t="s">
-        <v>151</v>
+        <v>54</v>
       </c>
       <c r="F242" t="s">
         <v>793</v>
@@ -9297,13 +9312,13 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B243" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C243" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="F243" t="s">
         <v>793</v>
@@ -9311,13 +9326,13 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B244" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C244" t="s">
-        <v>2</v>
+        <v>122</v>
       </c>
       <c r="F244" t="s">
         <v>793</v>
@@ -9325,13 +9340,13 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B245" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C245" t="s">
-        <v>109</v>
+        <v>2</v>
       </c>
       <c r="F245" t="s">
         <v>793</v>
@@ -9339,185 +9354,185 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B246" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C246" t="s">
         <v>109</v>
       </c>
       <c r="F246" t="s">
-        <v>804</v>
+        <v>793</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="B247" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="C247" t="s">
-        <v>807</v>
+        <v>109</v>
       </c>
       <c r="F247" t="s">
-        <v>808</v>
-      </c>
-      <c r="H247">
-        <v>6632</v>
+        <v>804</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="B248" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="C248" t="s">
-        <v>20</v>
+        <v>807</v>
       </c>
       <c r="F248" t="s">
-        <v>811</v>
+        <v>808</v>
+      </c>
+      <c r="H248">
+        <v>6632</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="B249" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="C249" t="s">
-        <v>814</v>
-      </c>
-      <c r="D249" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="F249" t="s">
-        <v>815</v>
-      </c>
-      <c r="H249">
-        <v>8826</v>
+        <v>811</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="B250" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="C250" t="s">
-        <v>6</v>
+        <v>814</v>
+      </c>
+      <c r="D250" t="s">
+        <v>83</v>
       </c>
       <c r="F250" t="s">
-        <v>818</v>
+        <v>815</v>
+      </c>
+      <c r="H250">
+        <v>8826</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="B251" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C251" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="F251" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="B252" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="C252" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="F252" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="B253" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="C253" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="F253" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="B254" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="C254" t="s">
-        <v>517</v>
-      </c>
-      <c r="D254" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F254" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="B255" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="C255" t="s">
-        <v>63</v>
+        <v>517</v>
       </c>
       <c r="D255" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="F255" t="s">
-        <v>833</v>
-      </c>
-      <c r="H255">
-        <v>4602</v>
+        <v>830</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="B256" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="C256" t="s">
-        <v>46</v>
+        <v>63</v>
+      </c>
+      <c r="D256" t="s">
+        <v>68</v>
       </c>
       <c r="F256" t="s">
-        <v>836</v>
+        <v>833</v>
+      </c>
+      <c r="H256">
+        <v>4602</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="B257" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="C257" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="F257" t="s">
         <v>836</v>
@@ -9525,69 +9540,69 @@
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B258" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C258" t="s">
         <v>19</v>
       </c>
       <c r="F258" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="B259" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="C259" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F259" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B260" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="C260" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="F260" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="B261" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="C261" t="s">
-        <v>151</v>
+        <v>19</v>
       </c>
       <c r="F261" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="B262" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="C262" t="s">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c r="F262" t="s">
         <v>850</v>
@@ -9595,159 +9610,159 @@
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B263" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="C263" t="s">
         <v>19</v>
       </c>
       <c r="F263" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="B264" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C264" t="s">
-        <v>59</v>
-      </c>
-      <c r="D264" t="s">
-        <v>857</v>
+        <v>19</v>
       </c>
       <c r="F264" t="s">
-        <v>858</v>
-      </c>
-      <c r="H264">
-        <v>3945</v>
+        <v>855</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B265" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="C265" t="s">
-        <v>83</v>
+        <v>59</v>
+      </c>
+      <c r="D265" t="s">
+        <v>857</v>
       </c>
       <c r="F265" t="s">
-        <v>862</v>
+        <v>858</v>
+      </c>
+      <c r="H265">
+        <v>3945</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="B266" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="C266" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="F266" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="B267" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="C267" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="F267" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="B268" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="C268" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="F268" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B269" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="C269" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="F269" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="B270" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="C270" t="s">
-        <v>151</v>
+        <v>6</v>
       </c>
       <c r="F270" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="B271" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="C271" t="s">
-        <v>109</v>
+        <v>151</v>
       </c>
       <c r="F271" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="B272" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="C272" t="s">
-        <v>6</v>
+        <v>109</v>
       </c>
       <c r="F272" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="B273" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="C273" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="F273" t="s">
         <v>883</v>
@@ -9755,919 +9770,919 @@
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="B274" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="C274" t="s">
-        <v>890</v>
-      </c>
-      <c r="D274" t="s">
-        <v>205</v>
+        <v>19</v>
       </c>
       <c r="F274" t="s">
-        <v>887</v>
-      </c>
-      <c r="I274">
-        <v>30688</v>
+        <v>883</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="B275" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="C275" t="s">
-        <v>122</v>
+        <v>890</v>
+      </c>
+      <c r="D275" t="s">
+        <v>205</v>
       </c>
       <c r="F275" t="s">
         <v>887</v>
       </c>
+      <c r="I275">
+        <v>30688</v>
+      </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B276" t="s">
-        <v>886</v>
+        <v>892</v>
       </c>
       <c r="C276" t="s">
-        <v>59</v>
-      </c>
-      <c r="D276" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="F276" t="s">
         <v>887</v>
       </c>
-      <c r="H276">
-        <v>5160</v>
-      </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B277" t="s">
-        <v>895</v>
+        <v>886</v>
       </c>
       <c r="C277" t="s">
-        <v>54</v>
+        <v>59</v>
+      </c>
+      <c r="D277" t="s">
+        <v>113</v>
       </c>
       <c r="F277" t="s">
-        <v>896</v>
+        <v>887</v>
+      </c>
+      <c r="H277">
+        <v>5160</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="B278" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="C278" t="s">
-        <v>899</v>
-      </c>
-      <c r="D278" t="s">
-        <v>900</v>
+        <v>54</v>
       </c>
       <c r="F278" t="s">
-        <v>901</v>
-      </c>
-      <c r="H278">
-        <v>6191</v>
+        <v>896</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="B279" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="C279" t="s">
-        <v>248</v>
+        <v>899</v>
+      </c>
+      <c r="D279" t="s">
+        <v>900</v>
       </c>
       <c r="F279" t="s">
-        <v>904</v>
+        <v>901</v>
+      </c>
+      <c r="H279">
+        <v>6191</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="B280" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="C280" t="s">
-        <v>109</v>
+        <v>248</v>
       </c>
       <c r="F280" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="B281" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="C281" t="s">
-        <v>113</v>
-      </c>
-      <c r="D281" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="F281" t="s">
-        <v>910</v>
-      </c>
-      <c r="I281">
-        <v>19203</v>
+        <v>907</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="B282" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="C282" t="s">
         <v>113</v>
       </c>
       <c r="D282" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="F282" t="s">
         <v>910</v>
       </c>
+      <c r="I282">
+        <v>19203</v>
+      </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="B283" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C283" t="s">
-        <v>109</v>
+        <v>113</v>
+      </c>
+      <c r="D283" t="s">
+        <v>25</v>
       </c>
       <c r="F283" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="B284" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="C284" t="s">
-        <v>151</v>
+        <v>109</v>
       </c>
       <c r="F284" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="B285" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="C285" t="s">
-        <v>322</v>
-      </c>
-      <c r="D285" t="s">
-        <v>921</v>
+        <v>151</v>
       </c>
       <c r="F285" t="s">
-        <v>922</v>
-      </c>
-      <c r="H285">
-        <v>5164</v>
+        <v>918</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="B286" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="C286" t="s">
-        <v>19</v>
+        <v>322</v>
+      </c>
+      <c r="D286" t="s">
+        <v>921</v>
       </c>
       <c r="F286" t="s">
         <v>922</v>
       </c>
+      <c r="H286">
+        <v>5164</v>
+      </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B287" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C287" t="s">
-        <v>316</v>
-      </c>
-      <c r="D287" t="s">
-        <v>927</v>
+        <v>19</v>
       </c>
       <c r="F287" t="s">
         <v>922</v>
       </c>
-      <c r="I287">
-        <v>31998</v>
-      </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="B288" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="C288" t="s">
-        <v>930</v>
+        <v>316</v>
       </c>
       <c r="D288" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="F288" t="s">
-        <v>932</v>
+        <v>922</v>
       </c>
       <c r="I288">
-        <v>25681</v>
+        <v>31998</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="B289" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="C289" t="s">
-        <v>104</v>
+        <v>930</v>
+      </c>
+      <c r="D289" t="s">
+        <v>931</v>
       </c>
       <c r="F289" t="s">
-        <v>935</v>
+        <v>932</v>
+      </c>
+      <c r="I289">
+        <v>25681</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="B290" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="C290" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="F290" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="B291" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="C291" t="s">
-        <v>58</v>
-      </c>
-      <c r="D291" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F291" t="s">
-        <v>941</v>
-      </c>
-      <c r="H291">
-        <v>3150</v>
+        <v>938</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="B292" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="C292" t="s">
+        <v>58</v>
+      </c>
+      <c r="D292" t="s">
         <v>54</v>
       </c>
       <c r="F292" t="s">
-        <v>944</v>
+        <v>941</v>
+      </c>
+      <c r="H292">
+        <v>3150</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>952</v>
+        <v>942</v>
       </c>
       <c r="B293" t="s">
-        <v>953</v>
+        <v>943</v>
       </c>
       <c r="C293" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="F293" t="s">
-        <v>954</v>
+        <v>944</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>945</v>
+        <v>952</v>
       </c>
       <c r="B294" t="s">
-        <v>946</v>
+        <v>953</v>
       </c>
       <c r="C294" t="s">
-        <v>59</v>
-      </c>
-      <c r="D294" t="s">
-        <v>762</v>
+        <v>2</v>
       </c>
       <c r="F294" t="s">
-        <v>947</v>
-      </c>
-      <c r="H294">
-        <v>4829</v>
+        <v>954</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>955</v>
+        <v>945</v>
       </c>
       <c r="B295" t="s">
-        <v>956</v>
+        <v>946</v>
       </c>
       <c r="C295" t="s">
-        <v>19</v>
+        <v>59</v>
+      </c>
+      <c r="D295" t="s">
+        <v>762</v>
       </c>
       <c r="F295" t="s">
-        <v>957</v>
+        <v>947</v>
+      </c>
+      <c r="H295">
+        <v>4829</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="B296" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="C296" t="s">
-        <v>113</v>
-      </c>
-      <c r="D296" t="s">
-        <v>960</v>
+        <v>19</v>
       </c>
       <c r="F296" t="s">
-        <v>961</v>
-      </c>
-      <c r="H296">
-        <v>3115</v>
+        <v>957</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="B297" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="C297" t="s">
-        <v>122</v>
+        <v>113</v>
+      </c>
+      <c r="D297" t="s">
+        <v>960</v>
       </c>
       <c r="F297" t="s">
         <v>961</v>
       </c>
+      <c r="H297">
+        <v>3115</v>
+      </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="B298" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="C298" t="s">
-        <v>316</v>
-      </c>
-      <c r="D298" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="F298" t="s">
-        <v>966</v>
-      </c>
-      <c r="G298" t="s">
-        <v>201</v>
-      </c>
-      <c r="H298">
-        <v>4446</v>
-      </c>
-      <c r="I298">
-        <v>28556</v>
+        <v>961</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>948</v>
+        <v>964</v>
       </c>
       <c r="B299" t="s">
-        <v>949</v>
+        <v>965</v>
       </c>
       <c r="C299" t="s">
-        <v>950</v>
+        <v>316</v>
       </c>
       <c r="D299" t="s">
         <v>63</v>
       </c>
       <c r="F299" t="s">
-        <v>951</v>
+        <v>966</v>
+      </c>
+      <c r="G299" t="s">
+        <v>201</v>
       </c>
       <c r="H299">
-        <v>9348</v>
+        <v>4446</v>
+      </c>
+      <c r="I299">
+        <v>28556</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>967</v>
+        <v>948</v>
       </c>
       <c r="B300" t="s">
-        <v>968</v>
+        <v>949</v>
       </c>
       <c r="C300" t="s">
-        <v>638</v>
+        <v>950</v>
       </c>
       <c r="D300" t="s">
-        <v>969</v>
+        <v>63</v>
       </c>
       <c r="F300" t="s">
-        <v>970</v>
+        <v>951</v>
       </c>
       <c r="H300">
-        <v>3678</v>
-      </c>
-      <c r="I300">
-        <v>29557</v>
+        <v>9348</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="B301" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="C301" t="s">
-        <v>415</v>
+        <v>638</v>
+      </c>
+      <c r="D301" t="s">
+        <v>969</v>
       </c>
       <c r="F301" t="s">
-        <v>973</v>
+        <v>970</v>
+      </c>
+      <c r="H301">
+        <v>3678</v>
+      </c>
+      <c r="I301">
+        <v>29557</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="B302" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="C302" t="s">
-        <v>147</v>
+        <v>415</v>
       </c>
       <c r="F302" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="B303" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="C303" t="s">
-        <v>2</v>
+        <v>147</v>
       </c>
       <c r="F303" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="B304" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="C304" t="s">
-        <v>151</v>
+        <v>2</v>
       </c>
       <c r="F304" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="B305" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="C305" t="s">
-        <v>985</v>
-      </c>
-      <c r="D305" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="F305" t="s">
-        <v>986</v>
-      </c>
-      <c r="I305">
-        <v>12155</v>
+        <v>982</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="B306" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="C306" t="s">
-        <v>151</v>
+        <v>985</v>
+      </c>
+      <c r="D306" t="s">
+        <v>127</v>
       </c>
       <c r="F306" t="s">
-        <v>989</v>
+        <v>986</v>
+      </c>
+      <c r="I306">
+        <v>12155</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="B307" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="C307" t="s">
-        <v>992</v>
-      </c>
-      <c r="D307" t="s">
-        <v>104</v>
+        <v>151</v>
       </c>
       <c r="F307" t="s">
-        <v>993</v>
-      </c>
-      <c r="H307">
-        <v>2561</v>
+        <v>989</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="B308" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="C308" t="s">
-        <v>2</v>
+        <v>992</v>
+      </c>
+      <c r="D308" t="s">
+        <v>104</v>
       </c>
       <c r="F308" t="s">
-        <v>996</v>
+        <v>993</v>
+      </c>
+      <c r="H308">
+        <v>2561</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="B309" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="C309" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F309" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="B310" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="C310" t="s">
         <v>20</v>
       </c>
       <c r="F310" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="B311" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="C311" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F311" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="B312" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="C312" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="F312" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="B313" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="C313" t="s">
-        <v>183</v>
-      </c>
-      <c r="D313" t="s">
-        <v>1011</v>
+        <v>19</v>
       </c>
       <c r="F313" t="s">
-        <v>1012</v>
-      </c>
-      <c r="H313">
-        <v>8662</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="B314" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="C314" t="s">
-        <v>1015</v>
+        <v>183</v>
       </c>
       <c r="D314" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="F314" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="H314">
-        <v>9153</v>
-      </c>
-      <c r="I314">
-        <v>62665</v>
+        <v>8662</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>1020</v>
+        <v>1013</v>
       </c>
       <c r="B315" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="C315" t="s">
-        <v>59</v>
+        <v>1015</v>
       </c>
       <c r="D315" t="s">
-        <v>155</v>
+        <v>1016</v>
       </c>
       <c r="F315" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="H315">
-        <v>7793</v>
+        <v>9153</v>
+      </c>
+      <c r="I315">
+        <v>62665</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B316" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="C316" t="s">
-        <v>1023</v>
+        <v>59</v>
       </c>
       <c r="D316" t="s">
-        <v>762</v>
+        <v>155</v>
       </c>
       <c r="F316" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="H316">
-        <v>5009</v>
+        <v>7793</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="B317" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="C317" t="s">
-        <v>19</v>
+        <v>1023</v>
+      </c>
+      <c r="D317" t="s">
+        <v>762</v>
       </c>
       <c r="F317" t="s">
-        <v>1027</v>
+        <v>1024</v>
+      </c>
+      <c r="H317">
+        <v>5009</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="B318" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="C318" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="F318" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>1404</v>
+        <v>1028</v>
       </c>
       <c r="B319" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="C319" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="F319" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>1033</v>
+        <v>1404</v>
       </c>
       <c r="B320" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="C320" t="s">
-        <v>638</v>
-      </c>
-      <c r="D320" t="s">
-        <v>684</v>
+        <v>20</v>
       </c>
       <c r="F320" t="s">
-        <v>1035</v>
-      </c>
-      <c r="I320">
-        <v>21908</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="B321" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="C321" t="s">
-        <v>151</v>
+        <v>638</v>
+      </c>
+      <c r="D321" t="s">
+        <v>684</v>
       </c>
       <c r="F321" t="s">
-        <v>1038</v>
+        <v>1035</v>
+      </c>
+      <c r="I321">
+        <v>21908</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="B322" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="C322" t="s">
-        <v>94</v>
-      </c>
-      <c r="D322" t="s">
-        <v>1041</v>
+        <v>151</v>
       </c>
       <c r="F322" t="s">
-        <v>1042</v>
-      </c>
-      <c r="H322">
-        <v>4894</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="B323" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="C323" t="s">
-        <v>248</v>
+        <v>94</v>
+      </c>
+      <c r="D323" t="s">
+        <v>1041</v>
       </c>
       <c r="F323" t="s">
-        <v>1045</v>
+        <v>1042</v>
+      </c>
+      <c r="H323">
+        <v>4894</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="B324" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="C324" t="s">
         <v>248</v>
       </c>
       <c r="F324" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="B325" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="C325" t="s">
-        <v>83</v>
+        <v>248</v>
       </c>
       <c r="F325" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="B326" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="C326" t="s">
-        <v>103</v>
-      </c>
-      <c r="D326" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="F326" t="s">
-        <v>1054</v>
-      </c>
-      <c r="G326" t="s">
-        <v>201</v>
-      </c>
-      <c r="I326">
-        <v>7885</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="B327" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="C327" t="s">
-        <v>54</v>
+        <v>103</v>
+      </c>
+      <c r="D327" t="s">
+        <v>25</v>
       </c>
       <c r="F327" t="s">
-        <v>1057</v>
+        <v>1054</v>
+      </c>
+      <c r="G327" t="s">
+        <v>201</v>
+      </c>
+      <c r="I327">
+        <v>7885</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="B328" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="C328" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="F328" t="s">
         <v>1057</v>
@@ -10675,750 +10690,747 @@
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="B329" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="C329" t="s">
-        <v>68</v>
-      </c>
-      <c r="D329" t="s">
-        <v>1062</v>
+        <v>6</v>
       </c>
       <c r="F329" t="s">
         <v>1057</v>
       </c>
-      <c r="H329">
-        <v>4389</v>
-      </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="B330" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="C330" t="s">
-        <v>1065</v>
+        <v>68</v>
       </c>
       <c r="D330" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="F330" t="s">
-        <v>1067</v>
+        <v>1057</v>
       </c>
       <c r="H330">
-        <v>4322</v>
+        <v>4389</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="B331" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="C331" t="s">
-        <v>122</v>
+        <v>1065</v>
+      </c>
+      <c r="D331" t="s">
+        <v>1066</v>
       </c>
       <c r="F331" t="s">
         <v>1067</v>
       </c>
+      <c r="H331">
+        <v>4322</v>
+      </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="B332" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="C332" t="s">
-        <v>109</v>
-      </c>
-      <c r="D332" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F332" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="B333" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="C333" t="s">
         <v>109</v>
       </c>
+      <c r="D333" t="s">
+        <v>127</v>
+      </c>
       <c r="F333" t="s">
         <v>1072</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="B334" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="C334" t="s">
-        <v>218</v>
-      </c>
-      <c r="D334" t="s">
-        <v>1065</v>
+        <v>109</v>
       </c>
       <c r="F334" t="s">
-        <v>1077</v>
-      </c>
-      <c r="H334">
-        <v>3596</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="B335" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="C335" t="s">
-        <v>322</v>
+        <v>218</v>
       </c>
       <c r="D335" t="s">
-        <v>205</v>
+        <v>1065</v>
       </c>
       <c r="F335" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="H335">
-        <v>5504</v>
-      </c>
-      <c r="I335">
-        <v>35379</v>
+        <v>3596</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="B336" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="C336" t="s">
-        <v>447</v>
+        <v>322</v>
       </c>
       <c r="D336" t="s">
-        <v>83</v>
+        <v>205</v>
       </c>
       <c r="F336" t="s">
-        <v>1083</v>
+        <v>1080</v>
+      </c>
+      <c r="H336">
+        <v>5504</v>
       </c>
       <c r="I336">
-        <v>9157</v>
+        <v>35379</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="B337" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="C337" t="s">
-        <v>1086</v>
+        <v>447</v>
       </c>
       <c r="D337" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="F337" t="s">
         <v>1083</v>
       </c>
       <c r="I337">
-        <v>4588</v>
+        <v>9157</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="B338" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="C338" t="s">
-        <v>2</v>
+        <v>1086</v>
+      </c>
+      <c r="D338" t="s">
+        <v>127</v>
       </c>
       <c r="F338" t="s">
-        <v>1089</v>
+        <v>1083</v>
+      </c>
+      <c r="I338">
+        <v>4588</v>
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>1430</v>
+        <v>1087</v>
       </c>
       <c r="B339" t="s">
-        <v>1437</v>
+        <v>1088</v>
       </c>
       <c r="C339" t="s">
-        <v>34</v>
-      </c>
-      <c r="D339" t="s">
-        <v>46</v>
-      </c>
-      <c r="E339" t="s">
-        <v>109</v>
+        <v>2</v>
       </c>
       <c r="F339" t="s">
-        <v>689</v>
-      </c>
-      <c r="H339">
-        <v>8283</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>1090</v>
+        <v>1430</v>
       </c>
       <c r="B340" t="s">
-        <v>1091</v>
+        <v>1437</v>
       </c>
       <c r="C340" t="s">
-        <v>151</v>
+        <v>34</v>
+      </c>
+      <c r="D340" t="s">
+        <v>46</v>
+      </c>
+      <c r="E340" t="s">
+        <v>109</v>
       </c>
       <c r="F340" t="s">
-        <v>1092</v>
+        <v>689</v>
+      </c>
+      <c r="H340">
+        <v>8283</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="B341" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="C341" t="s">
-        <v>155</v>
-      </c>
-      <c r="D341" t="s">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="F341" t="s">
-        <v>1095</v>
-      </c>
-      <c r="H341">
-        <v>6212</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B342" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="C342" t="s">
-        <v>247</v>
+        <v>155</v>
       </c>
       <c r="D342" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F342" t="s">
         <v>1095</v>
       </c>
-      <c r="I342">
-        <v>32143</v>
+      <c r="H342">
+        <v>6212</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="B343" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="C343" t="s">
-        <v>19</v>
+        <v>247</v>
+      </c>
+      <c r="D343" t="s">
+        <v>59</v>
       </c>
       <c r="F343" t="s">
         <v>1095</v>
       </c>
+      <c r="I343">
+        <v>32143</v>
+      </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="B344" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="C344" t="s">
-        <v>1102</v>
-      </c>
-      <c r="D344" t="s">
-        <v>1103</v>
+        <v>19</v>
       </c>
       <c r="F344" t="s">
-        <v>1104</v>
-      </c>
-      <c r="H344">
-        <v>8063</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
       <c r="B345" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="C345" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
       <c r="D345" t="s">
-        <v>950</v>
+        <v>1103</v>
       </c>
       <c r="F345" t="s">
         <v>1104</v>
       </c>
       <c r="H345">
-        <v>8391</v>
+        <v>8063</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="B346" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="C346" t="s">
-        <v>59</v>
+        <v>1107</v>
       </c>
       <c r="D346" t="s">
-        <v>1110</v>
+        <v>950</v>
       </c>
       <c r="F346" t="s">
-        <v>1111</v>
-      </c>
-      <c r="I346">
-        <v>30850</v>
+        <v>1104</v>
+      </c>
+      <c r="H346">
+        <v>8391</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="B347" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="C347" t="s">
-        <v>2</v>
+        <v>59</v>
+      </c>
+      <c r="D347" t="s">
+        <v>1110</v>
       </c>
       <c r="F347" t="s">
-        <v>1114</v>
+        <v>1111</v>
+      </c>
+      <c r="I347">
+        <v>30850</v>
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="B348" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="C348" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F348" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="B349" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="C349" t="s">
-        <v>762</v>
-      </c>
-      <c r="D349" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F349" t="s">
-        <v>1120</v>
-      </c>
-      <c r="H349">
-        <v>3089</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="B350" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="C350" t="s">
-        <v>498</v>
+        <v>762</v>
+      </c>
+      <c r="D350" t="s">
+        <v>19</v>
       </c>
       <c r="F350" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="H350">
-        <v>3797</v>
-      </c>
-      <c r="I350">
-        <v>25283</v>
+        <v>3089</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="B351" t="s">
-        <v>1429</v>
+        <v>1122</v>
       </c>
       <c r="C351" t="s">
-        <v>1405</v>
-      </c>
-      <c r="D351" t="s">
-        <v>20</v>
+        <v>498</v>
       </c>
       <c r="F351" t="s">
         <v>1123</v>
       </c>
       <c r="H351">
-        <v>7969</v>
+        <v>3797</v>
+      </c>
+      <c r="I351">
+        <v>25283</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B352" t="s">
-        <v>1126</v>
+        <v>1429</v>
       </c>
       <c r="C352" t="s">
-        <v>19</v>
+        <v>1405</v>
+      </c>
+      <c r="D352" t="s">
+        <v>20</v>
       </c>
       <c r="F352" t="s">
-        <v>1127</v>
+        <v>1123</v>
+      </c>
+      <c r="H352">
+        <v>7969</v>
       </c>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="B353" t="s">
-        <v>1442</v>
+        <v>1126</v>
       </c>
       <c r="C353" t="s">
-        <v>1425</v>
-      </c>
-      <c r="D353" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="F353" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="B354" t="s">
-        <v>1131</v>
+        <v>1442</v>
       </c>
       <c r="C354" t="s">
-        <v>155</v>
+        <v>1425</v>
       </c>
       <c r="D354" t="s">
-        <v>1132</v>
+        <v>83</v>
       </c>
       <c r="F354" t="s">
-        <v>1133</v>
-      </c>
-      <c r="I354">
-        <v>27285</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="B355" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="C355" t="s">
-        <v>415</v>
+        <v>155</v>
+      </c>
+      <c r="D355" t="s">
+        <v>1132</v>
       </c>
       <c r="F355" t="s">
-        <v>1136</v>
+        <v>1133</v>
+      </c>
+      <c r="I355">
+        <v>27285</v>
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="B356" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="C356" t="s">
-        <v>122</v>
+        <v>415</v>
       </c>
       <c r="F356" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="B357" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="C357" t="s">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="F357" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="B358" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="C358" t="s">
-        <v>113</v>
-      </c>
-      <c r="D358" t="s">
-        <v>1145</v>
+        <v>35</v>
       </c>
       <c r="F358" t="s">
-        <v>1146</v>
-      </c>
-      <c r="I358">
-        <v>21099</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="B359" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="C359" t="s">
-        <v>83</v>
+        <v>113</v>
+      </c>
+      <c r="D359" t="s">
+        <v>1145</v>
       </c>
       <c r="F359" t="s">
-        <v>1149</v>
+        <v>1146</v>
+      </c>
+      <c r="I359">
+        <v>21099</v>
       </c>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="B360" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="C360" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="F360" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="B361" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="C361" t="s">
-        <v>109</v>
+        <v>7</v>
       </c>
       <c r="F361" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="B362" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="C362" t="s">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="F362" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="B363" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="C363" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D363" t="s">
-        <v>1162</v>
+        <v>19</v>
       </c>
       <c r="F363" t="s">
         <v>1158</v>
       </c>
-      <c r="H363">
-        <v>8279</v>
-      </c>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="B364" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="C364" t="s">
-        <v>83</v>
+        <v>1161</v>
+      </c>
+      <c r="D364" t="s">
+        <v>1162</v>
       </c>
       <c r="F364" t="s">
-        <v>1165</v>
+        <v>1158</v>
+      </c>
+      <c r="H364">
+        <v>8279</v>
       </c>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="B365" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="C365" t="s">
-        <v>248</v>
+        <v>83</v>
       </c>
       <c r="F365" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="B366" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="C366" t="s">
-        <v>19</v>
+        <v>248</v>
       </c>
       <c r="F366" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="B367" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="C367" t="s">
-        <v>39</v>
-      </c>
-      <c r="D367" t="s">
-        <v>498</v>
+        <v>19</v>
       </c>
       <c r="F367" t="s">
         <v>1171</v>
       </c>
-      <c r="I367">
-        <v>22288</v>
-      </c>
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="B368" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="C368" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="D368" t="s">
-        <v>931</v>
+        <v>498</v>
       </c>
       <c r="F368" t="s">
-        <v>1176</v>
+        <v>1171</v>
       </c>
       <c r="I368">
-        <v>19342</v>
+        <v>22288</v>
       </c>
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="B369" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="C369" t="s">
-        <v>7</v>
+        <v>63</v>
+      </c>
+      <c r="D369" t="s">
+        <v>931</v>
       </c>
       <c r="F369" t="s">
-        <v>1179</v>
+        <v>1176</v>
+      </c>
+      <c r="I369">
+        <v>19342</v>
       </c>
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="B370" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="C370" t="s">
-        <v>64</v>
-      </c>
-      <c r="D370" t="s">
-        <v>113</v>
+        <v>7</v>
       </c>
       <c r="F370" t="s">
-        <v>1182</v>
-      </c>
-      <c r="I370">
-        <v>25289</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="B371" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="C371" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="D371" t="s">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="F371" t="s">
-        <v>1185</v>
+        <v>1182</v>
+      </c>
+      <c r="I371">
+        <v>25289</v>
       </c>
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>1406</v>
+        <v>1183</v>
       </c>
       <c r="B372" t="s">
         <v>1184</v>
@@ -11435,13 +11447,16 @@
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>1186</v>
+        <v>1406</v>
       </c>
       <c r="B373" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="C373" t="s">
-        <v>54</v>
+        <v>20</v>
+      </c>
+      <c r="D373" t="s">
+        <v>35</v>
       </c>
       <c r="F373" t="s">
         <v>1185</v>
@@ -11449,13 +11464,13 @@
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="B374" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="C374" t="s">
-        <v>383</v>
+        <v>54</v>
       </c>
       <c r="F374" t="s">
         <v>1185</v>
@@ -11463,459 +11478,459 @@
     </row>
     <row r="375" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="B375" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="C375" t="s">
-        <v>68</v>
-      </c>
-      <c r="D375" t="s">
-        <v>205</v>
+        <v>383</v>
       </c>
       <c r="F375" t="s">
         <v>1185</v>
       </c>
-      <c r="I375">
-        <v>74771</v>
-      </c>
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="B376" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="C376" t="s">
-        <v>35</v>
+        <v>68</v>
+      </c>
+      <c r="D376" t="s">
+        <v>205</v>
       </c>
       <c r="F376" t="s">
         <v>1185</v>
       </c>
+      <c r="I376">
+        <v>74771</v>
+      </c>
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="B377" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="C377" t="s">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="F377" t="s">
-        <v>1196</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="B378" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="C378" t="s">
-        <v>2</v>
+        <v>104</v>
       </c>
       <c r="F378" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="B379" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="C379" t="s">
         <v>2</v>
       </c>
       <c r="F379" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="B380" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="C380" t="s">
-        <v>127</v>
+        <v>2</v>
       </c>
       <c r="F380" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="B381" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="C381" t="s">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c r="F381" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="B382" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="C382" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="F382" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="B383" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="C383" t="s">
-        <v>383</v>
+        <v>109</v>
       </c>
       <c r="F383" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="B384" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="C384" t="s">
-        <v>637</v>
-      </c>
-      <c r="D384" t="s">
-        <v>1217</v>
+        <v>383</v>
       </c>
       <c r="F384" t="s">
-        <v>1218</v>
-      </c>
-      <c r="H384">
-        <v>3650</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="B385" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="C385" t="s">
-        <v>1221</v>
+        <v>637</v>
       </c>
       <c r="D385" t="s">
-        <v>423</v>
+        <v>1217</v>
       </c>
       <c r="F385" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="H385">
-        <v>7294</v>
-      </c>
-      <c r="I385">
-        <v>60260</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="B386" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="C386" t="s">
-        <v>2</v>
+        <v>1221</v>
+      </c>
+      <c r="D386" t="s">
+        <v>423</v>
       </c>
       <c r="F386" t="s">
-        <v>1225</v>
+        <v>1222</v>
+      </c>
+      <c r="H386">
+        <v>7294</v>
+      </c>
+      <c r="I386">
+        <v>60260</v>
       </c>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="B387" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="C387" t="s">
-        <v>588</v>
-      </c>
-      <c r="D387" t="s">
-        <v>1228</v>
+        <v>2</v>
       </c>
       <c r="F387" t="s">
-        <v>1229</v>
-      </c>
-      <c r="H387">
-        <v>6734</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>1232</v>
+        <v>1226</v>
       </c>
       <c r="B388" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="C388" t="s">
-        <v>94</v>
+        <v>588</v>
       </c>
       <c r="D388" t="s">
-        <v>127</v>
+        <v>1228</v>
       </c>
       <c r="F388" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="H388">
-        <v>2583</v>
+        <v>6734</v>
       </c>
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B389" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="C389" t="s">
-        <v>6</v>
+        <v>94</v>
+      </c>
+      <c r="D389" t="s">
+        <v>127</v>
       </c>
       <c r="F389" t="s">
-        <v>1235</v>
+        <v>1231</v>
+      </c>
+      <c r="H389">
+        <v>2583</v>
       </c>
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="B390" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="C390" t="s">
-        <v>1238</v>
-      </c>
-      <c r="D390" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="F390" t="s">
-        <v>1239</v>
-      </c>
-      <c r="I390">
-        <v>14369</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="391" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="B391" t="s">
-        <v>1241</v>
+        <v>1237</v>
       </c>
       <c r="C391" t="s">
-        <v>2</v>
+        <v>1238</v>
+      </c>
+      <c r="D391" t="s">
+        <v>54</v>
       </c>
       <c r="F391" t="s">
-        <v>1242</v>
+        <v>1239</v>
+      </c>
+      <c r="I391">
+        <v>14369</v>
       </c>
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="B392" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="C392" t="s">
-        <v>151</v>
+        <v>2</v>
       </c>
       <c r="F392" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="393" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="B393" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="C393" t="s">
-        <v>215</v>
-      </c>
-      <c r="D393" t="s">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c r="F393" t="s">
-        <v>1248</v>
-      </c>
-      <c r="I393">
-        <v>15373</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="394" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="B394" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="C394" t="s">
-        <v>151</v>
+        <v>215</v>
+      </c>
+      <c r="D394" t="s">
+        <v>19</v>
       </c>
       <c r="F394" t="s">
-        <v>1251</v>
+        <v>1248</v>
+      </c>
+      <c r="I394">
+        <v>15373</v>
       </c>
     </row>
     <row r="395" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="B395" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="C395" t="s">
-        <v>2</v>
+        <v>151</v>
       </c>
       <c r="F395" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="B396" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="C396" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="F396" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="B397" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="C397" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="F397" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="B398" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="C398" t="s">
-        <v>1110</v>
-      </c>
-      <c r="D398" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="F398" t="s">
         <v>1260</v>
       </c>
-      <c r="I398">
-        <v>13184</v>
-      </c>
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="B399" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="C399" t="s">
-        <v>20</v>
+        <v>1110</v>
+      </c>
+      <c r="D399" t="s">
+        <v>127</v>
       </c>
       <c r="F399" t="s">
-        <v>1265</v>
+        <v>1260</v>
+      </c>
+      <c r="I399">
+        <v>13184</v>
       </c>
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="B400" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="C400" t="s">
-        <v>1268</v>
+        <v>20</v>
       </c>
       <c r="F400" t="s">
-        <v>1269</v>
-      </c>
-      <c r="I400">
-        <v>15504</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="B401" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="C401" t="s">
-        <v>415</v>
+        <v>1268</v>
       </c>
       <c r="F401" t="s">
-        <v>1272</v>
+        <v>1269</v>
+      </c>
+      <c r="I401">
+        <v>15504</v>
       </c>
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="B402" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="C402" t="s">
-        <v>7</v>
+        <v>415</v>
       </c>
       <c r="F402" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="B403" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="C403" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="F403" t="s">
         <v>1275</v>
@@ -11923,301 +11938,301 @@
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="B404" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="C404" t="s">
-        <v>533</v>
-      </c>
-      <c r="D404" t="s">
-        <v>1280</v>
+        <v>54</v>
       </c>
       <c r="F404" t="s">
         <v>1275</v>
       </c>
-      <c r="H404">
-        <v>7925</v>
-      </c>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="B405" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="C405" t="s">
-        <v>1283</v>
+        <v>533</v>
       </c>
       <c r="D405" t="s">
-        <v>447</v>
+        <v>1280</v>
       </c>
       <c r="F405" t="s">
-        <v>1284</v>
+        <v>1275</v>
       </c>
       <c r="H405">
-        <v>4393</v>
+        <v>7925</v>
       </c>
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="B406" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="C406" t="s">
-        <v>46</v>
+        <v>1283</v>
+      </c>
+      <c r="D406" t="s">
+        <v>447</v>
       </c>
       <c r="F406" t="s">
-        <v>1287</v>
+        <v>1284</v>
+      </c>
+      <c r="H406">
+        <v>4393</v>
       </c>
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="B407" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="C407" t="s">
-        <v>807</v>
-      </c>
-      <c r="D407" t="s">
-        <v>1290</v>
+        <v>46</v>
       </c>
       <c r="F407" t="s">
-        <v>588</v>
-      </c>
-      <c r="I407">
-        <v>35554</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="B408" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="C408" t="s">
-        <v>109</v>
+        <v>807</v>
+      </c>
+      <c r="D408" t="s">
+        <v>1290</v>
       </c>
       <c r="F408" t="s">
         <v>588</v>
       </c>
+      <c r="I408">
+        <v>35554</v>
+      </c>
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="B409" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="C409" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="F409" t="s">
-        <v>1295</v>
+        <v>588</v>
       </c>
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="B410" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="C410" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="F410" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="B411" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="C411" t="s">
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="F411" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="B412" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="C412" t="s">
-        <v>122</v>
+        <v>2</v>
       </c>
       <c r="F412" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="B413" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="C413" t="s">
-        <v>19</v>
+        <v>122</v>
       </c>
       <c r="F413" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="B414" t="s">
-        <v>1409</v>
+        <v>1306</v>
       </c>
       <c r="C414" t="s">
-        <v>1408</v>
-      </c>
-      <c r="D414" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="F414" t="s">
-        <v>1309</v>
-      </c>
-      <c r="H414">
-        <v>8683</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="415" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="B415" t="s">
-        <v>1311</v>
+        <v>1409</v>
       </c>
       <c r="C415" t="s">
-        <v>94</v>
+        <v>1408</v>
       </c>
       <c r="D415" t="s">
-        <v>1041</v>
+        <v>46</v>
       </c>
       <c r="F415" t="s">
-        <v>1312</v>
-      </c>
-      <c r="I415">
-        <v>16760</v>
+        <v>1309</v>
+      </c>
+      <c r="H415">
+        <v>8683</v>
       </c>
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="B416" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="C416" t="s">
-        <v>127</v>
+        <v>94</v>
+      </c>
+      <c r="D416" t="s">
+        <v>1041</v>
       </c>
       <c r="F416" t="s">
-        <v>1315</v>
+        <v>1312</v>
+      </c>
+      <c r="I416">
+        <v>16760</v>
       </c>
     </row>
     <row r="417" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="B417" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="C417" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="F417" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="418" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="B418" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="C418" t="s">
-        <v>1321</v>
-      </c>
-      <c r="D418" t="s">
-        <v>498</v>
+        <v>122</v>
       </c>
       <c r="F418" t="s">
-        <v>1322</v>
-      </c>
-      <c r="I418">
-        <v>19264</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="419" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
       <c r="B419" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
       <c r="C419" t="s">
-        <v>7</v>
+        <v>1321</v>
+      </c>
+      <c r="D419" t="s">
+        <v>498</v>
       </c>
       <c r="F419" t="s">
-        <v>1325</v>
+        <v>1322</v>
+      </c>
+      <c r="I419">
+        <v>19264</v>
       </c>
     </row>
     <row r="420" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="B420" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="C420" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F420" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="421" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="B421" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="C421" t="s">
-        <v>122</v>
+        <v>19</v>
       </c>
       <c r="F421" t="s">
-        <v>1110</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="422" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="B422" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="C422" t="s">
-        <v>2</v>
+        <v>122</v>
       </c>
       <c r="F422" t="s">
         <v>1110</v>
@@ -12225,275 +12240,275 @@
     </row>
     <row r="423" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="B423" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="C423" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="F423" t="s">
-        <v>1335</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="424" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="B424" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
       <c r="C424" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="F424" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="425" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
       <c r="B425" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
       <c r="C425" t="s">
-        <v>151</v>
+        <v>109</v>
       </c>
       <c r="F425" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="426" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B426" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="C426" t="s">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="F426" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="427" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="B427" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="C427" t="s">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="F427" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="428" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="B428" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="C428" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="F428" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="429" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="B429" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="C429" t="s">
-        <v>1353</v>
-      </c>
-      <c r="D429" t="s">
-        <v>127</v>
+        <v>19</v>
       </c>
       <c r="F429" t="s">
-        <v>1354</v>
-      </c>
-      <c r="H429">
-        <v>2910</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="430" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>1355</v>
+        <v>1351</v>
       </c>
       <c r="B430" t="s">
-        <v>1356</v>
+        <v>1352</v>
       </c>
       <c r="C430" t="s">
-        <v>7</v>
+        <v>1353</v>
+      </c>
+      <c r="D430" t="s">
+        <v>127</v>
       </c>
       <c r="F430" t="s">
-        <v>1357</v>
+        <v>1354</v>
+      </c>
+      <c r="H430">
+        <v>2910</v>
       </c>
     </row>
     <row r="431" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="B431" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="C431" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="F431" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="432" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="B432" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="C432" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="F432" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="433" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="B433" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="C433" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="F433" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="434" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="B434" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="C434" t="s">
-        <v>68</v>
-      </c>
-      <c r="D434" t="s">
-        <v>122</v>
+        <v>2</v>
       </c>
       <c r="F434" t="s">
-        <v>1369</v>
-      </c>
-      <c r="I434">
-        <v>12650</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="435" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="B435" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="C435" t="s">
-        <v>151</v>
+        <v>68</v>
+      </c>
+      <c r="D435" t="s">
+        <v>122</v>
       </c>
       <c r="F435" t="s">
-        <v>1372</v>
+        <v>1369</v>
+      </c>
+      <c r="I435">
+        <v>12650</v>
       </c>
     </row>
     <row r="436" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="B436" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="C436" t="s">
-        <v>113</v>
-      </c>
-      <c r="D436" t="s">
-        <v>2</v>
+        <v>151</v>
       </c>
       <c r="F436" t="s">
         <v>1372</v>
       </c>
-      <c r="I436">
-        <v>9878</v>
-      </c>
     </row>
     <row r="437" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="B437" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="C437" t="s">
-        <v>122</v>
+        <v>113</v>
+      </c>
+      <c r="D437" t="s">
+        <v>2</v>
       </c>
       <c r="F437" t="s">
-        <v>1377</v>
+        <v>1372</v>
+      </c>
+      <c r="I437">
+        <v>9878</v>
       </c>
     </row>
     <row r="438" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="B438" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="C438" t="s">
-        <v>215</v>
-      </c>
-      <c r="D438" t="s">
-        <v>383</v>
+        <v>122</v>
       </c>
       <c r="F438" t="s">
-        <v>1380</v>
-      </c>
-      <c r="I438">
-        <v>15567</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="439" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="B439" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="C439" t="s">
-        <v>20</v>
+        <v>215</v>
+      </c>
+      <c r="D439" t="s">
+        <v>383</v>
       </c>
       <c r="F439" t="s">
-        <v>1383</v>
+        <v>1380</v>
+      </c>
+      <c r="I439">
+        <v>15567</v>
       </c>
     </row>
     <row r="440" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="B440" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="C440" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F440" t="s">
         <v>1383</v>
@@ -12501,96 +12516,110 @@
     </row>
     <row r="441" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="B441" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="C441" t="s">
-        <v>637</v>
-      </c>
-      <c r="D441" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="F441" t="s">
-        <v>1387</v>
-      </c>
-      <c r="H441">
-        <v>4851</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="442" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="B442" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
       <c r="C442" t="s">
-        <v>46</v>
+        <v>637</v>
+      </c>
+      <c r="D442" t="s">
+        <v>95</v>
       </c>
       <c r="F442" t="s">
-        <v>1391</v>
+        <v>1387</v>
+      </c>
+      <c r="H442">
+        <v>4851</v>
       </c>
     </row>
     <row r="443" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="B443" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="C443" t="s">
-        <v>447</v>
-      </c>
-      <c r="D443" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="F443" t="s">
-        <v>1394</v>
-      </c>
-      <c r="I443">
-        <v>10658</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="444" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="B444" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="C444" t="s">
-        <v>248</v>
+        <v>447</v>
+      </c>
+      <c r="D444" t="s">
+        <v>2</v>
       </c>
       <c r="F444" t="s">
         <v>1394</v>
       </c>
+      <c r="I444">
+        <v>10658</v>
+      </c>
     </row>
     <row r="445" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="B445" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="C445" t="s">
-        <v>1095</v>
+        <v>248</v>
       </c>
       <c r="F445" t="s">
         <v>1394</v>
       </c>
-      <c r="H445">
+    </row>
+    <row r="446" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B446" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C446" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F446" t="s">
+        <v>1394</v>
+      </c>
+      <c r="H446">
         <v>9088</v>
       </c>
-      <c r="I445">
+      <c r="I446">
         <v>67604</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:J494">
-    <sortCondition ref="F2:F494"/>
-    <sortCondition ref="C2:C494"/>
+  <sortState ref="A2:J495">
+    <sortCondition ref="F2:F495"/>
+    <sortCondition ref="C2:C495"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/surveyor.xlsx
+++ b/data/surveyor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Python\hummaps-admin\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B9A7DA-D81F-413B-B460-A710D580CD2B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59ECB48C-DE84-4973-97AA-3D9218289320}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22590" windowHeight="10185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30165" yWindow="375" windowWidth="22965" windowHeight="14310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="surveyors" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1982" uniqueCount="1446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1983" uniqueCount="1446">
   <si>
     <t>R. AANRUD</t>
   </si>
@@ -5200,8 +5200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I446"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="A184" sqref="A184"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="H154" sqref="H154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7833,10 +7833,16 @@
         <v>520</v>
       </c>
       <c r="C153" t="s">
-        <v>104</v>
+        <v>592</v>
+      </c>
+      <c r="D153" t="s">
+        <v>122</v>
       </c>
       <c r="F153" t="s">
         <v>521</v>
+      </c>
+      <c r="H153">
+        <v>2017</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
@@ -12617,7 +12623,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:J495">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J495">
     <sortCondition ref="F2:F495"/>
     <sortCondition ref="C2:C495"/>
   </sortState>

--- a/data/surveyor.xlsx
+++ b/data/surveyor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Python\hummaps-admin\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59ECB48C-DE84-4973-97AA-3D9218289320}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A41AD2-63A0-404F-B0C0-591FFD628722}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30165" yWindow="375" windowWidth="22965" windowHeight="14310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31035" yWindow="1395" windowWidth="23220" windowHeight="14310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="surveyors" sheetId="1" r:id="rId1"/>
@@ -1582,9 +1582,6 @@
     <t>F. GRIMM</t>
   </si>
   <si>
-    <t>F GRIMM</t>
-  </si>
-  <si>
     <t>GRIMM</t>
   </si>
   <si>
@@ -4358,6 +4355,9 @@
   </si>
   <si>
     <t>HOAGLAND</t>
+  </si>
+  <si>
+    <t>FRANK L GRIMM</t>
   </si>
 </sst>
 </file>
@@ -5201,7 +5201,7 @@
   <dimension ref="A1:I446"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="H154" sqref="H154"/>
+      <selection activeCell="A153" sqref="A153:XFD153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5219,31 +5219,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B1" t="s">
         <v>1415</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1416</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1417</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1418</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>1419</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>1420</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>1421</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>1422</v>
-      </c>
-      <c r="I1" t="s">
-        <v>1423</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -5803,7 +5803,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B32" t="s">
         <v>125</v>
@@ -6179,19 +6179,19 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B52" t="s">
         <v>1410</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>1411</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>1412</v>
       </c>
-      <c r="D52" t="s">
+      <c r="F52" t="s">
         <v>1413</v>
-      </c>
-      <c r="F52" t="s">
-        <v>1414</v>
       </c>
       <c r="H52">
         <v>9339</v>
@@ -6870,10 +6870,10 @@
         <v>335</v>
       </c>
       <c r="B93" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="C93" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D93" t="s">
         <v>447</v>
@@ -6980,7 +6980,7 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="B100" t="s">
         <v>355</v>
@@ -7056,19 +7056,19 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="B105" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="C105" t="s">
         <v>63</v>
       </c>
       <c r="D105" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="F105" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="G105" t="s">
         <v>201</v>
@@ -7366,7 +7366,7 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="B125" t="s">
         <v>433</v>
@@ -7394,7 +7394,7 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="B127" t="s">
         <v>438</v>
@@ -7408,7 +7408,7 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="B128" t="s">
         <v>440</v>
@@ -7436,19 +7436,19 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C130" t="s">
         <v>1424</v>
-      </c>
-      <c r="B130" t="s">
-        <v>1427</v>
-      </c>
-      <c r="C130" t="s">
-        <v>1425</v>
       </c>
       <c r="D130" t="s">
         <v>439</v>
       </c>
       <c r="F130" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="G130" t="s">
         <v>201</v>
@@ -7830,16 +7830,16 @@
         <v>519</v>
       </c>
       <c r="B153" t="s">
-        <v>520</v>
+        <v>1445</v>
       </c>
       <c r="C153" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D153" t="s">
         <v>122</v>
       </c>
       <c r="F153" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H153">
         <v>2017</v>
@@ -7847,24 +7847,24 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
+        <v>521</v>
+      </c>
+      <c r="B154" t="s">
         <v>522</v>
-      </c>
-      <c r="B154" t="s">
-        <v>523</v>
       </c>
       <c r="C154" t="s">
         <v>19</v>
       </c>
       <c r="F154" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
+        <v>524</v>
+      </c>
+      <c r="B155" t="s">
         <v>525</v>
-      </c>
-      <c r="B155" t="s">
-        <v>526</v>
       </c>
       <c r="C155" t="s">
         <v>155</v>
@@ -7873,7 +7873,7 @@
         <v>122</v>
       </c>
       <c r="F155" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I155">
         <v>23355</v>
@@ -7881,33 +7881,33 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
+        <v>527</v>
+      </c>
+      <c r="B156" t="s">
         <v>528</v>
-      </c>
-      <c r="B156" t="s">
-        <v>529</v>
       </c>
       <c r="C156" t="s">
         <v>20</v>
       </c>
       <c r="F156" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
+        <v>530</v>
+      </c>
+      <c r="B157" t="s">
         <v>531</v>
       </c>
-      <c r="B157" t="s">
+      <c r="C157" t="s">
         <v>532</v>
-      </c>
-      <c r="C157" t="s">
-        <v>533</v>
       </c>
       <c r="D157" t="s">
         <v>20</v>
       </c>
       <c r="F157" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G157" t="s">
         <v>201</v>
@@ -7918,19 +7918,19 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
+        <v>534</v>
+      </c>
+      <c r="B158" t="s">
         <v>535</v>
       </c>
-      <c r="B158" t="s">
+      <c r="C158" t="s">
         <v>536</v>
-      </c>
-      <c r="C158" t="s">
-        <v>537</v>
       </c>
       <c r="D158" t="s">
         <v>151</v>
       </c>
       <c r="F158" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H158">
         <v>3431</v>
@@ -7938,75 +7938,75 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
+        <v>538</v>
+      </c>
+      <c r="B159" t="s">
         <v>539</v>
-      </c>
-      <c r="B159" t="s">
-        <v>540</v>
       </c>
       <c r="C159" t="s">
         <v>46</v>
       </c>
       <c r="F159" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
+        <v>541</v>
+      </c>
+      <c r="B160" t="s">
         <v>542</v>
-      </c>
-      <c r="B160" t="s">
-        <v>543</v>
       </c>
       <c r="C160" t="s">
         <v>2</v>
       </c>
       <c r="F160" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
+        <v>544</v>
+      </c>
+      <c r="B161" t="s">
         <v>545</v>
-      </c>
-      <c r="B161" t="s">
-        <v>546</v>
       </c>
       <c r="C161" t="s">
         <v>7</v>
       </c>
       <c r="F161" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
+        <v>547</v>
+      </c>
+      <c r="B162" t="s">
         <v>548</v>
-      </c>
-      <c r="B162" t="s">
-        <v>549</v>
       </c>
       <c r="C162" t="s">
         <v>6</v>
       </c>
       <c r="F162" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
+        <v>550</v>
+      </c>
+      <c r="B163" t="s">
         <v>551</v>
       </c>
-      <c r="B163" t="s">
+      <c r="C163" t="s">
         <v>552</v>
       </c>
-      <c r="C163" t="s">
+      <c r="D163" t="s">
         <v>553</v>
       </c>
-      <c r="D163" t="s">
+      <c r="F163" t="s">
         <v>554</v>
-      </c>
-      <c r="F163" t="s">
-        <v>555</v>
       </c>
       <c r="H163">
         <v>6611</v>
@@ -8014,10 +8014,10 @@
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
+        <v>555</v>
+      </c>
+      <c r="B164" t="s">
         <v>556</v>
-      </c>
-      <c r="B164" t="s">
-        <v>557</v>
       </c>
       <c r="C164" t="s">
         <v>63</v>
@@ -8026,7 +8026,7 @@
         <v>83</v>
       </c>
       <c r="F164" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H164">
         <v>7683</v>
@@ -8034,24 +8034,24 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
+        <v>558</v>
+      </c>
+      <c r="B165" t="s">
         <v>559</v>
-      </c>
-      <c r="B165" t="s">
-        <v>560</v>
       </c>
       <c r="C165" t="s">
         <v>19</v>
       </c>
       <c r="F165" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
+        <v>561</v>
+      </c>
+      <c r="B166" t="s">
         <v>562</v>
-      </c>
-      <c r="B166" t="s">
-        <v>563</v>
       </c>
       <c r="C166" t="s">
         <v>99</v>
@@ -8060,7 +8060,7 @@
         <v>7</v>
       </c>
       <c r="F166" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I166">
         <v>7642</v>
@@ -8068,10 +8068,10 @@
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
+        <v>564</v>
+      </c>
+      <c r="B167" t="s">
         <v>565</v>
-      </c>
-      <c r="B167" t="s">
-        <v>566</v>
       </c>
       <c r="C167" t="s">
         <v>104</v>
@@ -8080,15 +8080,15 @@
         <v>109</v>
       </c>
       <c r="F167" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="B168" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C168" t="s">
         <v>104</v>
@@ -8097,52 +8097,52 @@
         <v>109</v>
       </c>
       <c r="F168" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
+        <v>567</v>
+      </c>
+      <c r="B169" t="s">
         <v>568</v>
-      </c>
-      <c r="B169" t="s">
-        <v>569</v>
       </c>
       <c r="C169" t="s">
         <v>19</v>
       </c>
       <c r="F169" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
+        <v>570</v>
+      </c>
+      <c r="B170" t="s">
         <v>571</v>
-      </c>
-      <c r="B170" t="s">
-        <v>572</v>
       </c>
       <c r="C170" t="s">
         <v>19</v>
       </c>
       <c r="F170" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
+        <v>573</v>
+      </c>
+      <c r="B171" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C171" t="s">
+        <v>806</v>
+      </c>
+      <c r="D171" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F171" t="s">
         <v>574</v>
-      </c>
-      <c r="B171" t="s">
-        <v>1436</v>
-      </c>
-      <c r="C171" t="s">
-        <v>807</v>
-      </c>
-      <c r="D171" t="s">
-        <v>1435</v>
-      </c>
-      <c r="F171" t="s">
-        <v>575</v>
       </c>
       <c r="H171">
         <v>8925</v>
@@ -8153,61 +8153,61 @@
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
+        <v>575</v>
+      </c>
+      <c r="B172" t="s">
         <v>576</v>
-      </c>
-      <c r="B172" t="s">
-        <v>577</v>
       </c>
       <c r="C172" t="s">
         <v>25</v>
       </c>
       <c r="F172" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
+        <v>578</v>
+      </c>
+      <c r="B173" t="s">
         <v>579</v>
-      </c>
-      <c r="B173" t="s">
-        <v>580</v>
       </c>
       <c r="C173" t="s">
         <v>7</v>
       </c>
       <c r="F173" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
+        <v>581</v>
+      </c>
+      <c r="B174" t="s">
         <v>582</v>
-      </c>
-      <c r="B174" t="s">
-        <v>583</v>
       </c>
       <c r="C174" t="s">
         <v>25</v>
       </c>
       <c r="F174" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
+        <v>584</v>
+      </c>
+      <c r="B175" t="s">
         <v>585</v>
       </c>
-      <c r="B175" t="s">
+      <c r="C175" t="s">
         <v>586</v>
       </c>
-      <c r="C175" t="s">
+      <c r="D175" t="s">
         <v>587</v>
       </c>
-      <c r="D175" t="s">
+      <c r="F175" t="s">
         <v>588</v>
-      </c>
-      <c r="F175" t="s">
-        <v>589</v>
       </c>
       <c r="H175">
         <v>8335</v>
@@ -8215,27 +8215,27 @@
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
+        <v>589</v>
+      </c>
+      <c r="B176" t="s">
         <v>590</v>
       </c>
-      <c r="B176" t="s">
+      <c r="C176" t="s">
         <v>591</v>
-      </c>
-      <c r="C176" t="s">
-        <v>592</v>
       </c>
       <c r="D176" t="s">
         <v>54</v>
       </c>
       <c r="F176" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
+        <v>593</v>
+      </c>
+      <c r="B177" t="s">
         <v>594</v>
-      </c>
-      <c r="B177" t="s">
-        <v>595</v>
       </c>
       <c r="C177" t="s">
         <v>2</v>
@@ -8244,66 +8244,66 @@
         <v>104</v>
       </c>
       <c r="F177" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
+        <v>595</v>
+      </c>
+      <c r="B178" t="s">
         <v>596</v>
-      </c>
-      <c r="B178" t="s">
-        <v>597</v>
       </c>
       <c r="C178" t="s">
         <v>54</v>
       </c>
       <c r="F178" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
+        <v>598</v>
+      </c>
+      <c r="B179" t="s">
         <v>599</v>
-      </c>
-      <c r="B179" t="s">
-        <v>600</v>
       </c>
       <c r="C179" t="s">
         <v>109</v>
       </c>
       <c r="F179" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
+        <v>601</v>
+      </c>
+      <c r="B180" t="s">
         <v>602</v>
-      </c>
-      <c r="B180" t="s">
-        <v>603</v>
       </c>
       <c r="C180" t="s">
         <v>2</v>
       </c>
       <c r="F180" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
+        <v>604</v>
+      </c>
+      <c r="B181" t="s">
         <v>605</v>
       </c>
-      <c r="B181" t="s">
+      <c r="C181" t="s">
         <v>606</v>
-      </c>
-      <c r="C181" t="s">
-        <v>607</v>
       </c>
       <c r="D181" t="s">
         <v>20</v>
       </c>
       <c r="F181" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="I181">
         <v>5438</v>
@@ -8311,16 +8311,16 @@
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
+        <v>608</v>
+      </c>
+      <c r="B182" t="s">
         <v>609</v>
-      </c>
-      <c r="B182" t="s">
-        <v>610</v>
       </c>
       <c r="C182" t="s">
         <v>498</v>
       </c>
       <c r="F182" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H182">
         <v>3254</v>
@@ -8328,19 +8328,19 @@
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B183" t="s">
         <v>1443</v>
       </c>
-      <c r="B183" t="s">
-        <v>1444</v>
-      </c>
       <c r="C183" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D183" t="s">
         <v>380</v>
       </c>
       <c r="F183" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="H183">
         <v>8621</v>
@@ -8348,61 +8348,61 @@
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
+        <v>610</v>
+      </c>
+      <c r="B184" t="s">
         <v>611</v>
-      </c>
-      <c r="B184" t="s">
-        <v>612</v>
       </c>
       <c r="C184" t="s">
         <v>2</v>
       </c>
       <c r="F184" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
+        <v>613</v>
+      </c>
+      <c r="B185" t="s">
         <v>614</v>
-      </c>
-      <c r="B185" t="s">
-        <v>615</v>
       </c>
       <c r="C185" t="s">
         <v>109</v>
       </c>
       <c r="F185" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
+        <v>616</v>
+      </c>
+      <c r="B186" t="s">
         <v>617</v>
-      </c>
-      <c r="B186" t="s">
-        <v>618</v>
       </c>
       <c r="C186" t="s">
         <v>7</v>
       </c>
       <c r="F186" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
+        <v>619</v>
+      </c>
+      <c r="B187" t="s">
         <v>620</v>
       </c>
-      <c r="B187" t="s">
+      <c r="C187" t="s">
         <v>621</v>
-      </c>
-      <c r="C187" t="s">
-        <v>622</v>
       </c>
       <c r="D187" t="s">
         <v>127</v>
       </c>
       <c r="F187" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H187">
         <v>7801</v>
@@ -8410,24 +8410,24 @@
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
+        <v>622</v>
+      </c>
+      <c r="B188" t="s">
         <v>623</v>
-      </c>
-      <c r="B188" t="s">
-        <v>624</v>
       </c>
       <c r="C188" t="s">
         <v>122</v>
       </c>
       <c r="F188" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
+        <v>625</v>
+      </c>
+      <c r="B189" t="s">
         <v>626</v>
-      </c>
-      <c r="B189" t="s">
-        <v>627</v>
       </c>
       <c r="C189" t="s">
         <v>59</v>
@@ -8436,7 +8436,7 @@
         <v>113</v>
       </c>
       <c r="F189" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H189">
         <v>6356</v>
@@ -8444,19 +8444,19 @@
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
+        <v>627</v>
+      </c>
+      <c r="B190" t="s">
         <v>628</v>
       </c>
-      <c r="B190" t="s">
+      <c r="C190" t="s">
         <v>629</v>
       </c>
-      <c r="C190" t="s">
+      <c r="D190" t="s">
         <v>630</v>
       </c>
-      <c r="D190" t="s">
+      <c r="F190" t="s">
         <v>631</v>
-      </c>
-      <c r="F190" t="s">
-        <v>632</v>
       </c>
       <c r="H190">
         <v>7858</v>
@@ -8464,10 +8464,10 @@
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
+        <v>632</v>
+      </c>
+      <c r="B191" t="s">
         <v>633</v>
-      </c>
-      <c r="B191" t="s">
-        <v>634</v>
       </c>
       <c r="C191" t="s">
         <v>411</v>
@@ -8478,19 +8478,19 @@
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B192" t="s">
         <v>1431</v>
       </c>
-      <c r="B192" t="s">
+      <c r="C192" t="s">
+        <v>889</v>
+      </c>
+      <c r="D192" t="s">
         <v>1432</v>
       </c>
-      <c r="C192" t="s">
-        <v>890</v>
-      </c>
-      <c r="D192" t="s">
+      <c r="F192" t="s">
         <v>1433</v>
-      </c>
-      <c r="F192" t="s">
-        <v>1434</v>
       </c>
       <c r="H192">
         <v>7366</v>
@@ -8498,19 +8498,19 @@
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
+        <v>634</v>
+      </c>
+      <c r="B193" t="s">
         <v>635</v>
       </c>
-      <c r="B193" t="s">
+      <c r="C193" t="s">
         <v>636</v>
       </c>
-      <c r="C193" t="s">
+      <c r="D193" t="s">
         <v>637</v>
       </c>
-      <c r="D193" t="s">
+      <c r="F193" t="s">
         <v>638</v>
-      </c>
-      <c r="F193" t="s">
-        <v>639</v>
       </c>
       <c r="I193">
         <v>24779</v>
@@ -8518,10 +8518,10 @@
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
+        <v>639</v>
+      </c>
+      <c r="B194" t="s">
         <v>640</v>
-      </c>
-      <c r="B194" t="s">
-        <v>641</v>
       </c>
       <c r="C194" t="s">
         <v>457</v>
@@ -8530,7 +8530,7 @@
         <v>139</v>
       </c>
       <c r="F194" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H194">
         <v>4570</v>
@@ -8538,131 +8538,131 @@
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
+        <v>642</v>
+      </c>
+      <c r="B195" t="s">
         <v>643</v>
-      </c>
-      <c r="B195" t="s">
-        <v>644</v>
       </c>
       <c r="C195" t="s">
         <v>46</v>
       </c>
       <c r="F195" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
+        <v>645</v>
+      </c>
+      <c r="B196" t="s">
         <v>646</v>
-      </c>
-      <c r="B196" t="s">
-        <v>647</v>
       </c>
       <c r="C196" t="s">
         <v>109</v>
       </c>
       <c r="F196" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
+        <v>647</v>
+      </c>
+      <c r="B197" t="s">
         <v>648</v>
-      </c>
-      <c r="B197" t="s">
-        <v>649</v>
       </c>
       <c r="C197" t="s">
         <v>35</v>
       </c>
       <c r="F197" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
+        <v>650</v>
+      </c>
+      <c r="B198" t="s">
         <v>651</v>
-      </c>
-      <c r="B198" t="s">
-        <v>652</v>
       </c>
       <c r="C198" t="s">
         <v>109</v>
       </c>
       <c r="F198" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
+        <v>653</v>
+      </c>
+      <c r="B199" t="s">
         <v>654</v>
-      </c>
-      <c r="B199" t="s">
-        <v>655</v>
       </c>
       <c r="C199" t="s">
         <v>248</v>
       </c>
       <c r="F199" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
+        <v>656</v>
+      </c>
+      <c r="B200" t="s">
         <v>657</v>
-      </c>
-      <c r="B200" t="s">
-        <v>658</v>
       </c>
       <c r="C200" t="s">
         <v>104</v>
       </c>
       <c r="F200" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
+        <v>659</v>
+      </c>
+      <c r="B201" t="s">
         <v>660</v>
-      </c>
-      <c r="B201" t="s">
-        <v>661</v>
       </c>
       <c r="C201" t="s">
         <v>19</v>
       </c>
       <c r="F201" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
+        <v>661</v>
+      </c>
+      <c r="B202" t="s">
         <v>662</v>
-      </c>
-      <c r="B202" t="s">
-        <v>663</v>
       </c>
       <c r="C202" t="s">
         <v>2</v>
       </c>
       <c r="F202" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
+        <v>664</v>
+      </c>
+      <c r="B203" t="s">
         <v>665</v>
       </c>
-      <c r="B203" t="s">
+      <c r="C203" t="s">
         <v>666</v>
       </c>
-      <c r="C203" t="s">
+      <c r="D203" t="s">
         <v>667</v>
       </c>
-      <c r="D203" t="s">
+      <c r="F203" t="s">
         <v>668</v>
-      </c>
-      <c r="F203" t="s">
-        <v>669</v>
       </c>
       <c r="H203">
         <v>8153</v>
@@ -8670,52 +8670,52 @@
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
+        <v>669</v>
+      </c>
+      <c r="B204" t="s">
         <v>670</v>
-      </c>
-      <c r="B204" t="s">
-        <v>671</v>
       </c>
       <c r="C204" t="s">
         <v>25</v>
       </c>
       <c r="F204" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
+        <v>672</v>
+      </c>
+      <c r="B205" t="s">
         <v>673</v>
-      </c>
-      <c r="B205" t="s">
-        <v>674</v>
       </c>
       <c r="C205" t="s">
         <v>2</v>
       </c>
       <c r="F205" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
+        <v>675</v>
+      </c>
+      <c r="B206" t="s">
         <v>676</v>
-      </c>
-      <c r="B206" t="s">
-        <v>677</v>
       </c>
       <c r="C206" t="s">
         <v>109</v>
       </c>
       <c r="F206" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
+        <v>678</v>
+      </c>
+      <c r="B207" t="s">
         <v>679</v>
-      </c>
-      <c r="B207" t="s">
-        <v>680</v>
       </c>
       <c r="C207" t="s">
         <v>39</v>
@@ -8724,7 +8724,7 @@
         <v>447</v>
       </c>
       <c r="F207" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I207">
         <v>18584</v>
@@ -8732,19 +8732,19 @@
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
+        <v>681</v>
+      </c>
+      <c r="B208" t="s">
         <v>682</v>
       </c>
-      <c r="B208" t="s">
+      <c r="C208" t="s">
         <v>683</v>
       </c>
-      <c r="C208" t="s">
+      <c r="D208" t="s">
         <v>684</v>
       </c>
-      <c r="D208" t="s">
+      <c r="F208" t="s">
         <v>685</v>
-      </c>
-      <c r="F208" t="s">
-        <v>686</v>
       </c>
       <c r="H208">
         <v>6621</v>
@@ -8752,19 +8752,19 @@
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
+        <v>686</v>
+      </c>
+      <c r="B209" t="s">
         <v>687</v>
-      </c>
-      <c r="B209" t="s">
-        <v>688</v>
       </c>
       <c r="C209" t="s">
         <v>316</v>
       </c>
       <c r="D209" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F209" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H209">
         <v>9194</v>
@@ -8772,131 +8772,131 @@
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
+        <v>689</v>
+      </c>
+      <c r="B210" t="s">
         <v>690</v>
-      </c>
-      <c r="B210" t="s">
-        <v>691</v>
       </c>
       <c r="C210" t="s">
         <v>25</v>
       </c>
       <c r="F210" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
+        <v>691</v>
+      </c>
+      <c r="B211" t="s">
         <v>692</v>
-      </c>
-      <c r="B211" t="s">
-        <v>693</v>
       </c>
       <c r="C211" t="s">
         <v>83</v>
       </c>
       <c r="F211" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
+        <v>694</v>
+      </c>
+      <c r="B212" t="s">
         <v>695</v>
-      </c>
-      <c r="B212" t="s">
-        <v>696</v>
       </c>
       <c r="C212" t="s">
         <v>248</v>
       </c>
       <c r="F212" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
+        <v>697</v>
+      </c>
+      <c r="B213" t="s">
         <v>698</v>
-      </c>
-      <c r="B213" t="s">
-        <v>699</v>
       </c>
       <c r="C213" t="s">
         <v>6</v>
       </c>
       <c r="F213" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
+        <v>700</v>
+      </c>
+      <c r="B214" t="s">
         <v>701</v>
-      </c>
-      <c r="B214" t="s">
-        <v>702</v>
       </c>
       <c r="C214" t="s">
         <v>19</v>
       </c>
       <c r="F214" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
+        <v>703</v>
+      </c>
+      <c r="B215" t="s">
         <v>704</v>
-      </c>
-      <c r="B215" t="s">
-        <v>705</v>
       </c>
       <c r="C215" t="s">
         <v>104</v>
       </c>
       <c r="F215" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
+        <v>706</v>
+      </c>
+      <c r="B216" t="s">
         <v>707</v>
-      </c>
-      <c r="B216" t="s">
-        <v>708</v>
       </c>
       <c r="C216" t="s">
         <v>46</v>
       </c>
       <c r="F216" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
+        <v>709</v>
+      </c>
+      <c r="B217" t="s">
         <v>710</v>
-      </c>
-      <c r="B217" t="s">
-        <v>711</v>
       </c>
       <c r="C217" t="s">
         <v>2</v>
       </c>
       <c r="F217" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
+        <v>712</v>
+      </c>
+      <c r="B218" t="s">
         <v>713</v>
       </c>
-      <c r="B218" t="s">
-        <v>714</v>
-      </c>
       <c r="C218" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D218" t="s">
         <v>54</v>
       </c>
       <c r="F218" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H218">
         <v>764</v>
@@ -8907,19 +8907,19 @@
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
+        <v>715</v>
+      </c>
+      <c r="B219" t="s">
         <v>716</v>
       </c>
-      <c r="B219" t="s">
+      <c r="C219" t="s">
         <v>717</v>
-      </c>
-      <c r="C219" t="s">
-        <v>718</v>
       </c>
       <c r="D219" t="s">
         <v>54</v>
       </c>
       <c r="F219" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H219">
         <v>2820</v>
@@ -8927,10 +8927,10 @@
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B220" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C220" t="s">
         <v>68</v>
@@ -8939,7 +8939,7 @@
         <v>439</v>
       </c>
       <c r="F220" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="I220">
         <v>11005</v>
@@ -8947,38 +8947,38 @@
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
+        <v>720</v>
+      </c>
+      <c r="B221" t="s">
         <v>721</v>
-      </c>
-      <c r="B221" t="s">
-        <v>722</v>
       </c>
       <c r="C221" t="s">
         <v>25</v>
       </c>
       <c r="F221" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
+        <v>723</v>
+      </c>
+      <c r="B222" t="s">
         <v>724</v>
-      </c>
-      <c r="B222" t="s">
-        <v>725</v>
       </c>
       <c r="C222" t="s">
         <v>19</v>
       </c>
       <c r="F222" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
+        <v>726</v>
+      </c>
+      <c r="B223" t="s">
         <v>727</v>
-      </c>
-      <c r="B223" t="s">
-        <v>728</v>
       </c>
       <c r="C223" t="s">
         <v>68</v>
@@ -8987,7 +8987,7 @@
         <v>54</v>
       </c>
       <c r="F223" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H223">
         <v>2808</v>
@@ -8995,19 +8995,19 @@
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
+        <v>729</v>
+      </c>
+      <c r="B224" t="s">
         <v>730</v>
       </c>
-      <c r="B224" t="s">
+      <c r="C224" t="s">
         <v>731</v>
       </c>
-      <c r="C224" t="s">
+      <c r="D224" t="s">
         <v>732</v>
       </c>
-      <c r="D224" t="s">
+      <c r="F224" t="s">
         <v>733</v>
-      </c>
-      <c r="F224" t="s">
-        <v>734</v>
       </c>
       <c r="I224">
         <v>20758</v>
@@ -9015,19 +9015,19 @@
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
+        <v>734</v>
+      </c>
+      <c r="B225" t="s">
         <v>735</v>
       </c>
-      <c r="B225" t="s">
+      <c r="C225" t="s">
         <v>736</v>
       </c>
-      <c r="C225" t="s">
+      <c r="D225" t="s">
         <v>737</v>
       </c>
-      <c r="D225" t="s">
+      <c r="F225" t="s">
         <v>738</v>
-      </c>
-      <c r="F225" t="s">
-        <v>739</v>
       </c>
       <c r="H225">
         <v>7938</v>
@@ -9035,33 +9035,33 @@
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
+        <v>739</v>
+      </c>
+      <c r="B226" t="s">
         <v>740</v>
-      </c>
-      <c r="B226" t="s">
-        <v>741</v>
       </c>
       <c r="C226" t="s">
         <v>415</v>
       </c>
       <c r="F226" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
+        <v>741</v>
+      </c>
+      <c r="B227" t="s">
         <v>742</v>
       </c>
-      <c r="B227" t="s">
+      <c r="C227" t="s">
         <v>743</v>
       </c>
-      <c r="C227" t="s">
+      <c r="D227" t="s">
         <v>744</v>
       </c>
-      <c r="D227" t="s">
+      <c r="F227" t="s">
         <v>745</v>
-      </c>
-      <c r="F227" t="s">
-        <v>746</v>
       </c>
       <c r="H227">
         <v>5677</v>
@@ -9069,19 +9069,19 @@
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
+        <v>746</v>
+      </c>
+      <c r="B228" t="s">
         <v>747</v>
       </c>
-      <c r="B228" t="s">
+      <c r="C228" t="s">
         <v>748</v>
       </c>
-      <c r="C228" t="s">
-        <v>749</v>
-      </c>
       <c r="D228" t="s">
+        <v>744</v>
+      </c>
+      <c r="F228" t="s">
         <v>745</v>
-      </c>
-      <c r="F228" t="s">
-        <v>746</v>
       </c>
       <c r="H228">
         <v>8152</v>
@@ -9089,10 +9089,10 @@
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
+        <v>749</v>
+      </c>
+      <c r="B229" t="s">
         <v>750</v>
-      </c>
-      <c r="B229" t="s">
-        <v>751</v>
       </c>
       <c r="C229" t="s">
         <v>278</v>
@@ -9101,7 +9101,7 @@
         <v>447</v>
       </c>
       <c r="F229" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I229">
         <v>11950</v>
@@ -9109,30 +9109,30 @@
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
+        <v>752</v>
+      </c>
+      <c r="B230" t="s">
         <v>753</v>
-      </c>
-      <c r="B230" t="s">
-        <v>754</v>
       </c>
       <c r="C230" t="s">
         <v>6</v>
       </c>
       <c r="F230" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
+        <v>755</v>
+      </c>
+      <c r="B231" t="s">
         <v>756</v>
       </c>
-      <c r="B231" t="s">
+      <c r="C231" t="s">
         <v>757</v>
       </c>
-      <c r="C231" t="s">
+      <c r="F231" t="s">
         <v>758</v>
-      </c>
-      <c r="F231" t="s">
-        <v>759</v>
       </c>
       <c r="I231">
         <v>8374</v>
@@ -9140,19 +9140,19 @@
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
+        <v>759</v>
+      </c>
+      <c r="B232" t="s">
         <v>760</v>
       </c>
-      <c r="B232" t="s">
+      <c r="C232" t="s">
         <v>761</v>
-      </c>
-      <c r="C232" t="s">
-        <v>762</v>
       </c>
       <c r="D232" t="s">
         <v>282</v>
       </c>
       <c r="F232" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H232">
         <v>4264</v>
@@ -9160,47 +9160,47 @@
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
+        <v>763</v>
+      </c>
+      <c r="B233" t="s">
         <v>764</v>
-      </c>
-      <c r="B233" t="s">
-        <v>765</v>
       </c>
       <c r="C233" t="s">
         <v>25</v>
       </c>
       <c r="F233" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
+        <v>766</v>
+      </c>
+      <c r="B234" t="s">
         <v>767</v>
-      </c>
-      <c r="B234" t="s">
-        <v>768</v>
       </c>
       <c r="C234" t="s">
         <v>54</v>
       </c>
       <c r="F234" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
+        <v>769</v>
+      </c>
+      <c r="B235" t="s">
         <v>770</v>
       </c>
-      <c r="B235" t="s">
+      <c r="C235" t="s">
         <v>771</v>
-      </c>
-      <c r="C235" t="s">
-        <v>772</v>
       </c>
       <c r="D235" t="s">
         <v>151</v>
       </c>
       <c r="F235" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="I235">
         <v>1754</v>
@@ -9208,19 +9208,19 @@
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
+        <v>773</v>
+      </c>
+      <c r="B236" t="s">
         <v>774</v>
-      </c>
-      <c r="B236" t="s">
-        <v>775</v>
       </c>
       <c r="C236" t="s">
         <v>6</v>
       </c>
       <c r="D236" t="s">
+        <v>775</v>
+      </c>
+      <c r="F236" t="s">
         <v>776</v>
-      </c>
-      <c r="F236" t="s">
-        <v>777</v>
       </c>
       <c r="H236">
         <v>4946</v>
@@ -9228,19 +9228,19 @@
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B237" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C237" t="s">
         <v>6</v>
       </c>
       <c r="D237" t="s">
+        <v>775</v>
+      </c>
+      <c r="F237" t="s">
         <v>776</v>
-      </c>
-      <c r="F237" t="s">
-        <v>777</v>
       </c>
       <c r="H237">
         <v>4946</v>
@@ -9248,156 +9248,156 @@
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
+        <v>778</v>
+      </c>
+      <c r="B238" t="s">
         <v>779</v>
-      </c>
-      <c r="B238" t="s">
-        <v>780</v>
       </c>
       <c r="C238" t="s">
         <v>104</v>
       </c>
       <c r="F238" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
+        <v>781</v>
+      </c>
+      <c r="B239" t="s">
         <v>782</v>
-      </c>
-      <c r="B239" t="s">
-        <v>783</v>
       </c>
       <c r="C239" t="s">
         <v>19</v>
       </c>
       <c r="F239" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
+        <v>784</v>
+      </c>
+      <c r="B240" t="s">
         <v>785</v>
-      </c>
-      <c r="B240" t="s">
-        <v>786</v>
       </c>
       <c r="C240" t="s">
         <v>2</v>
       </c>
       <c r="F240" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
+        <v>787</v>
+      </c>
+      <c r="B241" t="s">
         <v>788</v>
-      </c>
-      <c r="B241" t="s">
-        <v>789</v>
       </c>
       <c r="C241" t="s">
         <v>122</v>
       </c>
       <c r="F241" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
+        <v>790</v>
+      </c>
+      <c r="B242" t="s">
         <v>791</v>
-      </c>
-      <c r="B242" t="s">
-        <v>792</v>
       </c>
       <c r="C242" t="s">
         <v>54</v>
       </c>
       <c r="F242" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
+        <v>793</v>
+      </c>
+      <c r="B243" t="s">
         <v>794</v>
-      </c>
-      <c r="B243" t="s">
-        <v>795</v>
       </c>
       <c r="C243" t="s">
         <v>151</v>
       </c>
       <c r="F243" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
+        <v>795</v>
+      </c>
+      <c r="B244" t="s">
         <v>796</v>
-      </c>
-      <c r="B244" t="s">
-        <v>797</v>
       </c>
       <c r="C244" t="s">
         <v>122</v>
       </c>
       <c r="F244" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
+        <v>797</v>
+      </c>
+      <c r="B245" t="s">
         <v>798</v>
-      </c>
-      <c r="B245" t="s">
-        <v>799</v>
       </c>
       <c r="C245" t="s">
         <v>2</v>
       </c>
       <c r="F245" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
+        <v>799</v>
+      </c>
+      <c r="B246" t="s">
         <v>800</v>
-      </c>
-      <c r="B246" t="s">
-        <v>801</v>
       </c>
       <c r="C246" t="s">
         <v>109</v>
       </c>
       <c r="F246" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
+        <v>801</v>
+      </c>
+      <c r="B247" t="s">
         <v>802</v>
-      </c>
-      <c r="B247" t="s">
-        <v>803</v>
       </c>
       <c r="C247" t="s">
         <v>109</v>
       </c>
       <c r="F247" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
+        <v>804</v>
+      </c>
+      <c r="B248" t="s">
         <v>805</v>
       </c>
-      <c r="B248" t="s">
+      <c r="C248" t="s">
         <v>806</v>
       </c>
-      <c r="C248" t="s">
+      <c r="F248" t="s">
         <v>807</v>
-      </c>
-      <c r="F248" t="s">
-        <v>808</v>
       </c>
       <c r="H248">
         <v>6632</v>
@@ -9405,33 +9405,33 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
+        <v>808</v>
+      </c>
+      <c r="B249" t="s">
         <v>809</v>
-      </c>
-      <c r="B249" t="s">
-        <v>810</v>
       </c>
       <c r="C249" t="s">
         <v>20</v>
       </c>
       <c r="F249" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
+        <v>811</v>
+      </c>
+      <c r="B250" t="s">
         <v>812</v>
       </c>
-      <c r="B250" t="s">
+      <c r="C250" t="s">
         <v>813</v>
-      </c>
-      <c r="C250" t="s">
-        <v>814</v>
       </c>
       <c r="D250" t="s">
         <v>83</v>
       </c>
       <c r="F250" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H250">
         <v>8826</v>
@@ -9439,66 +9439,66 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
+        <v>815</v>
+      </c>
+      <c r="B251" t="s">
         <v>816</v>
-      </c>
-      <c r="B251" t="s">
-        <v>817</v>
       </c>
       <c r="C251" t="s">
         <v>6</v>
       </c>
       <c r="F251" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
+        <v>818</v>
+      </c>
+      <c r="B252" t="s">
         <v>819</v>
-      </c>
-      <c r="B252" t="s">
-        <v>820</v>
       </c>
       <c r="C252" t="s">
         <v>46</v>
       </c>
       <c r="F252" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
+        <v>821</v>
+      </c>
+      <c r="B253" t="s">
         <v>822</v>
-      </c>
-      <c r="B253" t="s">
-        <v>823</v>
       </c>
       <c r="C253" t="s">
         <v>2</v>
       </c>
       <c r="F253" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
+        <v>824</v>
+      </c>
+      <c r="B254" t="s">
         <v>825</v>
-      </c>
-      <c r="B254" t="s">
-        <v>826</v>
       </c>
       <c r="C254" t="s">
         <v>54</v>
       </c>
       <c r="F254" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
+        <v>827</v>
+      </c>
+      <c r="B255" t="s">
         <v>828</v>
-      </c>
-      <c r="B255" t="s">
-        <v>829</v>
       </c>
       <c r="C255" t="s">
         <v>517</v>
@@ -9507,15 +9507,15 @@
         <v>46</v>
       </c>
       <c r="F255" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
+        <v>830</v>
+      </c>
+      <c r="B256" t="s">
         <v>831</v>
-      </c>
-      <c r="B256" t="s">
-        <v>832</v>
       </c>
       <c r="C256" t="s">
         <v>63</v>
@@ -9524,7 +9524,7 @@
         <v>68</v>
       </c>
       <c r="F256" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H256">
         <v>4602</v>
@@ -9532,131 +9532,131 @@
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
+        <v>833</v>
+      </c>
+      <c r="B257" t="s">
         <v>834</v>
-      </c>
-      <c r="B257" t="s">
-        <v>835</v>
       </c>
       <c r="C257" t="s">
         <v>46</v>
       </c>
       <c r="F257" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
+        <v>836</v>
+      </c>
+      <c r="B258" t="s">
         <v>837</v>
-      </c>
-      <c r="B258" t="s">
-        <v>838</v>
       </c>
       <c r="C258" t="s">
         <v>19</v>
       </c>
       <c r="F258" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
+        <v>838</v>
+      </c>
+      <c r="B259" t="s">
         <v>839</v>
-      </c>
-      <c r="B259" t="s">
-        <v>840</v>
       </c>
       <c r="C259" t="s">
         <v>19</v>
       </c>
       <c r="F259" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
+        <v>841</v>
+      </c>
+      <c r="B260" t="s">
         <v>842</v>
-      </c>
-      <c r="B260" t="s">
-        <v>843</v>
       </c>
       <c r="C260" t="s">
         <v>2</v>
       </c>
       <c r="F260" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
+        <v>844</v>
+      </c>
+      <c r="B261" t="s">
         <v>845</v>
-      </c>
-      <c r="B261" t="s">
-        <v>846</v>
       </c>
       <c r="C261" t="s">
         <v>19</v>
       </c>
       <c r="F261" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
+        <v>847</v>
+      </c>
+      <c r="B262" t="s">
         <v>848</v>
-      </c>
-      <c r="B262" t="s">
-        <v>849</v>
       </c>
       <c r="C262" t="s">
         <v>151</v>
       </c>
       <c r="F262" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
+        <v>850</v>
+      </c>
+      <c r="B263" t="s">
         <v>851</v>
-      </c>
-      <c r="B263" t="s">
-        <v>852</v>
       </c>
       <c r="C263" t="s">
         <v>19</v>
       </c>
       <c r="F263" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
+        <v>852</v>
+      </c>
+      <c r="B264" t="s">
         <v>853</v>
-      </c>
-      <c r="B264" t="s">
-        <v>854</v>
       </c>
       <c r="C264" t="s">
         <v>19</v>
       </c>
       <c r="F264" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B265" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C265" t="s">
         <v>59</v>
       </c>
       <c r="D265" t="s">
+        <v>856</v>
+      </c>
+      <c r="F265" t="s">
         <v>857</v>
-      </c>
-      <c r="F265" t="s">
-        <v>858</v>
       </c>
       <c r="H265">
         <v>3945</v>
@@ -9664,145 +9664,145 @@
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
+        <v>859</v>
+      </c>
+      <c r="B266" t="s">
         <v>860</v>
-      </c>
-      <c r="B266" t="s">
-        <v>861</v>
       </c>
       <c r="C266" t="s">
         <v>83</v>
       </c>
       <c r="F266" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
+        <v>862</v>
+      </c>
+      <c r="B267" t="s">
         <v>863</v>
-      </c>
-      <c r="B267" t="s">
-        <v>864</v>
       </c>
       <c r="C267" t="s">
         <v>6</v>
       </c>
       <c r="F267" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
+        <v>865</v>
+      </c>
+      <c r="B268" t="s">
         <v>866</v>
-      </c>
-      <c r="B268" t="s">
-        <v>867</v>
       </c>
       <c r="C268" t="s">
         <v>19</v>
       </c>
       <c r="F268" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B269" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C269" t="s">
         <v>104</v>
       </c>
       <c r="F269" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
+        <v>871</v>
+      </c>
+      <c r="B270" t="s">
         <v>872</v>
-      </c>
-      <c r="B270" t="s">
-        <v>873</v>
       </c>
       <c r="C270" t="s">
         <v>6</v>
       </c>
       <c r="F270" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
+        <v>874</v>
+      </c>
+      <c r="B271" t="s">
         <v>875</v>
-      </c>
-      <c r="B271" t="s">
-        <v>876</v>
       </c>
       <c r="C271" t="s">
         <v>151</v>
       </c>
       <c r="F271" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
+        <v>877</v>
+      </c>
+      <c r="B272" t="s">
         <v>878</v>
-      </c>
-      <c r="B272" t="s">
-        <v>879</v>
       </c>
       <c r="C272" t="s">
         <v>109</v>
       </c>
       <c r="F272" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
+        <v>880</v>
+      </c>
+      <c r="B273" t="s">
         <v>881</v>
-      </c>
-      <c r="B273" t="s">
-        <v>882</v>
       </c>
       <c r="C273" t="s">
         <v>6</v>
       </c>
       <c r="F273" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
+        <v>883</v>
+      </c>
+      <c r="B274" t="s">
         <v>884</v>
-      </c>
-      <c r="B274" t="s">
-        <v>885</v>
       </c>
       <c r="C274" t="s">
         <v>19</v>
       </c>
       <c r="F274" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
+        <v>887</v>
+      </c>
+      <c r="B275" t="s">
         <v>888</v>
       </c>
-      <c r="B275" t="s">
+      <c r="C275" t="s">
         <v>889</v>
-      </c>
-      <c r="C275" t="s">
-        <v>890</v>
       </c>
       <c r="D275" t="s">
         <v>205</v>
       </c>
       <c r="F275" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="I275">
         <v>30688</v>
@@ -9810,24 +9810,24 @@
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
+        <v>890</v>
+      </c>
+      <c r="B276" t="s">
         <v>891</v>
-      </c>
-      <c r="B276" t="s">
-        <v>892</v>
       </c>
       <c r="C276" t="s">
         <v>122</v>
       </c>
       <c r="F276" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B277" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C277" t="s">
         <v>59</v>
@@ -9836,7 +9836,7 @@
         <v>113</v>
       </c>
       <c r="F277" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H277">
         <v>5160</v>
@@ -9844,33 +9844,33 @@
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
+        <v>893</v>
+      </c>
+      <c r="B278" t="s">
         <v>894</v>
-      </c>
-      <c r="B278" t="s">
-        <v>895</v>
       </c>
       <c r="C278" t="s">
         <v>54</v>
       </c>
       <c r="F278" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
+        <v>896</v>
+      </c>
+      <c r="B279" t="s">
         <v>897</v>
       </c>
-      <c r="B279" t="s">
+      <c r="C279" t="s">
         <v>898</v>
       </c>
-      <c r="C279" t="s">
+      <c r="D279" t="s">
         <v>899</v>
       </c>
-      <c r="D279" t="s">
+      <c r="F279" t="s">
         <v>900</v>
-      </c>
-      <c r="F279" t="s">
-        <v>901</v>
       </c>
       <c r="H279">
         <v>6191</v>
@@ -9878,38 +9878,38 @@
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
+        <v>901</v>
+      </c>
+      <c r="B280" t="s">
         <v>902</v>
-      </c>
-      <c r="B280" t="s">
-        <v>903</v>
       </c>
       <c r="C280" t="s">
         <v>248</v>
       </c>
       <c r="F280" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
+        <v>904</v>
+      </c>
+      <c r="B281" t="s">
         <v>905</v>
-      </c>
-      <c r="B281" t="s">
-        <v>906</v>
       </c>
       <c r="C281" t="s">
         <v>109</v>
       </c>
       <c r="F281" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
+        <v>907</v>
+      </c>
+      <c r="B282" t="s">
         <v>908</v>
-      </c>
-      <c r="B282" t="s">
-        <v>909</v>
       </c>
       <c r="C282" t="s">
         <v>113</v>
@@ -9918,7 +9918,7 @@
         <v>54</v>
       </c>
       <c r="F282" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="I282">
         <v>19203</v>
@@ -9926,10 +9926,10 @@
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
+        <v>910</v>
+      </c>
+      <c r="B283" t="s">
         <v>911</v>
-      </c>
-      <c r="B283" t="s">
-        <v>912</v>
       </c>
       <c r="C283" t="s">
         <v>113</v>
@@ -9938,52 +9938,52 @@
         <v>25</v>
       </c>
       <c r="F283" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
+        <v>912</v>
+      </c>
+      <c r="B284" t="s">
         <v>913</v>
-      </c>
-      <c r="B284" t="s">
-        <v>914</v>
       </c>
       <c r="C284" t="s">
         <v>109</v>
       </c>
       <c r="F284" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
+        <v>915</v>
+      </c>
+      <c r="B285" t="s">
         <v>916</v>
-      </c>
-      <c r="B285" t="s">
-        <v>917</v>
       </c>
       <c r="C285" t="s">
         <v>151</v>
       </c>
       <c r="F285" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
+        <v>918</v>
+      </c>
+      <c r="B286" t="s">
         <v>919</v>
-      </c>
-      <c r="B286" t="s">
-        <v>920</v>
       </c>
       <c r="C286" t="s">
         <v>322</v>
       </c>
       <c r="D286" t="s">
+        <v>920</v>
+      </c>
+      <c r="F286" t="s">
         <v>921</v>
-      </c>
-      <c r="F286" t="s">
-        <v>922</v>
       </c>
       <c r="H286">
         <v>5164</v>
@@ -9991,33 +9991,33 @@
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
+        <v>922</v>
+      </c>
+      <c r="B287" t="s">
         <v>923</v>
-      </c>
-      <c r="B287" t="s">
-        <v>924</v>
       </c>
       <c r="C287" t="s">
         <v>19</v>
       </c>
       <c r="F287" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
+        <v>924</v>
+      </c>
+      <c r="B288" t="s">
         <v>925</v>
-      </c>
-      <c r="B288" t="s">
-        <v>926</v>
       </c>
       <c r="C288" t="s">
         <v>316</v>
       </c>
       <c r="D288" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="F288" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="I288">
         <v>31998</v>
@@ -10025,19 +10025,19 @@
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
+        <v>927</v>
+      </c>
+      <c r="B289" t="s">
         <v>928</v>
       </c>
-      <c r="B289" t="s">
+      <c r="C289" t="s">
         <v>929</v>
       </c>
-      <c r="C289" t="s">
+      <c r="D289" t="s">
         <v>930</v>
       </c>
-      <c r="D289" t="s">
+      <c r="F289" t="s">
         <v>931</v>
-      </c>
-      <c r="F289" t="s">
-        <v>932</v>
       </c>
       <c r="I289">
         <v>25681</v>
@@ -10045,38 +10045,38 @@
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
+        <v>932</v>
+      </c>
+      <c r="B290" t="s">
         <v>933</v>
-      </c>
-      <c r="B290" t="s">
-        <v>934</v>
       </c>
       <c r="C290" t="s">
         <v>104</v>
       </c>
       <c r="F290" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
+        <v>935</v>
+      </c>
+      <c r="B291" t="s">
         <v>936</v>
-      </c>
-      <c r="B291" t="s">
-        <v>937</v>
       </c>
       <c r="C291" t="s">
         <v>46</v>
       </c>
       <c r="F291" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
+        <v>938</v>
+      </c>
+      <c r="B292" t="s">
         <v>939</v>
-      </c>
-      <c r="B292" t="s">
-        <v>940</v>
       </c>
       <c r="C292" t="s">
         <v>58</v>
@@ -10085,7 +10085,7 @@
         <v>54</v>
       </c>
       <c r="F292" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="H292">
         <v>3150</v>
@@ -10093,47 +10093,47 @@
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
+        <v>941</v>
+      </c>
+      <c r="B293" t="s">
         <v>942</v>
-      </c>
-      <c r="B293" t="s">
-        <v>943</v>
       </c>
       <c r="C293" t="s">
         <v>54</v>
       </c>
       <c r="F293" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
+        <v>951</v>
+      </c>
+      <c r="B294" t="s">
         <v>952</v>
-      </c>
-      <c r="B294" t="s">
-        <v>953</v>
       </c>
       <c r="C294" t="s">
         <v>2</v>
       </c>
       <c r="F294" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
+        <v>944</v>
+      </c>
+      <c r="B295" t="s">
         <v>945</v>
-      </c>
-      <c r="B295" t="s">
-        <v>946</v>
       </c>
       <c r="C295" t="s">
         <v>59</v>
       </c>
       <c r="D295" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F295" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="H295">
         <v>4829</v>
@@ -10141,33 +10141,33 @@
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
+        <v>954</v>
+      </c>
+      <c r="B296" t="s">
         <v>955</v>
-      </c>
-      <c r="B296" t="s">
-        <v>956</v>
       </c>
       <c r="C296" t="s">
         <v>19</v>
       </c>
       <c r="F296" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
+        <v>957</v>
+      </c>
+      <c r="B297" t="s">
         <v>958</v>
-      </c>
-      <c r="B297" t="s">
-        <v>959</v>
       </c>
       <c r="C297" t="s">
         <v>113</v>
       </c>
       <c r="D297" t="s">
+        <v>959</v>
+      </c>
+      <c r="F297" t="s">
         <v>960</v>
-      </c>
-      <c r="F297" t="s">
-        <v>961</v>
       </c>
       <c r="H297">
         <v>3115</v>
@@ -10175,24 +10175,24 @@
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
+        <v>961</v>
+      </c>
+      <c r="B298" t="s">
         <v>962</v>
-      </c>
-      <c r="B298" t="s">
-        <v>963</v>
       </c>
       <c r="C298" t="s">
         <v>122</v>
       </c>
       <c r="F298" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
+        <v>963</v>
+      </c>
+      <c r="B299" t="s">
         <v>964</v>
-      </c>
-      <c r="B299" t="s">
-        <v>965</v>
       </c>
       <c r="C299" t="s">
         <v>316</v>
@@ -10201,7 +10201,7 @@
         <v>63</v>
       </c>
       <c r="F299" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="G299" t="s">
         <v>201</v>
@@ -10215,19 +10215,19 @@
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
+        <v>947</v>
+      </c>
+      <c r="B300" t="s">
         <v>948</v>
       </c>
-      <c r="B300" t="s">
+      <c r="C300" t="s">
         <v>949</v>
-      </c>
-      <c r="C300" t="s">
-        <v>950</v>
       </c>
       <c r="D300" t="s">
         <v>63</v>
       </c>
       <c r="F300" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H300">
         <v>9348</v>
@@ -10235,19 +10235,19 @@
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
+        <v>966</v>
+      </c>
+      <c r="B301" t="s">
         <v>967</v>
       </c>
-      <c r="B301" t="s">
+      <c r="C301" t="s">
+        <v>637</v>
+      </c>
+      <c r="D301" t="s">
         <v>968</v>
       </c>
-      <c r="C301" t="s">
-        <v>638</v>
-      </c>
-      <c r="D301" t="s">
+      <c r="F301" t="s">
         <v>969</v>
-      </c>
-      <c r="F301" t="s">
-        <v>970</v>
       </c>
       <c r="H301">
         <v>3678</v>
@@ -10258,75 +10258,75 @@
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
+        <v>970</v>
+      </c>
+      <c r="B302" t="s">
         <v>971</v>
-      </c>
-      <c r="B302" t="s">
-        <v>972</v>
       </c>
       <c r="C302" t="s">
         <v>415</v>
       </c>
       <c r="F302" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
+        <v>973</v>
+      </c>
+      <c r="B303" t="s">
         <v>974</v>
-      </c>
-      <c r="B303" t="s">
-        <v>975</v>
       </c>
       <c r="C303" t="s">
         <v>147</v>
       </c>
       <c r="F303" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
+        <v>976</v>
+      </c>
+      <c r="B304" t="s">
         <v>977</v>
-      </c>
-      <c r="B304" t="s">
-        <v>978</v>
       </c>
       <c r="C304" t="s">
         <v>2</v>
       </c>
       <c r="F304" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
+        <v>979</v>
+      </c>
+      <c r="B305" t="s">
         <v>980</v>
-      </c>
-      <c r="B305" t="s">
-        <v>981</v>
       </c>
       <c r="C305" t="s">
         <v>151</v>
       </c>
       <c r="F305" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
+        <v>982</v>
+      </c>
+      <c r="B306" t="s">
         <v>983</v>
       </c>
-      <c r="B306" t="s">
+      <c r="C306" t="s">
         <v>984</v>
-      </c>
-      <c r="C306" t="s">
-        <v>985</v>
       </c>
       <c r="D306" t="s">
         <v>127</v>
       </c>
       <c r="F306" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="I306">
         <v>12155</v>
@@ -10334,33 +10334,33 @@
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
+        <v>986</v>
+      </c>
+      <c r="B307" t="s">
         <v>987</v>
-      </c>
-      <c r="B307" t="s">
-        <v>988</v>
       </c>
       <c r="C307" t="s">
         <v>151</v>
       </c>
       <c r="F307" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
+        <v>989</v>
+      </c>
+      <c r="B308" t="s">
         <v>990</v>
       </c>
-      <c r="B308" t="s">
+      <c r="C308" t="s">
         <v>991</v>
-      </c>
-      <c r="C308" t="s">
-        <v>992</v>
       </c>
       <c r="D308" t="s">
         <v>104</v>
       </c>
       <c r="F308" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="H308">
         <v>2561</v>
@@ -10368,89 +10368,89 @@
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
+        <v>993</v>
+      </c>
+      <c r="B309" t="s">
         <v>994</v>
-      </c>
-      <c r="B309" t="s">
-        <v>995</v>
       </c>
       <c r="C309" t="s">
         <v>2</v>
       </c>
       <c r="F309" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
+        <v>996</v>
+      </c>
+      <c r="B310" t="s">
         <v>997</v>
-      </c>
-      <c r="B310" t="s">
-        <v>998</v>
       </c>
       <c r="C310" t="s">
         <v>20</v>
       </c>
       <c r="F310" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
+        <v>999</v>
+      </c>
+      <c r="B311" t="s">
         <v>1000</v>
-      </c>
-      <c r="B311" t="s">
-        <v>1001</v>
       </c>
       <c r="C311" t="s">
         <v>20</v>
       </c>
       <c r="F311" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B312" t="s">
         <v>1003</v>
-      </c>
-      <c r="B312" t="s">
-        <v>1004</v>
       </c>
       <c r="C312" t="s">
         <v>35</v>
       </c>
       <c r="F312" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B313" t="s">
         <v>1006</v>
-      </c>
-      <c r="B313" t="s">
-        <v>1007</v>
       </c>
       <c r="C313" t="s">
         <v>19</v>
       </c>
       <c r="F313" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B314" t="s">
         <v>1009</v>
-      </c>
-      <c r="B314" t="s">
-        <v>1010</v>
       </c>
       <c r="C314" t="s">
         <v>183</v>
       </c>
       <c r="D314" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F314" t="s">
         <v>1011</v>
-      </c>
-      <c r="F314" t="s">
-        <v>1012</v>
       </c>
       <c r="H314">
         <v>8662</v>
@@ -10458,19 +10458,19 @@
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B315" t="s">
         <v>1013</v>
       </c>
-      <c r="B315" t="s">
+      <c r="C315" t="s">
         <v>1014</v>
       </c>
-      <c r="C315" t="s">
+      <c r="D315" t="s">
         <v>1015</v>
       </c>
-      <c r="D315" t="s">
+      <c r="F315" t="s">
         <v>1016</v>
-      </c>
-      <c r="F315" t="s">
-        <v>1017</v>
       </c>
       <c r="H315">
         <v>9153</v>
@@ -10481,10 +10481,10 @@
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B316" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C316" t="s">
         <v>59</v>
@@ -10493,7 +10493,7 @@
         <v>155</v>
       </c>
       <c r="F316" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="H316">
         <v>7793</v>
@@ -10501,19 +10501,19 @@
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B317" t="s">
         <v>1021</v>
       </c>
-      <c r="B317" t="s">
+      <c r="C317" t="s">
         <v>1022</v>
       </c>
-      <c r="C317" t="s">
+      <c r="D317" t="s">
+        <v>761</v>
+      </c>
+      <c r="F317" t="s">
         <v>1023</v>
-      </c>
-      <c r="D317" t="s">
-        <v>762</v>
-      </c>
-      <c r="F317" t="s">
-        <v>1024</v>
       </c>
       <c r="H317">
         <v>5009</v>
@@ -10521,61 +10521,61 @@
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B318" t="s">
         <v>1025</v>
-      </c>
-      <c r="B318" t="s">
-        <v>1026</v>
       </c>
       <c r="C318" t="s">
         <v>19</v>
       </c>
       <c r="F318" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B319" t="s">
         <v>1028</v>
-      </c>
-      <c r="B319" t="s">
-        <v>1029</v>
       </c>
       <c r="C319" t="s">
         <v>54</v>
       </c>
       <c r="F319" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="B320" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="C320" t="s">
         <v>20</v>
       </c>
       <c r="F320" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B321" t="s">
         <v>1033</v>
       </c>
-      <c r="B321" t="s">
+      <c r="C321" t="s">
+        <v>637</v>
+      </c>
+      <c r="D321" t="s">
+        <v>683</v>
+      </c>
+      <c r="F321" t="s">
         <v>1034</v>
-      </c>
-      <c r="C321" t="s">
-        <v>638</v>
-      </c>
-      <c r="D321" t="s">
-        <v>684</v>
-      </c>
-      <c r="F321" t="s">
-        <v>1035</v>
       </c>
       <c r="I321">
         <v>21908</v>
@@ -10583,33 +10583,33 @@
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B322" t="s">
         <v>1036</v>
-      </c>
-      <c r="B322" t="s">
-        <v>1037</v>
       </c>
       <c r="C322" t="s">
         <v>151</v>
       </c>
       <c r="F322" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B323" t="s">
         <v>1039</v>
-      </c>
-      <c r="B323" t="s">
-        <v>1040</v>
       </c>
       <c r="C323" t="s">
         <v>94</v>
       </c>
       <c r="D323" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F323" t="s">
         <v>1041</v>
-      </c>
-      <c r="F323" t="s">
-        <v>1042</v>
       </c>
       <c r="H323">
         <v>4894</v>
@@ -10617,52 +10617,52 @@
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B324" t="s">
         <v>1043</v>
-      </c>
-      <c r="B324" t="s">
-        <v>1044</v>
       </c>
       <c r="C324" t="s">
         <v>248</v>
       </c>
       <c r="F324" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B325" t="s">
         <v>1046</v>
-      </c>
-      <c r="B325" t="s">
-        <v>1047</v>
       </c>
       <c r="C325" t="s">
         <v>248</v>
       </c>
       <c r="F325" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B326" t="s">
         <v>1049</v>
-      </c>
-      <c r="B326" t="s">
-        <v>1050</v>
       </c>
       <c r="C326" t="s">
         <v>83</v>
       </c>
       <c r="F326" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B327" t="s">
         <v>1052</v>
-      </c>
-      <c r="B327" t="s">
-        <v>1053</v>
       </c>
       <c r="C327" t="s">
         <v>103</v>
@@ -10671,7 +10671,7 @@
         <v>25</v>
       </c>
       <c r="F327" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="G327" t="s">
         <v>201</v>
@@ -10682,47 +10682,47 @@
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B328" t="s">
         <v>1055</v>
-      </c>
-      <c r="B328" t="s">
-        <v>1056</v>
       </c>
       <c r="C328" t="s">
         <v>54</v>
       </c>
       <c r="F328" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B329" t="s">
         <v>1058</v>
-      </c>
-      <c r="B329" t="s">
-        <v>1059</v>
       </c>
       <c r="C329" t="s">
         <v>6</v>
       </c>
       <c r="F329" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B330" t="s">
         <v>1060</v>
-      </c>
-      <c r="B330" t="s">
-        <v>1061</v>
       </c>
       <c r="C330" t="s">
         <v>68</v>
       </c>
       <c r="D330" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="F330" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="H330">
         <v>4389</v>
@@ -10730,19 +10730,19 @@
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B331" t="s">
         <v>1063</v>
       </c>
-      <c r="B331" t="s">
+      <c r="C331" t="s">
         <v>1064</v>
       </c>
-      <c r="C331" t="s">
+      <c r="D331" t="s">
         <v>1065</v>
       </c>
-      <c r="D331" t="s">
+      <c r="F331" t="s">
         <v>1066</v>
-      </c>
-      <c r="F331" t="s">
-        <v>1067</v>
       </c>
       <c r="H331">
         <v>4322</v>
@@ -10750,24 +10750,24 @@
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B332" t="s">
         <v>1068</v>
-      </c>
-      <c r="B332" t="s">
-        <v>1069</v>
       </c>
       <c r="C332" t="s">
         <v>122</v>
       </c>
       <c r="F332" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B333" t="s">
         <v>1070</v>
-      </c>
-      <c r="B333" t="s">
-        <v>1071</v>
       </c>
       <c r="C333" t="s">
         <v>109</v>
@@ -10776,38 +10776,38 @@
         <v>127</v>
       </c>
       <c r="F333" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B334" t="s">
         <v>1073</v>
-      </c>
-      <c r="B334" t="s">
-        <v>1074</v>
       </c>
       <c r="C334" t="s">
         <v>109</v>
       </c>
       <c r="F334" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B335" t="s">
         <v>1075</v>
-      </c>
-      <c r="B335" t="s">
-        <v>1076</v>
       </c>
       <c r="C335" t="s">
         <v>218</v>
       </c>
       <c r="D335" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="F335" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="H335">
         <v>3596</v>
@@ -10815,10 +10815,10 @@
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B336" t="s">
         <v>1078</v>
-      </c>
-      <c r="B336" t="s">
-        <v>1079</v>
       </c>
       <c r="C336" t="s">
         <v>322</v>
@@ -10827,7 +10827,7 @@
         <v>205</v>
       </c>
       <c r="F336" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="H336">
         <v>5504</v>
@@ -10838,10 +10838,10 @@
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B337" t="s">
         <v>1081</v>
-      </c>
-      <c r="B337" t="s">
-        <v>1082</v>
       </c>
       <c r="C337" t="s">
         <v>447</v>
@@ -10850,7 +10850,7 @@
         <v>83</v>
       </c>
       <c r="F337" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="I337">
         <v>9157</v>
@@ -10858,19 +10858,19 @@
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B338" t="s">
         <v>1084</v>
       </c>
-      <c r="B338" t="s">
+      <c r="C338" t="s">
         <v>1085</v>
-      </c>
-      <c r="C338" t="s">
-        <v>1086</v>
       </c>
       <c r="D338" t="s">
         <v>127</v>
       </c>
       <c r="F338" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="I338">
         <v>4588</v>
@@ -10878,24 +10878,24 @@
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B339" t="s">
         <v>1087</v>
-      </c>
-      <c r="B339" t="s">
-        <v>1088</v>
       </c>
       <c r="C339" t="s">
         <v>2</v>
       </c>
       <c r="F339" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B340" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="C340" t="s">
         <v>34</v>
@@ -10907,7 +10907,7 @@
         <v>109</v>
       </c>
       <c r="F340" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H340">
         <v>8283</v>
@@ -10915,24 +10915,24 @@
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B341" t="s">
         <v>1090</v>
-      </c>
-      <c r="B341" t="s">
-        <v>1091</v>
       </c>
       <c r="C341" t="s">
         <v>151</v>
       </c>
       <c r="F341" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B342" t="s">
         <v>1093</v>
-      </c>
-      <c r="B342" t="s">
-        <v>1094</v>
       </c>
       <c r="C342" t="s">
         <v>155</v>
@@ -10941,7 +10941,7 @@
         <v>63</v>
       </c>
       <c r="F342" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="H342">
         <v>6212</v>
@@ -10949,10 +10949,10 @@
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B343" t="s">
         <v>1096</v>
-      </c>
-      <c r="B343" t="s">
-        <v>1097</v>
       </c>
       <c r="C343" t="s">
         <v>247</v>
@@ -10961,7 +10961,7 @@
         <v>59</v>
       </c>
       <c r="F343" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I343">
         <v>32143</v>
@@ -10969,33 +10969,33 @@
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B344" t="s">
         <v>1098</v>
-      </c>
-      <c r="B344" t="s">
-        <v>1099</v>
       </c>
       <c r="C344" t="s">
         <v>19</v>
       </c>
       <c r="F344" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B345" t="s">
         <v>1100</v>
       </c>
-      <c r="B345" t="s">
+      <c r="C345" t="s">
         <v>1101</v>
       </c>
-      <c r="C345" t="s">
+      <c r="D345" t="s">
         <v>1102</v>
       </c>
-      <c r="D345" t="s">
+      <c r="F345" t="s">
         <v>1103</v>
-      </c>
-      <c r="F345" t="s">
-        <v>1104</v>
       </c>
       <c r="H345">
         <v>8063</v>
@@ -11003,19 +11003,19 @@
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B346" t="s">
         <v>1105</v>
       </c>
-      <c r="B346" t="s">
+      <c r="C346" t="s">
         <v>1106</v>
       </c>
-      <c r="C346" t="s">
-        <v>1107</v>
-      </c>
       <c r="D346" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F346" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="H346">
         <v>8391</v>
@@ -11023,19 +11023,19 @@
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B347" t="s">
         <v>1108</v>
-      </c>
-      <c r="B347" t="s">
-        <v>1109</v>
       </c>
       <c r="C347" t="s">
         <v>59</v>
       </c>
       <c r="D347" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F347" t="s">
         <v>1110</v>
-      </c>
-      <c r="F347" t="s">
-        <v>1111</v>
       </c>
       <c r="I347">
         <v>30850</v>
@@ -11043,47 +11043,47 @@
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B348" t="s">
         <v>1112</v>
-      </c>
-      <c r="B348" t="s">
-        <v>1113</v>
       </c>
       <c r="C348" t="s">
         <v>2</v>
       </c>
       <c r="F348" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B349" t="s">
         <v>1115</v>
-      </c>
-      <c r="B349" t="s">
-        <v>1116</v>
       </c>
       <c r="C349" t="s">
         <v>7</v>
       </c>
       <c r="F349" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B350" t="s">
         <v>1118</v>
       </c>
-      <c r="B350" t="s">
-        <v>1119</v>
-      </c>
       <c r="C350" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D350" t="s">
         <v>19</v>
       </c>
       <c r="F350" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="H350">
         <v>3089</v>
@@ -11091,16 +11091,16 @@
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B351" t="s">
         <v>1121</v>
-      </c>
-      <c r="B351" t="s">
-        <v>1122</v>
       </c>
       <c r="C351" t="s">
         <v>498</v>
       </c>
       <c r="F351" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="H351">
         <v>3797</v>
@@ -11111,19 +11111,19 @@
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B352" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="C352" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="D352" t="s">
         <v>20</v>
       </c>
       <c r="F352" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="H352">
         <v>7969</v>
@@ -11131,50 +11131,50 @@
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B353" t="s">
         <v>1125</v>
-      </c>
-      <c r="B353" t="s">
-        <v>1126</v>
       </c>
       <c r="C353" t="s">
         <v>19</v>
       </c>
       <c r="F353" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B354" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="C354" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="D354" t="s">
         <v>83</v>
       </c>
       <c r="F354" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B355" t="s">
         <v>1130</v>
-      </c>
-      <c r="B355" t="s">
-        <v>1131</v>
       </c>
       <c r="C355" t="s">
         <v>155</v>
       </c>
       <c r="D355" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F355" t="s">
         <v>1132</v>
-      </c>
-      <c r="F355" t="s">
-        <v>1133</v>
       </c>
       <c r="I355">
         <v>27285</v>
@@ -11182,61 +11182,61 @@
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B356" t="s">
         <v>1134</v>
-      </c>
-      <c r="B356" t="s">
-        <v>1135</v>
       </c>
       <c r="C356" t="s">
         <v>415</v>
       </c>
       <c r="F356" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B357" t="s">
         <v>1137</v>
-      </c>
-      <c r="B357" t="s">
-        <v>1138</v>
       </c>
       <c r="C357" t="s">
         <v>122</v>
       </c>
       <c r="F357" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B358" t="s">
         <v>1140</v>
-      </c>
-      <c r="B358" t="s">
-        <v>1141</v>
       </c>
       <c r="C358" t="s">
         <v>35</v>
       </c>
       <c r="F358" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B359" t="s">
         <v>1143</v>
-      </c>
-      <c r="B359" t="s">
-        <v>1144</v>
       </c>
       <c r="C359" t="s">
         <v>113</v>
       </c>
       <c r="D359" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F359" t="s">
         <v>1145</v>
-      </c>
-      <c r="F359" t="s">
-        <v>1146</v>
       </c>
       <c r="I359">
         <v>21099</v>
@@ -11244,75 +11244,75 @@
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B360" t="s">
         <v>1147</v>
-      </c>
-      <c r="B360" t="s">
-        <v>1148</v>
       </c>
       <c r="C360" t="s">
         <v>83</v>
       </c>
       <c r="F360" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B361" t="s">
         <v>1150</v>
-      </c>
-      <c r="B361" t="s">
-        <v>1151</v>
       </c>
       <c r="C361" t="s">
         <v>7</v>
       </c>
       <c r="F361" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B362" t="s">
         <v>1153</v>
-      </c>
-      <c r="B362" t="s">
-        <v>1154</v>
       </c>
       <c r="C362" t="s">
         <v>109</v>
       </c>
       <c r="F362" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B363" t="s">
         <v>1156</v>
-      </c>
-      <c r="B363" t="s">
-        <v>1157</v>
       </c>
       <c r="C363" t="s">
         <v>19</v>
       </c>
       <c r="F363" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B364" t="s">
         <v>1159</v>
       </c>
-      <c r="B364" t="s">
+      <c r="C364" t="s">
         <v>1160</v>
       </c>
-      <c r="C364" t="s">
+      <c r="D364" t="s">
         <v>1161</v>
       </c>
-      <c r="D364" t="s">
-        <v>1162</v>
-      </c>
       <c r="F364" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="H364">
         <v>8279</v>
@@ -11320,52 +11320,52 @@
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B365" t="s">
         <v>1163</v>
-      </c>
-      <c r="B365" t="s">
-        <v>1164</v>
       </c>
       <c r="C365" t="s">
         <v>83</v>
       </c>
       <c r="F365" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B366" t="s">
         <v>1166</v>
-      </c>
-      <c r="B366" t="s">
-        <v>1167</v>
       </c>
       <c r="C366" t="s">
         <v>248</v>
       </c>
       <c r="F366" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B367" t="s">
         <v>1169</v>
-      </c>
-      <c r="B367" t="s">
-        <v>1170</v>
       </c>
       <c r="C367" t="s">
         <v>19</v>
       </c>
       <c r="F367" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B368" t="s">
         <v>1172</v>
-      </c>
-      <c r="B368" t="s">
-        <v>1173</v>
       </c>
       <c r="C368" t="s">
         <v>39</v>
@@ -11374,7 +11374,7 @@
         <v>498</v>
       </c>
       <c r="F368" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="I368">
         <v>22288</v>
@@ -11382,19 +11382,19 @@
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B369" t="s">
         <v>1174</v>
-      </c>
-      <c r="B369" t="s">
-        <v>1175</v>
       </c>
       <c r="C369" t="s">
         <v>63</v>
       </c>
       <c r="D369" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="F369" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="I369">
         <v>19342</v>
@@ -11402,24 +11402,24 @@
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B370" t="s">
         <v>1177</v>
-      </c>
-      <c r="B370" t="s">
-        <v>1178</v>
       </c>
       <c r="C370" t="s">
         <v>7</v>
       </c>
       <c r="F370" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B371" t="s">
         <v>1180</v>
-      </c>
-      <c r="B371" t="s">
-        <v>1181</v>
       </c>
       <c r="C371" t="s">
         <v>64</v>
@@ -11428,7 +11428,7 @@
         <v>113</v>
       </c>
       <c r="F371" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="I371">
         <v>25289</v>
@@ -11436,10 +11436,10 @@
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B372" t="s">
         <v>1183</v>
-      </c>
-      <c r="B372" t="s">
-        <v>1184</v>
       </c>
       <c r="C372" t="s">
         <v>20</v>
@@ -11448,15 +11448,15 @@
         <v>35</v>
       </c>
       <c r="F372" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="B373" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C373" t="s">
         <v>20</v>
@@ -11465,43 +11465,43 @@
         <v>35</v>
       </c>
       <c r="F373" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B374" t="s">
         <v>1186</v>
-      </c>
-      <c r="B374" t="s">
-        <v>1187</v>
       </c>
       <c r="C374" t="s">
         <v>54</v>
       </c>
       <c r="F374" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="375" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B375" t="s">
         <v>1188</v>
-      </c>
-      <c r="B375" t="s">
-        <v>1189</v>
       </c>
       <c r="C375" t="s">
         <v>383</v>
       </c>
       <c r="F375" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B376" t="s">
         <v>1190</v>
-      </c>
-      <c r="B376" t="s">
-        <v>1191</v>
       </c>
       <c r="C376" t="s">
         <v>68</v>
@@ -11510,7 +11510,7 @@
         <v>205</v>
       </c>
       <c r="F376" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="I376">
         <v>74771</v>
@@ -11518,131 +11518,131 @@
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B377" t="s">
         <v>1192</v>
-      </c>
-      <c r="B377" t="s">
-        <v>1193</v>
       </c>
       <c r="C377" t="s">
         <v>35</v>
       </c>
       <c r="F377" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B378" t="s">
         <v>1194</v>
-      </c>
-      <c r="B378" t="s">
-        <v>1195</v>
       </c>
       <c r="C378" t="s">
         <v>104</v>
       </c>
       <c r="F378" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B379" t="s">
         <v>1197</v>
-      </c>
-      <c r="B379" t="s">
-        <v>1198</v>
       </c>
       <c r="C379" t="s">
         <v>2</v>
       </c>
       <c r="F379" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B380" t="s">
         <v>1200</v>
-      </c>
-      <c r="B380" t="s">
-        <v>1201</v>
       </c>
       <c r="C380" t="s">
         <v>2</v>
       </c>
       <c r="F380" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B381" t="s">
         <v>1203</v>
-      </c>
-      <c r="B381" t="s">
-        <v>1204</v>
       </c>
       <c r="C381" t="s">
         <v>127</v>
       </c>
       <c r="F381" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B382" t="s">
         <v>1206</v>
-      </c>
-      <c r="B382" t="s">
-        <v>1207</v>
       </c>
       <c r="C382" t="s">
         <v>19</v>
       </c>
       <c r="F382" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B383" t="s">
         <v>1209</v>
-      </c>
-      <c r="B383" t="s">
-        <v>1210</v>
       </c>
       <c r="C383" t="s">
         <v>109</v>
       </c>
       <c r="F383" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B384" t="s">
         <v>1212</v>
-      </c>
-      <c r="B384" t="s">
-        <v>1213</v>
       </c>
       <c r="C384" t="s">
         <v>383</v>
       </c>
       <c r="F384" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B385" t="s">
         <v>1215</v>
       </c>
-      <c r="B385" t="s">
+      <c r="C385" t="s">
+        <v>636</v>
+      </c>
+      <c r="D385" t="s">
         <v>1216</v>
       </c>
-      <c r="C385" t="s">
-        <v>637</v>
-      </c>
-      <c r="D385" t="s">
+      <c r="F385" t="s">
         <v>1217</v>
-      </c>
-      <c r="F385" t="s">
-        <v>1218</v>
       </c>
       <c r="H385">
         <v>3650</v>
@@ -11650,19 +11650,19 @@
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B386" t="s">
         <v>1219</v>
       </c>
-      <c r="B386" t="s">
+      <c r="C386" t="s">
         <v>1220</v>
-      </c>
-      <c r="C386" t="s">
-        <v>1221</v>
       </c>
       <c r="D386" t="s">
         <v>423</v>
       </c>
       <c r="F386" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="H386">
         <v>7294</v>
@@ -11673,33 +11673,33 @@
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B387" t="s">
         <v>1223</v>
-      </c>
-      <c r="B387" t="s">
-        <v>1224</v>
       </c>
       <c r="C387" t="s">
         <v>2</v>
       </c>
       <c r="F387" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B388" t="s">
         <v>1226</v>
       </c>
-      <c r="B388" t="s">
+      <c r="C388" t="s">
+        <v>587</v>
+      </c>
+      <c r="D388" t="s">
         <v>1227</v>
       </c>
-      <c r="C388" t="s">
-        <v>588</v>
-      </c>
-      <c r="D388" t="s">
+      <c r="F388" t="s">
         <v>1228</v>
-      </c>
-      <c r="F388" t="s">
-        <v>1229</v>
       </c>
       <c r="H388">
         <v>6734</v>
@@ -11707,10 +11707,10 @@
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="B389" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="C389" t="s">
         <v>94</v>
@@ -11719,7 +11719,7 @@
         <v>127</v>
       </c>
       <c r="F389" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="H389">
         <v>2583</v>
@@ -11727,33 +11727,33 @@
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B390" t="s">
         <v>1233</v>
-      </c>
-      <c r="B390" t="s">
-        <v>1234</v>
       </c>
       <c r="C390" t="s">
         <v>6</v>
       </c>
       <c r="F390" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="391" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B391" t="s">
         <v>1236</v>
       </c>
-      <c r="B391" t="s">
+      <c r="C391" t="s">
         <v>1237</v>
-      </c>
-      <c r="C391" t="s">
-        <v>1238</v>
       </c>
       <c r="D391" t="s">
         <v>54</v>
       </c>
       <c r="F391" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="I391">
         <v>14369</v>
@@ -11761,38 +11761,38 @@
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B392" t="s">
         <v>1240</v>
-      </c>
-      <c r="B392" t="s">
-        <v>1241</v>
       </c>
       <c r="C392" t="s">
         <v>2</v>
       </c>
       <c r="F392" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="393" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B393" t="s">
         <v>1243</v>
-      </c>
-      <c r="B393" t="s">
-        <v>1244</v>
       </c>
       <c r="C393" t="s">
         <v>151</v>
       </c>
       <c r="F393" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="394" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B394" t="s">
         <v>1246</v>
-      </c>
-      <c r="B394" t="s">
-        <v>1247</v>
       </c>
       <c r="C394" t="s">
         <v>215</v>
@@ -11801,7 +11801,7 @@
         <v>19</v>
       </c>
       <c r="F394" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="I394">
         <v>15373</v>
@@ -11809,75 +11809,75 @@
     </row>
     <row r="395" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B395" t="s">
         <v>1249</v>
-      </c>
-      <c r="B395" t="s">
-        <v>1250</v>
       </c>
       <c r="C395" t="s">
         <v>151</v>
       </c>
       <c r="F395" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B396" t="s">
         <v>1252</v>
-      </c>
-      <c r="B396" t="s">
-        <v>1253</v>
       </c>
       <c r="C396" t="s">
         <v>2</v>
       </c>
       <c r="F396" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B397" t="s">
         <v>1255</v>
-      </c>
-      <c r="B397" t="s">
-        <v>1256</v>
       </c>
       <c r="C397" t="s">
         <v>54</v>
       </c>
       <c r="F397" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B398" t="s">
         <v>1258</v>
-      </c>
-      <c r="B398" t="s">
-        <v>1259</v>
       </c>
       <c r="C398" t="s">
         <v>7</v>
       </c>
       <c r="F398" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B399" t="s">
         <v>1261</v>
       </c>
-      <c r="B399" t="s">
-        <v>1262</v>
-      </c>
       <c r="C399" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="D399" t="s">
         <v>127</v>
       </c>
       <c r="F399" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="I399">
         <v>13184</v>
@@ -11885,30 +11885,30 @@
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B400" t="s">
         <v>1263</v>
-      </c>
-      <c r="B400" t="s">
-        <v>1264</v>
       </c>
       <c r="C400" t="s">
         <v>20</v>
       </c>
       <c r="F400" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B401" t="s">
         <v>1266</v>
       </c>
-      <c r="B401" t="s">
+      <c r="C401" t="s">
         <v>1267</v>
       </c>
-      <c r="C401" t="s">
+      <c r="F401" t="s">
         <v>1268</v>
-      </c>
-      <c r="F401" t="s">
-        <v>1269</v>
       </c>
       <c r="I401">
         <v>15504</v>
@@ -11916,61 +11916,61 @@
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B402" t="s">
         <v>1270</v>
-      </c>
-      <c r="B402" t="s">
-        <v>1271</v>
       </c>
       <c r="C402" t="s">
         <v>415</v>
       </c>
       <c r="F402" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B403" t="s">
         <v>1273</v>
-      </c>
-      <c r="B403" t="s">
-        <v>1274</v>
       </c>
       <c r="C403" t="s">
         <v>7</v>
       </c>
       <c r="F403" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B404" t="s">
         <v>1276</v>
-      </c>
-      <c r="B404" t="s">
-        <v>1277</v>
       </c>
       <c r="C404" t="s">
         <v>54</v>
       </c>
       <c r="F404" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B405" t="s">
         <v>1278</v>
       </c>
-      <c r="B405" t="s">
+      <c r="C405" t="s">
+        <v>532</v>
+      </c>
+      <c r="D405" t="s">
         <v>1279</v>
       </c>
-      <c r="C405" t="s">
-        <v>533</v>
-      </c>
-      <c r="D405" t="s">
-        <v>1280</v>
-      </c>
       <c r="F405" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="H405">
         <v>7925</v>
@@ -11978,19 +11978,19 @@
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B406" t="s">
         <v>1281</v>
       </c>
-      <c r="B406" t="s">
+      <c r="C406" t="s">
         <v>1282</v>
-      </c>
-      <c r="C406" t="s">
-        <v>1283</v>
       </c>
       <c r="D406" t="s">
         <v>447</v>
       </c>
       <c r="F406" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H406">
         <v>4393</v>
@@ -11998,33 +11998,33 @@
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B407" t="s">
         <v>1285</v>
-      </c>
-      <c r="B407" t="s">
-        <v>1286</v>
       </c>
       <c r="C407" t="s">
         <v>46</v>
       </c>
       <c r="F407" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B408" t="s">
         <v>1288</v>
       </c>
-      <c r="B408" t="s">
+      <c r="C408" t="s">
+        <v>806</v>
+      </c>
+      <c r="D408" t="s">
         <v>1289</v>
       </c>
-      <c r="C408" t="s">
-        <v>807</v>
-      </c>
-      <c r="D408" t="s">
-        <v>1290</v>
-      </c>
       <c r="F408" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="I408">
         <v>35554</v>
@@ -12032,103 +12032,103 @@
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B409" t="s">
         <v>1291</v>
-      </c>
-      <c r="B409" t="s">
-        <v>1292</v>
       </c>
       <c r="C409" t="s">
         <v>109</v>
       </c>
       <c r="F409" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B410" t="s">
         <v>1293</v>
-      </c>
-      <c r="B410" t="s">
-        <v>1294</v>
       </c>
       <c r="C410" t="s">
         <v>54</v>
       </c>
       <c r="F410" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B411" t="s">
         <v>1296</v>
-      </c>
-      <c r="B411" t="s">
-        <v>1297</v>
       </c>
       <c r="C411" t="s">
         <v>83</v>
       </c>
       <c r="F411" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B412" t="s">
         <v>1299</v>
-      </c>
-      <c r="B412" t="s">
-        <v>1300</v>
       </c>
       <c r="C412" t="s">
         <v>2</v>
       </c>
       <c r="F412" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B413" t="s">
         <v>1302</v>
-      </c>
-      <c r="B413" t="s">
-        <v>1303</v>
       </c>
       <c r="C413" t="s">
         <v>122</v>
       </c>
       <c r="F413" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B414" t="s">
         <v>1305</v>
-      </c>
-      <c r="B414" t="s">
-        <v>1306</v>
       </c>
       <c r="C414" t="s">
         <v>19</v>
       </c>
       <c r="F414" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="415" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="B415" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="C415" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="D415" t="s">
         <v>46</v>
       </c>
       <c r="F415" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="H415">
         <v>8683</v>
@@ -12136,19 +12136,19 @@
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B416" t="s">
         <v>1310</v>
-      </c>
-      <c r="B416" t="s">
-        <v>1311</v>
       </c>
       <c r="C416" t="s">
         <v>94</v>
       </c>
       <c r="D416" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="F416" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="I416">
         <v>16760</v>
@@ -12156,47 +12156,47 @@
     </row>
     <row r="417" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B417" t="s">
         <v>1313</v>
-      </c>
-      <c r="B417" t="s">
-        <v>1314</v>
       </c>
       <c r="C417" t="s">
         <v>127</v>
       </c>
       <c r="F417" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="418" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B418" t="s">
         <v>1316</v>
-      </c>
-      <c r="B418" t="s">
-        <v>1317</v>
       </c>
       <c r="C418" t="s">
         <v>122</v>
       </c>
       <c r="F418" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="419" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B419" t="s">
         <v>1319</v>
       </c>
-      <c r="B419" t="s">
+      <c r="C419" t="s">
         <v>1320</v>
-      </c>
-      <c r="C419" t="s">
-        <v>1321</v>
       </c>
       <c r="D419" t="s">
         <v>498</v>
       </c>
       <c r="F419" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="I419">
         <v>19264</v>
@@ -12204,159 +12204,159 @@
     </row>
     <row r="420" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B420" t="s">
         <v>1323</v>
-      </c>
-      <c r="B420" t="s">
-        <v>1324</v>
       </c>
       <c r="C420" t="s">
         <v>7</v>
       </c>
       <c r="F420" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="421" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B421" t="s">
         <v>1326</v>
-      </c>
-      <c r="B421" t="s">
-        <v>1327</v>
       </c>
       <c r="C421" t="s">
         <v>19</v>
       </c>
       <c r="F421" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="422" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B422" t="s">
         <v>1329</v>
-      </c>
-      <c r="B422" t="s">
-        <v>1330</v>
       </c>
       <c r="C422" t="s">
         <v>122</v>
       </c>
       <c r="F422" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="423" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B423" t="s">
         <v>1331</v>
-      </c>
-      <c r="B423" t="s">
-        <v>1332</v>
       </c>
       <c r="C423" t="s">
         <v>2</v>
       </c>
       <c r="F423" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="424" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B424" t="s">
         <v>1333</v>
-      </c>
-      <c r="B424" t="s">
-        <v>1334</v>
       </c>
       <c r="C424" t="s">
         <v>19</v>
       </c>
       <c r="F424" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="425" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B425" t="s">
         <v>1336</v>
-      </c>
-      <c r="B425" t="s">
-        <v>1337</v>
       </c>
       <c r="C425" t="s">
         <v>109</v>
       </c>
       <c r="F425" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="426" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B426" t="s">
         <v>1339</v>
-      </c>
-      <c r="B426" t="s">
-        <v>1340</v>
       </c>
       <c r="C426" t="s">
         <v>151</v>
       </c>
       <c r="F426" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="427" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B427" t="s">
         <v>1342</v>
-      </c>
-      <c r="B427" t="s">
-        <v>1343</v>
       </c>
       <c r="C427" t="s">
         <v>20</v>
       </c>
       <c r="F427" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="428" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B428" t="s">
         <v>1345</v>
-      </c>
-      <c r="B428" t="s">
-        <v>1346</v>
       </c>
       <c r="C428" t="s">
         <v>104</v>
       </c>
       <c r="F428" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="429" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B429" t="s">
         <v>1348</v>
-      </c>
-      <c r="B429" t="s">
-        <v>1349</v>
       </c>
       <c r="C429" t="s">
         <v>19</v>
       </c>
       <c r="F429" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="430" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B430" t="s">
         <v>1351</v>
       </c>
-      <c r="B430" t="s">
+      <c r="C430" t="s">
         <v>1352</v>
-      </c>
-      <c r="C430" t="s">
-        <v>1353</v>
       </c>
       <c r="D430" t="s">
         <v>127</v>
       </c>
       <c r="F430" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="H430">
         <v>2910</v>
@@ -12364,66 +12364,66 @@
     </row>
     <row r="431" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B431" t="s">
         <v>1355</v>
-      </c>
-      <c r="B431" t="s">
-        <v>1356</v>
       </c>
       <c r="C431" t="s">
         <v>7</v>
       </c>
       <c r="F431" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="432" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B432" t="s">
         <v>1358</v>
-      </c>
-      <c r="B432" t="s">
-        <v>1359</v>
       </c>
       <c r="C432" t="s">
         <v>20</v>
       </c>
       <c r="F432" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="433" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B433" t="s">
         <v>1361</v>
-      </c>
-      <c r="B433" t="s">
-        <v>1362</v>
       </c>
       <c r="C433" t="s">
         <v>54</v>
       </c>
       <c r="F433" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="434" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B434" t="s">
         <v>1364</v>
-      </c>
-      <c r="B434" t="s">
-        <v>1365</v>
       </c>
       <c r="C434" t="s">
         <v>2</v>
       </c>
       <c r="F434" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="435" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B435" t="s">
         <v>1367</v>
-      </c>
-      <c r="B435" t="s">
-        <v>1368</v>
       </c>
       <c r="C435" t="s">
         <v>68</v>
@@ -12432,7 +12432,7 @@
         <v>122</v>
       </c>
       <c r="F435" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="I435">
         <v>12650</v>
@@ -12440,24 +12440,24 @@
     </row>
     <row r="436" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B436" t="s">
         <v>1370</v>
-      </c>
-      <c r="B436" t="s">
-        <v>1371</v>
       </c>
       <c r="C436" t="s">
         <v>151</v>
       </c>
       <c r="F436" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="437" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B437" t="s">
         <v>1373</v>
-      </c>
-      <c r="B437" t="s">
-        <v>1374</v>
       </c>
       <c r="C437" t="s">
         <v>113</v>
@@ -12466,7 +12466,7 @@
         <v>2</v>
       </c>
       <c r="F437" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="I437">
         <v>9878</v>
@@ -12474,24 +12474,24 @@
     </row>
     <row r="438" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B438" t="s">
         <v>1375</v>
-      </c>
-      <c r="B438" t="s">
-        <v>1376</v>
       </c>
       <c r="C438" t="s">
         <v>122</v>
       </c>
       <c r="F438" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="439" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B439" t="s">
         <v>1378</v>
-      </c>
-      <c r="B439" t="s">
-        <v>1379</v>
       </c>
       <c r="C439" t="s">
         <v>215</v>
@@ -12500,7 +12500,7 @@
         <v>383</v>
       </c>
       <c r="F439" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="I439">
         <v>15567</v>
@@ -12508,47 +12508,47 @@
     </row>
     <row r="440" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B440" t="s">
         <v>1381</v>
-      </c>
-      <c r="B440" t="s">
-        <v>1382</v>
       </c>
       <c r="C440" t="s">
         <v>20</v>
       </c>
       <c r="F440" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="441" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B441" t="s">
         <v>1384</v>
-      </c>
-      <c r="B441" t="s">
-        <v>1385</v>
       </c>
       <c r="C441" t="s">
         <v>19</v>
       </c>
       <c r="F441" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="442" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="B442" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="C442" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D442" t="s">
         <v>95</v>
       </c>
       <c r="F442" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="H442">
         <v>4851</v>
@@ -12556,24 +12556,24 @@
     </row>
     <row r="443" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B443" t="s">
         <v>1389</v>
-      </c>
-      <c r="B443" t="s">
-        <v>1390</v>
       </c>
       <c r="C443" t="s">
         <v>46</v>
       </c>
       <c r="F443" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="444" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B444" t="s">
         <v>1392</v>
-      </c>
-      <c r="B444" t="s">
-        <v>1393</v>
       </c>
       <c r="C444" t="s">
         <v>447</v>
@@ -12582,7 +12582,7 @@
         <v>2</v>
       </c>
       <c r="F444" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="I444">
         <v>10658</v>
@@ -12590,30 +12590,30 @@
     </row>
     <row r="445" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B445" t="s">
         <v>1395</v>
-      </c>
-      <c r="B445" t="s">
-        <v>1396</v>
       </c>
       <c r="C445" t="s">
         <v>248</v>
       </c>
       <c r="F445" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="446" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B446" t="s">
         <v>1397</v>
       </c>
-      <c r="B446" t="s">
-        <v>1398</v>
-      </c>
       <c r="C446" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="F446" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="H446">
         <v>9088</v>

--- a/data/surveyor.xlsx
+++ b/data/surveyor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Python\hummaps-admin\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A41AD2-63A0-404F-B0C0-591FFD628722}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BBA0D90-5257-46B0-BD6E-8D74935D1EB8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31035" yWindow="1395" windowWidth="23220" windowHeight="14310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="975" yWindow="0" windowWidth="26490" windowHeight="14310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="surveyors" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1983" uniqueCount="1446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1989" uniqueCount="1451">
   <si>
     <t>R. AANRUD</t>
   </si>
@@ -1072,9 +1072,6 @@
     <t>S. DRAKE</t>
   </si>
   <si>
-    <t>S DRAKE</t>
-  </si>
-  <si>
     <t>DRAKE</t>
   </si>
   <si>
@@ -4358,6 +4355,24 @@
   </si>
   <si>
     <t>FRANK L GRIMM</t>
+  </si>
+  <si>
+    <t>N. LABDEZKI</t>
+  </si>
+  <si>
+    <t>NICHOLAS</t>
+  </si>
+  <si>
+    <t>FYODOR</t>
+  </si>
+  <si>
+    <t>LABEDZKI</t>
+  </si>
+  <si>
+    <t>NICHOLAS FYODOR LABEDZKI</t>
+  </si>
+  <si>
+    <t>STEPHEN K DRAKE</t>
   </si>
 </sst>
 </file>
@@ -5198,10 +5213,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I446"/>
+  <dimension ref="A1:I447"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="A153" sqref="A153:XFD153"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5219,31 +5234,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B1" t="s">
         <v>1414</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1415</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1416</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1417</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>1418</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>1419</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>1420</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>1421</v>
-      </c>
-      <c r="I1" t="s">
-        <v>1422</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -5803,7 +5818,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="B32" t="s">
         <v>125</v>
@@ -6179,19 +6194,19 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B52" t="s">
         <v>1409</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>1410</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>1411</v>
       </c>
-      <c r="D52" t="s">
+      <c r="F52" t="s">
         <v>1412</v>
-      </c>
-      <c r="F52" t="s">
-        <v>1413</v>
       </c>
       <c r="H52">
         <v>9339</v>
@@ -6870,13 +6885,13 @@
         <v>335</v>
       </c>
       <c r="B93" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="C93" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D93" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F93" t="s">
         <v>336</v>
@@ -6955,63 +6970,69 @@
         <v>349</v>
       </c>
       <c r="B98" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C98" t="s">
+        <v>928</v>
+      </c>
+      <c r="D98" t="s">
+        <v>414</v>
+      </c>
+      <c r="F98" t="s">
         <v>350</v>
       </c>
-      <c r="C98" t="s">
-        <v>25</v>
-      </c>
-      <c r="F98" t="s">
-        <v>351</v>
+      <c r="H98">
+        <v>9244</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>351</v>
+      </c>
+      <c r="B99" t="s">
         <v>352</v>
-      </c>
-      <c r="B99" t="s">
-        <v>353</v>
       </c>
       <c r="C99" t="s">
         <v>2</v>
       </c>
       <c r="F99" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="B100" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C100" t="s">
         <v>19</v>
       </c>
       <c r="F100" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>356</v>
+      </c>
+      <c r="B101" t="s">
         <v>357</v>
-      </c>
-      <c r="B101" t="s">
-        <v>358</v>
       </c>
       <c r="C101" t="s">
         <v>46</v>
       </c>
       <c r="F101" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>359</v>
+      </c>
+      <c r="B102" t="s">
         <v>360</v>
-      </c>
-      <c r="B102" t="s">
-        <v>361</v>
       </c>
       <c r="C102" t="s">
         <v>59</v>
@@ -7020,7 +7041,7 @@
         <v>155</v>
       </c>
       <c r="F102" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I102">
         <v>22957</v>
@@ -7028,47 +7049,47 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>362</v>
+      </c>
+      <c r="B103" t="s">
         <v>363</v>
-      </c>
-      <c r="B103" t="s">
-        <v>364</v>
       </c>
       <c r="C103" t="s">
         <v>46</v>
       </c>
       <c r="F103" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>365</v>
+      </c>
+      <c r="B104" t="s">
         <v>366</v>
-      </c>
-      <c r="B104" t="s">
-        <v>367</v>
       </c>
       <c r="C104" t="s">
         <v>2</v>
       </c>
       <c r="F104" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="B105" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="C105" t="s">
         <v>63</v>
       </c>
       <c r="D105" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="F105" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="G105" t="s">
         <v>201</v>
@@ -7079,108 +7100,108 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
+        <v>368</v>
+      </c>
+      <c r="B106" t="s">
         <v>369</v>
-      </c>
-      <c r="B106" t="s">
-        <v>370</v>
       </c>
       <c r="C106" t="s">
         <v>248</v>
       </c>
       <c r="F106" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
+        <v>371</v>
+      </c>
+      <c r="B107" t="s">
         <v>372</v>
-      </c>
-      <c r="B107" t="s">
-        <v>373</v>
       </c>
       <c r="C107" t="s">
         <v>20</v>
       </c>
       <c r="F107" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
+        <v>374</v>
+      </c>
+      <c r="B108" t="s">
         <v>375</v>
-      </c>
-      <c r="B108" t="s">
-        <v>376</v>
       </c>
       <c r="C108" t="s">
         <v>83</v>
       </c>
       <c r="F108" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
+        <v>377</v>
+      </c>
+      <c r="B109" t="s">
         <v>378</v>
-      </c>
-      <c r="B109" t="s">
-        <v>379</v>
       </c>
       <c r="C109" t="s">
         <v>83</v>
       </c>
       <c r="F109" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>380</v>
+      </c>
+      <c r="B110" t="s">
         <v>381</v>
       </c>
-      <c r="B110" t="s">
+      <c r="C110" t="s">
         <v>382</v>
       </c>
-      <c r="C110" t="s">
+      <c r="F110" t="s">
         <v>383</v>
-      </c>
-      <c r="F110" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
+        <v>384</v>
+      </c>
+      <c r="B111" t="s">
         <v>385</v>
-      </c>
-      <c r="B111" t="s">
-        <v>386</v>
       </c>
       <c r="C111" t="s">
         <v>2</v>
       </c>
       <c r="F111" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>387</v>
+      </c>
+      <c r="B112" t="s">
         <v>388</v>
-      </c>
-      <c r="B112" t="s">
-        <v>389</v>
       </c>
       <c r="C112" t="s">
         <v>109</v>
       </c>
       <c r="F112" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
+        <v>390</v>
+      </c>
+      <c r="B113" t="s">
         <v>391</v>
-      </c>
-      <c r="B113" t="s">
-        <v>392</v>
       </c>
       <c r="C113" t="s">
         <v>113</v>
@@ -7189,7 +7210,7 @@
         <v>248</v>
       </c>
       <c r="F113" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I113">
         <v>12475</v>
@@ -7197,131 +7218,131 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>393</v>
+      </c>
+      <c r="B114" t="s">
         <v>394</v>
-      </c>
-      <c r="B114" t="s">
-        <v>395</v>
       </c>
       <c r="C114" t="s">
         <v>19</v>
       </c>
       <c r="F114" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
+        <v>396</v>
+      </c>
+      <c r="B115" t="s">
         <v>397</v>
-      </c>
-      <c r="B115" t="s">
-        <v>398</v>
       </c>
       <c r="C115" t="s">
         <v>19</v>
       </c>
       <c r="F115" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
+        <v>399</v>
+      </c>
+      <c r="B116" t="s">
         <v>400</v>
-      </c>
-      <c r="B116" t="s">
-        <v>401</v>
       </c>
       <c r="C116" t="s">
         <v>109</v>
       </c>
       <c r="F116" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
+        <v>402</v>
+      </c>
+      <c r="B117" t="s">
         <v>403</v>
-      </c>
-      <c r="B117" t="s">
-        <v>404</v>
       </c>
       <c r="C117" t="s">
         <v>19</v>
       </c>
       <c r="F117" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>405</v>
+      </c>
+      <c r="B118" t="s">
         <v>406</v>
-      </c>
-      <c r="B118" t="s">
-        <v>407</v>
       </c>
       <c r="C118" t="s">
         <v>122</v>
       </c>
       <c r="F118" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
+        <v>408</v>
+      </c>
+      <c r="B119" t="s">
         <v>409</v>
       </c>
-      <c r="B119" t="s">
+      <c r="C119" t="s">
         <v>410</v>
       </c>
-      <c r="C119" t="s">
+      <c r="F119" t="s">
         <v>411</v>
-      </c>
-      <c r="F119" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
+        <v>412</v>
+      </c>
+      <c r="B120" t="s">
         <v>413</v>
       </c>
-      <c r="B120" t="s">
+      <c r="C120" t="s">
         <v>414</v>
       </c>
-      <c r="C120" t="s">
+      <c r="F120" t="s">
         <v>415</v>
-      </c>
-      <c r="F120" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
+        <v>416</v>
+      </c>
+      <c r="B121" t="s">
         <v>417</v>
-      </c>
-      <c r="B121" t="s">
-        <v>418</v>
       </c>
       <c r="C121" t="s">
         <v>25</v>
       </c>
       <c r="F121" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
+        <v>419</v>
+      </c>
+      <c r="B122" t="s">
         <v>420</v>
       </c>
-      <c r="B122" t="s">
+      <c r="C122" t="s">
         <v>421</v>
       </c>
-      <c r="C122" t="s">
+      <c r="D122" t="s">
         <v>422</v>
       </c>
-      <c r="D122" t="s">
+      <c r="F122" t="s">
         <v>423</v>
-      </c>
-      <c r="F122" t="s">
-        <v>424</v>
       </c>
       <c r="I122">
         <v>28493</v>
@@ -7329,33 +7350,33 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
+        <v>424</v>
+      </c>
+      <c r="B123" t="s">
         <v>425</v>
-      </c>
-      <c r="B123" t="s">
-        <v>426</v>
       </c>
       <c r="C123" t="s">
         <v>25</v>
       </c>
       <c r="F123" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
+        <v>427</v>
+      </c>
+      <c r="B124" t="s">
         <v>428</v>
       </c>
-      <c r="B124" t="s">
+      <c r="C124" t="s">
         <v>429</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D124" t="s">
         <v>430</v>
       </c>
-      <c r="D124" t="s">
+      <c r="F124" t="s">
         <v>431</v>
-      </c>
-      <c r="F124" t="s">
-        <v>432</v>
       </c>
       <c r="H124">
         <v>5904</v>
@@ -7366,89 +7387,89 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="B125" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C125" t="s">
         <v>35</v>
       </c>
       <c r="F125" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
+        <v>434</v>
+      </c>
+      <c r="B126" t="s">
         <v>435</v>
-      </c>
-      <c r="B126" t="s">
-        <v>436</v>
       </c>
       <c r="C126" t="s">
         <v>20</v>
       </c>
       <c r="F126" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="B127" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C127" t="s">
         <v>46</v>
       </c>
       <c r="F127" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="B128" t="s">
+        <v>439</v>
+      </c>
+      <c r="C128" t="s">
+        <v>410</v>
+      </c>
+      <c r="F128" t="s">
         <v>440</v>
-      </c>
-      <c r="C128" t="s">
-        <v>411</v>
-      </c>
-      <c r="F128" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
+        <v>441</v>
+      </c>
+      <c r="B129" t="s">
         <v>442</v>
-      </c>
-      <c r="B129" t="s">
-        <v>443</v>
       </c>
       <c r="C129" t="s">
         <v>109</v>
       </c>
       <c r="F129" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C130" t="s">
         <v>1423</v>
       </c>
-      <c r="B130" t="s">
-        <v>1426</v>
-      </c>
-      <c r="C130" t="s">
+      <c r="D130" t="s">
+        <v>438</v>
+      </c>
+      <c r="F130" t="s">
         <v>1424</v>
-      </c>
-      <c r="D130" t="s">
-        <v>439</v>
-      </c>
-      <c r="F130" t="s">
-        <v>1425</v>
       </c>
       <c r="G130" t="s">
         <v>201</v>
@@ -7459,19 +7480,19 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
+        <v>444</v>
+      </c>
+      <c r="B131" t="s">
         <v>445</v>
       </c>
-      <c r="B131" t="s">
+      <c r="C131" t="s">
         <v>446</v>
-      </c>
-      <c r="C131" t="s">
-        <v>447</v>
       </c>
       <c r="D131" t="s">
         <v>39</v>
       </c>
       <c r="F131" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I131">
         <v>20181</v>
@@ -7479,47 +7500,47 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
+        <v>448</v>
+      </c>
+      <c r="B132" t="s">
         <v>449</v>
-      </c>
-      <c r="B132" t="s">
-        <v>450</v>
       </c>
       <c r="C132" t="s">
         <v>7</v>
       </c>
       <c r="F132" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
+        <v>451</v>
+      </c>
+      <c r="B133" t="s">
         <v>452</v>
-      </c>
-      <c r="B133" t="s">
-        <v>453</v>
       </c>
       <c r="C133" t="s">
         <v>54</v>
       </c>
       <c r="F133" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
+        <v>454</v>
+      </c>
+      <c r="B134" t="s">
         <v>455</v>
       </c>
-      <c r="B134" t="s">
+      <c r="C134" t="s">
         <v>456</v>
       </c>
-      <c r="C134" t="s">
+      <c r="D134" t="s">
+        <v>446</v>
+      </c>
+      <c r="F134" t="s">
         <v>457</v>
-      </c>
-      <c r="D134" t="s">
-        <v>447</v>
-      </c>
-      <c r="F134" t="s">
-        <v>458</v>
       </c>
       <c r="H134">
         <v>7717</v>
@@ -7527,38 +7548,38 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
+        <v>458</v>
+      </c>
+      <c r="B135" t="s">
         <v>459</v>
-      </c>
-      <c r="B135" t="s">
-        <v>460</v>
       </c>
       <c r="C135" t="s">
         <v>54</v>
       </c>
       <c r="F135" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
+        <v>461</v>
+      </c>
+      <c r="B136" t="s">
         <v>462</v>
-      </c>
-      <c r="B136" t="s">
-        <v>463</v>
       </c>
       <c r="C136" t="s">
         <v>19</v>
       </c>
       <c r="F136" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
+        <v>464</v>
+      </c>
+      <c r="B137" t="s">
         <v>465</v>
-      </c>
-      <c r="B137" t="s">
-        <v>466</v>
       </c>
       <c r="C137" t="s">
         <v>104</v>
@@ -7567,24 +7588,24 @@
         <v>35</v>
       </c>
       <c r="F137" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
+        <v>467</v>
+      </c>
+      <c r="B138" t="s">
         <v>468</v>
       </c>
-      <c r="B138" t="s">
+      <c r="C138" t="s">
         <v>469</v>
       </c>
-      <c r="C138" t="s">
+      <c r="D138" t="s">
         <v>470</v>
       </c>
-      <c r="D138" t="s">
+      <c r="F138" t="s">
         <v>471</v>
-      </c>
-      <c r="F138" t="s">
-        <v>472</v>
       </c>
       <c r="H138">
         <v>5125</v>
@@ -7595,66 +7616,66 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
+        <v>472</v>
+      </c>
+      <c r="B139" t="s">
         <v>473</v>
-      </c>
-      <c r="B139" t="s">
-        <v>474</v>
       </c>
       <c r="C139" t="s">
         <v>19</v>
       </c>
       <c r="F139" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
+        <v>475</v>
+      </c>
+      <c r="B140" t="s">
         <v>476</v>
-      </c>
-      <c r="B140" t="s">
-        <v>477</v>
       </c>
       <c r="C140" t="s">
         <v>19</v>
       </c>
       <c r="F140" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
+        <v>478</v>
+      </c>
+      <c r="B141" t="s">
         <v>479</v>
-      </c>
-      <c r="B141" t="s">
-        <v>480</v>
       </c>
       <c r="C141" t="s">
         <v>109</v>
       </c>
       <c r="F141" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
+        <v>481</v>
+      </c>
+      <c r="B142" t="s">
         <v>482</v>
-      </c>
-      <c r="B142" t="s">
-        <v>483</v>
       </c>
       <c r="C142" t="s">
         <v>19</v>
       </c>
       <c r="F142" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
+        <v>484</v>
+      </c>
+      <c r="B143" t="s">
         <v>485</v>
-      </c>
-      <c r="B143" t="s">
-        <v>486</v>
       </c>
       <c r="C143" t="s">
         <v>29</v>
@@ -7663,7 +7684,7 @@
         <v>139</v>
       </c>
       <c r="F143" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H143">
         <v>7242</v>
@@ -7671,19 +7692,19 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
+        <v>487</v>
+      </c>
+      <c r="B144" t="s">
         <v>488</v>
       </c>
-      <c r="B144" t="s">
+      <c r="C144" t="s">
         <v>489</v>
       </c>
-      <c r="C144" t="s">
+      <c r="D144" t="s">
         <v>490</v>
       </c>
-      <c r="D144" t="s">
+      <c r="F144" t="s">
         <v>491</v>
-      </c>
-      <c r="F144" t="s">
-        <v>492</v>
       </c>
       <c r="H144">
         <v>6157</v>
@@ -7691,33 +7712,33 @@
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
+        <v>492</v>
+      </c>
+      <c r="B145" t="s">
         <v>493</v>
-      </c>
-      <c r="B145" t="s">
-        <v>494</v>
       </c>
       <c r="C145" t="s">
         <v>151</v>
       </c>
       <c r="F145" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
+        <v>495</v>
+      </c>
+      <c r="B146" t="s">
         <v>496</v>
       </c>
-      <c r="B146" t="s">
+      <c r="C146" t="s">
         <v>497</v>
-      </c>
-      <c r="C146" t="s">
-        <v>498</v>
       </c>
       <c r="D146" t="s">
         <v>113</v>
       </c>
       <c r="F146" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G146" t="s">
         <v>201</v>
@@ -7728,22 +7749,22 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
+        <v>499</v>
+      </c>
+      <c r="B147" t="s">
         <v>500</v>
       </c>
-      <c r="B147" t="s">
-        <v>501</v>
-      </c>
       <c r="C147" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D147" t="s">
         <v>113</v>
       </c>
       <c r="F147" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G147" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I147">
         <v>22093</v>
@@ -7751,75 +7772,75 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
+        <v>502</v>
+      </c>
+      <c r="B148" t="s">
         <v>503</v>
       </c>
-      <c r="B148" t="s">
+      <c r="C148" t="s">
+        <v>414</v>
+      </c>
+      <c r="F148" t="s">
         <v>504</v>
-      </c>
-      <c r="C148" t="s">
-        <v>415</v>
-      </c>
-      <c r="F148" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
+        <v>505</v>
+      </c>
+      <c r="B149" t="s">
         <v>506</v>
-      </c>
-      <c r="B149" t="s">
-        <v>507</v>
       </c>
       <c r="C149" t="s">
         <v>104</v>
       </c>
       <c r="F149" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
+        <v>508</v>
+      </c>
+      <c r="B150" t="s">
         <v>509</v>
-      </c>
-      <c r="B150" t="s">
-        <v>510</v>
       </c>
       <c r="C150" t="s">
         <v>46</v>
       </c>
       <c r="F150" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
+        <v>511</v>
+      </c>
+      <c r="B151" t="s">
         <v>512</v>
-      </c>
-      <c r="B151" t="s">
-        <v>513</v>
       </c>
       <c r="C151" t="s">
         <v>248</v>
       </c>
       <c r="F151" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
+        <v>514</v>
+      </c>
+      <c r="B152" t="s">
         <v>515</v>
       </c>
-      <c r="B152" t="s">
+      <c r="C152" t="s">
         <v>516</v>
-      </c>
-      <c r="C152" t="s">
-        <v>517</v>
       </c>
       <c r="D152" t="s">
         <v>6</v>
       </c>
       <c r="F152" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H152">
         <v>3318</v>
@@ -7827,19 +7848,19 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B153" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="C153" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D153" t="s">
         <v>122</v>
       </c>
       <c r="F153" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H153">
         <v>2017</v>
@@ -7847,24 +7868,24 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
+        <v>520</v>
+      </c>
+      <c r="B154" t="s">
         <v>521</v>
-      </c>
-      <c r="B154" t="s">
-        <v>522</v>
       </c>
       <c r="C154" t="s">
         <v>19</v>
       </c>
       <c r="F154" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
+        <v>523</v>
+      </c>
+      <c r="B155" t="s">
         <v>524</v>
-      </c>
-      <c r="B155" t="s">
-        <v>525</v>
       </c>
       <c r="C155" t="s">
         <v>155</v>
@@ -7873,7 +7894,7 @@
         <v>122</v>
       </c>
       <c r="F155" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I155">
         <v>23355</v>
@@ -7881,33 +7902,33 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
+        <v>526</v>
+      </c>
+      <c r="B156" t="s">
         <v>527</v>
-      </c>
-      <c r="B156" t="s">
-        <v>528</v>
       </c>
       <c r="C156" t="s">
         <v>20</v>
       </c>
       <c r="F156" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
+        <v>529</v>
+      </c>
+      <c r="B157" t="s">
         <v>530</v>
       </c>
-      <c r="B157" t="s">
+      <c r="C157" t="s">
         <v>531</v>
-      </c>
-      <c r="C157" t="s">
-        <v>532</v>
       </c>
       <c r="D157" t="s">
         <v>20</v>
       </c>
       <c r="F157" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G157" t="s">
         <v>201</v>
@@ -7918,19 +7939,19 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
+        <v>533</v>
+      </c>
+      <c r="B158" t="s">
         <v>534</v>
       </c>
-      <c r="B158" t="s">
+      <c r="C158" t="s">
         <v>535</v>
-      </c>
-      <c r="C158" t="s">
-        <v>536</v>
       </c>
       <c r="D158" t="s">
         <v>151</v>
       </c>
       <c r="F158" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H158">
         <v>3431</v>
@@ -7938,75 +7959,75 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
+        <v>537</v>
+      </c>
+      <c r="B159" t="s">
         <v>538</v>
-      </c>
-      <c r="B159" t="s">
-        <v>539</v>
       </c>
       <c r="C159" t="s">
         <v>46</v>
       </c>
       <c r="F159" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
+        <v>540</v>
+      </c>
+      <c r="B160" t="s">
         <v>541</v>
-      </c>
-      <c r="B160" t="s">
-        <v>542</v>
       </c>
       <c r="C160" t="s">
         <v>2</v>
       </c>
       <c r="F160" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
+        <v>543</v>
+      </c>
+      <c r="B161" t="s">
         <v>544</v>
-      </c>
-      <c r="B161" t="s">
-        <v>545</v>
       </c>
       <c r="C161" t="s">
         <v>7</v>
       </c>
       <c r="F161" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
+        <v>546</v>
+      </c>
+      <c r="B162" t="s">
         <v>547</v>
-      </c>
-      <c r="B162" t="s">
-        <v>548</v>
       </c>
       <c r="C162" t="s">
         <v>6</v>
       </c>
       <c r="F162" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
+        <v>549</v>
+      </c>
+      <c r="B163" t="s">
         <v>550</v>
       </c>
-      <c r="B163" t="s">
+      <c r="C163" t="s">
         <v>551</v>
       </c>
-      <c r="C163" t="s">
+      <c r="D163" t="s">
         <v>552</v>
       </c>
-      <c r="D163" t="s">
+      <c r="F163" t="s">
         <v>553</v>
-      </c>
-      <c r="F163" t="s">
-        <v>554</v>
       </c>
       <c r="H163">
         <v>6611</v>
@@ -8014,10 +8035,10 @@
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
+        <v>554</v>
+      </c>
+      <c r="B164" t="s">
         <v>555</v>
-      </c>
-      <c r="B164" t="s">
-        <v>556</v>
       </c>
       <c r="C164" t="s">
         <v>63</v>
@@ -8026,7 +8047,7 @@
         <v>83</v>
       </c>
       <c r="F164" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H164">
         <v>7683</v>
@@ -8034,24 +8055,24 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
+        <v>557</v>
+      </c>
+      <c r="B165" t="s">
         <v>558</v>
-      </c>
-      <c r="B165" t="s">
-        <v>559</v>
       </c>
       <c r="C165" t="s">
         <v>19</v>
       </c>
       <c r="F165" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
+        <v>560</v>
+      </c>
+      <c r="B166" t="s">
         <v>561</v>
-      </c>
-      <c r="B166" t="s">
-        <v>562</v>
       </c>
       <c r="C166" t="s">
         <v>99</v>
@@ -8060,7 +8081,7 @@
         <v>7</v>
       </c>
       <c r="F166" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="I166">
         <v>7642</v>
@@ -8068,10 +8089,10 @@
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
+        <v>563</v>
+      </c>
+      <c r="B167" t="s">
         <v>564</v>
-      </c>
-      <c r="B167" t="s">
-        <v>565</v>
       </c>
       <c r="C167" t="s">
         <v>104</v>
@@ -8080,15 +8101,15 @@
         <v>109</v>
       </c>
       <c r="F167" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="B168" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C168" t="s">
         <v>104</v>
@@ -8097,52 +8118,52 @@
         <v>109</v>
       </c>
       <c r="F168" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
+        <v>566</v>
+      </c>
+      <c r="B169" t="s">
         <v>567</v>
-      </c>
-      <c r="B169" t="s">
-        <v>568</v>
       </c>
       <c r="C169" t="s">
         <v>19</v>
       </c>
       <c r="F169" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
+        <v>569</v>
+      </c>
+      <c r="B170" t="s">
         <v>570</v>
-      </c>
-      <c r="B170" t="s">
-        <v>571</v>
       </c>
       <c r="C170" t="s">
         <v>19</v>
       </c>
       <c r="F170" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
+        <v>572</v>
+      </c>
+      <c r="B171" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C171" t="s">
+        <v>805</v>
+      </c>
+      <c r="D171" t="s">
+        <v>1433</v>
+      </c>
+      <c r="F171" t="s">
         <v>573</v>
-      </c>
-      <c r="B171" t="s">
-        <v>1435</v>
-      </c>
-      <c r="C171" t="s">
-        <v>806</v>
-      </c>
-      <c r="D171" t="s">
-        <v>1434</v>
-      </c>
-      <c r="F171" t="s">
-        <v>574</v>
       </c>
       <c r="H171">
         <v>8925</v>
@@ -8153,61 +8174,61 @@
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
+        <v>574</v>
+      </c>
+      <c r="B172" t="s">
         <v>575</v>
-      </c>
-      <c r="B172" t="s">
-        <v>576</v>
       </c>
       <c r="C172" t="s">
         <v>25</v>
       </c>
       <c r="F172" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
+        <v>577</v>
+      </c>
+      <c r="B173" t="s">
         <v>578</v>
-      </c>
-      <c r="B173" t="s">
-        <v>579</v>
       </c>
       <c r="C173" t="s">
         <v>7</v>
       </c>
       <c r="F173" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
+        <v>580</v>
+      </c>
+      <c r="B174" t="s">
         <v>581</v>
-      </c>
-      <c r="B174" t="s">
-        <v>582</v>
       </c>
       <c r="C174" t="s">
         <v>25</v>
       </c>
       <c r="F174" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
+        <v>583</v>
+      </c>
+      <c r="B175" t="s">
         <v>584</v>
       </c>
-      <c r="B175" t="s">
+      <c r="C175" t="s">
         <v>585</v>
       </c>
-      <c r="C175" t="s">
+      <c r="D175" t="s">
         <v>586</v>
       </c>
-      <c r="D175" t="s">
+      <c r="F175" t="s">
         <v>587</v>
-      </c>
-      <c r="F175" t="s">
-        <v>588</v>
       </c>
       <c r="H175">
         <v>8335</v>
@@ -8215,27 +8236,27 @@
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
+        <v>588</v>
+      </c>
+      <c r="B176" t="s">
         <v>589</v>
       </c>
-      <c r="B176" t="s">
+      <c r="C176" t="s">
         <v>590</v>
-      </c>
-      <c r="C176" t="s">
-        <v>591</v>
       </c>
       <c r="D176" t="s">
         <v>54</v>
       </c>
       <c r="F176" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
+        <v>592</v>
+      </c>
+      <c r="B177" t="s">
         <v>593</v>
-      </c>
-      <c r="B177" t="s">
-        <v>594</v>
       </c>
       <c r="C177" t="s">
         <v>2</v>
@@ -8244,66 +8265,66 @@
         <v>104</v>
       </c>
       <c r="F177" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
+        <v>594</v>
+      </c>
+      <c r="B178" t="s">
         <v>595</v>
-      </c>
-      <c r="B178" t="s">
-        <v>596</v>
       </c>
       <c r="C178" t="s">
         <v>54</v>
       </c>
       <c r="F178" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
+        <v>597</v>
+      </c>
+      <c r="B179" t="s">
         <v>598</v>
-      </c>
-      <c r="B179" t="s">
-        <v>599</v>
       </c>
       <c r="C179" t="s">
         <v>109</v>
       </c>
       <c r="F179" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
+        <v>600</v>
+      </c>
+      <c r="B180" t="s">
         <v>601</v>
-      </c>
-      <c r="B180" t="s">
-        <v>602</v>
       </c>
       <c r="C180" t="s">
         <v>2</v>
       </c>
       <c r="F180" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
+        <v>603</v>
+      </c>
+      <c r="B181" t="s">
         <v>604</v>
       </c>
-      <c r="B181" t="s">
+      <c r="C181" t="s">
         <v>605</v>
-      </c>
-      <c r="C181" t="s">
-        <v>606</v>
       </c>
       <c r="D181" t="s">
         <v>20</v>
       </c>
       <c r="F181" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="I181">
         <v>5438</v>
@@ -8311,16 +8332,16 @@
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
+        <v>607</v>
+      </c>
+      <c r="B182" t="s">
         <v>608</v>
       </c>
-      <c r="B182" t="s">
-        <v>609</v>
-      </c>
       <c r="C182" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F182" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H182">
         <v>3254</v>
@@ -8328,19 +8349,19 @@
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B183" t="s">
         <v>1442</v>
       </c>
-      <c r="B183" t="s">
+      <c r="C183" t="s">
+        <v>805</v>
+      </c>
+      <c r="D183" t="s">
+        <v>379</v>
+      </c>
+      <c r="F183" t="s">
         <v>1443</v>
-      </c>
-      <c r="C183" t="s">
-        <v>806</v>
-      </c>
-      <c r="D183" t="s">
-        <v>380</v>
-      </c>
-      <c r="F183" t="s">
-        <v>1444</v>
       </c>
       <c r="H183">
         <v>8621</v>
@@ -8348,61 +8369,61 @@
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
+        <v>609</v>
+      </c>
+      <c r="B184" t="s">
         <v>610</v>
-      </c>
-      <c r="B184" t="s">
-        <v>611</v>
       </c>
       <c r="C184" t="s">
         <v>2</v>
       </c>
       <c r="F184" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
+        <v>612</v>
+      </c>
+      <c r="B185" t="s">
         <v>613</v>
-      </c>
-      <c r="B185" t="s">
-        <v>614</v>
       </c>
       <c r="C185" t="s">
         <v>109</v>
       </c>
       <c r="F185" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
+        <v>615</v>
+      </c>
+      <c r="B186" t="s">
         <v>616</v>
-      </c>
-      <c r="B186" t="s">
-        <v>617</v>
       </c>
       <c r="C186" t="s">
         <v>7</v>
       </c>
       <c r="F186" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
+        <v>618</v>
+      </c>
+      <c r="B187" t="s">
         <v>619</v>
       </c>
-      <c r="B187" t="s">
+      <c r="C187" t="s">
         <v>620</v>
-      </c>
-      <c r="C187" t="s">
-        <v>621</v>
       </c>
       <c r="D187" t="s">
         <v>127</v>
       </c>
       <c r="F187" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H187">
         <v>7801</v>
@@ -8410,24 +8431,24 @@
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
+        <v>621</v>
+      </c>
+      <c r="B188" t="s">
         <v>622</v>
-      </c>
-      <c r="B188" t="s">
-        <v>623</v>
       </c>
       <c r="C188" t="s">
         <v>122</v>
       </c>
       <c r="F188" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
+        <v>624</v>
+      </c>
+      <c r="B189" t="s">
         <v>625</v>
-      </c>
-      <c r="B189" t="s">
-        <v>626</v>
       </c>
       <c r="C189" t="s">
         <v>59</v>
@@ -8436,7 +8457,7 @@
         <v>113</v>
       </c>
       <c r="F189" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H189">
         <v>6356</v>
@@ -8444,19 +8465,19 @@
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
+        <v>626</v>
+      </c>
+      <c r="B190" t="s">
         <v>627</v>
       </c>
-      <c r="B190" t="s">
+      <c r="C190" t="s">
         <v>628</v>
       </c>
-      <c r="C190" t="s">
+      <c r="D190" t="s">
         <v>629</v>
       </c>
-      <c r="D190" t="s">
+      <c r="F190" t="s">
         <v>630</v>
-      </c>
-      <c r="F190" t="s">
-        <v>631</v>
       </c>
       <c r="H190">
         <v>7858</v>
@@ -8464,13 +8485,13 @@
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
+        <v>631</v>
+      </c>
+      <c r="B191" t="s">
         <v>632</v>
       </c>
-      <c r="B191" t="s">
-        <v>633</v>
-      </c>
       <c r="C191" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F191" t="s">
         <v>87</v>
@@ -8478,19 +8499,19 @@
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B192" t="s">
         <v>1430</v>
       </c>
-      <c r="B192" t="s">
+      <c r="C192" t="s">
+        <v>888</v>
+      </c>
+      <c r="D192" t="s">
         <v>1431</v>
       </c>
-      <c r="C192" t="s">
-        <v>889</v>
-      </c>
-      <c r="D192" t="s">
+      <c r="F192" t="s">
         <v>1432</v>
-      </c>
-      <c r="F192" t="s">
-        <v>1433</v>
       </c>
       <c r="H192">
         <v>7366</v>
@@ -8498,19 +8519,19 @@
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
+        <v>633</v>
+      </c>
+      <c r="B193" t="s">
         <v>634</v>
       </c>
-      <c r="B193" t="s">
+      <c r="C193" t="s">
         <v>635</v>
       </c>
-      <c r="C193" t="s">
+      <c r="D193" t="s">
         <v>636</v>
       </c>
-      <c r="D193" t="s">
+      <c r="F193" t="s">
         <v>637</v>
-      </c>
-      <c r="F193" t="s">
-        <v>638</v>
       </c>
       <c r="I193">
         <v>24779</v>
@@ -8518,19 +8539,19 @@
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
+        <v>638</v>
+      </c>
+      <c r="B194" t="s">
         <v>639</v>
       </c>
-      <c r="B194" t="s">
-        <v>640</v>
-      </c>
       <c r="C194" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D194" t="s">
         <v>139</v>
       </c>
       <c r="F194" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H194">
         <v>4570</v>
@@ -8538,131 +8559,131 @@
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
+        <v>641</v>
+      </c>
+      <c r="B195" t="s">
         <v>642</v>
-      </c>
-      <c r="B195" t="s">
-        <v>643</v>
       </c>
       <c r="C195" t="s">
         <v>46</v>
       </c>
       <c r="F195" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
+        <v>644</v>
+      </c>
+      <c r="B196" t="s">
         <v>645</v>
-      </c>
-      <c r="B196" t="s">
-        <v>646</v>
       </c>
       <c r="C196" t="s">
         <v>109</v>
       </c>
       <c r="F196" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
+        <v>646</v>
+      </c>
+      <c r="B197" t="s">
         <v>647</v>
-      </c>
-      <c r="B197" t="s">
-        <v>648</v>
       </c>
       <c r="C197" t="s">
         <v>35</v>
       </c>
       <c r="F197" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
+        <v>649</v>
+      </c>
+      <c r="B198" t="s">
         <v>650</v>
-      </c>
-      <c r="B198" t="s">
-        <v>651</v>
       </c>
       <c r="C198" t="s">
         <v>109</v>
       </c>
       <c r="F198" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
+        <v>652</v>
+      </c>
+      <c r="B199" t="s">
         <v>653</v>
-      </c>
-      <c r="B199" t="s">
-        <v>654</v>
       </c>
       <c r="C199" t="s">
         <v>248</v>
       </c>
       <c r="F199" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
+        <v>655</v>
+      </c>
+      <c r="B200" t="s">
         <v>656</v>
-      </c>
-      <c r="B200" t="s">
-        <v>657</v>
       </c>
       <c r="C200" t="s">
         <v>104</v>
       </c>
       <c r="F200" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
+        <v>658</v>
+      </c>
+      <c r="B201" t="s">
         <v>659</v>
-      </c>
-      <c r="B201" t="s">
-        <v>660</v>
       </c>
       <c r="C201" t="s">
         <v>19</v>
       </c>
       <c r="F201" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
+        <v>660</v>
+      </c>
+      <c r="B202" t="s">
         <v>661</v>
-      </c>
-      <c r="B202" t="s">
-        <v>662</v>
       </c>
       <c r="C202" t="s">
         <v>2</v>
       </c>
       <c r="F202" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
+        <v>663</v>
+      </c>
+      <c r="B203" t="s">
         <v>664</v>
       </c>
-      <c r="B203" t="s">
+      <c r="C203" t="s">
         <v>665</v>
       </c>
-      <c r="C203" t="s">
+      <c r="D203" t="s">
         <v>666</v>
       </c>
-      <c r="D203" t="s">
+      <c r="F203" t="s">
         <v>667</v>
-      </c>
-      <c r="F203" t="s">
-        <v>668</v>
       </c>
       <c r="H203">
         <v>8153</v>
@@ -8670,61 +8691,61 @@
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
+        <v>668</v>
+      </c>
+      <c r="B204" t="s">
         <v>669</v>
-      </c>
-      <c r="B204" t="s">
-        <v>670</v>
       </c>
       <c r="C204" t="s">
         <v>25</v>
       </c>
       <c r="F204" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
+        <v>671</v>
+      </c>
+      <c r="B205" t="s">
         <v>672</v>
-      </c>
-      <c r="B205" t="s">
-        <v>673</v>
       </c>
       <c r="C205" t="s">
         <v>2</v>
       </c>
       <c r="F205" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
+        <v>674</v>
+      </c>
+      <c r="B206" t="s">
         <v>675</v>
-      </c>
-      <c r="B206" t="s">
-        <v>676</v>
       </c>
       <c r="C206" t="s">
         <v>109</v>
       </c>
       <c r="F206" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
+        <v>677</v>
+      </c>
+      <c r="B207" t="s">
         <v>678</v>
-      </c>
-      <c r="B207" t="s">
-        <v>679</v>
       </c>
       <c r="C207" t="s">
         <v>39</v>
       </c>
       <c r="D207" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F207" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I207">
         <v>18584</v>
@@ -8732,19 +8753,19 @@
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
+        <v>680</v>
+      </c>
+      <c r="B208" t="s">
         <v>681</v>
       </c>
-      <c r="B208" t="s">
+      <c r="C208" t="s">
         <v>682</v>
       </c>
-      <c r="C208" t="s">
+      <c r="D208" t="s">
         <v>683</v>
       </c>
-      <c r="D208" t="s">
+      <c r="F208" t="s">
         <v>684</v>
-      </c>
-      <c r="F208" t="s">
-        <v>685</v>
       </c>
       <c r="H208">
         <v>6621</v>
@@ -8752,19 +8773,19 @@
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
+        <v>685</v>
+      </c>
+      <c r="B209" t="s">
         <v>686</v>
-      </c>
-      <c r="B209" t="s">
-        <v>687</v>
       </c>
       <c r="C209" t="s">
         <v>316</v>
       </c>
       <c r="D209" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F209" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H209">
         <v>9194</v>
@@ -8772,131 +8793,131 @@
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
+        <v>688</v>
+      </c>
+      <c r="B210" t="s">
         <v>689</v>
-      </c>
-      <c r="B210" t="s">
-        <v>690</v>
       </c>
       <c r="C210" t="s">
         <v>25</v>
       </c>
       <c r="F210" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
+        <v>690</v>
+      </c>
+      <c r="B211" t="s">
         <v>691</v>
-      </c>
-      <c r="B211" t="s">
-        <v>692</v>
       </c>
       <c r="C211" t="s">
         <v>83</v>
       </c>
       <c r="F211" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
+        <v>693</v>
+      </c>
+      <c r="B212" t="s">
         <v>694</v>
-      </c>
-      <c r="B212" t="s">
-        <v>695</v>
       </c>
       <c r="C212" t="s">
         <v>248</v>
       </c>
       <c r="F212" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
+        <v>696</v>
+      </c>
+      <c r="B213" t="s">
         <v>697</v>
-      </c>
-      <c r="B213" t="s">
-        <v>698</v>
       </c>
       <c r="C213" t="s">
         <v>6</v>
       </c>
       <c r="F213" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
+        <v>699</v>
+      </c>
+      <c r="B214" t="s">
         <v>700</v>
-      </c>
-      <c r="B214" t="s">
-        <v>701</v>
       </c>
       <c r="C214" t="s">
         <v>19</v>
       </c>
       <c r="F214" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
+        <v>702</v>
+      </c>
+      <c r="B215" t="s">
         <v>703</v>
-      </c>
-      <c r="B215" t="s">
-        <v>704</v>
       </c>
       <c r="C215" t="s">
         <v>104</v>
       </c>
       <c r="F215" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
+        <v>705</v>
+      </c>
+      <c r="B216" t="s">
         <v>706</v>
-      </c>
-      <c r="B216" t="s">
-        <v>707</v>
       </c>
       <c r="C216" t="s">
         <v>46</v>
       </c>
       <c r="F216" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
+        <v>708</v>
+      </c>
+      <c r="B217" t="s">
         <v>709</v>
-      </c>
-      <c r="B217" t="s">
-        <v>710</v>
       </c>
       <c r="C217" t="s">
         <v>2</v>
       </c>
       <c r="F217" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
+        <v>711</v>
+      </c>
+      <c r="B218" t="s">
         <v>712</v>
       </c>
-      <c r="B218" t="s">
-        <v>713</v>
-      </c>
       <c r="C218" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D218" t="s">
         <v>54</v>
       </c>
       <c r="F218" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H218">
         <v>764</v>
@@ -8907,19 +8928,19 @@
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
+        <v>714</v>
+      </c>
+      <c r="B219" t="s">
         <v>715</v>
       </c>
-      <c r="B219" t="s">
+      <c r="C219" t="s">
         <v>716</v>
-      </c>
-      <c r="C219" t="s">
-        <v>717</v>
       </c>
       <c r="D219" t="s">
         <v>54</v>
       </c>
       <c r="F219" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H219">
         <v>2820</v>
@@ -8927,19 +8948,19 @@
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B220" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C220" t="s">
         <v>68</v>
       </c>
       <c r="D220" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F220" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="I220">
         <v>11005</v>
@@ -8947,38 +8968,38 @@
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
+        <v>719</v>
+      </c>
+      <c r="B221" t="s">
         <v>720</v>
-      </c>
-      <c r="B221" t="s">
-        <v>721</v>
       </c>
       <c r="C221" t="s">
         <v>25</v>
       </c>
       <c r="F221" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
+        <v>722</v>
+      </c>
+      <c r="B222" t="s">
         <v>723</v>
-      </c>
-      <c r="B222" t="s">
-        <v>724</v>
       </c>
       <c r="C222" t="s">
         <v>19</v>
       </c>
       <c r="F222" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
+        <v>725</v>
+      </c>
+      <c r="B223" t="s">
         <v>726</v>
-      </c>
-      <c r="B223" t="s">
-        <v>727</v>
       </c>
       <c r="C223" t="s">
         <v>68</v>
@@ -8987,7 +9008,7 @@
         <v>54</v>
       </c>
       <c r="F223" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H223">
         <v>2808</v>
@@ -8995,19 +9016,19 @@
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
+        <v>728</v>
+      </c>
+      <c r="B224" t="s">
         <v>729</v>
       </c>
-      <c r="B224" t="s">
+      <c r="C224" t="s">
         <v>730</v>
       </c>
-      <c r="C224" t="s">
+      <c r="D224" t="s">
         <v>731</v>
       </c>
-      <c r="D224" t="s">
+      <c r="F224" t="s">
         <v>732</v>
-      </c>
-      <c r="F224" t="s">
-        <v>733</v>
       </c>
       <c r="I224">
         <v>20758</v>
@@ -9015,19 +9036,19 @@
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
+        <v>733</v>
+      </c>
+      <c r="B225" t="s">
         <v>734</v>
       </c>
-      <c r="B225" t="s">
+      <c r="C225" t="s">
         <v>735</v>
       </c>
-      <c r="C225" t="s">
+      <c r="D225" t="s">
         <v>736</v>
       </c>
-      <c r="D225" t="s">
+      <c r="F225" t="s">
         <v>737</v>
-      </c>
-      <c r="F225" t="s">
-        <v>738</v>
       </c>
       <c r="H225">
         <v>7938</v>
@@ -9035,33 +9056,33 @@
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
+        <v>738</v>
+      </c>
+      <c r="B226" t="s">
         <v>739</v>
       </c>
-      <c r="B226" t="s">
-        <v>740</v>
-      </c>
       <c r="C226" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F226" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
+        <v>740</v>
+      </c>
+      <c r="B227" t="s">
         <v>741</v>
       </c>
-      <c r="B227" t="s">
+      <c r="C227" t="s">
         <v>742</v>
       </c>
-      <c r="C227" t="s">
+      <c r="D227" t="s">
         <v>743</v>
       </c>
-      <c r="D227" t="s">
+      <c r="F227" t="s">
         <v>744</v>
-      </c>
-      <c r="F227" t="s">
-        <v>745</v>
       </c>
       <c r="H227">
         <v>5677</v>
@@ -9069,19 +9090,19 @@
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
+        <v>745</v>
+      </c>
+      <c r="B228" t="s">
         <v>746</v>
       </c>
-      <c r="B228" t="s">
+      <c r="C228" t="s">
         <v>747</v>
       </c>
-      <c r="C228" t="s">
-        <v>748</v>
-      </c>
       <c r="D228" t="s">
+        <v>743</v>
+      </c>
+      <c r="F228" t="s">
         <v>744</v>
-      </c>
-      <c r="F228" t="s">
-        <v>745</v>
       </c>
       <c r="H228">
         <v>8152</v>
@@ -9089,19 +9110,19 @@
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
+        <v>748</v>
+      </c>
+      <c r="B229" t="s">
         <v>749</v>
-      </c>
-      <c r="B229" t="s">
-        <v>750</v>
       </c>
       <c r="C229" t="s">
         <v>278</v>
       </c>
       <c r="D229" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F229" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="I229">
         <v>11950</v>
@@ -9109,138 +9130,138 @@
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>752</v>
+        <v>1445</v>
       </c>
       <c r="B230" t="s">
-        <v>753</v>
+        <v>1449</v>
       </c>
       <c r="C230" t="s">
-        <v>6</v>
+        <v>1446</v>
+      </c>
+      <c r="D230" t="s">
+        <v>1447</v>
       </c>
       <c r="F230" t="s">
-        <v>754</v>
+        <v>1448</v>
+      </c>
+      <c r="H230">
+        <v>8827</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="B231" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="C231" t="s">
-        <v>757</v>
+        <v>6</v>
       </c>
       <c r="F231" t="s">
-        <v>758</v>
-      </c>
-      <c r="I231">
-        <v>8374</v>
+        <v>753</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="B232" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="C232" t="s">
-        <v>761</v>
-      </c>
-      <c r="D232" t="s">
-        <v>282</v>
+        <v>756</v>
       </c>
       <c r="F232" t="s">
-        <v>762</v>
-      </c>
-      <c r="H232">
-        <v>4264</v>
+        <v>757</v>
+      </c>
+      <c r="I232">
+        <v>8374</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="B233" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="C233" t="s">
-        <v>25</v>
+        <v>760</v>
+      </c>
+      <c r="D233" t="s">
+        <v>282</v>
       </c>
       <c r="F233" t="s">
-        <v>765</v>
+        <v>761</v>
+      </c>
+      <c r="H233">
+        <v>4264</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="B234" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="C234" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="F234" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="B235" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="C235" t="s">
-        <v>771</v>
-      </c>
-      <c r="D235" t="s">
-        <v>151</v>
+        <v>54</v>
       </c>
       <c r="F235" t="s">
-        <v>772</v>
-      </c>
-      <c r="I235">
-        <v>1754</v>
+        <v>767</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="B236" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="C236" t="s">
-        <v>6</v>
+        <v>770</v>
       </c>
       <c r="D236" t="s">
-        <v>775</v>
+        <v>151</v>
       </c>
       <c r="F236" t="s">
-        <v>776</v>
-      </c>
-      <c r="H236">
-        <v>4946</v>
+        <v>771</v>
+      </c>
+      <c r="I236">
+        <v>1754</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="B237" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C237" t="s">
         <v>6</v>
       </c>
       <c r="D237" t="s">
+        <v>774</v>
+      </c>
+      <c r="F237" t="s">
         <v>775</v>
-      </c>
-      <c r="F237" t="s">
-        <v>776</v>
       </c>
       <c r="H237">
         <v>4946</v>
@@ -9248,2215 +9269,2218 @@
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B238" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="C238" t="s">
-        <v>104</v>
+        <v>6</v>
+      </c>
+      <c r="D238" t="s">
+        <v>774</v>
       </c>
       <c r="F238" t="s">
-        <v>780</v>
+        <v>775</v>
+      </c>
+      <c r="H238">
+        <v>4946</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="B239" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="C239" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="F239" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="B240" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="C240" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F240" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="B241" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="C241" t="s">
-        <v>122</v>
+        <v>2</v>
       </c>
       <c r="F241" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="B242" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="C242" t="s">
-        <v>54</v>
+        <v>122</v>
       </c>
       <c r="F242" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="B243" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="C243" t="s">
-        <v>151</v>
+        <v>54</v>
       </c>
       <c r="F243" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="B244" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="C244" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="F244" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="B245" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="C245" t="s">
-        <v>2</v>
+        <v>122</v>
       </c>
       <c r="F245" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="B246" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C246" t="s">
-        <v>109</v>
+        <v>2</v>
       </c>
       <c r="F246" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="B247" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="C247" t="s">
         <v>109</v>
       </c>
       <c r="F247" t="s">
-        <v>803</v>
+        <v>791</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="B248" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="C248" t="s">
-        <v>806</v>
+        <v>109</v>
       </c>
       <c r="F248" t="s">
-        <v>807</v>
-      </c>
-      <c r="H248">
-        <v>6632</v>
+        <v>802</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="B249" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="C249" t="s">
-        <v>20</v>
+        <v>805</v>
       </c>
       <c r="F249" t="s">
-        <v>810</v>
+        <v>806</v>
+      </c>
+      <c r="H249">
+        <v>6632</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="B250" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="C250" t="s">
-        <v>813</v>
-      </c>
-      <c r="D250" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="F250" t="s">
-        <v>814</v>
-      </c>
-      <c r="H250">
-        <v>8826</v>
+        <v>809</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="B251" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="C251" t="s">
-        <v>6</v>
+        <v>812</v>
+      </c>
+      <c r="D251" t="s">
+        <v>83</v>
       </c>
       <c r="F251" t="s">
-        <v>817</v>
+        <v>813</v>
+      </c>
+      <c r="H251">
+        <v>8826</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="B252" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="C252" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="F252" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="B253" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="C253" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="F253" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="B254" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="C254" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="F254" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="B255" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="C255" t="s">
-        <v>517</v>
-      </c>
-      <c r="D255" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F255" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="B256" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="C256" t="s">
-        <v>63</v>
+        <v>516</v>
       </c>
       <c r="D256" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="F256" t="s">
-        <v>832</v>
-      </c>
-      <c r="H256">
-        <v>4602</v>
+        <v>828</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="B257" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="C257" t="s">
-        <v>46</v>
+        <v>63</v>
+      </c>
+      <c r="D257" t="s">
+        <v>68</v>
       </c>
       <c r="F257" t="s">
-        <v>835</v>
+        <v>831</v>
+      </c>
+      <c r="H257">
+        <v>4602</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="B258" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="C258" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="F258" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="B259" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C259" t="s">
         <v>19</v>
       </c>
       <c r="F259" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="B260" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="C260" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F260" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="B261" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="C261" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="F261" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="B262" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="C262" t="s">
-        <v>151</v>
+        <v>19</v>
       </c>
       <c r="F262" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="B263" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="C263" t="s">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c r="F263" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="B264" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="C264" t="s">
         <v>19</v>
       </c>
       <c r="F264" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
       <c r="B265" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="C265" t="s">
-        <v>59</v>
-      </c>
-      <c r="D265" t="s">
-        <v>856</v>
+        <v>19</v>
       </c>
       <c r="F265" t="s">
-        <v>857</v>
-      </c>
-      <c r="H265">
-        <v>3945</v>
+        <v>853</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B266" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C266" t="s">
-        <v>83</v>
+        <v>59</v>
+      </c>
+      <c r="D266" t="s">
+        <v>855</v>
       </c>
       <c r="F266" t="s">
-        <v>861</v>
+        <v>856</v>
+      </c>
+      <c r="H266">
+        <v>3945</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="B267" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="C267" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="F267" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="B268" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="C268" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="F268" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="B269" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="C269" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="F269" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B270" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="C270" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="F270" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="B271" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="C271" t="s">
-        <v>151</v>
+        <v>6</v>
       </c>
       <c r="F271" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="B272" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="C272" t="s">
-        <v>109</v>
+        <v>151</v>
       </c>
       <c r="F272" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="B273" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="C273" t="s">
-        <v>6</v>
+        <v>109</v>
       </c>
       <c r="F273" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="B274" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="C274" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="F274" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="B275" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="C275" t="s">
-        <v>889</v>
-      </c>
-      <c r="D275" t="s">
-        <v>205</v>
+        <v>19</v>
       </c>
       <c r="F275" t="s">
-        <v>886</v>
-      </c>
-      <c r="I275">
-        <v>30688</v>
+        <v>881</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="B276" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="C276" t="s">
-        <v>122</v>
+        <v>888</v>
+      </c>
+      <c r="D276" t="s">
+        <v>205</v>
       </c>
       <c r="F276" t="s">
-        <v>886</v>
+        <v>885</v>
+      </c>
+      <c r="I276">
+        <v>30688</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="B277" t="s">
+        <v>890</v>
+      </c>
+      <c r="C277" t="s">
+        <v>122</v>
+      </c>
+      <c r="F277" t="s">
         <v>885</v>
-      </c>
-      <c r="C277" t="s">
-        <v>59</v>
-      </c>
-      <c r="D277" t="s">
-        <v>113</v>
-      </c>
-      <c r="F277" t="s">
-        <v>886</v>
-      </c>
-      <c r="H277">
-        <v>5160</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B278" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="C278" t="s">
-        <v>54</v>
+        <v>59</v>
+      </c>
+      <c r="D278" t="s">
+        <v>113</v>
       </c>
       <c r="F278" t="s">
-        <v>895</v>
+        <v>885</v>
+      </c>
+      <c r="H278">
+        <v>5160</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="B279" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="C279" t="s">
-        <v>898</v>
-      </c>
-      <c r="D279" t="s">
-        <v>899</v>
+        <v>54</v>
       </c>
       <c r="F279" t="s">
-        <v>900</v>
-      </c>
-      <c r="H279">
-        <v>6191</v>
+        <v>894</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="B280" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="C280" t="s">
-        <v>248</v>
+        <v>897</v>
+      </c>
+      <c r="D280" t="s">
+        <v>898</v>
       </c>
       <c r="F280" t="s">
-        <v>903</v>
+        <v>899</v>
+      </c>
+      <c r="H280">
+        <v>6191</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="B281" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="C281" t="s">
-        <v>109</v>
+        <v>248</v>
       </c>
       <c r="F281" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="B282" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="C282" t="s">
-        <v>113</v>
-      </c>
-      <c r="D282" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="F282" t="s">
-        <v>909</v>
-      </c>
-      <c r="I282">
-        <v>19203</v>
+        <v>905</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="B283" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C283" t="s">
         <v>113</v>
       </c>
       <c r="D283" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="F283" t="s">
-        <v>909</v>
+        <v>908</v>
+      </c>
+      <c r="I283">
+        <v>19203</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="B284" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="C284" t="s">
-        <v>109</v>
+        <v>113</v>
+      </c>
+      <c r="D284" t="s">
+        <v>25</v>
       </c>
       <c r="F284" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="B285" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="C285" t="s">
-        <v>151</v>
+        <v>109</v>
       </c>
       <c r="F285" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="B286" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="C286" t="s">
-        <v>322</v>
-      </c>
-      <c r="D286" t="s">
-        <v>920</v>
+        <v>151</v>
       </c>
       <c r="F286" t="s">
-        <v>921</v>
-      </c>
-      <c r="H286">
-        <v>5164</v>
+        <v>916</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="B287" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="C287" t="s">
-        <v>19</v>
+        <v>322</v>
+      </c>
+      <c r="D287" t="s">
+        <v>919</v>
       </c>
       <c r="F287" t="s">
-        <v>921</v>
+        <v>920</v>
+      </c>
+      <c r="H287">
+        <v>5164</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="B288" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="C288" t="s">
-        <v>316</v>
-      </c>
-      <c r="D288" t="s">
-        <v>926</v>
+        <v>19</v>
       </c>
       <c r="F288" t="s">
-        <v>921</v>
-      </c>
-      <c r="I288">
-        <v>31998</v>
+        <v>920</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="B289" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="C289" t="s">
-        <v>929</v>
+        <v>316</v>
       </c>
       <c r="D289" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="F289" t="s">
-        <v>931</v>
+        <v>920</v>
       </c>
       <c r="I289">
-        <v>25681</v>
+        <v>31998</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
       <c r="B290" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="C290" t="s">
-        <v>104</v>
+        <v>928</v>
+      </c>
+      <c r="D290" t="s">
+        <v>929</v>
       </c>
       <c r="F290" t="s">
-        <v>934</v>
+        <v>930</v>
+      </c>
+      <c r="I290">
+        <v>25681</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="B291" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="C291" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="F291" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="B292" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="C292" t="s">
-        <v>58</v>
-      </c>
-      <c r="D292" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F292" t="s">
-        <v>940</v>
-      </c>
-      <c r="H292">
-        <v>3150</v>
+        <v>936</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="B293" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="C293" t="s">
+        <v>58</v>
+      </c>
+      <c r="D293" t="s">
         <v>54</v>
       </c>
       <c r="F293" t="s">
-        <v>943</v>
+        <v>939</v>
+      </c>
+      <c r="H293">
+        <v>3150</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>951</v>
+        <v>940</v>
       </c>
       <c r="B294" t="s">
-        <v>952</v>
+        <v>941</v>
       </c>
       <c r="C294" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="F294" t="s">
-        <v>953</v>
+        <v>942</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>944</v>
+        <v>950</v>
       </c>
       <c r="B295" t="s">
-        <v>945</v>
+        <v>951</v>
       </c>
       <c r="C295" t="s">
-        <v>59</v>
-      </c>
-      <c r="D295" t="s">
-        <v>761</v>
+        <v>2</v>
       </c>
       <c r="F295" t="s">
-        <v>946</v>
-      </c>
-      <c r="H295">
-        <v>4829</v>
+        <v>952</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>954</v>
+        <v>943</v>
       </c>
       <c r="B296" t="s">
-        <v>955</v>
+        <v>944</v>
       </c>
       <c r="C296" t="s">
-        <v>19</v>
+        <v>59</v>
+      </c>
+      <c r="D296" t="s">
+        <v>760</v>
       </c>
       <c r="F296" t="s">
-        <v>956</v>
+        <v>945</v>
+      </c>
+      <c r="H296">
+        <v>4829</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="B297" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="C297" t="s">
-        <v>113</v>
-      </c>
-      <c r="D297" t="s">
-        <v>959</v>
+        <v>19</v>
       </c>
       <c r="F297" t="s">
-        <v>960</v>
-      </c>
-      <c r="H297">
-        <v>3115</v>
+        <v>955</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="B298" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="C298" t="s">
-        <v>122</v>
+        <v>113</v>
+      </c>
+      <c r="D298" t="s">
+        <v>958</v>
       </c>
       <c r="F298" t="s">
-        <v>960</v>
+        <v>959</v>
+      </c>
+      <c r="H298">
+        <v>3115</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="B299" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="C299" t="s">
-        <v>316</v>
-      </c>
-      <c r="D299" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="F299" t="s">
-        <v>965</v>
-      </c>
-      <c r="G299" t="s">
-        <v>201</v>
-      </c>
-      <c r="H299">
-        <v>4446</v>
-      </c>
-      <c r="I299">
-        <v>28556</v>
+        <v>959</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>947</v>
+        <v>962</v>
       </c>
       <c r="B300" t="s">
-        <v>948</v>
+        <v>963</v>
       </c>
       <c r="C300" t="s">
-        <v>949</v>
+        <v>316</v>
       </c>
       <c r="D300" t="s">
         <v>63</v>
       </c>
       <c r="F300" t="s">
-        <v>950</v>
+        <v>964</v>
+      </c>
+      <c r="G300" t="s">
+        <v>201</v>
       </c>
       <c r="H300">
-        <v>9348</v>
+        <v>4446</v>
+      </c>
+      <c r="I300">
+        <v>28556</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>966</v>
+        <v>946</v>
       </c>
       <c r="B301" t="s">
-        <v>967</v>
+        <v>947</v>
       </c>
       <c r="C301" t="s">
-        <v>637</v>
+        <v>948</v>
       </c>
       <c r="D301" t="s">
-        <v>968</v>
+        <v>63</v>
       </c>
       <c r="F301" t="s">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="H301">
-        <v>3678</v>
-      </c>
-      <c r="I301">
-        <v>29557</v>
+        <v>9348</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="B302" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="C302" t="s">
-        <v>415</v>
+        <v>636</v>
+      </c>
+      <c r="D302" t="s">
+        <v>967</v>
       </c>
       <c r="F302" t="s">
-        <v>972</v>
+        <v>968</v>
+      </c>
+      <c r="H302">
+        <v>3678</v>
+      </c>
+      <c r="I302">
+        <v>29557</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="B303" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="C303" t="s">
-        <v>147</v>
+        <v>414</v>
       </c>
       <c r="F303" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="B304" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="C304" t="s">
-        <v>2</v>
+        <v>147</v>
       </c>
       <c r="F304" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="B305" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="C305" t="s">
-        <v>151</v>
+        <v>2</v>
       </c>
       <c r="F305" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="B306" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="C306" t="s">
-        <v>984</v>
-      </c>
-      <c r="D306" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="F306" t="s">
-        <v>985</v>
-      </c>
-      <c r="I306">
-        <v>12155</v>
+        <v>980</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="B307" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="C307" t="s">
-        <v>151</v>
+        <v>983</v>
+      </c>
+      <c r="D307" t="s">
+        <v>127</v>
       </c>
       <c r="F307" t="s">
-        <v>988</v>
+        <v>984</v>
+      </c>
+      <c r="I307">
+        <v>12155</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="B308" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="C308" t="s">
-        <v>991</v>
-      </c>
-      <c r="D308" t="s">
-        <v>104</v>
+        <v>151</v>
       </c>
       <c r="F308" t="s">
-        <v>992</v>
-      </c>
-      <c r="H308">
-        <v>2561</v>
+        <v>987</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="B309" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="C309" t="s">
-        <v>2</v>
+        <v>990</v>
+      </c>
+      <c r="D309" t="s">
+        <v>104</v>
       </c>
       <c r="F309" t="s">
-        <v>995</v>
+        <v>991</v>
+      </c>
+      <c r="H309">
+        <v>2561</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="B310" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="C310" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F310" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="B311" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="C311" t="s">
         <v>20</v>
       </c>
       <c r="F311" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="B312" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="C312" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F312" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="B313" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="C313" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="F313" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="B314" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="C314" t="s">
-        <v>183</v>
-      </c>
-      <c r="D314" t="s">
-        <v>1010</v>
+        <v>19</v>
       </c>
       <c r="F314" t="s">
-        <v>1011</v>
-      </c>
-      <c r="H314">
-        <v>8662</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="B315" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="C315" t="s">
-        <v>1014</v>
+        <v>183</v>
       </c>
       <c r="D315" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="F315" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="H315">
-        <v>9153</v>
-      </c>
-      <c r="I315">
-        <v>62665</v>
+        <v>8662</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>1019</v>
+        <v>1011</v>
       </c>
       <c r="B316" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="C316" t="s">
-        <v>59</v>
+        <v>1013</v>
       </c>
       <c r="D316" t="s">
-        <v>155</v>
+        <v>1014</v>
       </c>
       <c r="F316" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="H316">
-        <v>7793</v>
+        <v>9153</v>
+      </c>
+      <c r="I316">
+        <v>62665</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="B317" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="C317" t="s">
-        <v>1022</v>
+        <v>59</v>
       </c>
       <c r="D317" t="s">
-        <v>761</v>
+        <v>155</v>
       </c>
       <c r="F317" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="H317">
-        <v>5009</v>
+        <v>7793</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="B318" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="C318" t="s">
-        <v>19</v>
+        <v>1021</v>
+      </c>
+      <c r="D318" t="s">
+        <v>760</v>
       </c>
       <c r="F318" t="s">
-        <v>1026</v>
+        <v>1022</v>
+      </c>
+      <c r="H318">
+        <v>5009</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="B319" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="C319" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="F319" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>1403</v>
+        <v>1026</v>
       </c>
       <c r="B320" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="C320" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="F320" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>1032</v>
+        <v>1402</v>
       </c>
       <c r="B321" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="C321" t="s">
-        <v>637</v>
-      </c>
-      <c r="D321" t="s">
-        <v>683</v>
+        <v>20</v>
       </c>
       <c r="F321" t="s">
-        <v>1034</v>
-      </c>
-      <c r="I321">
-        <v>21908</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="B322" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="C322" t="s">
-        <v>151</v>
+        <v>636</v>
+      </c>
+      <c r="D322" t="s">
+        <v>682</v>
       </c>
       <c r="F322" t="s">
-        <v>1037</v>
+        <v>1033</v>
+      </c>
+      <c r="I322">
+        <v>21908</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="B323" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="C323" t="s">
-        <v>94</v>
-      </c>
-      <c r="D323" t="s">
-        <v>1040</v>
+        <v>151</v>
       </c>
       <c r="F323" t="s">
-        <v>1041</v>
-      </c>
-      <c r="H323">
-        <v>4894</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="B324" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="C324" t="s">
-        <v>248</v>
+        <v>94</v>
+      </c>
+      <c r="D324" t="s">
+        <v>1039</v>
       </c>
       <c r="F324" t="s">
-        <v>1044</v>
+        <v>1040</v>
+      </c>
+      <c r="H324">
+        <v>4894</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="B325" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="C325" t="s">
         <v>248</v>
       </c>
       <c r="F325" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="B326" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="C326" t="s">
-        <v>83</v>
+        <v>248</v>
       </c>
       <c r="F326" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="B327" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="C327" t="s">
-        <v>103</v>
-      </c>
-      <c r="D327" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="F327" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G327" t="s">
-        <v>201</v>
-      </c>
-      <c r="I327">
-        <v>7885</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="B328" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="C328" t="s">
-        <v>54</v>
+        <v>103</v>
+      </c>
+      <c r="D328" t="s">
+        <v>25</v>
       </c>
       <c r="F328" t="s">
-        <v>1056</v>
+        <v>1052</v>
+      </c>
+      <c r="G328" t="s">
+        <v>201</v>
+      </c>
+      <c r="I328">
+        <v>7885</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="B329" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="C329" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="F329" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="B330" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="C330" t="s">
-        <v>68</v>
-      </c>
-      <c r="D330" t="s">
-        <v>1061</v>
+        <v>6</v>
       </c>
       <c r="F330" t="s">
-        <v>1056</v>
-      </c>
-      <c r="H330">
-        <v>4389</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="B331" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="C331" t="s">
-        <v>1064</v>
+        <v>68</v>
       </c>
       <c r="D331" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="F331" t="s">
-        <v>1066</v>
+        <v>1055</v>
       </c>
       <c r="H331">
-        <v>4322</v>
+        <v>4389</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="B332" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="C332" t="s">
-        <v>122</v>
+        <v>1063</v>
+      </c>
+      <c r="D332" t="s">
+        <v>1064</v>
       </c>
       <c r="F332" t="s">
-        <v>1066</v>
+        <v>1065</v>
+      </c>
+      <c r="H332">
+        <v>4322</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="B333" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="C333" t="s">
-        <v>109</v>
-      </c>
-      <c r="D333" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F333" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="B334" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="C334" t="s">
         <v>109</v>
       </c>
+      <c r="D334" t="s">
+        <v>127</v>
+      </c>
       <c r="F334" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="B335" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="C335" t="s">
-        <v>218</v>
-      </c>
-      <c r="D335" t="s">
-        <v>1064</v>
+        <v>109</v>
       </c>
       <c r="F335" t="s">
-        <v>1076</v>
-      </c>
-      <c r="H335">
-        <v>3596</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="B336" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="C336" t="s">
-        <v>322</v>
+        <v>218</v>
       </c>
       <c r="D336" t="s">
-        <v>205</v>
+        <v>1063</v>
       </c>
       <c r="F336" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="H336">
-        <v>5504</v>
-      </c>
-      <c r="I336">
-        <v>35379</v>
+        <v>3596</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="B337" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="C337" t="s">
-        <v>447</v>
+        <v>322</v>
       </c>
       <c r="D337" t="s">
-        <v>83</v>
+        <v>205</v>
       </c>
       <c r="F337" t="s">
-        <v>1082</v>
+        <v>1078</v>
+      </c>
+      <c r="H337">
+        <v>5504</v>
       </c>
       <c r="I337">
-        <v>9157</v>
+        <v>35379</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="B338" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="C338" t="s">
-        <v>1085</v>
+        <v>446</v>
       </c>
       <c r="D338" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="F338" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="I338">
-        <v>4588</v>
+        <v>9157</v>
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="B339" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="C339" t="s">
-        <v>2</v>
+        <v>1084</v>
+      </c>
+      <c r="D339" t="s">
+        <v>127</v>
       </c>
       <c r="F339" t="s">
-        <v>1088</v>
+        <v>1081</v>
+      </c>
+      <c r="I339">
+        <v>4588</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>1429</v>
+        <v>1085</v>
       </c>
       <c r="B340" t="s">
-        <v>1436</v>
+        <v>1086</v>
       </c>
       <c r="C340" t="s">
-        <v>34</v>
-      </c>
-      <c r="D340" t="s">
-        <v>46</v>
-      </c>
-      <c r="E340" t="s">
-        <v>109</v>
+        <v>2</v>
       </c>
       <c r="F340" t="s">
-        <v>688</v>
-      </c>
-      <c r="H340">
-        <v>8283</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>1089</v>
+        <v>1428</v>
       </c>
       <c r="B341" t="s">
-        <v>1090</v>
+        <v>1435</v>
       </c>
       <c r="C341" t="s">
-        <v>151</v>
+        <v>34</v>
+      </c>
+      <c r="D341" t="s">
+        <v>46</v>
+      </c>
+      <c r="E341" t="s">
+        <v>109</v>
       </c>
       <c r="F341" t="s">
-        <v>1091</v>
+        <v>687</v>
+      </c>
+      <c r="H341">
+        <v>8283</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="B342" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="C342" t="s">
-        <v>155</v>
-      </c>
-      <c r="D342" t="s">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="F342" t="s">
-        <v>1094</v>
-      </c>
-      <c r="H342">
-        <v>6212</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="B343" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="C343" t="s">
-        <v>247</v>
+        <v>155</v>
       </c>
       <c r="D343" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F343" t="s">
-        <v>1094</v>
-      </c>
-      <c r="I343">
-        <v>32143</v>
+        <v>1093</v>
+      </c>
+      <c r="H343">
+        <v>6212</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="B344" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="C344" t="s">
-        <v>19</v>
+        <v>247</v>
+      </c>
+      <c r="D344" t="s">
+        <v>59</v>
       </c>
       <c r="F344" t="s">
-        <v>1094</v>
+        <v>1093</v>
+      </c>
+      <c r="I344">
+        <v>32143</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B345" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="C345" t="s">
-        <v>1101</v>
-      </c>
-      <c r="D345" t="s">
-        <v>1102</v>
+        <v>19</v>
       </c>
       <c r="F345" t="s">
-        <v>1103</v>
-      </c>
-      <c r="H345">
-        <v>8063</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="B346" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
       <c r="C346" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="D346" t="s">
-        <v>949</v>
+        <v>1101</v>
       </c>
       <c r="F346" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="H346">
-        <v>8391</v>
+        <v>8063</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="B347" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="C347" t="s">
-        <v>59</v>
+        <v>1105</v>
       </c>
       <c r="D347" t="s">
-        <v>1109</v>
+        <v>948</v>
       </c>
       <c r="F347" t="s">
-        <v>1110</v>
-      </c>
-      <c r="I347">
-        <v>30850</v>
+        <v>1102</v>
+      </c>
+      <c r="H347">
+        <v>8391</v>
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>1111</v>
+        <v>1106</v>
       </c>
       <c r="B348" t="s">
-        <v>1112</v>
+        <v>1107</v>
       </c>
       <c r="C348" t="s">
-        <v>2</v>
+        <v>59</v>
+      </c>
+      <c r="D348" t="s">
+        <v>1108</v>
       </c>
       <c r="F348" t="s">
-        <v>1113</v>
+        <v>1109</v>
+      </c>
+      <c r="I348">
+        <v>30850</v>
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="B349" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="C349" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F349" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="B350" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="C350" t="s">
-        <v>761</v>
-      </c>
-      <c r="D350" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F350" t="s">
-        <v>1119</v>
-      </c>
-      <c r="H350">
-        <v>3089</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="B351" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="C351" t="s">
-        <v>498</v>
+        <v>760</v>
+      </c>
+      <c r="D351" t="s">
+        <v>19</v>
       </c>
       <c r="F351" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="H351">
-        <v>3797</v>
-      </c>
-      <c r="I351">
-        <v>25283</v>
+        <v>3089</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="B352" t="s">
-        <v>1428</v>
+        <v>1120</v>
       </c>
       <c r="C352" t="s">
-        <v>1404</v>
-      </c>
-      <c r="D352" t="s">
-        <v>20</v>
+        <v>497</v>
       </c>
       <c r="F352" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="H352">
-        <v>7969</v>
+        <v>3797</v>
+      </c>
+      <c r="I352">
+        <v>25283</v>
       </c>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="B353" t="s">
-        <v>1125</v>
+        <v>1427</v>
       </c>
       <c r="C353" t="s">
-        <v>19</v>
+        <v>1403</v>
+      </c>
+      <c r="D353" t="s">
+        <v>20</v>
       </c>
       <c r="F353" t="s">
-        <v>1126</v>
+        <v>1121</v>
+      </c>
+      <c r="H353">
+        <v>7969</v>
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="B354" t="s">
-        <v>1441</v>
+        <v>1124</v>
       </c>
       <c r="C354" t="s">
-        <v>1424</v>
-      </c>
-      <c r="D354" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="F354" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="B355" t="s">
-        <v>1130</v>
+        <v>1440</v>
       </c>
       <c r="C355" t="s">
-        <v>155</v>
+        <v>1423</v>
       </c>
       <c r="D355" t="s">
-        <v>1131</v>
+        <v>83</v>
       </c>
       <c r="F355" t="s">
-        <v>1132</v>
-      </c>
-      <c r="I355">
-        <v>27285</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
       <c r="B356" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
       <c r="C356" t="s">
-        <v>415</v>
+        <v>155</v>
+      </c>
+      <c r="D356" t="s">
+        <v>1130</v>
       </c>
       <c r="F356" t="s">
-        <v>1135</v>
+        <v>1131</v>
+      </c>
+      <c r="I356">
+        <v>27285</v>
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="B357" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="C357" t="s">
-        <v>122</v>
+        <v>414</v>
       </c>
       <c r="F357" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="B358" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="C358" t="s">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="F358" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="B359" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="C359" t="s">
-        <v>113</v>
-      </c>
-      <c r="D359" t="s">
-        <v>1144</v>
+        <v>35</v>
       </c>
       <c r="F359" t="s">
-        <v>1145</v>
-      </c>
-      <c r="I359">
-        <v>21099</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
       <c r="B360" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="C360" t="s">
-        <v>83</v>
+        <v>113</v>
+      </c>
+      <c r="D360" t="s">
+        <v>1143</v>
       </c>
       <c r="F360" t="s">
-        <v>1148</v>
+        <v>1144</v>
+      </c>
+      <c r="I360">
+        <v>21099</v>
       </c>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="B361" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="C361" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="F361" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="B362" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="C362" t="s">
-        <v>109</v>
+        <v>7</v>
       </c>
       <c r="F362" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="B363" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="C363" t="s">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="F363" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="B364" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="C364" t="s">
-        <v>1160</v>
-      </c>
-      <c r="D364" t="s">
-        <v>1161</v>
+        <v>19</v>
       </c>
       <c r="F364" t="s">
-        <v>1157</v>
-      </c>
-      <c r="H364">
-        <v>8279</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>1162</v>
+        <v>1157</v>
       </c>
       <c r="B365" t="s">
-        <v>1163</v>
+        <v>1158</v>
       </c>
       <c r="C365" t="s">
-        <v>83</v>
+        <v>1159</v>
+      </c>
+      <c r="D365" t="s">
+        <v>1160</v>
       </c>
       <c r="F365" t="s">
-        <v>1164</v>
+        <v>1156</v>
+      </c>
+      <c r="H365">
+        <v>8279</v>
       </c>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="B366" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="C366" t="s">
-        <v>248</v>
+        <v>83</v>
       </c>
       <c r="F366" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="B367" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="C367" t="s">
-        <v>19</v>
+        <v>248</v>
       </c>
       <c r="F367" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
       <c r="B368" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="C368" t="s">
-        <v>39</v>
-      </c>
-      <c r="D368" t="s">
-        <v>498</v>
+        <v>19</v>
       </c>
       <c r="F368" t="s">
-        <v>1170</v>
-      </c>
-      <c r="I368">
-        <v>22288</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="B369" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="C369" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="D369" t="s">
-        <v>930</v>
+        <v>497</v>
       </c>
       <c r="F369" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="I369">
-        <v>19342</v>
+        <v>22288</v>
       </c>
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="B370" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="C370" t="s">
-        <v>7</v>
+        <v>63</v>
+      </c>
+      <c r="D370" t="s">
+        <v>929</v>
       </c>
       <c r="F370" t="s">
-        <v>1178</v>
+        <v>1174</v>
+      </c>
+      <c r="I370">
+        <v>19342</v>
       </c>
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="B371" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="C371" t="s">
-        <v>64</v>
-      </c>
-      <c r="D371" t="s">
-        <v>113</v>
+        <v>7</v>
       </c>
       <c r="F371" t="s">
-        <v>1181</v>
-      </c>
-      <c r="I371">
-        <v>25289</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="B372" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="C372" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="D372" t="s">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="F372" t="s">
-        <v>1184</v>
+        <v>1180</v>
+      </c>
+      <c r="I372">
+        <v>25289</v>
       </c>
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>1405</v>
+        <v>1181</v>
       </c>
       <c r="B373" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C373" t="s">
         <v>20</v>
@@ -11465,1167 +11489,1184 @@
         <v>35</v>
       </c>
       <c r="F373" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>1185</v>
+        <v>1404</v>
       </c>
       <c r="B374" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="C374" t="s">
-        <v>54</v>
+        <v>20</v>
+      </c>
+      <c r="D374" t="s">
+        <v>35</v>
       </c>
       <c r="F374" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="375" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="B375" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="C375" t="s">
-        <v>383</v>
+        <v>54</v>
       </c>
       <c r="F375" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="B376" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="C376" t="s">
-        <v>68</v>
-      </c>
-      <c r="D376" t="s">
-        <v>205</v>
+        <v>382</v>
       </c>
       <c r="F376" t="s">
-        <v>1184</v>
-      </c>
-      <c r="I376">
-        <v>74771</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="B377" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="C377" t="s">
-        <v>35</v>
+        <v>68</v>
+      </c>
+      <c r="D377" t="s">
+        <v>205</v>
       </c>
       <c r="F377" t="s">
-        <v>1184</v>
+        <v>1183</v>
+      </c>
+      <c r="I377">
+        <v>74771</v>
       </c>
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B378" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="C378" t="s">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="F378" t="s">
-        <v>1195</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="B379" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="C379" t="s">
-        <v>2</v>
+        <v>104</v>
       </c>
       <c r="F379" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="B380" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="C380" t="s">
         <v>2</v>
       </c>
       <c r="F380" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="B381" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
       <c r="C381" t="s">
-        <v>127</v>
+        <v>2</v>
       </c>
       <c r="F381" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
       <c r="B382" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="C382" t="s">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c r="F382" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="B383" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="C383" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="F383" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="B384" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="C384" t="s">
-        <v>383</v>
+        <v>109</v>
       </c>
       <c r="F384" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="B385" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="C385" t="s">
-        <v>636</v>
-      </c>
-      <c r="D385" t="s">
-        <v>1216</v>
+        <v>382</v>
       </c>
       <c r="F385" t="s">
-        <v>1217</v>
-      </c>
-      <c r="H385">
-        <v>3650</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>1218</v>
+        <v>1213</v>
       </c>
       <c r="B386" t="s">
-        <v>1219</v>
+        <v>1214</v>
       </c>
       <c r="C386" t="s">
-        <v>1220</v>
+        <v>635</v>
       </c>
       <c r="D386" t="s">
-        <v>423</v>
+        <v>1215</v>
       </c>
       <c r="F386" t="s">
-        <v>1221</v>
+        <v>1216</v>
       </c>
       <c r="H386">
-        <v>7294</v>
-      </c>
-      <c r="I386">
-        <v>60260</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>1222</v>
+        <v>1217</v>
       </c>
       <c r="B387" t="s">
-        <v>1223</v>
+        <v>1218</v>
       </c>
       <c r="C387" t="s">
-        <v>2</v>
+        <v>1219</v>
+      </c>
+      <c r="D387" t="s">
+        <v>422</v>
       </c>
       <c r="F387" t="s">
-        <v>1224</v>
+        <v>1220</v>
+      </c>
+      <c r="H387">
+        <v>7294</v>
+      </c>
+      <c r="I387">
+        <v>60260</v>
       </c>
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="B388" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="C388" t="s">
-        <v>587</v>
-      </c>
-      <c r="D388" t="s">
-        <v>1227</v>
+        <v>2</v>
       </c>
       <c r="F388" t="s">
-        <v>1228</v>
-      </c>
-      <c r="H388">
-        <v>6734</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>1231</v>
+        <v>1224</v>
       </c>
       <c r="B389" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="C389" t="s">
-        <v>94</v>
+        <v>586</v>
       </c>
       <c r="D389" t="s">
-        <v>127</v>
+        <v>1226</v>
       </c>
       <c r="F389" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="H389">
-        <v>2583</v>
+        <v>6734</v>
       </c>
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="B390" t="s">
-        <v>1233</v>
+        <v>1228</v>
       </c>
       <c r="C390" t="s">
-        <v>6</v>
+        <v>94</v>
+      </c>
+      <c r="D390" t="s">
+        <v>127</v>
       </c>
       <c r="F390" t="s">
-        <v>1234</v>
+        <v>1229</v>
+      </c>
+      <c r="H390">
+        <v>2583</v>
       </c>
     </row>
     <row r="391" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="B391" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
       <c r="C391" t="s">
-        <v>1237</v>
-      </c>
-      <c r="D391" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="F391" t="s">
-        <v>1238</v>
-      </c>
-      <c r="I391">
-        <v>14369</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>1239</v>
+        <v>1234</v>
       </c>
       <c r="B392" t="s">
-        <v>1240</v>
+        <v>1235</v>
       </c>
       <c r="C392" t="s">
-        <v>2</v>
+        <v>1236</v>
+      </c>
+      <c r="D392" t="s">
+        <v>54</v>
       </c>
       <c r="F392" t="s">
-        <v>1241</v>
+        <v>1237</v>
+      </c>
+      <c r="I392">
+        <v>14369</v>
       </c>
     </row>
     <row r="393" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="B393" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="C393" t="s">
-        <v>151</v>
+        <v>2</v>
       </c>
       <c r="F393" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="394" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
       <c r="B394" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="C394" t="s">
-        <v>215</v>
-      </c>
-      <c r="D394" t="s">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c r="F394" t="s">
-        <v>1247</v>
-      </c>
-      <c r="I394">
-        <v>15373</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="395" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="B395" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="C395" t="s">
-        <v>151</v>
+        <v>215</v>
+      </c>
+      <c r="D395" t="s">
+        <v>19</v>
       </c>
       <c r="F395" t="s">
-        <v>1250</v>
+        <v>1246</v>
+      </c>
+      <c r="I395">
+        <v>15373</v>
       </c>
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="B396" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="C396" t="s">
-        <v>2</v>
+        <v>151</v>
       </c>
       <c r="F396" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="B397" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="C397" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="F397" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
       <c r="B398" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="C398" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="F398" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="B399" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="C399" t="s">
-        <v>1109</v>
-      </c>
-      <c r="D399" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="F399" t="s">
-        <v>1259</v>
-      </c>
-      <c r="I399">
-        <v>13184</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="B400" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="C400" t="s">
-        <v>20</v>
+        <v>1108</v>
+      </c>
+      <c r="D400" t="s">
+        <v>127</v>
       </c>
       <c r="F400" t="s">
-        <v>1264</v>
+        <v>1258</v>
+      </c>
+      <c r="I400">
+        <v>13184</v>
       </c>
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="B401" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="C401" t="s">
-        <v>1267</v>
+        <v>20</v>
       </c>
       <c r="F401" t="s">
-        <v>1268</v>
-      </c>
-      <c r="I401">
-        <v>15504</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>1269</v>
+        <v>1264</v>
       </c>
       <c r="B402" t="s">
-        <v>1270</v>
+        <v>1265</v>
       </c>
       <c r="C402" t="s">
-        <v>415</v>
+        <v>1266</v>
       </c>
       <c r="F402" t="s">
-        <v>1271</v>
+        <v>1267</v>
+      </c>
+      <c r="I402">
+        <v>15504</v>
       </c>
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="B403" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="C403" t="s">
-        <v>7</v>
+        <v>414</v>
       </c>
       <c r="F403" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="B404" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="C404" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="F404" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="B405" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="C405" t="s">
-        <v>532</v>
-      </c>
-      <c r="D405" t="s">
-        <v>1279</v>
+        <v>54</v>
       </c>
       <c r="F405" t="s">
-        <v>1274</v>
-      </c>
-      <c r="H405">
-        <v>7925</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="B406" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="C406" t="s">
-        <v>1282</v>
+        <v>531</v>
       </c>
       <c r="D406" t="s">
-        <v>447</v>
+        <v>1278</v>
       </c>
       <c r="F406" t="s">
-        <v>1283</v>
+        <v>1273</v>
       </c>
       <c r="H406">
-        <v>4393</v>
+        <v>7925</v>
       </c>
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>1284</v>
+        <v>1279</v>
       </c>
       <c r="B407" t="s">
-        <v>1285</v>
+        <v>1280</v>
       </c>
       <c r="C407" t="s">
-        <v>46</v>
+        <v>1281</v>
+      </c>
+      <c r="D407" t="s">
+        <v>446</v>
       </c>
       <c r="F407" t="s">
-        <v>1286</v>
+        <v>1282</v>
+      </c>
+      <c r="H407">
+        <v>4393</v>
       </c>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="B408" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
       <c r="C408" t="s">
-        <v>806</v>
-      </c>
-      <c r="D408" t="s">
-        <v>1289</v>
+        <v>46</v>
       </c>
       <c r="F408" t="s">
-        <v>587</v>
-      </c>
-      <c r="I408">
-        <v>35554</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="B409" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="C409" t="s">
-        <v>109</v>
+        <v>805</v>
+      </c>
+      <c r="D409" t="s">
+        <v>1288</v>
       </c>
       <c r="F409" t="s">
-        <v>587</v>
+        <v>586</v>
+      </c>
+      <c r="I409">
+        <v>35554</v>
       </c>
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="B410" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="C410" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="F410" t="s">
-        <v>1294</v>
+        <v>586</v>
       </c>
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="B411" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="C411" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="F411" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="B412" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="C412" t="s">
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="F412" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="B413" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="C413" t="s">
-        <v>122</v>
+        <v>2</v>
       </c>
       <c r="F413" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="B414" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="C414" t="s">
-        <v>19</v>
+        <v>122</v>
       </c>
       <c r="F414" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="415" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
       <c r="B415" t="s">
-        <v>1408</v>
+        <v>1304</v>
       </c>
       <c r="C415" t="s">
-        <v>1407</v>
-      </c>
-      <c r="D415" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="F415" t="s">
-        <v>1308</v>
-      </c>
-      <c r="H415">
-        <v>8683</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="B416" t="s">
-        <v>1310</v>
+        <v>1407</v>
       </c>
       <c r="C416" t="s">
-        <v>94</v>
+        <v>1406</v>
       </c>
       <c r="D416" t="s">
-        <v>1040</v>
+        <v>46</v>
       </c>
       <c r="F416" t="s">
-        <v>1311</v>
-      </c>
-      <c r="I416">
-        <v>16760</v>
+        <v>1307</v>
+      </c>
+      <c r="H416">
+        <v>8683</v>
       </c>
     </row>
     <row r="417" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="B417" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="C417" t="s">
-        <v>127</v>
+        <v>94</v>
+      </c>
+      <c r="D417" t="s">
+        <v>1039</v>
       </c>
       <c r="F417" t="s">
-        <v>1314</v>
+        <v>1310</v>
+      </c>
+      <c r="I417">
+        <v>16760</v>
       </c>
     </row>
     <row r="418" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="B418" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="C418" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="F418" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="419" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="B419" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="C419" t="s">
-        <v>1320</v>
-      </c>
-      <c r="D419" t="s">
-        <v>498</v>
+        <v>122</v>
       </c>
       <c r="F419" t="s">
-        <v>1321</v>
-      </c>
-      <c r="I419">
-        <v>19264</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="420" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>1322</v>
+        <v>1317</v>
       </c>
       <c r="B420" t="s">
-        <v>1323</v>
+        <v>1318</v>
       </c>
       <c r="C420" t="s">
-        <v>7</v>
+        <v>1319</v>
+      </c>
+      <c r="D420" t="s">
+        <v>497</v>
       </c>
       <c r="F420" t="s">
-        <v>1324</v>
+        <v>1320</v>
+      </c>
+      <c r="I420">
+        <v>19264</v>
       </c>
     </row>
     <row r="421" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
       <c r="B421" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
       <c r="C421" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F421" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="422" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
       <c r="B422" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="C422" t="s">
-        <v>122</v>
+        <v>19</v>
       </c>
       <c r="F422" t="s">
-        <v>1109</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="423" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="B423" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="C423" t="s">
-        <v>2</v>
+        <v>122</v>
       </c>
       <c r="F423" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="424" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="B424" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="C424" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="F424" t="s">
-        <v>1334</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="425" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>1335</v>
+        <v>1331</v>
       </c>
       <c r="B425" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
       <c r="C425" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="F425" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="426" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
       <c r="B426" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="C426" t="s">
-        <v>151</v>
+        <v>109</v>
       </c>
       <c r="F426" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="427" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
       <c r="B427" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="C427" t="s">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="F427" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="428" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
       <c r="B428" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="C428" t="s">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="F428" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="429" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="B429" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="C429" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="F429" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="430" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="B430" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
       <c r="C430" t="s">
-        <v>1352</v>
-      </c>
-      <c r="D430" t="s">
-        <v>127</v>
+        <v>19</v>
       </c>
       <c r="F430" t="s">
-        <v>1353</v>
-      </c>
-      <c r="H430">
-        <v>2910</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="431" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>1354</v>
+        <v>1349</v>
       </c>
       <c r="B431" t="s">
-        <v>1355</v>
+        <v>1350</v>
       </c>
       <c r="C431" t="s">
-        <v>7</v>
+        <v>1351</v>
+      </c>
+      <c r="D431" t="s">
+        <v>127</v>
       </c>
       <c r="F431" t="s">
-        <v>1356</v>
+        <v>1352</v>
+      </c>
+      <c r="H431">
+        <v>2910</v>
       </c>
     </row>
     <row r="432" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>1357</v>
+        <v>1353</v>
       </c>
       <c r="B432" t="s">
-        <v>1358</v>
+        <v>1354</v>
       </c>
       <c r="C432" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="F432" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="433" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
       <c r="B433" t="s">
-        <v>1361</v>
+        <v>1357</v>
       </c>
       <c r="C433" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="F433" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="434" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="B434" t="s">
-        <v>1364</v>
+        <v>1360</v>
       </c>
       <c r="C434" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="F434" t="s">
-        <v>1365</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="435" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
       <c r="B435" t="s">
-        <v>1367</v>
+        <v>1363</v>
       </c>
       <c r="C435" t="s">
-        <v>68</v>
-      </c>
-      <c r="D435" t="s">
-        <v>122</v>
+        <v>2</v>
       </c>
       <c r="F435" t="s">
-        <v>1368</v>
-      </c>
-      <c r="I435">
-        <v>12650</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="436" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
       <c r="B436" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="C436" t="s">
-        <v>151</v>
+        <v>68</v>
+      </c>
+      <c r="D436" t="s">
+        <v>122</v>
       </c>
       <c r="F436" t="s">
-        <v>1371</v>
+        <v>1367</v>
+      </c>
+      <c r="I436">
+        <v>12650</v>
       </c>
     </row>
     <row r="437" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="B437" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="C437" t="s">
-        <v>113</v>
-      </c>
-      <c r="D437" t="s">
-        <v>2</v>
+        <v>151</v>
       </c>
       <c r="F437" t="s">
-        <v>1371</v>
-      </c>
-      <c r="I437">
-        <v>9878</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="438" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="B438" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="C438" t="s">
-        <v>122</v>
+        <v>113</v>
+      </c>
+      <c r="D438" t="s">
+        <v>2</v>
       </c>
       <c r="F438" t="s">
-        <v>1376</v>
+        <v>1370</v>
+      </c>
+      <c r="I438">
+        <v>9878</v>
       </c>
     </row>
     <row r="439" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="B439" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="C439" t="s">
-        <v>215</v>
-      </c>
-      <c r="D439" t="s">
-        <v>383</v>
+        <v>122</v>
       </c>
       <c r="F439" t="s">
-        <v>1379</v>
-      </c>
-      <c r="I439">
-        <v>15567</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="440" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="B440" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="C440" t="s">
-        <v>20</v>
+        <v>215</v>
+      </c>
+      <c r="D440" t="s">
+        <v>382</v>
       </c>
       <c r="F440" t="s">
-        <v>1382</v>
+        <v>1378</v>
+      </c>
+      <c r="I440">
+        <v>15567</v>
       </c>
     </row>
     <row r="441" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
       <c r="B441" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="C441" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F441" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="442" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>1387</v>
+        <v>1382</v>
       </c>
       <c r="B442" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="C442" t="s">
-        <v>636</v>
-      </c>
-      <c r="D442" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="F442" t="s">
-        <v>1386</v>
-      </c>
-      <c r="H442">
-        <v>4851</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="443" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="B443" t="s">
-        <v>1389</v>
+        <v>1384</v>
       </c>
       <c r="C443" t="s">
-        <v>46</v>
+        <v>635</v>
+      </c>
+      <c r="D443" t="s">
+        <v>95</v>
       </c>
       <c r="F443" t="s">
-        <v>1390</v>
+        <v>1385</v>
+      </c>
+      <c r="H443">
+        <v>4851</v>
       </c>
     </row>
     <row r="444" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="B444" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="C444" t="s">
-        <v>447</v>
-      </c>
-      <c r="D444" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="F444" t="s">
-        <v>1393</v>
-      </c>
-      <c r="I444">
-        <v>10658</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="445" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="B445" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
       <c r="C445" t="s">
-        <v>248</v>
+        <v>446</v>
+      </c>
+      <c r="D445" t="s">
+        <v>2</v>
       </c>
       <c r="F445" t="s">
-        <v>1393</v>
+        <v>1392</v>
+      </c>
+      <c r="I445">
+        <v>10658</v>
       </c>
     </row>
     <row r="446" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B446" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C446" t="s">
+        <v>248</v>
+      </c>
+      <c r="F446" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="447" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B447" t="s">
         <v>1396</v>
       </c>
-      <c r="B446" t="s">
-        <v>1397</v>
-      </c>
-      <c r="C446" t="s">
-        <v>1094</v>
-      </c>
-      <c r="F446" t="s">
-        <v>1393</v>
-      </c>
-      <c r="H446">
+      <c r="C447" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F447" t="s">
+        <v>1392</v>
+      </c>
+      <c r="H447">
         <v>9088</v>
       </c>
-      <c r="I446">
+      <c r="I447">
         <v>67604</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J495">
-    <sortCondition ref="F2:F495"/>
-    <sortCondition ref="C2:C495"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J496">
+    <sortCondition ref="F2:F496"/>
+    <sortCondition ref="C2:C496"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
